--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\Pradeeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring\Pradeeb\java-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="988">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3550,6 +3550,30 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3565,30 +3589,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3873,7 +3873,7 @@
   <dimension ref="A1:G1508"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3885,103 +3885,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="46"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -3993,15 +3993,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="46"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4098,7 +4098,7 @@
       <c r="E19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="21" t="s">
         <v>987</v>
       </c>
       <c r="G19" s="4"/>
@@ -4117,7 +4117,9 @@
       <c r="E20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4134,7 +4136,9 @@
       <c r="E21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4151,7 +4155,9 @@
       <c r="E22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4861,12 +4867,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="49"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -12484,24 +12490,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="45" t="s">
+      <c r="A540" s="22" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="40"/>
-      <c r="C540" s="40"/>
-      <c r="D540" s="40"/>
-      <c r="E540" s="46"/>
+      <c r="B540" s="23"/>
+      <c r="C540" s="23"/>
+      <c r="D540" s="23"/>
+      <c r="E540" s="24"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="21" t="s">
+      <c r="A541" s="45" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="22"/>
-      <c r="C541" s="22"/>
-      <c r="D541" s="22"/>
-      <c r="E541" s="23"/>
+      <c r="B541" s="46"/>
+      <c r="C541" s="46"/>
+      <c r="D541" s="46"/>
+      <c r="E541" s="47"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -12527,12 +12533,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="24" t="s">
+      <c r="B544" s="48" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="25"/>
-      <c r="D544" s="25"/>
-      <c r="E544" s="26"/>
+      <c r="C544" s="49"/>
+      <c r="D544" s="49"/>
+      <c r="E544" s="50"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -12540,12 +12546,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="27" t="s">
+      <c r="B545" s="51" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="28"/>
-      <c r="D545" s="28"/>
-      <c r="E545" s="29"/>
+      <c r="C545" s="52"/>
+      <c r="D545" s="52"/>
+      <c r="E545" s="53"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -12553,25 +12559,25 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="30" t="s">
+      <c r="B546" s="54" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="31"/>
-      <c r="D546" s="31"/>
-      <c r="E546" s="32"/>
+      <c r="C546" s="55"/>
+      <c r="D546" s="55"/>
+      <c r="E546" s="56"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="33" t="s">
+      <c r="A547" s="57" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="34"/>
-      <c r="C547" s="34"/>
-      <c r="D547" s="34"/>
-      <c r="E547" s="34"/>
-      <c r="F547" s="34"/>
-      <c r="G547" s="35"/>
+      <c r="B547" s="58"/>
+      <c r="C547" s="58"/>
+      <c r="D547" s="58"/>
+      <c r="E547" s="58"/>
+      <c r="F547" s="58"/>
+      <c r="G547" s="59"/>
     </row>
     <row r="548" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4"/>
@@ -21224,6 +21230,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -21236,11 +21247,6 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="989">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3045,6 +3045,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -3123,7 +3126,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3145,6 +3148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3522,7 +3531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3551,6 +3560,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3872,116 +3883,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47" style="3" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="50.28515625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="30.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -3993,15 +4004,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4174,7 +4185,9 @@
       <c r="E23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4182,7 +4195,7 @@
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4191,7 +4204,9 @@
       <c r="E24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4208,7 +4223,9 @@
       <c r="E25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4225,7 +4242,9 @@
       <c r="E26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4242,7 +4261,9 @@
       <c r="E27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4259,7 +4280,9 @@
       <c r="E28" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4267,7 +4290,7 @@
       <c r="B29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="22" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="15" t="s">
@@ -4276,7 +4299,9 @@
       <c r="E29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4293,7 +4318,9 @@
       <c r="E30" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4867,12 +4894,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="44"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -12490,24 +12517,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="22" t="s">
+      <c r="A540" s="24" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="23"/>
-      <c r="C540" s="23"/>
-      <c r="D540" s="23"/>
-      <c r="E540" s="24"/>
+      <c r="B540" s="25"/>
+      <c r="C540" s="25"/>
+      <c r="D540" s="25"/>
+      <c r="E540" s="26"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="45" t="s">
+      <c r="A541" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="46"/>
-      <c r="C541" s="46"/>
-      <c r="D541" s="46"/>
-      <c r="E541" s="47"/>
+      <c r="B541" s="48"/>
+      <c r="C541" s="48"/>
+      <c r="D541" s="48"/>
+      <c r="E541" s="49"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -12533,12 +12560,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="48" t="s">
+      <c r="B544" s="50" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="49"/>
-      <c r="D544" s="49"/>
-      <c r="E544" s="50"/>
+      <c r="C544" s="51"/>
+      <c r="D544" s="51"/>
+      <c r="E544" s="52"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -12546,12 +12573,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="51" t="s">
+      <c r="B545" s="53" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="52"/>
-      <c r="D545" s="52"/>
-      <c r="E545" s="53"/>
+      <c r="C545" s="54"/>
+      <c r="D545" s="54"/>
+      <c r="E545" s="55"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -12559,25 +12586,25 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="54" t="s">
+      <c r="B546" s="56" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="55"/>
-      <c r="D546" s="55"/>
-      <c r="E546" s="56"/>
+      <c r="C546" s="57"/>
+      <c r="D546" s="57"/>
+      <c r="E546" s="58"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="57" t="s">
+      <c r="A547" s="59" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="58"/>
-      <c r="C547" s="58"/>
-      <c r="D547" s="58"/>
-      <c r="E547" s="58"/>
-      <c r="F547" s="58"/>
-      <c r="G547" s="59"/>
+      <c r="B547" s="60"/>
+      <c r="C547" s="60"/>
+      <c r="D547" s="60"/>
+      <c r="E547" s="60"/>
+      <c r="F547" s="60"/>
+      <c r="G547" s="61"/>
     </row>
     <row r="548" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring\Pradeeb\java-practice\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="991">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3048,6 +3043,12 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>pradeeb</t>
+  </si>
+  <si>
+    <t>Selva</t>
   </si>
 </sst>
 </file>
@@ -3562,6 +3563,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3585,21 +3601,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3661,7 +3662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3696,7 +3697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3873,7 +3874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3883,8 +3884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3896,103 +3897,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4004,15 +4005,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4090,8 +4091,12 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>990</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
@@ -4894,12 +4899,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -12517,24 +12522,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="24" t="s">
+      <c r="A540" s="39" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="25"/>
-      <c r="C540" s="25"/>
-      <c r="D540" s="25"/>
-      <c r="E540" s="26"/>
+      <c r="B540" s="40"/>
+      <c r="C540" s="40"/>
+      <c r="D540" s="40"/>
+      <c r="E540" s="41"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="47" t="s">
+      <c r="A541" s="24" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="48"/>
-      <c r="C541" s="48"/>
-      <c r="D541" s="48"/>
-      <c r="E541" s="49"/>
+      <c r="B541" s="25"/>
+      <c r="C541" s="25"/>
+      <c r="D541" s="25"/>
+      <c r="E541" s="26"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -12560,12 +12565,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="50" t="s">
+      <c r="B544" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="51"/>
-      <c r="D544" s="51"/>
-      <c r="E544" s="52"/>
+      <c r="C544" s="28"/>
+      <c r="D544" s="28"/>
+      <c r="E544" s="29"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -12573,12 +12578,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="53" t="s">
+      <c r="B545" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="54"/>
-      <c r="D545" s="54"/>
-      <c r="E545" s="55"/>
+      <c r="C545" s="31"/>
+      <c r="D545" s="31"/>
+      <c r="E545" s="32"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -12586,25 +12591,25 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="56" t="s">
+      <c r="B546" s="33" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="57"/>
-      <c r="D546" s="57"/>
-      <c r="E546" s="58"/>
+      <c r="C546" s="34"/>
+      <c r="D546" s="34"/>
+      <c r="E546" s="35"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="59" t="s">
+      <c r="A547" s="36" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="60"/>
-      <c r="C547" s="60"/>
-      <c r="D547" s="60"/>
-      <c r="E547" s="60"/>
-      <c r="F547" s="60"/>
-      <c r="G547" s="61"/>
+      <c r="B547" s="37"/>
+      <c r="C547" s="37"/>
+      <c r="D547" s="37"/>
+      <c r="E547" s="37"/>
+      <c r="F547" s="37"/>
+      <c r="G547" s="38"/>
     </row>
     <row r="548" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4"/>
@@ -21257,11 +21262,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -21274,6 +21274,11 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring\Pradeeb\java-practice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -3563,21 +3568,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3601,6 +3591,21 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3874,7 +3879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3885,7 +3890,7 @@
   <dimension ref="A1:G1508"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3897,103 +3902,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4005,15 +4010,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4091,14 +4096,12 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -4899,12 +4902,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -12522,24 +12525,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="39" t="s">
+      <c r="A540" s="24" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="40"/>
-      <c r="C540" s="40"/>
-      <c r="D540" s="40"/>
-      <c r="E540" s="41"/>
+      <c r="B540" s="25"/>
+      <c r="C540" s="25"/>
+      <c r="D540" s="25"/>
+      <c r="E540" s="26"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="24" t="s">
+      <c r="A541" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="25"/>
-      <c r="C541" s="25"/>
-      <c r="D541" s="25"/>
-      <c r="E541" s="26"/>
+      <c r="B541" s="48"/>
+      <c r="C541" s="48"/>
+      <c r="D541" s="48"/>
+      <c r="E541" s="49"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -12565,12 +12568,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="27" t="s">
+      <c r="B544" s="50" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="28"/>
-      <c r="D544" s="28"/>
-      <c r="E544" s="29"/>
+      <c r="C544" s="51"/>
+      <c r="D544" s="51"/>
+      <c r="E544" s="52"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -12578,12 +12581,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="30" t="s">
+      <c r="B545" s="53" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="31"/>
-      <c r="D545" s="31"/>
-      <c r="E545" s="32"/>
+      <c r="C545" s="54"/>
+      <c r="D545" s="54"/>
+      <c r="E545" s="55"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -12591,25 +12594,25 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="33" t="s">
+      <c r="B546" s="56" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="34"/>
-      <c r="D546" s="34"/>
-      <c r="E546" s="35"/>
+      <c r="C546" s="57"/>
+      <c r="D546" s="57"/>
+      <c r="E546" s="58"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="36" t="s">
+      <c r="A547" s="59" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="37"/>
-      <c r="C547" s="37"/>
-      <c r="D547" s="37"/>
-      <c r="E547" s="37"/>
-      <c r="F547" s="37"/>
-      <c r="G547" s="38"/>
+      <c r="B547" s="60"/>
+      <c r="C547" s="60"/>
+      <c r="D547" s="60"/>
+      <c r="E547" s="60"/>
+      <c r="F547" s="60"/>
+      <c r="G547" s="61"/>
     </row>
     <row r="548" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4"/>
@@ -21262,6 +21265,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -21274,11 +21282,6 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="991">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3568,6 +3568,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3591,21 +3606,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3889,116 +3889,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" style="3" customWidth="1"/>
     <col min="4" max="16384" width="30.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4010,15 +4010,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4375,7 +4375,7 @@
       <c r="B34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -4384,7 +4384,9 @@
       <c r="E34" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4392,7 +4394,7 @@
       <c r="B35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D35" s="15" t="s">
@@ -4401,7 +4403,9 @@
       <c r="E35" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4418,7 +4422,9 @@
       <c r="E36" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4435,7 +4441,9 @@
       <c r="E37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4902,12 +4910,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -12525,24 +12533,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="24" t="s">
+      <c r="A540" s="39" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="25"/>
-      <c r="C540" s="25"/>
-      <c r="D540" s="25"/>
-      <c r="E540" s="26"/>
+      <c r="B540" s="40"/>
+      <c r="C540" s="40"/>
+      <c r="D540" s="40"/>
+      <c r="E540" s="41"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="47" t="s">
+      <c r="A541" s="24" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="48"/>
-      <c r="C541" s="48"/>
-      <c r="D541" s="48"/>
-      <c r="E541" s="49"/>
+      <c r="B541" s="25"/>
+      <c r="C541" s="25"/>
+      <c r="D541" s="25"/>
+      <c r="E541" s="26"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -12568,12 +12576,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="50" t="s">
+      <c r="B544" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="51"/>
-      <c r="D544" s="51"/>
-      <c r="E544" s="52"/>
+      <c r="C544" s="28"/>
+      <c r="D544" s="28"/>
+      <c r="E544" s="29"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -12581,12 +12589,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="53" t="s">
+      <c r="B545" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="54"/>
-      <c r="D545" s="54"/>
-      <c r="E545" s="55"/>
+      <c r="C545" s="31"/>
+      <c r="D545" s="31"/>
+      <c r="E545" s="32"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -12594,25 +12602,25 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="56" t="s">
+      <c r="B546" s="33" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="57"/>
-      <c r="D546" s="57"/>
-      <c r="E546" s="58"/>
+      <c r="C546" s="34"/>
+      <c r="D546" s="34"/>
+      <c r="E546" s="35"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="59" t="s">
+      <c r="A547" s="36" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="60"/>
-      <c r="C547" s="60"/>
-      <c r="D547" s="60"/>
-      <c r="E547" s="60"/>
-      <c r="F547" s="60"/>
-      <c r="G547" s="61"/>
+      <c r="B547" s="37"/>
+      <c r="C547" s="37"/>
+      <c r="D547" s="37"/>
+      <c r="E547" s="37"/>
+      <c r="F547" s="37"/>
+      <c r="G547" s="38"/>
     </row>
     <row r="548" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4"/>
@@ -21265,11 +21273,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -21282,6 +21285,11 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>
@@ -21324,1170 +21332,1170 @@
     <hyperlink ref="E30" r:id="rId38" display="https://www.geeksforgeeks.org/perfect-number/"/>
     <hyperlink ref="D33" r:id="rId39" display="https://youtu.be/37E9ckMDdTk?si=0TR032zkFFRqHymE"/>
     <hyperlink ref="E33" r:id="rId40" display="https://www.geeksforgeeks.org/what-is-array/"/>
-    <hyperlink ref="C34" r:id="rId41"/>
-    <hyperlink ref="D34" r:id="rId42" display="https://youtu.be/37E9ckMDdTk?si=0TR032zkFFRqHymE"/>
-    <hyperlink ref="E34" r:id="rId43" display="https://www.geeksforgeeks.org/maximum-and-minimum-in-an-array/"/>
-    <hyperlink ref="C35" r:id="rId44"/>
-    <hyperlink ref="D35" r:id="rId45" display="https://youtu.be/37E9ckMDdTk?si=0TR032zkFFRqHymE"/>
-    <hyperlink ref="E35" r:id="rId46" display="https://www.geeksforgeeks.org/third-largest-element-array-distinct-elements/"/>
-    <hyperlink ref="C36" r:id="rId47"/>
-    <hyperlink ref="D36" r:id="rId48" display="https://youtu.be/wvcQg43_V8U?si=duJ5xqerLGj0IR7R"/>
-    <hyperlink ref="E36" r:id="rId49" display="https://www.geeksforgeeks.org/c-program-to-traverse-an-array/"/>
-    <hyperlink ref="C37" r:id="rId50"/>
-    <hyperlink ref="D37" r:id="rId51" display="https://youtu.be/2D0D8HE6uak?si=HL1gv_qVc7mUaHoJ"/>
-    <hyperlink ref="E37" r:id="rId52" display="https://www.geeksforgeeks.org/find-the-missing-number/"/>
-    <hyperlink ref="D38" r:id="rId53" display="https://youtu.be/2D0D8HE6uak?si=HL1gv_qVc7mUaHoJ"/>
-    <hyperlink ref="C39" r:id="rId54" display="https://www.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s4231/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D39" r:id="rId55" display="https://youtu.be/tp8JIuCXBaU?si=8iicmWUzbNMzAapK"/>
-    <hyperlink ref="E39" r:id="rId56" display="https://www.geeksforgeeks.org/sort-an-array-of-0s-1s-and-2s/"/>
-    <hyperlink ref="C40" r:id="rId57" display="https://www.geeksforgeeks.org/problems/check-if-two-arrays-are-equal-or-not3847/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="E40" r:id="rId58" display="https://www.geeksforgeeks.org/check-if-two-arrays-are-equal-or-not/"/>
-    <hyperlink ref="C41" r:id="rId59" display="https://www.geeksforgeeks.org/problems/cyclically-rotate-an-array-by-one2614/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D41" r:id="rId60" display="https://youtu.be/BHr381Guz3Y?si=LxSVwsQemuIvjvdu"/>
-    <hyperlink ref="E41" r:id="rId61" display="https://www.geeksforgeeks.org/c-program-cyclically-rotate-array-one/"/>
-    <hyperlink ref="C42" r:id="rId62"/>
-    <hyperlink ref="D42" r:id="rId63" display="https://youtu.be/wvcQg43_V8U?si=sd6dy_KO9X1yvwQY"/>
-    <hyperlink ref="E42" r:id="rId64" display="https://www.geeksforgeeks.org/print-array-after-it-is-right-rotated-k-times/"/>
-    <hyperlink ref="C43" r:id="rId65"/>
-    <hyperlink ref="E43" r:id="rId66" display="https://www.geeksforgeeks.org/find-whether-an-array-is-subset-of-another-array-set-1/"/>
-    <hyperlink ref="D44" r:id="rId67" display="https://youtu.be/KEs5UyBJ39g?si=RVR7_pJUEOH4dlUZ"/>
-    <hyperlink ref="E44" r:id="rId68" display="https://www.geeksforgeeks.org/introduction-to-map-data-structure-and-algorithm-tutorials/"/>
-    <hyperlink ref="C45" r:id="rId69"/>
-    <hyperlink ref="E45" r:id="rId70" display="https://www.geeksforgeeks.org/counting-frequencies-of-array-elements/"/>
-    <hyperlink ref="C47" r:id="rId71" display="https://www.geeksforgeeks.org/problems/key-pair5616/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D47" r:id="rId72" display="https://youtu.be/UXDSeD9mN-k?si=0OalQrKPSoSeO6io"/>
-    <hyperlink ref="E47" r:id="rId73" display="https://www.geeksforgeeks.org/check-if-pair-with-given-sum-exists-in-array/"/>
-    <hyperlink ref="C48" r:id="rId74" display="https://www.geeksforgeeks.org/problems/triplet-sum-in-array-1587115621/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D48" r:id="rId75" display="https://youtu.be/DhFh8Kw7ymk?si=Fwh27YWXIuwurZjz"/>
-    <hyperlink ref="E48" r:id="rId76" display="https://www.geeksforgeeks.org/find-a-triplet-that-sum-to-a-given-value/"/>
-    <hyperlink ref="C49" r:id="rId77"/>
-    <hyperlink ref="D49" r:id="rId78" display="https://youtu.be/eD95WRfh81c?si=01Uliqaf14HWboWE"/>
-    <hyperlink ref="E49" r:id="rId79" display="https://www.geeksforgeeks.org/find-four-elements-that-sum-to-a-given-value-set-2/"/>
-    <hyperlink ref="C50" r:id="rId80"/>
-    <hyperlink ref="D50" r:id="rId81" display="https://youtu.be/cJlJwroDw6o?si=UzoMg7WQXEX_-nQL"/>
-    <hyperlink ref="E50" r:id="rId82" display="https://www.geeksforgeeks.org/find-triplets-array-whose-sum-equal-zero/"/>
-    <hyperlink ref="C51" r:id="rId83" display="https://practice.geeksforgeeks.org/problems/count-the-triplets4615/1"/>
-    <hyperlink ref="D51" r:id="rId84" display="https://youtu.be/jqI7kKIJVF8?si=tN1E706NtO33ZE29"/>
-    <hyperlink ref="E51" r:id="rId85" display="https://www.geeksforgeeks.org/count-triplets-such-that-one-of-the-numbers-can-be-written-as-sum-of-the-other-two/"/>
-    <hyperlink ref="C52" r:id="rId86"/>
-    <hyperlink ref="D52" r:id="rId87" display="https://youtu.be/wvcQg43_V8U?si=sd6dy_KO9X1yvwQY"/>
-    <hyperlink ref="E52" r:id="rId88" display="https://www.geeksforgeeks.org/find-union-and-intersection-of-two-unsorted-arrays/"/>
-    <hyperlink ref="C53" r:id="rId89" display="https://www.geeksforgeeks.org/problems/intersection-of-two-arrays2404/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D53" r:id="rId90" display="https://youtu.be/wvcQg43_V8U?si=sd6dy_KO9X1yvwQY"/>
-    <hyperlink ref="E53" r:id="rId91" display="https://www.geeksforgeeks.org/find-union-and-intersection-of-two-unsorted-arrays/"/>
-    <hyperlink ref="C54" r:id="rId92" display="https://www.geeksforgeeks.org/problems/remove-duplicate-elements-from-sorted-array/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D54" r:id="rId93" display="https://youtu.be/37E9ckMDdTk?si=sgQG1IPqP4_lMLI7"/>
-    <hyperlink ref="E54" r:id="rId94" display="https://www.geeksforgeeks.org/remove-duplicates-sorted-array/"/>
-    <hyperlink ref="C55" r:id="rId95" display="https://www.geeksforgeeks.org/problems/k-th-element-of-two-sorted-array1317/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="E55" r:id="rId96" display="https://www.geeksforgeeks.org/k-th-element-two-sorted-arrays/"/>
-    <hyperlink ref="C56" r:id="rId97"/>
-    <hyperlink ref="D56" r:id="rId98" display="https://youtu.be/frf7qxiN2qU?si=JPQuhDD95ggmdzkh"/>
-    <hyperlink ref="E56" r:id="rId99" display="https://www.geeksforgeeks.org/length-of-longest-subarray-with-increasing-contiguous-elements/"/>
-    <hyperlink ref="C57" r:id="rId100" display="https://www.geeksforgeeks.org/problems/trapping-rain-water-1587115621/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D57" r:id="rId101" display="https://youtu.be/m18Hntz4go8?si=ciSWVbyZK9fRqwlD"/>
-    <hyperlink ref="E57" r:id="rId102" display="https://www.geeksforgeeks.org/trapping-rain-water/"/>
-    <hyperlink ref="C59" r:id="rId103"/>
-    <hyperlink ref="D59" r:id="rId104" display="https://youtu.be/nP_ns3uSh80?si=7StWyumzZ4xALf_n"/>
-    <hyperlink ref="E59" r:id="rId105" display="https://www.geeksforgeeks.org/majority-element/"/>
-    <hyperlink ref="C60" r:id="rId106"/>
-    <hyperlink ref="D60" r:id="rId107" display="https://youtu.be/AHZpyENo7k4?si=Gedgrb5NcCsKTvpr"/>
-    <hyperlink ref="E60" r:id="rId108" display="https://www.geeksforgeeks.org/largest-sum-contiguous-subarray/"/>
-    <hyperlink ref="C61" r:id="rId109"/>
-    <hyperlink ref="D61" r:id="rId110" display="https://youtu.be/AseUmwVNaoY?si=ryexsr9Pkd2oEqLb"/>
-    <hyperlink ref="E61" r:id="rId111" display="https://www.geeksforgeeks.org/inversion-count-in-array-using-merge-sort/"/>
-    <hyperlink ref="C62" r:id="rId112"/>
-    <hyperlink ref="D62" r:id="rId113" display="https://youtu.be/IexN60k62jo?si=fTYDjb_XUvQNSMQK"/>
-    <hyperlink ref="E62" r:id="rId114" display="https://www.geeksforgeeks.org/merging-intervals/"/>
-    <hyperlink ref="C63" r:id="rId115"/>
-    <hyperlink ref="D63" r:id="rId116" display="https://youtu.be/hnswaLJvr6g?si=dsjYUnsya81zUUoU"/>
-    <hyperlink ref="E63" r:id="rId117" display="https://www.geeksforgeeks.org/maximum-product-subarray/"/>
-    <hyperlink ref="C64" r:id="rId118"/>
-    <hyperlink ref="D64" r:id="rId119" display="https://youtu.be/JDOXKqF60RQ?si=N0kQyEkb3HU3cAFN"/>
-    <hyperlink ref="E64" r:id="rId120" display="https://www.geeksforgeeks.org/next-permutation/"/>
-    <hyperlink ref="C65" r:id="rId121"/>
-    <hyperlink ref="D65" r:id="rId122" display="https://youtu.be/QDFM7Mjk2mc?si=N-KRLLlVPFDbP7ig"/>
-    <hyperlink ref="E65" r:id="rId123" display="https://www.geeksforgeeks.org/sieve-of-eratosthenes/"/>
-    <hyperlink ref="B66" r:id="rId124" display="https://youtu.be/FPu9Uld7W-E?si=s_d6cjdb6UtlVg16"/>
-    <hyperlink ref="D69" r:id="rId125" display="https://youtu.be/J1aQ9JN4vZY?si=Zyvvj50RIqnHS_dI"/>
-    <hyperlink ref="E69" r:id="rId126" display="https://www.geeksforgeeks.org/multidimensional-arrays-in-c/"/>
-    <hyperlink ref="C70" r:id="rId127"/>
-    <hyperlink ref="D70" r:id="rId128" display="https://youtu.be/JXU4Akft7yk?si=ftzaCZifMOyqSHYd"/>
-    <hyperlink ref="E70" r:id="rId129" display="https://www.geeksforgeeks.org/search-element-sorted-matrix/"/>
-    <hyperlink ref="C71" r:id="rId130"/>
-    <hyperlink ref="D71" r:id="rId131" display="https://youtu.be/Z0R2u6gd3GU?si=09YatNJUpyE7ZCjg"/>
-    <hyperlink ref="E71" r:id="rId132" display="https://www.geeksforgeeks.org/rotate-a-matrix-by-90-degree-in-clockwise-direction-without-using-any-extra-space/"/>
-    <hyperlink ref="C72" r:id="rId133" display="https://www.geeksforgeeks.org/problems/row-with-minimum-number-of-1s5430/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D72" r:id="rId134" display="https://youtu.be/SCz-1TtYxDI?si=XeAz7btJ6r2MbZuh"/>
-    <hyperlink ref="E72" r:id="rId135" display="https://www.geeksforgeeks.org/find-the-row-with-maximum-number-1s/"/>
-    <hyperlink ref="C73" r:id="rId136"/>
-    <hyperlink ref="D73" r:id="rId137" display="https://youtu.be/Z0R2u6gd3GU?si=7sxqBk_sUWTCigqc"/>
-    <hyperlink ref="E73" r:id="rId138" display="https://www.geeksforgeeks.org/rotate-matrix-right-k-times/"/>
-    <hyperlink ref="C74" r:id="rId139" display="https://www.geeksforgeeks.org/problems/print-matrix-in-diagonal-pattern/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="E74" r:id="rId140" display="https://www.geeksforgeeks.org/print-matrix-diagonal-pattern/"/>
-    <hyperlink ref="C75" r:id="rId141"/>
-    <hyperlink ref="D75" r:id="rId142" display="https://youtu.be/N0MgLvceX7M?si=jJ_jUtmeE5mb0LB0"/>
-    <hyperlink ref="E75" r:id="rId143" display="https://takeuforward.org/data-structure/set-matrix-zero/"/>
-    <hyperlink ref="D77" r:id="rId144" display="https://youtu.be/yVdKa8dnKiE?si=SRrnZral-975-l3T"/>
-    <hyperlink ref="E77" r:id="rId145" display="https://www.geeksforgeeks.org/how-to-solve-time-complexity-recurrence-relations-using-recursion-tree-method/"/>
-    <hyperlink ref="C78" r:id="rId146"/>
-    <hyperlink ref="D78" r:id="rId147" display="https://youtu.be/un6PLygfXrA?si=lTiOfyUrTigDKJuT"/>
-    <hyperlink ref="E78" r:id="rId148" display="https://takeuforward.org/data-structure/print-n-to-1-and-1-to-n-using-recursion/"/>
-    <hyperlink ref="C79" r:id="rId149"/>
-    <hyperlink ref="D79" r:id="rId150" display="https://youtu.be/69ZCDFy-OUo?si=ZSOqIZK0c4L27ad2"/>
-    <hyperlink ref="E79" r:id="rId151" display="https://www.geeksforgeeks.org/program-for-factorial-of-a-number/"/>
-    <hyperlink ref="C80" r:id="rId152" display="https://www.geeksforgeeks.org/problems/nth-fibonacci-number1335/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D80" r:id="rId153" display="https://youtu.be/kvRjNm4rVBE?si=HoIm_q77BpGtePSF"/>
-    <hyperlink ref="E80" r:id="rId154" display="https://www.geeksforgeeks.org/program-for-nth-fibonacci-number/"/>
-    <hyperlink ref="C81" r:id="rId155" display="https://www.geeksforgeeks.org/problems/power-of-numbers-1587115620/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D81" r:id="rId156" display="https://youtu.be/l0YC3876qxg?si=gpooiy_1Voz_M2b6"/>
-    <hyperlink ref="E81" r:id="rId157" display="https://www.geeksforgeeks.org/write-a-c-program-to-calculate-powxn/"/>
-    <hyperlink ref="C82" r:id="rId158"/>
-    <hyperlink ref="D82" r:id="rId159" display="https://youtu.be/tNm_NNSB3_w?si=qRueLOLTmrBAtTTC"/>
-    <hyperlink ref="E82" r:id="rId160" display="https://www.geeksforgeeks.org/c-programs-print-interesting-patterns/"/>
-    <hyperlink ref="C83" r:id="rId161" display="https://practice.geeksforgeeks.org/problems/implement-atoi/1?utm_source=geeksforgeeks&amp;utm_medium=ml_article_practice_tab&amp;utm_campaign=article_practice_tab"/>
-    <hyperlink ref="D83" r:id="rId162" display="https://youtu.be/cXf7NKgT13s?si=7CiE2Yq4IRTwI3vh"/>
-    <hyperlink ref="E83" r:id="rId163" display="https://www.geeksforgeeks.org/recursive-implementation-of-atoi/"/>
-    <hyperlink ref="C84" r:id="rId164"/>
-    <hyperlink ref="D84" r:id="rId165" display="https://youtu.be/bR7mQgwQ_o8?si=sqnpPOV603FTpnTr"/>
-    <hyperlink ref="E84" r:id="rId166" display="https://www.geeksforgeeks.org/pascal-triangle/"/>
-    <hyperlink ref="C87" r:id="rId167"/>
-    <hyperlink ref="D87" r:id="rId168" display="https://youtu.be/MHf6awe89xw?si=SZFA7hgK2TgcOc0p"/>
-    <hyperlink ref="E87" r:id="rId169" display="https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-pivoted-array/"/>
-    <hyperlink ref="C88" r:id="rId170"/>
-    <hyperlink ref="D88" r:id="rId171" display="https://youtu.be/6zhGS79oQ4k?si=HTYRycV3VAbAV7wJ"/>
-    <hyperlink ref="E88" r:id="rId172" display="https://takeuforward.org/arrays/floor-and-ceil-in-sorted-array/"/>
-    <hyperlink ref="C89" r:id="rId173"/>
-    <hyperlink ref="D89" r:id="rId174" display="https://youtu.be/hjR1IYVx9lY?si=LvMcs8L77aY4RPsP"/>
-    <hyperlink ref="E89" r:id="rId175" display="https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-pivoted-array/"/>
-    <hyperlink ref="C90" r:id="rId176"/>
-    <hyperlink ref="D90" r:id="rId177" display="https://youtu.be/2D0D8HE6uak?si=lL-NPH7ot2zCdWFk"/>
-    <hyperlink ref="E90" r:id="rId178" display="https://www.geeksforgeeks.org/find-the-missing-number/"/>
-    <hyperlink ref="C91" r:id="rId179" display="https://www.geeksforgeeks.org/problems/square-root/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D91" r:id="rId180" display="https://youtu.be/Bsv3FPUX_BA?si=pkOV3citxe_BydNv"/>
-    <hyperlink ref="E91" r:id="rId181" display="https://www.geeksforgeeks.org/square-root-of-an-integer/"/>
-    <hyperlink ref="C92" r:id="rId182"/>
-    <hyperlink ref="D92" r:id="rId183" display="https://youtu.be/W9QJ8HaRvJQ?si=7qkUdUy7sHugcc-4"/>
-    <hyperlink ref="E92" r:id="rId184" display="https://takeuforward.org/data-structure/search-in-an-infinite-sorted-array/"/>
-    <hyperlink ref="C94" r:id="rId185"/>
-    <hyperlink ref="D94" r:id="rId186" display="https://youtu.be/5qGrJbHhqFs?si=BQOhDElObCoMlfNF"/>
-    <hyperlink ref="E94" r:id="rId187" display="https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-rotated-array-with-duplicates/"/>
-    <hyperlink ref="C95" r:id="rId188"/>
-    <hyperlink ref="D95" r:id="rId189" display="https://youtu.be/nhEMDKMB44g?si=oulPpoG2QvlG0YgL"/>
-    <hyperlink ref="E95" r:id="rId190" display="https://www.geeksforgeeks.org/find-minimum-element-in-a-sorted-and-rotated-array/"/>
-    <hyperlink ref="C96" r:id="rId191" display="https://www.geeksforgeeks.org/problems/rotation4723/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D96" r:id="rId192" display="https://youtu.be/jtSiWTPLwd0?si=-rI5dZ-3sY3qDsS6"/>
-    <hyperlink ref="E96" r:id="rId193" display="https://www.geeksforgeeks.org/find-rotation-count-rotated-sorted-array/"/>
-    <hyperlink ref="E97" r:id="rId194" display="https://www.geeksforgeeks.org/maximum-element-in-a-sorted-and-rotated-array/"/>
-    <hyperlink ref="C99" r:id="rId195"/>
-    <hyperlink ref="D99" r:id="rId196" display="https://youtu.be/cXxmbemS6XM?si=uuZ5GDVRhz1DuRpp"/>
-    <hyperlink ref="E99" r:id="rId197" display="https://www.geeksforgeeks.org/find-a-peak-in-a-given-array/"/>
-    <hyperlink ref="C100" r:id="rId198"/>
-    <hyperlink ref="D100" r:id="rId199" display="https://youtu.be/W9QJ8HaRvJQ?si=7qkUdUy7sHugcc-4"/>
-    <hyperlink ref="E100" r:id="rId200" display="https://www.geeksforgeeks.org/find-element-bitonic-array/"/>
-    <hyperlink ref="C102" r:id="rId201"/>
-    <hyperlink ref="D102" r:id="rId202" display="https://youtu.be/SCz-1TtYxDI?si=U_jEDIFYaa8QGnxo"/>
-    <hyperlink ref="E102" r:id="rId203" display="https://www.geeksforgeeks.org/find-the-row-with-maximum-number-1s/"/>
-    <hyperlink ref="C103" r:id="rId204" display="https://www.geeksforgeeks.org/problems/search-in-a-matrix-1587115621/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D103" r:id="rId205" display="https://youtu.be/JXU4Akft7yk?si=oY5y29BNgKveTd7q"/>
-    <hyperlink ref="E103" r:id="rId206" display="https://www.geeksforgeeks.org/search-in-row-wise-and-column-wise-sorted-matrix/"/>
-    <hyperlink ref="C104" r:id="rId207"/>
-    <hyperlink ref="D104" r:id="rId208" display="https://youtu.be/9ZbB397jU4k?si=LYzHu6tpjUc5D73I"/>
-    <hyperlink ref="E104" r:id="rId209" display="https://www.geeksforgeeks.org/search-in-a-sorted-2d-matrix-stored-in-row-major-order/"/>
-    <hyperlink ref="C105" r:id="rId210"/>
-    <hyperlink ref="D105" r:id="rId211" display="https://youtu.be/9ZbB397jU4k?si=wSh6BEJiQjJRFuhD"/>
-    <hyperlink ref="E105" r:id="rId212" display="https://www.geeksforgeeks.org/find-peak-element-2d-array/"/>
-    <hyperlink ref="C107" r:id="rId213"/>
-    <hyperlink ref="D107" r:id="rId214" display="https://youtu.be/R_Mfw4ew-Vo?si=5YexrvejL-U8Lp9e"/>
-    <hyperlink ref="E107" r:id="rId215" display="https://www.geeksforgeeks.org/assign-stalls-to-k-cows-to-maximize-the-minimum-distance-between-them/"/>
-    <hyperlink ref="C108" r:id="rId216" display="https://www.geeksforgeeks.org/problems/allocate-minimum-number-of-pages0937/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D108" r:id="rId217" display="https://youtu.be/Z0hwjftStI4?si=md6pnkK1gK2OydeX"/>
-    <hyperlink ref="E108" r:id="rId218" display="https://www.geeksforgeeks.org/allocate-minimum-number-pages/"/>
-    <hyperlink ref="C109" r:id="rId219"/>
-    <hyperlink ref="D109" r:id="rId220" display="https://youtu.be/thUd_WJn6wk?si=83_t-BSmFO1JPtFX"/>
-    <hyperlink ref="E109" r:id="rId221" display="https://www.geeksforgeeks.org/painters-partition-problem/"/>
-    <hyperlink ref="C110" r:id="rId222"/>
-    <hyperlink ref="D110" r:id="rId223" display="https://youtu.be/thUd_WJn6wk?si=83_t-BSmFO1JPtFX"/>
-    <hyperlink ref="E110" r:id="rId224" display="https://www.geeksforgeeks.org/split-the-given-array-into-k-sub-arrays-such-that-maximum-sum-of-all-sub-arrays-is-minimum/"/>
-    <hyperlink ref="C111" r:id="rId225"/>
-    <hyperlink ref="D111" r:id="rId226" display="https://youtu.be/TXAuxeYBTdg?si=am2Vhrx6NzRn666i"/>
-    <hyperlink ref="E111" r:id="rId227" display="https://takeuforward.org/arrays/minimum-days-to-make-m-bouquets/"/>
-    <hyperlink ref="C112" r:id="rId228"/>
-    <hyperlink ref="D112" r:id="rId229" display="https://youtu.be/MG-Ac4TAvTY?si=AZ1NbXoBg0WpOIVu"/>
-    <hyperlink ref="E112" r:id="rId230" display="https://www.geeksforgeeks.org/capacity-to-ship-packages-within-d-days/"/>
-    <hyperlink ref="C113" r:id="rId231"/>
-    <hyperlink ref="D113" r:id="rId232" display="https://youtu.be/qyfekrNni90?si=jMI1EAu9QbNoPwdL"/>
-    <hyperlink ref="E113" r:id="rId233" display="https://www.geeksforgeeks.org/koko-eating-bananas/"/>
-    <hyperlink ref="C114" r:id="rId234"/>
-    <hyperlink ref="D114" r:id="rId235" display="https://youtu.be/N-7biZf7a0I?si=CfkbhxMALJCEo69w"/>
-    <hyperlink ref="E114" r:id="rId236" display="https://www.geeksforgeeks.org/kth-smallest-number-in-multiplication-table/"/>
-    <hyperlink ref="C115" r:id="rId237"/>
-    <hyperlink ref="D115" r:id="rId238" display="https://youtu.be/veu_Q-da6ZY?si=T0MVODyANtV8Q8jE"/>
-    <hyperlink ref="E115" r:id="rId239" display="https://www.geeksforgeeks.org/k-th-smallest-absolute-difference-two-elements-array/"/>
-    <hyperlink ref="C116" r:id="rId240"/>
-    <hyperlink ref="D116" r:id="rId241" display="https://youtu.be/X5SuOsIWCoI?si=EQTTz3FlzY37wihS"/>
-    <hyperlink ref="E116" r:id="rId242" display="https://www.geeksforgeeks.org/ugly-numbers/"/>
-    <hyperlink ref="C117" r:id="rId243" display="https://www.geeksforgeeks.org/problems/median-of-2-sorted-arrays-of-different-sizes/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D117" r:id="rId244" display="https://youtu.be/F9c7LpRZWVQ?si=UBBKqg6vDwaEPBla"/>
-    <hyperlink ref="E117" r:id="rId245" display="https://www.geeksforgeeks.org/median-of-two-sorted-arrays-of-different-sizes/"/>
-    <hyperlink ref="C118" r:id="rId246" display="https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold/"/>
-    <hyperlink ref="D118" r:id="rId247" display="https://youtu.be/UvBKTVaG6U8?si=U-dfjanJFfqbEEOE"/>
-    <hyperlink ref="E118" r:id="rId248" display="https://takeuforward.org/arrays/find-the-smallest-divisor-given-a-threshold/"/>
-    <hyperlink ref="C120" r:id="rId249" display="https://www.geeksforgeeks.org/problems/bubble-sort/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D120" r:id="rId250" display="https://youtu.be/HGk_ypEuS24?si=7Y4nO0hu37rPwmjB"/>
-    <hyperlink ref="E120" r:id="rId251" display="https://www.geeksforgeeks.org/bubble-sort/"/>
-    <hyperlink ref="C121" r:id="rId252" display="https://www.geeksforgeeks.org/problems/selection-sort/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D121" r:id="rId253" display="https://youtu.be/HGk_ypEuS24?si=7Y4nO0hu37rPwmjB"/>
-    <hyperlink ref="E121" r:id="rId254" display="https://www.geeksforgeeks.org/selection-sort/"/>
-    <hyperlink ref="C122" r:id="rId255" display="https://www.geeksforgeeks.org/problems/insertion-sort/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D122" r:id="rId256" display="https://youtu.be/HGk_ypEuS24?si=7Y4nO0hu37rPwmjB"/>
-    <hyperlink ref="E122" r:id="rId257" display="https://www.geeksforgeeks.org/insertion-sort/"/>
-    <hyperlink ref="C123" r:id="rId258" display="https://www.geeksforgeeks.org/problems/merge-sort/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D123" r:id="rId259" display="https://youtu.be/ogjf7ORKfd8?si=nHB5zJMfQf-fmOim"/>
-    <hyperlink ref="E123" r:id="rId260" display="https://www.geeksforgeeks.org/merge-sort/"/>
-    <hyperlink ref="C124" r:id="rId261" display="https://www.geeksforgeeks.org/problems/quick-sort/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D124" r:id="rId262" display="https://youtu.be/WIrA4YexLRQ?si=IBwwb6xHsi3YGOSN"/>
-    <hyperlink ref="E124" r:id="rId263" display="https://www.geeksforgeeks.org/quick-sort/"/>
-    <hyperlink ref="D126" r:id="rId264" display="https://youtu.be/Nq7ok-OyEpg?si=ryFFMk9gQcXMephl"/>
-    <hyperlink ref="E126" r:id="rId265" display="https://www.geeksforgeeks.org/what-is-linked-list/"/>
-    <hyperlink ref="D127" r:id="rId266" display="https://youtu.be/VaECK03Dz-g?si=-81fgfc9CAs2P-yg"/>
-    <hyperlink ref="E127" r:id="rId267" display="https://www.programiz.com/dsa/linked-list-operations"/>
-    <hyperlink ref="C128" r:id="rId268"/>
-    <hyperlink ref="D128" r:id="rId269" display="https://youtu.be/Nq7ok-OyEpg?si=oiwMXSQZwVteQp7t"/>
-    <hyperlink ref="E128" r:id="rId270" display="https://www.geeksforgeeks.org/search-an-element-in-a-linked-list-iterative-and-recursive/"/>
-    <hyperlink ref="C129" r:id="rId271"/>
-    <hyperlink ref="D129" r:id="rId272" display="https://youtu.be/D2vI2DNJGd8?si=vljGaBvoeAzu2yjH"/>
-    <hyperlink ref="E129" r:id="rId273" display="https://www.geeksforgeeks.org/reverse-a-linked-list/"/>
-    <hyperlink ref="C130" r:id="rId274"/>
-    <hyperlink ref="D130" r:id="rId275" display="https://youtu.be/lRY_G-u_8jk?si=NpNIWRnrnLxtwvHc"/>
-    <hyperlink ref="E130" r:id="rId276" display="https://www.geeksforgeeks.org/function-to-check-if-a-singly-linked-list-is-palindrome/"/>
-    <hyperlink ref="C131" r:id="rId277"/>
-    <hyperlink ref="D131" r:id="rId278" display="https://youtu.be/7LjQ57RqgEc?si=7TB3YSJldSkveCM6"/>
-    <hyperlink ref="E131" r:id="rId279" display="https://www.geeksforgeeks.org/insert-node-middle-linked-list/"/>
-    <hyperlink ref="C132" r:id="rId280"/>
-    <hyperlink ref="D132" r:id="rId281" display="https://youtu.be/0DYoPz2Tpt4?si=kwaZaI8b848cqh7q"/>
-    <hyperlink ref="E132" r:id="rId282" display="https://www.geeksforgeeks.org/write-a-function-to-get-the-intersection-point-of-two-linked-lists/"/>
-    <hyperlink ref="C133" r:id="rId283" display="https://www.geeksforgeeks.org/problems/union-of-two-linked-list/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D133" r:id="rId284" display="https://youtu.be/wvcQg43_V8U?si=hnKPSWEqSjHN9dNn"/>
-    <hyperlink ref="E133" r:id="rId285" display="https://www.geeksforgeeks.org/union-and-intersection-of-two-linked-lists/"/>
-    <hyperlink ref="C134" r:id="rId286"/>
-    <hyperlink ref="D134" r:id="rId287" display="https://youtu.be/icnp4FJdZ_c?si=NZr1bzvtR_ARASzF"/>
-    <hyperlink ref="E134" r:id="rId288" display="https://www.geeksforgeeks.org/delete-a-node-from-linked-list-without-head-pointer/"/>
-    <hyperlink ref="C135" r:id="rId289"/>
-    <hyperlink ref="E135" r:id="rId290" display="https://www.geeksforgeeks.org/count-pairs-two-linked-lists-whose-sum-equal-given-value/"/>
-    <hyperlink ref="C136" r:id="rId291"/>
-    <hyperlink ref="D136" r:id="rId292" display="https://youtu.be/lIar1skcQYI?si=maRDPjLBH_7lm7XJ"/>
-    <hyperlink ref="E136" r:id="rId293" display="https://www.geeksforgeeks.org/reverse-a-linked-list-in-groups-of-given-size/"/>
-    <hyperlink ref="C138" r:id="rId294"/>
-    <hyperlink ref="D138" r:id="rId295" display="https://youtu.be/wiOo4DC5GGA?si=8SqmTgLyYwgXw95f"/>
-    <hyperlink ref="E138" r:id="rId296" display="https://www.geeksforgeeks.org/detect-loop-in-a-linked-list/"/>
-    <hyperlink ref="C139" r:id="rId297"/>
-    <hyperlink ref="D139" r:id="rId298" display="https://youtu.be/I4g1qbkTPus?si=YqFJkeqopml7lRkN"/>
-    <hyperlink ref="E139" r:id="rId299" display="https://www.geeksforgeeks.org/find-length-of-loop-in-linked-list/"/>
-    <hyperlink ref="C140" r:id="rId300"/>
-    <hyperlink ref="D140" r:id="rId301" display="https://youtu.be/2Kd0KKmmHFc?si=G-cVazaPJN8XjgfB"/>
-    <hyperlink ref="E140" r:id="rId302" display="https://www.geeksforgeeks.org/find-first-node-of-loop-in-a-linked-list/"/>
-    <hyperlink ref="C141" r:id="rId303"/>
-    <hyperlink ref="D141" r:id="rId304" display="https://youtu.be/_BG9rjkAXj8?si=egrP9V6ROMAip9jT"/>
-    <hyperlink ref="E141" r:id="rId305" display="https://www.geeksforgeeks.org/detect-and-remove-loop-in-a-linked-list/"/>
-    <hyperlink ref="C143" r:id="rId306"/>
-    <hyperlink ref="D143" r:id="rId307" display="https://youtu.be/gRII7LhdJWc?si=q-xNQeYvdXPR8WWj"/>
-    <hyperlink ref="E143" r:id="rId308" display="https://www.geeksforgeeks.org/sort-a-linked-list-of-0s-1s-or-2s/"/>
-    <hyperlink ref="C144" r:id="rId309"/>
-    <hyperlink ref="D144" r:id="rId310" display="https://youtu.be/bN8nk4ZXzK0?si=iA2AjojAqKG9d_WU"/>
-    <hyperlink ref="E144" r:id="rId311" display="https://www.geeksforgeeks.org/pairwise-swap-elements-of-a-given-linked-list/"/>
-    <hyperlink ref="C145" r:id="rId312"/>
-    <hyperlink ref="D145" r:id="rId313" display="https://youtu.be/q5a5OiGbT6Q?si=IMmJI7RvGvEP59_C"/>
-    <hyperlink ref="E145" r:id="rId314" display="https://www.geeksforgeeks.org/merge-two-sorted-linked-lists/"/>
-    <hyperlink ref="C146" r:id="rId315"/>
-    <hyperlink ref="D146" r:id="rId316" display="https://youtu.be/ogjf7ORKfd8?si=rzOnEXKe2To-rSdw"/>
-    <hyperlink ref="E146" r:id="rId317" display="https://www.geeksforgeeks.org/merge-sort-for-linked-list/"/>
-    <hyperlink ref="C147" r:id="rId318" display="https://www.geeksforgeeks.org/problems/quick-sort-on-linked-list/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D147" r:id="rId319" display="https://youtu.be/WIrA4YexLRQ?si=-NZqIbzEpb-6OARV"/>
-    <hyperlink ref="E147" r:id="rId320" display="https://www.geeksforgeeks.org/quicksort-on-singly-linked-list/"/>
-    <hyperlink ref="D148" r:id="rId321" display="https://youtu.be/YJKVTnOJXSY?si=v8RSH10efQJUvW0C"/>
-    <hyperlink ref="E148" r:id="rId322" display="https://www.geeksforgeeks.org/remove-duplicates-from-a-sorted-linked-list/"/>
-    <hyperlink ref="C149" r:id="rId323"/>
-    <hyperlink ref="D149" r:id="rId324" display="https://www.youtube.com/live/JfWROTUQcn8?si=o9X1KOCltap_orbJ"/>
-    <hyperlink ref="E149" r:id="rId325" display="https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/"/>
-    <hyperlink ref="C151" r:id="rId326"/>
-    <hyperlink ref="D151" r:id="rId327" display="https://youtu.be/aXQWhbvT3w0?si=YWdIiQXsrfQHnrYn"/>
-    <hyperlink ref="E151" r:id="rId328" display="https://www.geeksforgeeks.org/add-1-number-represented-linked-list/"/>
-    <hyperlink ref="C152" r:id="rId329"/>
-    <hyperlink ref="D152" r:id="rId330" display="https://youtu.be/LBVsXSMOIk4?si=iIQRk_sF9zAtwknT"/>
-    <hyperlink ref="E152" r:id="rId331" display="https://www.geeksforgeeks.org/add-two-numbers-represented-by-linked-list/"/>
-    <hyperlink ref="C153" r:id="rId332"/>
-    <hyperlink ref="E153" r:id="rId333" display="https://www.geeksforgeeks.org/subtract-two-numbers-represented-as-linked-lists/"/>
-    <hyperlink ref="C155" r:id="rId334"/>
-    <hyperlink ref="D155" r:id="rId335" display="https://youtu.be/uT7YI7XbTY8?si=ueKdt7ev8rjshlGW"/>
-    <hyperlink ref="E155" r:id="rId336" display="https://www.geeksforgeeks.org/rearrange-a-given-linked-list-in-place/"/>
-    <hyperlink ref="C156" r:id="rId337"/>
-    <hyperlink ref="D156" r:id="rId338" display="https://youtu.be/ysytSSXpAI0?si=K3PCYAXGifgKqL1p"/>
-    <hyperlink ref="E156" r:id="rId339" display="https://www.geeksforgeeks.org/flattening-a-linked-list/"/>
-    <hyperlink ref="C157" r:id="rId340"/>
-    <hyperlink ref="D157" r:id="rId341" display="https://youtu.be/jDPrM5XIqzM?si=w0IEUl9Y2qmXSdtC"/>
-    <hyperlink ref="E157" r:id="rId342" display="https://www.geeksforgeeks.org/delete-nodes-which-have-a-greater-value-on-right-side/"/>
-    <hyperlink ref="C158" r:id="rId343"/>
-    <hyperlink ref="D158" r:id="rId344" display="https://youtu.be/icnp4FJdZ_c?si=a2BJWMCc9ETeevAO"/>
-    <hyperlink ref="E158" r:id="rId345" display="https://www.geeksforgeeks.org/delete-n-nodes-after-m-nodes-of-a-linked-list/"/>
-    <hyperlink ref="D159" r:id="rId346" display="https://youtu.be/Mh0NH_SD92k?si=_jaOPDZKpnHohet2"/>
-    <hyperlink ref="C160" r:id="rId347"/>
-    <hyperlink ref="D160" r:id="rId348" display="https://youtu.be/VNf6VynfpdM?si=e1slTowpTqIc---M"/>
-    <hyperlink ref="E160" r:id="rId349" display="https://www.geeksforgeeks.org/a-linked-list-with-next-and-arbit-pointer/"/>
-    <hyperlink ref="C161" r:id="rId350"/>
-    <hyperlink ref="D161" r:id="rId351" display="https://youtu.be/6i_T5kkfv4A?si=L6rVlrvdYuSXGiWa"/>
-    <hyperlink ref="E161" r:id="rId352" display="https://www.geeksforgeeks.org/length-longest-palindrome-list-linked-list-using-o1-extra-space/"/>
-    <hyperlink ref="E162" r:id="rId353" display="https://www.geeksforgeeks.org/circular-linked-list/"/>
-    <hyperlink ref="D164" r:id="rId354" display="https://youtu.be/Nq7ok-OyEpg?si=dDrqbUkV_lKFkLSV"/>
-    <hyperlink ref="E164" r:id="rId355" display="https://www.geeksforgeeks.org/what-is-linked-list/"/>
-    <hyperlink ref="C165" r:id="rId356"/>
-    <hyperlink ref="D165" r:id="rId357" display="https://youtu.be/u3WUW2qe6ww?si=hAazIXgy1oPd1_KJ"/>
-    <hyperlink ref="E165" r:id="rId358" display="https://www.geeksforgeeks.org/reverse-a-doubly-linked-list/"/>
-    <hyperlink ref="C166" r:id="rId359"/>
-    <hyperlink ref="D166" r:id="rId360" display="https://youtu.be/YitR4dQsddE?si=mrZaT1w0xdI_VKYJ"/>
-    <hyperlink ref="E166" r:id="rId361" display="https://www.geeksforgeeks.org/find-pairs-given-sum-doubly-linked-list/"/>
-    <hyperlink ref="C169" r:id="rId362"/>
-    <hyperlink ref="E169" r:id="rId363" display="https://www.geeksforgeeks.org/introduction-to-stack-data-structure-and-algorithm-tutorials/"/>
-    <hyperlink ref="C170" r:id="rId364"/>
-    <hyperlink ref="D170" r:id="rId365" display="https://youtu.be/GYptUgnIM_I?si=YEr87UrxZw1xaMk3"/>
-    <hyperlink ref="E170" r:id="rId366" display="https://www.geeksforgeeks.org/implement-two-stacks-in-an-array/"/>
-    <hyperlink ref="C171" r:id="rId367"/>
-    <hyperlink ref="D171" r:id="rId368" display="https://youtu.be/wkDfsKijrZ8?si=xmSeeK82cI-4hsWZ"/>
-    <hyperlink ref="E171" r:id="rId369" display="https://www.geeksforgeeks.org/check-if-given-parentheses-expression-is-balanced-or-not/"/>
-    <hyperlink ref="C172" r:id="rId370"/>
-    <hyperlink ref="E172" r:id="rId371" display="https://www.geeksforgeeks.org/design-a-stack-that-supports-getmin-in-o1-time-and-o1-extra-space/"/>
-    <hyperlink ref="C174" r:id="rId372"/>
-    <hyperlink ref="D174" r:id="rId373" display="https://youtu.be/Du881K7Jtk8?si=1KDoD1_Ke3mzxlL1"/>
-    <hyperlink ref="E174" r:id="rId374" display="https://www.geeksforgeeks.org/next-greater-element/"/>
-    <hyperlink ref="C175" r:id="rId375"/>
-    <hyperlink ref="E175" r:id="rId376" display="https://www.geeksforgeeks.org/find-the-next-greater-element-in-a-circular-array/"/>
-    <hyperlink ref="C177" r:id="rId377"/>
-    <hyperlink ref="D177" r:id="rId378" display="https://youtu.be/_RtghJnM1Qo?si=4qrv3aDDwijeRm_o"/>
-    <hyperlink ref="E177" r:id="rId379" display="https://www.geeksforgeeks.org/find-the-nearest-smaller-numbers-on-left-side-in-an-array/"/>
-    <hyperlink ref="C178" r:id="rId380"/>
-    <hyperlink ref="D178" r:id="rId381" display="https://youtu.be/_RtghJnM1Qo?si=4qrv3aDDwijeRm_o"/>
-    <hyperlink ref="E178" r:id="rId382" display="https://www.procoding.org/nearest-smaller-to-right"/>
-    <hyperlink ref="C179" r:id="rId383"/>
-    <hyperlink ref="D179" r:id="rId384" display="https://youtu.be/slYh0ZNEqSw?si=Bb04H9MqRP1wTDDl"/>
-    <hyperlink ref="E179" r:id="rId385" display="https://www.geeksforgeeks.org/the-stock-span-problem/"/>
-    <hyperlink ref="C180" r:id="rId386" display="https://www.geeksforgeeks.org/problems/trapping-rain-water-1587115621/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D180" r:id="rId387" display="https://youtu.be/m18Hntz4go8?si=7qLelcwMU1zX_f8T"/>
-    <hyperlink ref="E180" r:id="rId388" display="https://www.geeksforgeeks.org/trapping-rain-water/"/>
-    <hyperlink ref="C181" r:id="rId389"/>
-    <hyperlink ref="D181" r:id="rId390" display="https://youtu.be/X0X6G-eWgQ8?si=MRIKghS-DLv_7Pi2"/>
-    <hyperlink ref="E181" r:id="rId391" display="https://www.geeksforgeeks.org/largest-rectangular-area-in-a-histogram-using-stack/"/>
-    <hyperlink ref="C182" r:id="rId392"/>
-    <hyperlink ref="D182" r:id="rId393" display="https://youtu.be/tOylVCugy9k?si=5qpEF2oU_iQyv1yp"/>
-    <hyperlink ref="E182" r:id="rId394" display="https://www.geeksforgeeks.org/maximum-size-rectangle-binary-sub-matrix-1s/"/>
-    <hyperlink ref="C184" r:id="rId395"/>
-    <hyperlink ref="D184" r:id="rId396" display="https://youtu.be/PAceaOSnxQs?si=LFGbZRMkHTMthAqQ"/>
-    <hyperlink ref="E184" r:id="rId397" display="https://www.geeksforgeeks.org/convert-infix-expression-to-postfix-expression/"/>
-    <hyperlink ref="C185" r:id="rId398"/>
-    <hyperlink ref="D185" r:id="rId399" display="https://youtu.be/u3paQa8KXu0?si=v-QZxZvRK7yRTdnm"/>
-    <hyperlink ref="E185" r:id="rId400" display="https://www.geeksforgeeks.org/evaluation-of-postfix-expression/"/>
-    <hyperlink ref="C186" r:id="rId401"/>
-    <hyperlink ref="D186" r:id="rId402" display="https://youtu.be/RY4GkLahbCI?si=PxZ0CNQSmPe5Iri2"/>
-    <hyperlink ref="E186" r:id="rId403" display="https://www.geeksforgeeks.org/prefix-postfix-conversion/"/>
-    <hyperlink ref="C187" r:id="rId404"/>
-    <hyperlink ref="E187" r:id="rId405" display="https://www.geeksforgeeks.org/arithmetic-expression-evalution/"/>
-    <hyperlink ref="C189" r:id="rId406"/>
-    <hyperlink ref="D189" r:id="rId407" display="https://youtu.be/BmZnJehDzyU?si=bZejmkHrQhG9nc-D"/>
-    <hyperlink ref="E189" r:id="rId408" display="https://www.geeksforgeeks.org/program-to-insert-an-element-at-the-bottom-of-a-stack/"/>
-    <hyperlink ref="C190" r:id="rId409"/>
-    <hyperlink ref="D190" r:id="rId410" display="https://youtu.be/SW14tOda_kI?si=8j5-licSNQkxX7GW"/>
-    <hyperlink ref="E190" r:id="rId411" display="https://www.geeksforgeeks.org/reverse-a-stack-using-recursion/"/>
-    <hyperlink ref="C191" r:id="rId412"/>
-    <hyperlink ref="D191" r:id="rId413" display="https://youtu.be/SjDq1xYxC44?si=Y3th_GK9E5TE4LQt"/>
-    <hyperlink ref="E191" r:id="rId414" display="https://www.geeksforgeeks.org/sort-a-stack-using-recursion/"/>
-    <hyperlink ref="C193" r:id="rId415"/>
-    <hyperlink ref="D193" r:id="rId416" display="https://youtu.be/9u2BJfmWNEg?si=6KkJHm8rjX6xTOsm"/>
-    <hyperlink ref="E193" r:id="rId417" display="https://www.geeksforgeeks.org/the-celebrity-problem/"/>
-    <hyperlink ref="C194" r:id="rId418"/>
-    <hyperlink ref="D194" r:id="rId419" display="https://youtu.be/fIdNHd5nEqI?si=AX5qTxIvmvKKlyRf"/>
-    <hyperlink ref="E194" r:id="rId420" display="https://www.geeksforgeeks.org/reduce-the-string-by-removing-k-consecutive-identical-characters/"/>
-    <hyperlink ref="C195" r:id="rId421"/>
-    <hyperlink ref="D195" r:id="rId422" display="https://www.youtube.com/live/Bg0Y9__J8UE?si=bR4Jmm1QtbwHocbQ"/>
-    <hyperlink ref="E195" r:id="rId423" display="https://www.geeksforgeeks.org/minimum-number-of-bracket-reversals-needed-to-make-an-expression-balanced/"/>
-    <hyperlink ref="C198" r:id="rId424"/>
-    <hyperlink ref="D198" r:id="rId425" display="https://youtu.be/M6GnoUDpqEE?si=_dqoKIYUU275Hcmv"/>
-    <hyperlink ref="E198" r:id="rId426" display="https://www.geeksforgeeks.org/array-implementation-of-queue-simple/"/>
-    <hyperlink ref="C199" r:id="rId427"/>
-    <hyperlink ref="E199" r:id="rId428" display="https://www.geeksforgeeks.org/queue-linked-list-implementation/"/>
-    <hyperlink ref="C200" r:id="rId429"/>
-    <hyperlink ref="D200" r:id="rId430" display="https://youtu.be/3Et9MrMc02A?si=voYSp9_jK2S7pkFr"/>
-    <hyperlink ref="E200" r:id="rId431" display="https://www.geeksforgeeks.org/implement-stack-using-queue/"/>
-    <hyperlink ref="C201" r:id="rId432"/>
-    <hyperlink ref="D201" r:id="rId433" display="https://youtu.be/jDZQKzEtbYQ?si=-3eKyh6SDVQXJPIv"/>
-    <hyperlink ref="E201" r:id="rId434" display="https://www.geeksforgeeks.org/implement-stack-using-queue/"/>
-    <hyperlink ref="C202" r:id="rId435"/>
-    <hyperlink ref="E202" r:id="rId436" display="https://www.geeksforgeeks.org/reversing-a-queue/"/>
-    <hyperlink ref="C204" r:id="rId437"/>
-    <hyperlink ref="D204" r:id="rId438" display="https://youtu.be/_gJ3to4RyeQ?si=qK6-vjLpG1O_jjW3"/>
-    <hyperlink ref="E204" r:id="rId439" display="https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/"/>
-    <hyperlink ref="C205" r:id="rId440"/>
-    <hyperlink ref="D205" r:id="rId441" display="https://youtu.be/_gJ3to4RyeQ?si=qK6-vjLpG1O_jjW3"/>
-    <hyperlink ref="E205" r:id="rId442" display="https://www.geeksforgeeks.org/find-first-non-repeating-character-stream-characters/"/>
-    <hyperlink ref="C206" r:id="rId443"/>
-    <hyperlink ref="D206" r:id="rId444" display="https://www.youtube.com/watch?v=_gJ3to4RyeQ&amp;t=4244s"/>
-    <hyperlink ref="E206" r:id="rId445" display="https://www.geeksforgeeks.org/reversing-first-k-elements-queue/"/>
-    <hyperlink ref="C207" r:id="rId446"/>
-    <hyperlink ref="D207" r:id="rId447" display="https://youtu.be/xDEuM5qa0zg?si=1I7GJk3ep77i7dN3"/>
-    <hyperlink ref="E207" r:id="rId448" display="https://www.geeksforgeeks.org/lru-cache-implementation/"/>
-    <hyperlink ref="C208" r:id="rId449"/>
-    <hyperlink ref="E208" r:id="rId450" display="https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/"/>
-    <hyperlink ref="C209" r:id="rId451"/>
-    <hyperlink ref="E209" r:id="rId452" display="https://www.geeksforgeeks.org/nearly-sorted-algorithm/"/>
-    <hyperlink ref="C212" r:id="rId453" display="https://www.geeksforgeeks.org/problems/max-sum-subarray-of-size-k5313/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D212" r:id="rId454" display="https://youtu.be/TCHSXAu5pls?si=ZP_jrOEraTJAophE"/>
-    <hyperlink ref="E212" r:id="rId455" display="https://www.geeksforgeeks.org/find-maximum-minimum-sum-subarray-size-k/"/>
-    <hyperlink ref="C213" r:id="rId456"/>
-    <hyperlink ref="D213" r:id="rId457" display="https://www.youtube.com/live/3QSvHEmJAkc?si=O76LO8eM72LpKL4s"/>
-    <hyperlink ref="E213" r:id="rId458" display="https://www.geeksforgeeks.org/count-distinct-elements-in-every-window-of-size-k/"/>
-    <hyperlink ref="C214" r:id="rId459"/>
-    <hyperlink ref="D214" r:id="rId460" display="https://www.youtube.com/live/QIDV7m1JrnA?si=Lmr9b8Zi6H06MCTS"/>
-    <hyperlink ref="E214" r:id="rId461" display="https://www.geeksforgeeks.org/first-negative-integer-every-window-size-k/"/>
-    <hyperlink ref="C215" r:id="rId462"/>
-    <hyperlink ref="D215" r:id="rId463" display="https://youtu.be/CZQGRp93K4k?si=7zprdiDcdlnC9vmM"/>
-    <hyperlink ref="E215" r:id="rId464" display="https://www.geeksforgeeks.org/sliding-window-maximum-maximum-of-all-subarrays-of-size-k/"/>
-    <hyperlink ref="C216" r:id="rId465"/>
-    <hyperlink ref="D216" r:id="rId466" display="https://youtu.be/WIkO_t1Kam8?si=u2P3Mo1qvBqxwfRv"/>
-    <hyperlink ref="E216" r:id="rId467" display="https://www.geeksforgeeks.org/count-of-substrings-of-length-k-with-exactly-k-distinct-characters/"/>
-    <hyperlink ref="C217" r:id="rId468"/>
-    <hyperlink ref="D217" r:id="rId469" display="https://www.youtube.com/live/CK8PIAF-m2E?si=t61U2qRD6k7jeFwn"/>
-    <hyperlink ref="E217" r:id="rId470" display="https://www.geeksforgeeks.org/find-the-maximum-of-minimums-for-every-window-size-in-a-given-array/"/>
-    <hyperlink ref="C219" r:id="rId471"/>
-    <hyperlink ref="D219" r:id="rId472" display="https://youtu.be/Ofl4KgFhLsM?si=68FBAztFdbHbV_CF"/>
-    <hyperlink ref="E219" r:id="rId473" display="https://www.geeksforgeeks.org/find-subarray-with-given-sum/"/>
-    <hyperlink ref="C220" r:id="rId474"/>
-    <hyperlink ref="D220" r:id="rId475" display="https://youtu.be/frf7qxiN2qU?si=3VDd0PuUXyWxTFTr"/>
-    <hyperlink ref="E220" r:id="rId476" display="https://www.geeksforgeeks.org/longest-sub-array-sum-k/"/>
-    <hyperlink ref="C221" r:id="rId477"/>
-    <hyperlink ref="D221" r:id="rId478" display="https://youtu.be/xmguZ6GbatA?si=Zxs8fEIzorVIa5_X"/>
-    <hyperlink ref="E221" r:id="rId479" display="https://www.geeksforgeeks.org/find-if-there-is-a-subarray-with-0-sum/"/>
-    <hyperlink ref="C222" r:id="rId480"/>
-    <hyperlink ref="D222" r:id="rId481" display="https://youtu.be/zm50uGBsSz4?si=hGS8FZK2mWMPg-vX"/>
-    <hyperlink ref="E222" r:id="rId482" display="https://www.geeksforgeeks.org/smallest-window-contains-characters-string/"/>
-    <hyperlink ref="C223" r:id="rId483"/>
-    <hyperlink ref="D223" r:id="rId484" display="https://www.youtube.com/live/FMxJQqWaD28?si=py1VR3QKmYSdtQWy"/>
-    <hyperlink ref="E223" r:id="rId485" display="https://www.geeksforgeeks.org/smallest-window-containing-0-1-and-2/"/>
-    <hyperlink ref="C224" r:id="rId486"/>
-    <hyperlink ref="D224" r:id="rId487" display="https://youtu.be/jSto0O4AJbM?si=y-lWXYWB4yZZ9cVQ"/>
-    <hyperlink ref="E224" r:id="rId488" display="https://www.geeksforgeeks.org/find-the-smallest-window-in-a-string-containing-all-characters-of-another-string/"/>
-    <hyperlink ref="C225" r:id="rId489"/>
-    <hyperlink ref="D225" r:id="rId490" display="https://youtu.be/qtVh-XEpsJo?si=DdoYedxtXw0DDrNf"/>
-    <hyperlink ref="E225" r:id="rId491" display="https://www.geeksforgeeks.org/length-of-the-longest-substring-without-repeating-characters/"/>
-    <hyperlink ref="C226" r:id="rId492"/>
-    <hyperlink ref="D226" r:id="rId493" display="https://youtu.be/xmguZ6GbatA?si=x29mj29byvR_FBBd"/>
-    <hyperlink ref="E226" r:id="rId494" display="https://www.geeksforgeeks.org/largest-subarray-with-equal-number-of-0s-and-1s/"/>
-    <hyperlink ref="C227" r:id="rId495"/>
-    <hyperlink ref="D227" r:id="rId496" display="https://youtu.be/fYgU6Bi2fRg?si=q45yqwde54whHlR2"/>
-    <hyperlink ref="E227" r:id="rId497" display="https://www.geeksforgeeks.org/count-occurrences-of-anagrams/"/>
-    <hyperlink ref="C228" r:id="rId498"/>
-    <hyperlink ref="D228" r:id="rId499" display="https://youtu.be/Mo33MjjMlyA?si=01XiyS0oBtaaFenb"/>
-    <hyperlink ref="E228" r:id="rId500" display="https://www.geeksforgeeks.org/maximum-consecutive-ones-formed-by-deleting-at-most-k-0s/"/>
-    <hyperlink ref="C229" r:id="rId501"/>
-    <hyperlink ref="C230" r:id="rId502"/>
-    <hyperlink ref="D230" r:id="rId503" display="https://youtu.be/gqXU1UyA8pk?si=ytPr4mkVqLJfD7v4"/>
-    <hyperlink ref="C231" r:id="rId504"/>
-    <hyperlink ref="D231" r:id="rId505" display="https://youtu.be/gqXU1UyA8pk?si=rMwzYE99DsiO2Gj-"/>
-    <hyperlink ref="C232" r:id="rId506"/>
-    <hyperlink ref="D232" r:id="rId507" display="https://youtu.be/jSto0O4AJbM?si=-ls0q5Dhw9uqf-cF"/>
-    <hyperlink ref="C233" r:id="rId508"/>
-    <hyperlink ref="D233" r:id="rId509" display="https://youtu.be/jSto0O4AJbM?si=-ls0q5Dhw9uqf-cF"/>
-    <hyperlink ref="C234" r:id="rId510"/>
-    <hyperlink ref="D234" r:id="rId511" display="https://youtu.be/akwRFY2eyXs?si=AKnbBikPvDJtF2lA"/>
-    <hyperlink ref="D236" r:id="rId512" display="https://youtu.be/_ANrF3FJm7I?si=U4__gOBVdaEBZwJ9"/>
-    <hyperlink ref="C237" r:id="rId513"/>
-    <hyperlink ref="D237" r:id="rId514" display="https://youtu.be/RlUu72JrOCQ?si=Vfh9JTBxwgVQGeIk"/>
-    <hyperlink ref="E237" r:id="rId515" display="https://www.geeksforgeeks.org/preorder-traversal-of-binary-tree/"/>
-    <hyperlink ref="C238" r:id="rId516"/>
-    <hyperlink ref="D238" r:id="rId517" display="https://youtu.be/Z_NEgBgbRVI?si=Ji2rLUtTb7-6OylN"/>
-    <hyperlink ref="E238" r:id="rId518" display="https://www.geeksforgeeks.org/inorder-traversal-of-binary-tree/"/>
-    <hyperlink ref="C239" r:id="rId519"/>
-    <hyperlink ref="D239" r:id="rId520" display="https://youtu.be/COQOU6klsBg?si=0yuM-upS3qmX2kWF"/>
-    <hyperlink ref="E239" r:id="rId521" display="https://www.geeksforgeeks.org/postorder-traversal-of-binary-tree/"/>
-    <hyperlink ref="C240" r:id="rId522"/>
-    <hyperlink ref="D240" r:id="rId523" display="https://youtu.be/EoAsWbO7sqg?si=1NSXTiOBM6LObxiN"/>
-    <hyperlink ref="E240" r:id="rId524" display="https://www.geeksforgeeks.org/level-order-tree-traversal/"/>
-    <hyperlink ref="C241" r:id="rId525"/>
-    <hyperlink ref="D241" r:id="rId526" display="https://youtu.be/0ca1nvR0be4?si=53I0bM9ppRbgnF0x"/>
-    <hyperlink ref="E241" r:id="rId527" display="https://www.geeksforgeeks.org/boundary-traversal-of-binary-tree/"/>
-    <hyperlink ref="C242" r:id="rId528"/>
-    <hyperlink ref="D242" r:id="rId529" display="https://youtu.be/q_a6lpbKJdw?si=uewd5ll1X-h-GTzT"/>
-    <hyperlink ref="E242" r:id="rId530" display="https://www.geeksforgeeks.org/vertical-order-traversal-of-binary-tree-using-map/"/>
-    <hyperlink ref="C243" r:id="rId531"/>
-    <hyperlink ref="D243" r:id="rId532" display="https://youtu.be/Et9OCDNvJ78?si=oeOojp-R7oWt1IVF"/>
-    <hyperlink ref="E243" r:id="rId533" display="https://www.geeksforgeeks.org/print-nodes-top-view-binary-tree/"/>
-    <hyperlink ref="C244" r:id="rId534"/>
-    <hyperlink ref="D244" r:id="rId535" display="https://youtu.be/0FtVY6I4pB8?si=hfNz5XIojTt16c5K"/>
-    <hyperlink ref="E244" r:id="rId536" display="http://v/"/>
-    <hyperlink ref="C245" r:id="rId537"/>
-    <hyperlink ref="D245" r:id="rId538" display="https://youtu.be/KV4mRzTjlAk?si=_fgLNgJSstGTAq5h"/>
-    <hyperlink ref="E245" r:id="rId539" display="https://www.geeksforgeeks.org/print-left-view-binary-tree/"/>
-    <hyperlink ref="C246" r:id="rId540"/>
-    <hyperlink ref="D246" r:id="rId541" display="https://youtu.be/KV4mRzTjlAk?si=_fgLNgJSstGTAq5h"/>
-    <hyperlink ref="E246" r:id="rId542" display="https://www.geeksforgeeks.org/print-right-view-binary-tree-2/"/>
-    <hyperlink ref="C247" r:id="rId543"/>
-    <hyperlink ref="E247" r:id="rId544" display="https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/"/>
-    <hyperlink ref="E249" r:id="rId545" display="https://www.geeksforgeeks.org/insertion-in-binary-search-tree/"/>
-    <hyperlink ref="C250" r:id="rId546"/>
-    <hyperlink ref="D250" r:id="rId547" display="https://youtu.be/eD3tmO66aBA?si=USzVxf8j_Bh8cF9s"/>
-    <hyperlink ref="E250" r:id="rId548" display="https://www.geeksforgeeks.org/find-the-maximum-depth-or-height-of-a-tree/"/>
-    <hyperlink ref="C251" r:id="rId549"/>
-    <hyperlink ref="D251" r:id="rId550" display="https://youtu.be/Rezetez59Nk?si=1PPe8FweQ_aY4r5R"/>
-    <hyperlink ref="E251" r:id="rId551" display="https://www.geeksforgeeks.org/diameter-of-a-binary-tree/"/>
-    <hyperlink ref="C252" r:id="rId552"/>
-    <hyperlink ref="D252" r:id="rId553" display="https://youtu.be/BhuvF_-PWS0?si=jkA1zhLsZjSM3As8"/>
-    <hyperlink ref="E252" r:id="rId554" display="https://www.geeksforgeeks.org/write-c-code-to-determine-if-two-trees-are-identical/"/>
-    <hyperlink ref="C253" r:id="rId555"/>
-    <hyperlink ref="D253" r:id="rId556" display="https://youtu.be/E36O5SWp-LE?si=cIhKUJ-T11II1wJx"/>
-    <hyperlink ref="E253" r:id="rId557" display="https://www.geeksforgeeks.org/check-if-a-binary-tree-is-subtree-of-another-binary-tree/"/>
-    <hyperlink ref="C254" r:id="rId558"/>
-    <hyperlink ref="D254" r:id="rId559" display="https://youtu.be/Yt50Jfbd8Po?si=W4TpdW3XaW-S4cFc"/>
-    <hyperlink ref="E254" r:id="rId560" display="https://www.geeksforgeeks.org/how-to-determine-if-a-binary-tree-is-balanced/"/>
-    <hyperlink ref="C255" r:id="rId561"/>
-    <hyperlink ref="D255" r:id="rId562" display="https://youtu.be/_-QHfMDde90?si=HJ5h-9Tm18BT0ezj"/>
-    <hyperlink ref="E255" r:id="rId563" display="https://www.geeksforgeeks.org/lowest-common-ancestor-binary-tree-set-1/"/>
-    <hyperlink ref="C256" r:id="rId564"/>
-    <hyperlink ref="E256" r:id="rId565" display="https://www.geeksforgeeks.org/check-if-a-given-binary-tree-is-sumtree/"/>
-    <hyperlink ref="C257" r:id="rId566"/>
-    <hyperlink ref="D257" r:id="rId567" display="https://youtu.be/nKggNAiEpBE?si=dUY7QGWwUBs3XxYs"/>
-    <hyperlink ref="E257" r:id="rId568" display="https://www.geeksforgeeks.org/symmetric-tree-tree-which-is-mirror-image-of-itself/"/>
-    <hyperlink ref="C258" r:id="rId569"/>
-    <hyperlink ref="D258" r:id="rId570" display="https://youtu.be/FtdyIHBaKjc?si=pf4peCzMbF56N5UF"/>
-    <hyperlink ref="E258" r:id="rId571" display="https://www.geeksforgeeks.org/write-an-efficient-c-function-to-convert-a-tree-into-its-mirror-tree/"/>
-    <hyperlink ref="C259" r:id="rId572"/>
-    <hyperlink ref="D259" r:id="rId573" display="https://youtu.be/Q9Np3-FX91U?si=ioypQwgjldt1tCGQ"/>
-    <hyperlink ref="C261" r:id="rId574"/>
-    <hyperlink ref="D261" r:id="rId575" display="https://youtu.be/fmflMqVOC7k?si=iSdK8HdoNEeKJARf"/>
-    <hyperlink ref="E261" r:id="rId576" display="https://www.geeksforgeeks.org/given-a-binary-tree-print-all-root-to-leaf-paths/"/>
-    <hyperlink ref="C262" r:id="rId577"/>
-    <hyperlink ref="E262" r:id="rId578" display="https://www.geeksforgeeks.org/root-to-leaf-path-sum-equal-to-a-given-number/"/>
-    <hyperlink ref="C263" r:id="rId579"/>
-    <hyperlink ref="E263" r:id="rId580" display="https://www.geeksforgeeks.org/find-maximum-path-sum-in-a-binary-tree/"/>
-    <hyperlink ref="C264" r:id="rId581"/>
-    <hyperlink ref="D264" r:id="rId582" display="https://youtu.be/7oL8kDCk1OI?si=2qC45jVcOM2sCcJI"/>
-    <hyperlink ref="E264" r:id="rId583" display="https://www.geeksforgeeks.org/count-all-k-sum-paths-in-a-binary-tree/"/>
-    <hyperlink ref="C265" r:id="rId584"/>
-    <hyperlink ref="D265" r:id="rId585" display="https://youtu.be/i9ORlEy6EsI?si=Z4dWg3diarKcc3jR"/>
-    <hyperlink ref="E265" r:id="rId586" display="https://www.geeksforgeeks.org/print-nodes-distance-k-given-node-binary-tree/"/>
-    <hyperlink ref="D266" r:id="rId587" display="https://youtu.be/wIloFJzSOfE?si=qH0sMEREyVagrVK8"/>
-    <hyperlink ref="C267" r:id="rId588"/>
-    <hyperlink ref="D267" r:id="rId589" display="https://youtu.be/joxx4hTYwcw?si=wROhziCvjrJvwsi_"/>
-    <hyperlink ref="E267" r:id="rId590" display="https://www.geeksforgeeks.org/find-distance-between-two-nodes-of-a-binary-tree/"/>
-    <hyperlink ref="C268" r:id="rId591"/>
-    <hyperlink ref="D268" r:id="rId592" display="https://youtu.be/d3ceg_7NcEY?si=dh-dWju5Pqm_WG8E"/>
-    <hyperlink ref="E268" r:id="rId593" display="https://www.geeksforgeeks.org/maximum-difference-between-node-and-its-ancestor-in-binary-tree/"/>
-    <hyperlink ref="C269" r:id="rId594"/>
-    <hyperlink ref="D269" r:id="rId595" display="https://youtu.be/2r5wLmQfD6g?si=Ah-1GqZq9ZvhcISZ"/>
-    <hyperlink ref="E269" r:id="rId596" display="https://www.geeksforgeeks.org/minimum-time-to-burn-a-tree-starting-from-a-leaf-node/"/>
-    <hyperlink ref="D270" r:id="rId597" display="https://youtu.be/p7-9UvDQZ3w?si=iz_Zheaz1rsdY4bv"/>
-    <hyperlink ref="C271" r:id="rId598"/>
-    <hyperlink ref="D271" r:id="rId599" display="https://youtu.be/FiFiNvM29ps?si=7o-MgkkpMI1Aaa5W"/>
-    <hyperlink ref="C272" r:id="rId600"/>
-    <hyperlink ref="D272" r:id="rId601" display="https://youtu.be/KcNt6v_56cc?si=TxJuxG6Ps5NYvy4g"/>
-    <hyperlink ref="E272" r:id="rId602" display="https://www.geeksforgeeks.org/binary-search-tree-data-structure/"/>
-    <hyperlink ref="C273" r:id="rId603"/>
-    <hyperlink ref="E273" r:id="rId604" display="https://www.geeksforgeeks.org/find-maximum-or-minimum-in-binary-tree/"/>
-    <hyperlink ref="C274" r:id="rId605"/>
-    <hyperlink ref="D274" r:id="rId606" display="https://youtu.be/9TJYWh0adfk?si=3x4i8tP5lxtDypuG"/>
-    <hyperlink ref="E274" r:id="rId607" display="https://www.geeksforgeeks.org/find-k-th-smallest-element-in-bst-order-statistics-in-bst/"/>
-    <hyperlink ref="C275" r:id="rId608"/>
-    <hyperlink ref="D275" r:id="rId609" display="https://youtu.be/f-sj7I5oXEI?si=QAg2Uv7BMGfJKGLY"/>
-    <hyperlink ref="E275" r:id="rId610" display="https://www.geeksforgeeks.org/a-program-to-check-if-a-binary-tree-is-bst-or-not/"/>
-    <hyperlink ref="C276" r:id="rId611"/>
-    <hyperlink ref="E276" r:id="rId612" display="https://www.geeksforgeeks.org/find-closest-element-binary-search-tree/"/>
-    <hyperlink ref="C277" r:id="rId613"/>
-    <hyperlink ref="D277" r:id="rId614" display="https://youtu.be/jfk-uX_xKK4?si=2KQlXW2aA51Tz6q5"/>
-    <hyperlink ref="E277" r:id="rId615" display="https://www.geeksforgeeks.org/count-bst-nodes-that-are-in-a-given-range/"/>
-    <hyperlink ref="C278" r:id="rId616"/>
-    <hyperlink ref="D278" r:id="rId617" display="https://youtu.be/X0oXMdtUDwo?si=JBqdu2g0ktKC4DNf"/>
-    <hyperlink ref="E278" r:id="rId618" display="https://www.geeksforgeeks.org/largest-bst-binary-tree-set-2/"/>
-    <hyperlink ref="C279" r:id="rId619"/>
-    <hyperlink ref="D279" r:id="rId620" display="https://youtu.be/cX_kPV_foZc?si=vm8U3w99lvp7UPpc"/>
-    <hyperlink ref="E279" r:id="rId621" display="https://www.geeksforgeeks.org/lowest-common-ancestor-in-a-binary-search-tree/"/>
-    <hyperlink ref="C280" r:id="rId622"/>
-    <hyperlink ref="D280" r:id="rId623" display="https://youtu.be/18w8VduomfI?si=KJ0QdPfLdk6r30Sx"/>
-    <hyperlink ref="E280" r:id="rId624" display="https://www.geeksforgeeks.org/merge-two-bsts-with-limited-extra-space/"/>
-    <hyperlink ref="C281" r:id="rId625"/>
-    <hyperlink ref="D281" r:id="rId626" display="https://youtu.be/SXKAD2svfmI?si=802ib5wC0gtY44eH"/>
-    <hyperlink ref="E281" r:id="rId627" display="https://www.geeksforgeeks.org/inorder-predecessor-successor-given-key-bst/"/>
-    <hyperlink ref="C282" r:id="rId628"/>
-    <hyperlink ref="E282" r:id="rId629" display="https://www.geeksforgeeks.org/populate-inorder-successor-for-all-nodes/"/>
-    <hyperlink ref="C283" r:id="rId630"/>
-    <hyperlink ref="D283" r:id="rId631" display="https://youtu.be/7vVEJwVvAlI?si=Uwd3HoE8H_BhHFb0"/>
-    <hyperlink ref="E283" r:id="rId632" display="https://www.geeksforgeeks.org/transform-bst-sum-tree/"/>
-    <hyperlink ref="C284" r:id="rId633"/>
-    <hyperlink ref="D284" r:id="rId634" display="https://youtu.be/kouxiP_H5WE?si=wjgRijNs4nuSCHXn"/>
-    <hyperlink ref="E284" r:id="rId635" display="https://www.geeksforgeeks.org/deletion-in-binary-search-tree/"/>
-    <hyperlink ref="C286" r:id="rId636"/>
-    <hyperlink ref="D286" r:id="rId637" display="https://youtu.be/aZNaLrVebKQ?si=gAB4STDbhesQVKi0"/>
-    <hyperlink ref="E286" r:id="rId638" display="https://www.geeksforgeeks.org/construct-tree-from-given-inorder-and-preorder-traversal/"/>
-    <hyperlink ref="C287" r:id="rId639"/>
-    <hyperlink ref="D287" r:id="rId640" display="https://youtu.be/LgLRTaEMRVc?si=-Lc1FKuOxYBj4n6u"/>
-    <hyperlink ref="E287" r:id="rId641" display="https://www.geeksforgeeks.org/construct-a-binary-tree-from-postorder-and-inorder/"/>
-    <hyperlink ref="C288" r:id="rId642"/>
-    <hyperlink ref="D288" r:id="rId643" display="https://youtu.be/UmJT3j26t1I?si=tvJcbXtbATGbAUYG"/>
-    <hyperlink ref="E288" r:id="rId644" display="https://www.geeksforgeeks.org/construct-bst-from-given-preorder-traversa/"/>
-    <hyperlink ref="C289" r:id="rId645"/>
-    <hyperlink ref="E289" r:id="rId646" display="https://www.geeksforgeeks.org/construct-a-binary-tree-from-parent-array-representation/"/>
-    <hyperlink ref="C291" r:id="rId647"/>
-    <hyperlink ref="D291" r:id="rId648" display="https://youtu.be/-YbXySKJsX8?si=7GAc6pJLr12-MB1Y"/>
-    <hyperlink ref="E291" r:id="rId649" display="https://www.geeksforgeeks.org/serialize-deserialize-binary-tree/"/>
-    <hyperlink ref="C292" r:id="rId650"/>
-    <hyperlink ref="E292" r:id="rId651" display="https://www.geeksforgeeks.org/find-largest-subtree-sum-tree/"/>
-    <hyperlink ref="C293" r:id="rId652"/>
-    <hyperlink ref="D293" r:id="rId653" display="https://youtu.be/DBxCv9NpPYM?si=jX3oFEBSEGDVyDQF"/>
-    <hyperlink ref="E293" r:id="rId654" display="https://www.geeksforgeeks.org/maximum-sum-nodes-binary-tree-no-two-adjacent/"/>
-    <hyperlink ref="C294" r:id="rId655"/>
-    <hyperlink ref="D294" r:id="rId656" display="https://youtu.be/kn0Z5_qPPzY?si=5hSUj98E7uOL1JXP"/>
-    <hyperlink ref="E294" r:id="rId657" display="https://www.geeksforgeeks.org/find-duplicate-subtrees/"/>
-    <hyperlink ref="C295" r:id="rId658"/>
-    <hyperlink ref="D295" r:id="rId659" display="https://youtu.be/sWf7k1x9XR4?si=fuqHbNz-Kw01_dI1"/>
-    <hyperlink ref="E295" r:id="rId660" display="https://www.geeksforgeeks.org/flatten-a-binary-tree-into-linked-list/"/>
-    <hyperlink ref="C298" r:id="rId661"/>
-    <hyperlink ref="D298" r:id="rId662" display="https://youtu.be/YK78FU5Ffjw?si=b9cfoplt08JA0xJQ"/>
-    <hyperlink ref="E298" r:id="rId663" display="https://www.geeksforgeeks.org/write-a-c-program-to-print-all-permutations-of-a-given-string/"/>
-    <hyperlink ref="C299" r:id="rId664"/>
-    <hyperlink ref="D299" r:id="rId665" display="https://youtu.be/qhBVWf0YafA?si=2t9tPdRW_8ySW1C3"/>
-    <hyperlink ref="E299" r:id="rId666" display="https://www.geeksforgeeks.org/distinct-permutations-string-set-2/"/>
-    <hyperlink ref="C300" r:id="rId667"/>
-    <hyperlink ref="D300" r:id="rId668" display="https://youtu.be/OyZFFqQtu98?si=h4ntlYqyMU635DUw"/>
-    <hyperlink ref="E300" r:id="rId669" display="https://www.geeksforgeeks.org/combinational-sum/"/>
-    <hyperlink ref="C301" r:id="rId670"/>
-    <hyperlink ref="D301" r:id="rId671" display="https://youtu.be/G1fRTGRxXU8?si=CqK5qT_w7EcOkAEh"/>
-    <hyperlink ref="E301" r:id="rId672" display="https://www.geeksforgeeks.org/combinational-sum/"/>
-    <hyperlink ref="C302" r:id="rId673"/>
-    <hyperlink ref="E302" r:id="rId674" display="https://www.geeksforgeeks.org/all-unique-combinations-whose-sum-equals-to-k/"/>
-    <hyperlink ref="C303" r:id="rId675"/>
-    <hyperlink ref="D303" r:id="rId676" display="https://youtu.be/bLGZhJlt4y0?si=bMDZAraICwrxmTnq"/>
-    <hyperlink ref="E303" r:id="rId677" display="https://www.geeksforgeeks.org/rat-in-a-maze/"/>
-    <hyperlink ref="C304" r:id="rId678"/>
-    <hyperlink ref="D304" r:id="rId679" display="https://youtu.be/9ByWqPzfXDU?si=HVyZBiY385QXDma5"/>
-    <hyperlink ref="E304" r:id="rId680" display="https://www.geeksforgeeks.org/find-possible-words-phone-digits/"/>
-    <hyperlink ref="C305" r:id="rId681"/>
-    <hyperlink ref="D305" r:id="rId682" display="https://youtu.be/rYkfBRtMJr8?si=xdRYuVuGFT0hm2UI"/>
-    <hyperlink ref="E305" r:id="rId683" display="https://www.geeksforgeeks.org/backtracking-to-find-all-subsets/"/>
-    <hyperlink ref="C306" r:id="rId684"/>
-    <hyperlink ref="D306" r:id="rId685" display="https://youtu.be/h4zNvA4lbtc?si=uTv2-Y2ji1klfWgb"/>
-    <hyperlink ref="E306" r:id="rId686" display="https://www.geeksforgeeks.org/find-all-unique-subsets-of-a-given-set/"/>
-    <hyperlink ref="C307" r:id="rId687"/>
-    <hyperlink ref="D307" r:id="rId688" display="https://youtu.be/i05Ju7AftcM?si=rSa6wrmVJ8vvkLLz"/>
-    <hyperlink ref="E307" r:id="rId689" display="https://www.geeksforgeeks.org/n-queen-problem-backtracking-3/"/>
-    <hyperlink ref="C308" r:id="rId690"/>
-    <hyperlink ref="C309" r:id="rId691"/>
-    <hyperlink ref="D309" r:id="rId692" display="https://youtu.be/Ya_16rXu7W8?si=c6ZdSR9XKDv4D-gR"/>
-    <hyperlink ref="E309" r:id="rId693" display="https://www.geeksforgeeks.org/print-possible-strings-can-made-placing-spaces/"/>
-    <hyperlink ref="C310" r:id="rId694"/>
-    <hyperlink ref="D310" r:id="rId695" display="https://youtu.be/s9fokUqJ76A?si=zfcDWcp1AqqDy5cG"/>
-    <hyperlink ref="E310" r:id="rId696" display="https://www.geeksforgeeks.org/print-all-combinations-of-balanced-parentheses/"/>
-    <hyperlink ref="C311" r:id="rId697"/>
-    <hyperlink ref="D311" r:id="rId698" display="https://youtu.be/XU4inpwKt8A?si=lm9MpSALwsn4roQo"/>
-    <hyperlink ref="E311" r:id="rId699" display="https://www.geeksforgeeks.org/program-generate-possible-valid-ip-addresses-given-string/"/>
-    <hyperlink ref="C312" r:id="rId700"/>
-    <hyperlink ref="D312" r:id="rId701" display="https://youtu.be/FWAIf_EVUKE?si=q2DUJbZj1T6seOwb"/>
-    <hyperlink ref="E312" r:id="rId702" display="https://www.geeksforgeeks.org/sudoku-backtracking-7/"/>
-    <hyperlink ref="C313" r:id="rId703"/>
-    <hyperlink ref="D313" r:id="rId704" display="https://youtu.be/wT7gcXLYoao?si=cG3Kl4gKxBl92-1m"/>
-    <hyperlink ref="E313" r:id="rId705" display="https://www.geeksforgeeks.org/find-the-k-th-permutation-sequence-of-first-n-natural-numbers/"/>
-    <hyperlink ref="C314" r:id="rId706" display="https://www.geeksforgeeks.org/problems/word-search"/>
-    <hyperlink ref="D314" r:id="rId707" display="https://youtu.be/pfiQ_PS1g8E?si=NSwX3AHJpS6lGme4"/>
-    <hyperlink ref="E314" r:id="rId708" display="https://www.geeksforgeeks.org/search-a-word-in-a-2d-grid-of-characters/"/>
-    <hyperlink ref="C315" r:id="rId709"/>
-    <hyperlink ref="D315" r:id="rId710" display="https://youtu.be/WBgsABoClE0?si=FBXsqWuBLwm75E81"/>
-    <hyperlink ref="E315" r:id="rId711" display="https://www.geeksforgeeks.org/palindrome-partitioning-dp-17/"/>
-    <hyperlink ref="C316" r:id="rId712"/>
-    <hyperlink ref="D316" r:id="rId713" display="https://youtu.be/qB0zZpBJlh8?si=VBKh6H4NSYT6qYVO"/>
-    <hyperlink ref="E316" r:id="rId714" display="https://www.geeksforgeeks.org/decode-string-recursively-encoded-count-followed-substring/"/>
-    <hyperlink ref="C317" r:id="rId715"/>
-    <hyperlink ref="D317" r:id="rId716" display="https://youtu.be/4eOPYDOiwFo?si=VIbEA8JDKDOvwRuD"/>
-    <hyperlink ref="E317" r:id="rId717" display="https://www.geeksforgeeks.org/permute-string-changing-case/"/>
-    <hyperlink ref="C318" r:id="rId718"/>
-    <hyperlink ref="D318" r:id="rId719" display="https://youtu.be/xlPIH9216Ak?si=NpzDre5ux8rDgSdQ"/>
-    <hyperlink ref="E318" r:id="rId720" display="https://www.geeksforgeeks.org/check-given-string-sum-string/"/>
-    <hyperlink ref="C319" r:id="rId721"/>
-    <hyperlink ref="D319" r:id="rId722" display="https://youtu.be/-3rVMYGBwO0?si=w-NmOX7Or4vw8D4T"/>
-    <hyperlink ref="E319" r:id="rId723" display="https://www.geeksforgeeks.org/boggle-find-possible-words-board-characters/"/>
-    <hyperlink ref="C320" r:id="rId724"/>
-    <hyperlink ref="D320" r:id="rId725" display="https://www.youtube.com/live/GstuPf5u3lg?si=9Ymg0mpYPLzeJ38y"/>
-    <hyperlink ref="E320" r:id="rId726" display="https://www.geeksforgeeks.org/find-maximum-number-possible-by-doing-at-most-k-swaps/"/>
-    <hyperlink ref="C321" r:id="rId727"/>
-    <hyperlink ref="D321" r:id="rId728" display="https://youtu.be/mBk4I0X46oI?si=uA-5-uc7zAgLloIe"/>
-    <hyperlink ref="E321" r:id="rId729" display="https://www.geeksforgeeks.org/partition-set-k-subsets-equal-sum/"/>
-    <hyperlink ref="D323" r:id="rId730" display="https://youtu.be/M3_pLsDdeuU?si=SItRP4M088yoch07"/>
-    <hyperlink ref="C324" r:id="rId731"/>
-    <hyperlink ref="D324" r:id="rId732" display="https://youtu.be/-tgVpUgsQ5k?si=Lss9L2Zdy8Gu6BOg"/>
-    <hyperlink ref="E324" r:id="rId733" display="https://www.geeksforgeeks.org/breadth-first-search-or-bfs-for-a-graph/"/>
-    <hyperlink ref="C325" r:id="rId734"/>
-    <hyperlink ref="D325" r:id="rId735" display="https://youtu.be/Qzf1a--rhp8?si=aGYfCnBcl_NDSFad"/>
-    <hyperlink ref="E325" r:id="rId736" display="https://www.geeksforgeeks.org/depth-first-search-or-dfs-for-a-graph/"/>
-    <hyperlink ref="C326" r:id="rId737"/>
-    <hyperlink ref="D326" r:id="rId738" display="https://youtu.be/9twcmtQj4DU?si=8a8yz9stT7quiRiP"/>
-    <hyperlink ref="E326" r:id="rId739" display="https://www.geeksforgeeks.org/detect-cycle-in-a-graph/"/>
-    <hyperlink ref="C327" r:id="rId740"/>
-    <hyperlink ref="D327" r:id="rId741" display="https://youtu.be/zQ3zgFypzX4?si=oXS_VKyOM-oL_4yz"/>
-    <hyperlink ref="E327" r:id="rId742" display="https://www.geeksforgeeks.org/detect-cycle-undirected-graph/"/>
-    <hyperlink ref="C328" r:id="rId743"/>
-    <hyperlink ref="E328" r:id="rId744" display="https://www.geeksforgeeks.org/detect-negative-cycle-graph-bellman-ford/"/>
-    <hyperlink ref="C330" r:id="rId745"/>
-    <hyperlink ref="D330" r:id="rId746" display="https://youtu.be/lea-Wl_uWXY?si=g2dSfr4n7yGr1rmo"/>
-    <hyperlink ref="E330" r:id="rId747" display="https://www.geeksforgeeks.org/strongly-connected-components/"/>
-    <hyperlink ref="C331" r:id="rId748"/>
-    <hyperlink ref="D331" r:id="rId749" display="https://youtu.be/ACzkVtewUYA?si=N0HPRxovroHd2XNQ"/>
-    <hyperlink ref="E331" r:id="rId750" display="https://pnext1.geeksforgeeks.org/problems/number-of-provinces/1?page=1&amp;category%5b%5d=Backtracking&amp;sortBy=submissions"/>
-    <hyperlink ref="C332" r:id="rId751"/>
-    <hyperlink ref="D332" r:id="rId752" display="https://youtu.be/muncqlKJrH0?si=YO3SUPZz6yDpCTM8"/>
-    <hyperlink ref="E332" r:id="rId753" display="https://www.geeksforgeeks.org/find-the-number-of-islands-using-dfs/"/>
-    <hyperlink ref="C333" r:id="rId754"/>
-    <hyperlink ref="D333" r:id="rId755" display="https://youtu.be/7zmgQSJghpo?si=T3zcl9BeVooJBUAX"/>
-    <hyperlink ref="E333" r:id="rId756" display="https://www.geeksforgeeks.org/find-the-number-of-distinct-islands-in-a-2d-matrix/"/>
-    <hyperlink ref="C334" r:id="rId757"/>
-    <hyperlink ref="D334" r:id="rId758" display="https://youtu.be/X8k48xek8g8?si=UILPOo-_LidtdV_k"/>
-    <hyperlink ref="E334" r:id="rId759" display="https://www.geeksforgeeks.org/find-number-of-closed-islands-in-given-matrix/"/>
-    <hyperlink ref="C336" r:id="rId760"/>
-    <hyperlink ref="D336" r:id="rId761" display="https://youtu.be/-vu34sct1g8?si=G9gY0BZEWVQf810J"/>
-    <hyperlink ref="E336" r:id="rId762" display="https://www.geeksforgeeks.org/bipartite-graph/"/>
-    <hyperlink ref="C337" r:id="rId763"/>
-    <hyperlink ref="D337" r:id="rId764" display="https://youtu.be/wuVwUK25Rfc?si=CYcBDjL6ARNTh1FG"/>
-    <hyperlink ref="E337" r:id="rId765" display="https://www.geeksforgeeks.org/m-coloring-problem/"/>
-    <hyperlink ref="C338" r:id="rId766"/>
-    <hyperlink ref="D338" r:id="rId767" display="https://youtu.be/C4gxoTaI71U?si=k1As9n_SZUk7dYJJ"/>
-    <hyperlink ref="E338" r:id="rId768" display="https://www.geeksforgeeks.org/shortest-path-unweighted-graph/"/>
-    <hyperlink ref="C339" r:id="rId769"/>
-    <hyperlink ref="D339" r:id="rId770" display="https://youtu.be/ZUFQfFaU-8U?si=LW37HXwpS6wWWgTC"/>
-    <hyperlink ref="E339" r:id="rId771" display="https://www.geeksforgeeks.org/shortest-path-for-directed-acyclic-graphs/"/>
-    <hyperlink ref="C340" r:id="rId772"/>
-    <hyperlink ref="D340" r:id="rId773" display="https://youtu.be/V6H1qAeB-l4?si=W36zrJBLarmVkn_C"/>
-    <hyperlink ref="E340" r:id="rId774" display="https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-greedy-algo-7/"/>
-    <hyperlink ref="C341" r:id="rId775"/>
-    <hyperlink ref="D341" r:id="rId776" display="https://www.youtube.com/live/6lgT0vEhMPo?si=pTJ2-6RIZfCDjz0X"/>
-    <hyperlink ref="E341" r:id="rId777" display="https://www.geeksforgeeks.org/minimum-steps-reach-target-knight/"/>
-    <hyperlink ref="C342" r:id="rId778"/>
-    <hyperlink ref="E342" r:id="rId779" display="https://www.geeksforgeeks.org/shortest-path-from-a-source-cell-to-a-destination-cell-of-a-binary-matrix-through-cells-consisting-only-of-1s/"/>
-    <hyperlink ref="C343" r:id="rId780"/>
-    <hyperlink ref="D343" r:id="rId781" display="https://youtu.be/Eso1Lu4mtmU?si=EqoQnXHqvPXzrtDP"/>
-    <hyperlink ref="E343" r:id="rId782" display="https://www.geeksforgeeks.org/find-if-there-is-a-path-between-two-vertices-in-an-undirected-graph/"/>
-    <hyperlink ref="C344" r:id="rId783"/>
-    <hyperlink ref="E344" r:id="rId784" display="https://www.geeksforgeeks.org/maximum-time-required-for-all-patients-to-get-infected/"/>
-    <hyperlink ref="C345" r:id="rId785"/>
-    <hyperlink ref="D345" r:id="rId786" display="https://youtu.be/t1shZ8_s6jc?si=xHiW9k7kJJ_tUTI5"/>
-    <hyperlink ref="E345" r:id="rId787" display="https://www.geeksforgeeks.org/min-cost-path-dp-6/"/>
-    <hyperlink ref="C346" r:id="rId788"/>
-    <hyperlink ref="D346" r:id="rId789" display="https://youtu.be/tRPda0rcf8E?si=qMWyd0E8oMQ7WIvy"/>
-    <hyperlink ref="E346" r:id="rId790" display="https://takeuforward.org/graph/word-ladder-i-g-29/"/>
-    <hyperlink ref="C347" r:id="rId791"/>
-    <hyperlink ref="D347" r:id="rId792" display="https://youtu.be/DREutrv2XD0?si=QfIrMBzjrv0paKAJ"/>
-    <hyperlink ref="E347" r:id="rId793" display="https://www.geeksforgeeks.org/word-ladder-length-of-shortest-chain-to-reach-a-target-word/"/>
-    <hyperlink ref="C348" r:id="rId794"/>
-    <hyperlink ref="D348" r:id="rId795" display="https://youtu.be/YbY8cVwWAvw?si=qeBBm6l3SrryejiB"/>
-    <hyperlink ref="E348" r:id="rId796" display="https://www.geeksforgeeks.org/floyd-warshall-algorithm-dp-16/"/>
-    <hyperlink ref="C349" r:id="rId797"/>
-    <hyperlink ref="D349" r:id="rId798" display="https://youtu.be/0vVofAhAYjc?si=e1hQOH4PcFbO_QUG"/>
-    <hyperlink ref="E349" r:id="rId799" display="https://www.geeksforgeeks.org/bellman-ford-algorithm-dp-23/"/>
-    <hyperlink ref="C351" r:id="rId800"/>
-    <hyperlink ref="D351" r:id="rId801" display="https://youtu.be/C-2_uSRli8o?si=z2XOpxmnekERJrxc"/>
-    <hyperlink ref="E351" r:id="rId802" display="https://www.geeksforgeeks.org/flood-fill-algorithm/"/>
-    <hyperlink ref="C352" r:id="rId803"/>
-    <hyperlink ref="E352" r:id="rId804" display="https://www.geeksforgeeks.org/given-matrix-o-x-replace-o-x-surrounded-x/"/>
-    <hyperlink ref="C353" r:id="rId805"/>
-    <hyperlink ref="E353" r:id="rId806" display="https://www.geeksforgeeks.org/find-length-largest-region-boolean-matrix/"/>
-    <hyperlink ref="C354" r:id="rId807"/>
-    <hyperlink ref="D354" r:id="rId808" display="https://youtu.be/yf3oUhkvqA0?si=l_DQbwT42fy1ThaI"/>
-    <hyperlink ref="E354" r:id="rId809" display="https://www.geeksforgeeks.org/minimum-time-required-so-that-all-oranges-become-rotten/"/>
-    <hyperlink ref="C356" r:id="rId810"/>
-    <hyperlink ref="D356" r:id="rId811" display="https://youtu.be/5lZ0iJMrUMk?si=d8Saw4jmgjKmfILx"/>
-    <hyperlink ref="E356" r:id="rId812" display="https://www.geeksforgeeks.org/topological-sorting/"/>
-    <hyperlink ref="C357" r:id="rId813"/>
-    <hyperlink ref="E357" r:id="rId814" display="https://pnext2.geeksforgeeks.org/problems/prerequisite-tasks/1?page=1&amp;company%5b%5d=Apple&amp;sortBy=submissions"/>
-    <hyperlink ref="C358" r:id="rId815"/>
-    <hyperlink ref="D358" r:id="rId816" display="https://youtu.be/WAOfKpxYHR8?si=WIg-894F_ejz1hgv"/>
-    <hyperlink ref="E358" r:id="rId817" display="https://www.geeksforgeeks.org/find-whether-it-is-possible-to-finish-all-tasks-or-not-from-given-dependencies/"/>
-    <hyperlink ref="C359" r:id="rId818"/>
-    <hyperlink ref="D359" r:id="rId819" display="https://youtu.be/WAOfKpxYHR8?si=WIg-894F_ejz1hgv"/>
-    <hyperlink ref="E359" r:id="rId820" display="https://www.geeksforgeeks.org/find-the-ordering-of-tasks-from-given-dependencies/"/>
-    <hyperlink ref="C360" r:id="rId821"/>
-    <hyperlink ref="D360" r:id="rId822" display="https://youtu.be/2gtg3VsDGyc?si=yw-aqlNDy3mCHOj5"/>
-    <hyperlink ref="E360" r:id="rId823" display="https://www.geeksforgeeks.org/eventual-safe-states/"/>
-    <hyperlink ref="C361" r:id="rId824"/>
-    <hyperlink ref="D361" r:id="rId825" display="https://youtu.be/U3N_je7tWAs?si=3QjjfX39WxlhedeU"/>
-    <hyperlink ref="E361" r:id="rId826" display="https://www.geeksforgeeks.org/given-sorted-dictionary-find-precedence-characters/"/>
-    <hyperlink ref="C363" r:id="rId827"/>
-    <hyperlink ref="D363" r:id="rId828" display="https://youtu.be/ZSPjZuZWCME?si=qz-SbjuFnphj89qo"/>
-    <hyperlink ref="E363" r:id="rId829" display="https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/"/>
-    <hyperlink ref="C364" r:id="rId830"/>
-    <hyperlink ref="D364" r:id="rId831" display="https://youtu.be/DMnDM_sxVig?si=_xwNmqyl69ykMMNz"/>
-    <hyperlink ref="E364" r:id="rId832" display="https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/"/>
-    <hyperlink ref="C365" r:id="rId833"/>
-    <hyperlink ref="E365" r:id="rId834" display="https://www.geeksforgeeks.org/minimum-cost-connect-cities/"/>
-    <hyperlink ref="C366" r:id="rId835"/>
-    <hyperlink ref="E366" r:id="rId836" display="https://www.geeksforgeeks.org/minimum-cost-required-to-connect-all-houses-in-a-city/"/>
-    <hyperlink ref="C367" r:id="rId837"/>
-    <hyperlink ref="E367" r:id="rId838" display="https://www.geeksforgeeks.org/water-connection-problem/"/>
-    <hyperlink ref="D369" r:id="rId839" display="https://youtu.be/L1T4AB8xBcw?si=aeusCwB3GXg7GprE"/>
-    <hyperlink ref="E369" r:id="rId840" display="https://www.geeksforgeeks.org/disjoint-set-data-structures/"/>
-    <hyperlink ref="D370" r:id="rId841" display="https://youtu.be/L1T4AB8xBcw?si=aeusCwB3GXg7GprE"/>
-    <hyperlink ref="E370" r:id="rId842" display="https://www.geeksforgeeks.org/union-by-rank-and-path-compression-in-union-find-algorithm/"/>
-    <hyperlink ref="C371" r:id="rId843"/>
-    <hyperlink ref="D371" r:id="rId844" display="https://youtu.be/vadly9uWMPU?si=xqtEXZf4OU7HFDru"/>
-    <hyperlink ref="E371" r:id="rId845" display="https://www.geeksforgeeks.org/minimize-count-of-connections-required-to-be-rearranged-to-make-all-the-computers-connected/"/>
-    <hyperlink ref="C372" r:id="rId846"/>
-    <hyperlink ref="D372" r:id="rId847" display="https://youtu.be/kFe_LRWuZjE?si=UUGOKxVpWXgSA3-m"/>
-    <hyperlink ref="E372" r:id="rId848" display="https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/"/>
-    <hyperlink ref="C373" r:id="rId849"/>
-    <hyperlink ref="C374" r:id="rId850"/>
-    <hyperlink ref="E374" r:id="rId851" display="https://www.geeksforgeeks.org/find-number-pairs-xy-yx/"/>
-    <hyperlink ref="C375" r:id="rId852"/>
-    <hyperlink ref="D375" r:id="rId853" display="https://youtu.be/Rn6B-Q4SNyA?si=KaMazDJMo73etDEb"/>
-    <hyperlink ref="E375" r:id="rId854" display="https://www.geeksforgeeks.org/find-the-number-of-islands-using-disjoint-set/"/>
-    <hyperlink ref="C376" r:id="rId855" display="https://leetcode.com/problems/making-a-large-island/solutions/"/>
-    <hyperlink ref="D376" r:id="rId856" display="https://youtu.be/fi-_r0MtL5I?si=-Fyp3xqjyPhs6hwg"/>
-    <hyperlink ref="E376" r:id="rId857" display="https://www.geeksforgeeks.org/maximum-connected-group-making-a-large-island/"/>
-    <hyperlink ref="C378" r:id="rId858"/>
-    <hyperlink ref="D378" r:id="rId859" display="https://youtu.be/qrAub5z8FeA?si=X1hIai2nrqJBxs5U"/>
-    <hyperlink ref="E378" r:id="rId860" display="https://www.geeksforgeeks.org/bridge-in-a-graph/"/>
-    <hyperlink ref="C379" r:id="rId861"/>
-    <hyperlink ref="D379" r:id="rId862" display="https://youtu.be/j1QDfU21iZk?si=YzffjCCnc3tpTCAS"/>
-    <hyperlink ref="E379" r:id="rId863" display="https://www.geeksforgeeks.org/articulation-points-or-cut-vertices-in-a-graph/"/>
-    <hyperlink ref="C380" r:id="rId864"/>
-    <hyperlink ref="D380" r:id="rId865" display="https://youtu.be/HsBefuOqkd4?si=YSJZK1P5x22IDyQU"/>
-    <hyperlink ref="E380" r:id="rId866" display="https://www.geeksforgeeks.org/find-all-critical-connections-in-the-graph/"/>
-    <hyperlink ref="C381" r:id="rId867"/>
-    <hyperlink ref="D381" r:id="rId868" display="https://youtu.be/R6uoSjZ2imo?si=rKK-k7JxRlgFJNgj"/>
-    <hyperlink ref="E381" r:id="rId869" display="https://www.geeksforgeeks.org/strongly-connected-components/"/>
-    <hyperlink ref="C382" r:id="rId870"/>
-    <hyperlink ref="D382" r:id="rId871" display="https://youtu.be/UJTVaSITcYY?si=hLAyO48WqDXDDH9h"/>
-    <hyperlink ref="E382" r:id="rId872" display="https://www.geeksforgeeks.org/boggle-find-possible-words-board-characters/"/>
-    <hyperlink ref="C383" r:id="rId873"/>
-    <hyperlink ref="E383" r:id="rId874" display="https://www.geeksforgeeks.org/boggle-find-possible-words-board-characters/"/>
-    <hyperlink ref="C386" r:id="rId875"/>
-    <hyperlink ref="D386" r:id="rId876" display="https://youtu.be/_6QpiqTw_ew?si=xUX4W2QueKEKPr7S"/>
-    <hyperlink ref="E386" r:id="rId877" display="https://www.geeksforgeeks.org/minimum-number-of-jumps-to-reach-end-of-a-given-array/"/>
-    <hyperlink ref="C387" r:id="rId878"/>
-    <hyperlink ref="E387" r:id="rId879" display="https://www.geeksforgeeks.org/minimize-operations-required-to-obtain-n/"/>
-    <hyperlink ref="C388" r:id="rId880"/>
-    <hyperlink ref="E388" r:id="rId881" display="https://www.geeksforgeeks.org/minimize-sum-product-two-arrays-permutations-allowed/"/>
-    <hyperlink ref="C389" r:id="rId882"/>
-    <hyperlink ref="E389" r:id="rId883" display="https://www.geeksforgeeks.org/find-the-largest-number-with-given-number-of-digits-and-sum-of-digits/"/>
-    <hyperlink ref="C390" r:id="rId884"/>
-    <hyperlink ref="E390" r:id="rId885" display="https://www.geeksforgeeks.org/lemonade-stand-change-challenge/"/>
-    <hyperlink ref="C391" r:id="rId886"/>
-    <hyperlink ref="D391" r:id="rId887" display="https://youtu.be/jD_D-b6t_eU?si=2zgyQVT6B0-aSO06"/>
-    <hyperlink ref="E391" r:id="rId888" display="https://www.geeksforgeeks.org/activity-selection-problem-greedy-algo-1/"/>
-    <hyperlink ref="C392" r:id="rId889"/>
-    <hyperlink ref="D392" r:id="rId890" display="https://youtu.be/II6ziNnub1Q?si=nyCFIwB6nl2-LOZo"/>
-    <hyperlink ref="E392" r:id="rId891" display="https://takeuforward.org/data-structure/n-meetings-in-one-room/"/>
-    <hyperlink ref="C393" r:id="rId892"/>
-    <hyperlink ref="D393" r:id="rId893" display="https://youtu.be/dxVcMDI7vyI?si=DCFL2eWvpXNvz3dm"/>
-    <hyperlink ref="E393" r:id="rId894" display="https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/"/>
-    <hyperlink ref="C394" r:id="rId895"/>
-    <hyperlink ref="E394" r:id="rId896" display="https://www.geeksforgeeks.org/minimize-the-maximum-difference-between-the-heights/"/>
-    <hyperlink ref="C395" r:id="rId897"/>
-    <hyperlink ref="D395" r:id="rId898" display="https://youtu.be/mVg9CfJvayM?si=ZYElbpIWyYE3yEjA"/>
-    <hyperlink ref="E395" r:id="rId899" display="https://www.geeksforgeeks.org/greedy-algorithm-to-find-minimum-number-of-coins/"/>
-    <hyperlink ref="C396" r:id="rId900"/>
-    <hyperlink ref="D396" r:id="rId901" display="https://youtu.be/LjPx4wQaRIs?si=QuVNrXDBmW0nqlfy"/>
-    <hyperlink ref="E396" r:id="rId902" display="https://www.geeksforgeeks.org/job-sequencing-problem/"/>
-    <hyperlink ref="C397" r:id="rId903"/>
-    <hyperlink ref="D397" r:id="rId904" display="https://youtu.be/F_DDzYnxO14?si=Aiem1u3s1CApvD1Q"/>
-    <hyperlink ref="E397" r:id="rId905" display="https://www.geeksforgeeks.org/fractional-knapsack-problem/"/>
-    <hyperlink ref="C398" r:id="rId906"/>
-    <hyperlink ref="D398" r:id="rId907" display="https://youtu.be/Yan0cv2cLy8?si=6gEyL0RDv97Ebo_S"/>
-    <hyperlink ref="E398" r:id="rId908" display="https://www.geeksforgeeks.org/minimum-number-of-jumps-to-reach-end-of-a-given-array/"/>
-    <hyperlink ref="C399" r:id="rId909"/>
-    <hyperlink ref="D399" r:id="rId910" display="https://youtu.be/A8NUOmlwOlM?si=nSYNoRp7jNmzEZbk"/>
-    <hyperlink ref="E399" r:id="rId911" display="https://www.geeksforgeeks.org/insert-in-sorted-and-non-overlapping-interval-array/"/>
-    <hyperlink ref="C400" r:id="rId912"/>
-    <hyperlink ref="E400" r:id="rId913" display="https://www.geeksforgeeks.org/merging-intervals/"/>
-    <hyperlink ref="C401" r:id="rId914"/>
-    <hyperlink ref="D401" r:id="rId915" display="https://youtu.be/nONCGxWoUfM?si=CCH5fuaNR9Oh4SV9"/>
-    <hyperlink ref="E401" r:id="rId916" display="https://www.geeksforgeeks.org/find-non-overlapping-intervals-among-a-given-set-of-intervals/"/>
-    <hyperlink ref="C402" r:id="rId917"/>
-    <hyperlink ref="D402" r:id="rId918" display="https://youtu.be/_k_c9nqzKN0?si=8aU6CU030tv-stpm"/>
-    <hyperlink ref="E402" r:id="rId919" display="https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/"/>
-    <hyperlink ref="C403" r:id="rId920"/>
-    <hyperlink ref="E403" r:id="rId921" display="https://walkccc.me/LeetCode/problems/0763/"/>
-    <hyperlink ref="C404" r:id="rId922"/>
-    <hyperlink ref="E404" r:id="rId923" display="https://prepfortech.in/leetcode-solutions/cinema-seat-allocation/"/>
-    <hyperlink ref="C405" r:id="rId924"/>
-    <hyperlink ref="E405" r:id="rId925" display="https://www.geeksforgeeks.org/maximum-length-chain-of-pairs-dp-20/"/>
-    <hyperlink ref="C406" r:id="rId926"/>
-    <hyperlink ref="D406" r:id="rId927" display="https://youtu.be/wkDfsKijrZ8?si=M76SonbMLKKgwvoL"/>
-    <hyperlink ref="E406" r:id="rId928" display="https://www.geeksforgeeks.org/minimum-number-of-parentheses-to-be-added-to-make-it-valid/"/>
-    <hyperlink ref="C407" r:id="rId929"/>
-    <hyperlink ref="E407" r:id="rId930" display="https://www.geeksforgeeks.org/program-for-shortest-job-first-or-sjf-cpu-scheduling-set-1-non-preemptive/"/>
-    <hyperlink ref="C408" r:id="rId931"/>
-    <hyperlink ref="D408" r:id="rId932" display="https://youtu.be/xDEuM5qa0zg?si=lm-_MF96z7x2k-FC"/>
-    <hyperlink ref="E408" r:id="rId933" display="https://www.geeksforgeeks.org/lru-cache-implementation/"/>
-    <hyperlink ref="D411" r:id="rId934" display="https://youtu.be/tyB0ztf0DNY?si=g1XFqILApUcgKtJC"/>
-    <hyperlink ref="C413" r:id="rId935"/>
-    <hyperlink ref="E413" r:id="rId936" display="https://www.geeksforgeeks.org/count-number-of-ways-to-cover-a-distance/"/>
-    <hyperlink ref="C414" r:id="rId937"/>
-    <hyperlink ref="D414" r:id="rId938" display="https://youtu.be/mLfjzJsN8us?si=CtLuQbpWqlseteUe"/>
-    <hyperlink ref="E414" r:id="rId939" display="https://www.geeksforgeeks.org/count-ways-reach-nth-stair/"/>
-    <hyperlink ref="C415" r:id="rId940"/>
-    <hyperlink ref="D415" r:id="rId941" display="https://youtu.be/mLfjzJsN8us?si=CtLuQbpWqlseteUe"/>
-    <hyperlink ref="E415" r:id="rId942" display="https://www.geeksforgeeks.org/count-ways-reach-nth-stair/"/>
-    <hyperlink ref="C416" r:id="rId943"/>
-    <hyperlink ref="E416" r:id="rId944" display="https://www.geeksforgeeks.org/find-maximum-possible-stolen-value-houses/"/>
-    <hyperlink ref="C417" r:id="rId945"/>
-    <hyperlink ref="D417" r:id="rId946" display="https://youtu.be/3WaxQMELSkw?si=uGgE6spsNU-YYdHQ"/>
-    <hyperlink ref="C419" r:id="rId947"/>
-    <hyperlink ref="D419" r:id="rId948" display="https://youtu.be/sdE0A2Oxofw?si=k-DhYLU6A7eaUxPF"/>
-    <hyperlink ref="E419" r:id="rId949" display="https://www.geeksforgeeks.org/count-possible-paths-top-left-bottom-right-nxm-matrix/"/>
-    <hyperlink ref="C420" r:id="rId950"/>
-    <hyperlink ref="D420" r:id="rId951" display="https://youtu.be/TmhpgXScLyY?si=Z7i2x05K982xbodl"/>
-    <hyperlink ref="C421" r:id="rId952"/>
-    <hyperlink ref="E421" r:id="rId953" display="https://www.geeksforgeeks.org/count-possible-paths-top-left-bottom-right-nxm-matrix/"/>
-    <hyperlink ref="C422" r:id="rId954"/>
-    <hyperlink ref="D422" r:id="rId955" display="https://www.youtube.com/watch?v=_rgTlyky1uQ"/>
-    <hyperlink ref="C423" r:id="rId956"/>
-    <hyperlink ref="E423" r:id="rId957" display="https://www.geeksforgeeks.org/find-maximum-path-sum-in-a-binary-tree/"/>
-    <hyperlink ref="C424" r:id="rId958"/>
-    <hyperlink ref="D424" r:id="rId959" display="https://www.youtube.com/watch?v=SrP-PiLSYC0"/>
-    <hyperlink ref="C425" r:id="rId960"/>
-    <hyperlink ref="E425" r:id="rId961" display="https://www.geeksforgeeks.org/number-of-paths-with-exactly-k-coins/"/>
-    <hyperlink ref="C426" r:id="rId962"/>
-    <hyperlink ref="D426" r:id="rId963" display="https://youtu.be/N_aJ5qQbYA0?si=ezuW1n6Qa8XxTNEo"/>
-    <hyperlink ref="C427" r:id="rId964"/>
-    <hyperlink ref="C429" r:id="rId965"/>
-    <hyperlink ref="D429" r:id="rId966" display="https://youtu.be/fWX9xDmIzRI?si=JE2TrHBWy_MknoPu"/>
-    <hyperlink ref="C430" r:id="rId967"/>
-    <hyperlink ref="D430" r:id="rId968" display="https://youtu.be/ZHyb-A2Mte4?si=E2zp3ic9YMCmi1el"/>
-    <hyperlink ref="C431" r:id="rId969"/>
-    <hyperlink ref="D431" r:id="rId970" display="https://youtu.be/7win3dcgo3k?si=b7S5AhlT68DbwSRC"/>
-    <hyperlink ref="E431" r:id="rId971" display="https://www.geeksforgeeks.org/partition-problem-dp-18/"/>
-    <hyperlink ref="C432" r:id="rId972"/>
-    <hyperlink ref="D432" r:id="rId973" display="https://youtu.be/GS_OqZb2CWc?si=jtDc7dlrqIBDGkva"/>
-    <hyperlink ref="D433" r:id="rId974" display="https://youtu.be/zoilQD1kYSg?si=Dob0JEkW4sUmGoXn"/>
-    <hyperlink ref="C434" r:id="rId975"/>
-    <hyperlink ref="D434" r:id="rId976" display="https://youtu.be/GqOmJHQZivw?si=Z9uoyRurFlHaiwRs"/>
-    <hyperlink ref="E434" r:id="rId977" display="https://www.geeksforgeeks.org/0-1-knapsack-problem-dp-10/"/>
-    <hyperlink ref="C435" r:id="rId978"/>
-    <hyperlink ref="D435" r:id="rId979" display="https://youtu.be/GrMBfJNk_NY?si=i1ZMM-MkZu3TUA4w"/>
-    <hyperlink ref="C436" r:id="rId980"/>
-    <hyperlink ref="D436" r:id="rId981" display="https://youtu.be/HgyouUi11zk?si=lHMMApBzC27_NrBU"/>
-    <hyperlink ref="E436" r:id="rId982" display="https://www.geeksforgeeks.org/coin-change-dp-7/"/>
-    <hyperlink ref="C437" r:id="rId983"/>
-    <hyperlink ref="D437" r:id="rId984" display="https://youtu.be/myPeWb3Y68A?si=eeOZCGj3ebD3fay7"/>
-    <hyperlink ref="E437" r:id="rId985" display="https://www.geeksforgeeks.org/find-minimum-number-of-coins-that-make-a-change/"/>
-    <hyperlink ref="C438" r:id="rId986"/>
-    <hyperlink ref="D438" r:id="rId987" display="https://youtu.be/mO8XpGoJwuo?si=qNYFr6yJNxqmw4ky"/>
-    <hyperlink ref="C439" r:id="rId988"/>
-    <hyperlink ref="D439" r:id="rId989" display="https://youtu.be/b3GD8263-PQ?si=x22ue_uHcCp3vLdu"/>
-    <hyperlink ref="C440" r:id="rId990"/>
-    <hyperlink ref="C441" r:id="rId991"/>
-    <hyperlink ref="D441" r:id="rId992" display="https://youtu.be/OgvOZ6OrJoY?si=dmmo3by1GELu0E6u"/>
-    <hyperlink ref="E441" r:id="rId993" display="https://www.geeksforgeeks.org/unbounded-knapsack-repetition-items-allowed/"/>
-    <hyperlink ref="C443" r:id="rId994"/>
-    <hyperlink ref="D443" r:id="rId995" display="https://youtu.be/ekcwMsSIzVc?si=8zc9o-Q9JBpR_rLs"/>
-    <hyperlink ref="D444" r:id="rId996" display="https://youtu.be/IFfYfonAFGc?si=KQW5W74J8e_n_kXZ"/>
-    <hyperlink ref="C445" r:id="rId997"/>
-    <hyperlink ref="D445" r:id="rId998" display="https://youtu.be/y4vN0WNdrlg?si=1n-HYDfzakhkM-6W"/>
-    <hyperlink ref="E445" r:id="rId999" display="https://www.geeksforgeeks.org/longest-bitonic-subsequence-dp-15/"/>
-    <hyperlink ref="C446" r:id="rId1000"/>
-    <hyperlink ref="D446" r:id="rId1001" display="https://youtu.be/gDuZwBW9VvM?si=1E77tHD7jaVItSLZ"/>
-    <hyperlink ref="C447" r:id="rId1002"/>
-    <hyperlink ref="D447" r:id="rId1003" display="https://youtu.be/YY8iBaYcc4g?si=SVp9w9fPBfUcqhqG"/>
-    <hyperlink ref="C448" r:id="rId1004"/>
-    <hyperlink ref="D448" r:id="rId1005" display="https://youtu.be/cKVl1TFdNXg?si=N8t9as5OGiHoVzrG"/>
-    <hyperlink ref="C450" r:id="rId1006" display="https://leetcode.com/problems/longest-common-subsequence/"/>
-    <hyperlink ref="D450" r:id="rId1007" display="https://youtu.be/NPZn9jBrX8U?si=c38YFd7X1c-QcPRq"/>
-    <hyperlink ref="E450" r:id="rId1008" display="https://www.geeksforgeeks.org/longest-common-subsequence-dp-4/"/>
-    <hyperlink ref="C451" r:id="rId1009"/>
-    <hyperlink ref="D451" r:id="rId1010" display="https://youtu.be/-zI4mrF2Pb4?si=VagQXphIzNfpH9su"/>
-    <hyperlink ref="E451" r:id="rId1011" display="https://www.geeksforgeeks.org/printing-longest-common-subsequence/"/>
-    <hyperlink ref="C452" r:id="rId1012"/>
-    <hyperlink ref="D452" r:id="rId1013" display="https://youtu.be/6i_T5kkfv4A?si=7PcZQtgR9bGjBbl4"/>
-    <hyperlink ref="E452" r:id="rId1014" display="https://www.geeksforgeeks.org/longest-palindromic-subsequence-dp-12/"/>
-    <hyperlink ref="C453" r:id="rId1015"/>
-    <hyperlink ref="D453" r:id="rId1016" display="https://youtu.be/xPBLEj41rFU?si=V9kn1IUGTx3DAlSJ"/>
-    <hyperlink ref="E453" r:id="rId1017" display="https://www.geeksforgeeks.org/minimum-insertions-to-form-a-palindrome-dp-28/"/>
-    <hyperlink ref="C454" r:id="rId1018"/>
-    <hyperlink ref="D454" r:id="rId1019" display="https://youtu.be/yMnH0jrir0Q?si=wz6fbYwdh8tJgOtr"/>
-    <hyperlink ref="E454" r:id="rId1020" display="https://www.geeksforgeeks.org/minimum-number-deletions-insertions-transform-one-string-another/"/>
-    <hyperlink ref="C455" r:id="rId1021"/>
-    <hyperlink ref="D455" r:id="rId1022" display="https://youtu.be/xElxAuBcvsU?si=4dBiTvsaW1LiQ4Qm"/>
-    <hyperlink ref="E455" r:id="rId1023" display="https://www.geeksforgeeks.org/shortest-common-supersequence/"/>
-    <hyperlink ref="C456" r:id="rId1024"/>
-    <hyperlink ref="D456" r:id="rId1025" display="https://youtu.be/_wP9mWNPL5w?si=XyPQqcffZg1cYk6z"/>
-    <hyperlink ref="E456" r:id="rId1026" display="https://www.geeksforgeeks.org/longest-common-subarray-in-the-given-two-arrays/"/>
-    <hyperlink ref="C457" r:id="rId1027"/>
-    <hyperlink ref="D457" r:id="rId1028" display="https://youtu.be/UflHuQj6MVA?si=yUS26OPaaMqlvpcb"/>
-    <hyperlink ref="E457" r:id="rId1029" display="https://www.geeksforgeeks.org/longest-palindromic-substring/"/>
-    <hyperlink ref="C458" r:id="rId1030"/>
-    <hyperlink ref="D458" r:id="rId1031" display="https://youtu.be/ZqG89Z-dKpI?si=E5MPTzZgCWf45VvN"/>
-    <hyperlink ref="E458" r:id="rId1032" display="https://www.geeksforgeeks.org/longest-palindromic-substring/"/>
-    <hyperlink ref="C460" r:id="rId1033"/>
-    <hyperlink ref="D460" r:id="rId1034" display="https://youtu.be/fJaKO8FbDdo?si=SgjrMJO4gsNPV5r6"/>
-    <hyperlink ref="E460" r:id="rId1035" display="https://www.geeksforgeeks.org/edit-distance-dp-5/"/>
-    <hyperlink ref="C461" r:id="rId1036"/>
-    <hyperlink ref="D461" r:id="rId1037" display="https://youtu.be/nVG7eTiD2bY?si=FMMLyM58YqKYxEjh"/>
-    <hyperlink ref="C462" r:id="rId1038"/>
-    <hyperlink ref="D462" r:id="rId1039" display="https://youtu.be/ZmlQ3vgAOMo?si=aqw8ylH5x88-LlJs"/>
-    <hyperlink ref="E462" r:id="rId1040" display="https://www.geeksforgeeks.org/wildcard-pattern-matching/"/>
-    <hyperlink ref="C463" r:id="rId1041"/>
-    <hyperlink ref="D463" r:id="rId1042" display="https://youtu.be/Sx9NNgInc3A?si=BVL4wXtCz9BgZLrL"/>
-    <hyperlink ref="E463" r:id="rId1043" display="https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/"/>
-    <hyperlink ref="C464" r:id="rId1044"/>
-    <hyperlink ref="D464" r:id="rId1045" display="https://youtu.be/Sx9NNgInc3A?si=Hmn5-egLse5GkvIx"/>
-    <hyperlink ref="E464" r:id="rId1046" display="https://www.geeksforgeeks.org/word-break-problem-dp-32/"/>
-    <hyperlink ref="C465" r:id="rId1047"/>
-    <hyperlink ref="E465" r:id="rId1048" display="https://www.geeksforgeeks.org/word-break-problem-dp-32/"/>
-    <hyperlink ref="C466" r:id="rId1049"/>
-    <hyperlink ref="D466" r:id="rId1050" display="https://youtu.be/aPdpJ_RjaXs?si=Ic_4lgafd2xh_odL"/>
-    <hyperlink ref="E466" r:id="rId1051" display="https://www.geeksforgeeks.org/word-wrap-problem-dp-19/"/>
-    <hyperlink ref="C467" r:id="rId1052"/>
-    <hyperlink ref="D467" r:id="rId1053" display="https://youtu.be/3Rw3p9LrgvE?si=WDE8R_TrpBnzAeKL"/>
-    <hyperlink ref="E467" r:id="rId1054" display="https://www.geeksforgeeks.org/find-if-a-string-is-interleaved-of-two-other-strings-dp-33/"/>
-    <hyperlink ref="C469" r:id="rId1055"/>
-    <hyperlink ref="D469" r:id="rId1056" display="https://youtu.be/excAOvwF_Wk?si=e7EyG99KPKityBdF"/>
-    <hyperlink ref="C470" r:id="rId1057"/>
-    <hyperlink ref="D470" r:id="rId1058" display="https://youtu.be/nGJmxkUJQGs?si=_mVvHG8iLKwA95lW"/>
-    <hyperlink ref="C471" r:id="rId1059"/>
-    <hyperlink ref="D471" r:id="rId1060" display="https://youtu.be/-uQGzhYj8BQ?si=FDuxAlLnMWU9e21u"/>
-    <hyperlink ref="C472" r:id="rId1061"/>
-    <hyperlink ref="D472" r:id="rId1062" display="https://youtu.be/IV1dHbk5CDc?si=TILc-BmsGoxTljr-"/>
-    <hyperlink ref="C473" r:id="rId1063"/>
-    <hyperlink ref="D473" r:id="rId1064" display="https://youtu.be/IGIe46xw3YY?si=iUqI6GSSB8BugjDm"/>
-    <hyperlink ref="C474" r:id="rId1065"/>
-    <hyperlink ref="D474" r:id="rId1066" display="https://youtu.be/k4eK-vEmnKg?si=wiaYE8Ioi-K-rSZ0"/>
-    <hyperlink ref="C476" r:id="rId1067"/>
-    <hyperlink ref="D476" r:id="rId1068" display="https://youtu.be/pDCXsbAw5Cg?si=P9UB4sQ8a6vvd2_I"/>
-    <hyperlink ref="E476" r:id="rId1069" display="https://www.geeksforgeeks.org/matrix-chain-multiplication-dp-8/"/>
-    <hyperlink ref="C477" r:id="rId1070"/>
-    <hyperlink ref="D477" r:id="rId1071" display="https://youtu.be/xwomavsC86c?si=IufdXqTfIa1F0V6I"/>
-    <hyperlink ref="E477" r:id="rId1072" display="https://takeuforward.org/data-structure/minimum-cost-to-cut-the-stick-dp-50/"/>
-    <hyperlink ref="C478" r:id="rId1073"/>
-    <hyperlink ref="D478" r:id="rId1074" display="https://youtu.be/Yz4LlDSlkns?si=d7mq5OJwAtvOBAz2"/>
-    <hyperlink ref="E478" r:id="rId1075" display="https://www.geeksforgeeks.org/burst-balloon-to-maximize-coins/"/>
-    <hyperlink ref="C479" r:id="rId1076"/>
-    <hyperlink ref="D479" r:id="rId1077" display="https://youtu.be/MM7fXopgyjw?si=qhNd2faXTK1r5x04"/>
-    <hyperlink ref="E479" r:id="rId1078" display="https://www.geeksforgeeks.org/boolean-parenthesization-problem-dp-37/"/>
-    <hyperlink ref="C480" r:id="rId1079"/>
-    <hyperlink ref="D480" r:id="rId1080" display="https://youtu.be/_H8V5hJUGd0?si=Sxlz-OqRVMjbgwgu"/>
-    <hyperlink ref="E480" r:id="rId1081" display="https://www.geeksforgeeks.org/palindrome-partitioning-dp-17/"/>
-    <hyperlink ref="C481" r:id="rId1082"/>
-    <hyperlink ref="D481" r:id="rId1083" display="https://youtu.be/PhWWJmaKfMc?si=qNDjjLCux8ibRyu-"/>
-    <hyperlink ref="E481" r:id="rId1084" display="https://www.geeksforgeeks.org/maximum-average-sum-partition-array/"/>
-    <hyperlink ref="C482" r:id="rId1085"/>
-    <hyperlink ref="D482" r:id="rId1086" display="https://youtu.be/tOylVCugy9k?si=eDTgv7YFHqvrRGMe"/>
-    <hyperlink ref="E482" r:id="rId1087" display="https://www.geeksforgeeks.org/maximum-size-rectangle-binary-sub-matrix-1s/"/>
-    <hyperlink ref="C483" r:id="rId1088"/>
-    <hyperlink ref="D483" r:id="rId1089" display="https://youtu.be/auS1fynpnjo?si=iq5LsCojilevzhM4"/>
-    <hyperlink ref="D486" r:id="rId1090" display="https://youtu.be/N0Frqx9UlrI?si=4iJkhpOo2ry9QwtQ"/>
-    <hyperlink ref="C487" r:id="rId1091" display="https://www.codingninjas.com/studio/problems/min-heap-implementation_5480527"/>
-    <hyperlink ref="D487" r:id="rId1092" display="https://youtu.be/cuL8gXCSA58?si=LkYy8KbCthuzly5l"/>
-    <hyperlink ref="E487" r:id="rId1093" display="https://www.geeksforgeeks.org/introduction-to-min-heap-data-structure/"/>
-    <hyperlink ref="C488" r:id="rId1094"/>
-    <hyperlink ref="D488" r:id="rId1095" display="https://youtu.be/cuL8gXCSA58?si=uWFN4dlnEnzdzQtq"/>
-    <hyperlink ref="E488" r:id="rId1096" display="https://www.geeksforgeeks.org/introduction-to-max-heap-data-structure/"/>
-    <hyperlink ref="C489" r:id="rId1097"/>
-    <hyperlink ref="D489" r:id="rId1098" display="https://youtu.be/cuL8gXCSA58?si=eC60B9JXzRSI_yFt"/>
-    <hyperlink ref="E489" r:id="rId1099" display="https://www.geeksforgeeks.org/convert-min-heap-to-max-heap/"/>
-    <hyperlink ref="C491" r:id="rId1100"/>
-    <hyperlink ref="D491" r:id="rId1101" display="https://youtu.be/aXJ-p3Qa4TY?si=eWjySsOqZUjCCwBP"/>
-    <hyperlink ref="E491" r:id="rId1102" display="https://www.geeksforgeeks.org/kth-smallest-largest-element-in-unsorted-array/"/>
-    <hyperlink ref="D492" r:id="rId1103" display="https://youtu.be/aXJ-p3Qa4TY?si=oPUFQfZaeFc3tOd_"/>
-    <hyperlink ref="C493" r:id="rId1104"/>
-    <hyperlink ref="D493" r:id="rId1105" display="https://youtu.be/Wh3A29psE_Y?si=X6AP6AiuXpjrM79V"/>
-    <hyperlink ref="C494" r:id="rId1106"/>
-    <hyperlink ref="D494" r:id="rId1107" display="https://youtu.be/YPTqKIgVk-k?si=HGG49q2YPTg-ke_v"/>
-    <hyperlink ref="C495" r:id="rId1108"/>
-    <hyperlink ref="D495" r:id="rId1109" display="https://youtu.be/vltY5jxqcco?si=ZHg-JUnHMX2FgvRM"/>
-    <hyperlink ref="C496" r:id="rId1110"/>
-    <hyperlink ref="D496" r:id="rId1111" display="https://youtu.be/hOjcdrqMoQ8?si=RklRakI8BwOIfYwb"/>
-    <hyperlink ref="E496" r:id="rId1112" display="https://www.geeksforgeeks.org/kth-largest-element-in-a-stream/"/>
-    <hyperlink ref="C497" r:id="rId1113"/>
-    <hyperlink ref="D497" r:id="rId1114" display="https://youtu.be/2g_b1aYTHeg?si=yHEmKdbQDc-C-Li9"/>
-    <hyperlink ref="C498" r:id="rId1115"/>
-    <hyperlink ref="D498" r:id="rId1116" display="https://www.youtube.com/live/C3YCL18cIHM?si=YPvoeHFRgzdCx35n"/>
-    <hyperlink ref="C499" r:id="rId1117"/>
-    <hyperlink ref="C500" r:id="rId1118"/>
-    <hyperlink ref="E500" r:id="rId1119" display="https://youtu.be/X5SuOsIWCoI?si=WH6z4uaMzE8B_UOK"/>
-    <hyperlink ref="C502" r:id="rId1120"/>
-    <hyperlink ref="D502" r:id="rId1121" display="https://youtu.be/kpCesr9VXDA?si=UyD8orvz_UXvSQhl"/>
-    <hyperlink ref="E502" r:id="rId1122" display="https://www.geeksforgeeks.org/merge-k-sorted-arrays/"/>
-    <hyperlink ref="C503" r:id="rId1123"/>
-    <hyperlink ref="C504" r:id="rId1124"/>
-    <hyperlink ref="C506" r:id="rId1125"/>
-    <hyperlink ref="D506" r:id="rId1126" display="https://youtu.be/itmhHWaHupI?si=kOhqNsy0u87ew1gQ"/>
-    <hyperlink ref="E506" r:id="rId1127" display="https://www.geeksforgeeks.org/median-of-stream-of-integers-running-integers/"/>
-    <hyperlink ref="C507" r:id="rId1128"/>
-    <hyperlink ref="D507" r:id="rId1129" display="https://youtu.be/DfljaUwZsOk?si=ATC7K2_3a6QPXdsS"/>
-    <hyperlink ref="C508" r:id="rId1130"/>
-    <hyperlink ref="C510" r:id="rId1131"/>
-    <hyperlink ref="D510" r:id="rId1132" display="https://youtu.be/f7JOBJIC-NA?si=qACVSM1NauAdTfmG"/>
-    <hyperlink ref="E510" r:id="rId1133" display="https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/"/>
-    <hyperlink ref="C511" r:id="rId1134"/>
-    <hyperlink ref="D511" r:id="rId1135" display="https://youtu.be/FdzJmTCVyJU?si=I_7q86O10M1_5nTy"/>
-    <hyperlink ref="E511" r:id="rId1136" display="https://www.geeksforgeeks.org/find-maximum-meetings-in-one-room/"/>
-    <hyperlink ref="C512" r:id="rId1137"/>
-    <hyperlink ref="D512" r:id="rId1138" display="https://youtu.be/IbhQ3U5NHLI?si=PSp_XzWTzv4wQ57W"/>
-    <hyperlink ref="E512" r:id="rId1139" display="https://www.geeksforgeeks.org/minimum-cost-to-complete-given-tasks-if-cost-of-1-7-and-30-days-are-given/"/>
-    <hyperlink ref="C513" r:id="rId1140"/>
-    <hyperlink ref="E513" r:id="rId1141" display="https://www.geeksforgeeks.org/minimum-cost-to-process-m-tasks-where-switching-costs/"/>
-    <hyperlink ref="C514" r:id="rId1142"/>
-    <hyperlink ref="D514" r:id="rId1143" display="https://youtu.be/sKjKLN5JswQ?si=kF07TsHuwP_jmuzh"/>
-    <hyperlink ref="E514" r:id="rId1144" display="https://www.geeksforgeeks.org/minimize-refills-to-reach-end-of-path/"/>
-    <hyperlink ref="C517" r:id="rId1145"/>
-    <hyperlink ref="D517" r:id="rId1146" display="https://youtu.be/oobqoCJlHA0?si=HTMe5ROchxy4KAaU"/>
-    <hyperlink ref="E517" r:id="rId1147" display="https://www.geeksforgeeks.org/trie-insert-and-search/"/>
-    <hyperlink ref="C518" r:id="rId1148" display="https://www.geeksforgeeks.org/problems/word-break-trie--141631/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D518" r:id="rId1149" display="https://youtu.be/th4OnoGasMU?si=r6--sa8rf-0P2Hc0"/>
-    <hyperlink ref="E518" r:id="rId1150" display="https://www.geeksforgeeks.org/word-break-problem-trie-solution/"/>
-    <hyperlink ref="C519" r:id="rId1151"/>
-    <hyperlink ref="D519" r:id="rId1152" display="https://youtu.be/fhyIORFDD0k?si=llRsS8TY44gkz9s6"/>
-    <hyperlink ref="E519" r:id="rId1153" display="https://www.geeksforgeeks.org/longest-common-prefix-using-sorting/"/>
-    <hyperlink ref="C520" r:id="rId1154" display="https://www.geeksforgeeks.org/problems/maximum-xor-of-two-numbers-in-an-array/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D520" r:id="rId1155" display="https://youtu.be/jCuZCbXnpLo?si=bjswCkTxSANJnuQj"/>
-    <hyperlink ref="E520" r:id="rId1156" display="https://www.geeksforgeeks.org/maximum-xor-of-two-numbers-in-an-array/"/>
-    <hyperlink ref="C521" r:id="rId1157" display="https://www.geeksforgeeks.org/problems/unique-rows-in-boolean-matrix/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D521" r:id="rId1158" display="https://youtu.be/GixyVinjtFk?si=7THXd_L892zgFeIw"/>
-    <hyperlink ref="E521" r:id="rId1159" display="https://www.geeksforgeeks.org/print-unique-rows/"/>
-    <hyperlink ref="C522" r:id="rId1160"/>
-    <hyperlink ref="D522" r:id="rId1161" display="https://www.youtube.com/live/bs4MqQ_0ZS0?si=Xgos1T5uEzHu__1a"/>
-    <hyperlink ref="E522" r:id="rId1162" display="https://www.geeksforgeeks.org/count-of-strings-whose-prefix-match-with-the-given-string-to-a-given-length-k/"/>
-    <hyperlink ref="C525" r:id="rId1163"/>
-    <hyperlink ref="D525" r:id="rId1164" display="https://youtu.be/2I9XO8jwZCA?si=ldC-gp4Wv4Gra1z7"/>
-    <hyperlink ref="E525" r:id="rId1165" display="https://www.geeksforgeeks.org/write-your-own-atoi/"/>
-    <hyperlink ref="C526" r:id="rId1166"/>
-    <hyperlink ref="E526" r:id="rId1167" display="https://www.geeksforgeeks.org/look-and-say-sequence/"/>
-    <hyperlink ref="C527" r:id="rId1168" display="https://www.geeksforgeeks.org/problems/count-the-reversals0401/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D527" r:id="rId1169" display="https://youtu.be/8q1sma-qMsA?si=22qpLT56elmIfBgl"/>
-    <hyperlink ref="E527" r:id="rId1170" display="https://www.geeksforgeeks.org/minimum-number-of-bracket-reversals-needed-to-make-an-expression-balanced/"/>
-    <hyperlink ref="C528" r:id="rId1171"/>
-    <hyperlink ref="D528" r:id="rId1172" display="https://youtu.be/oxd_Z1osgCk?si=kxhwCfdV3t6M0IHB"/>
-    <hyperlink ref="E528" r:id="rId1173" display="https://www.geeksforgeeks.org/rabin-karp-algorithm-for-pattern-searching/"/>
-    <hyperlink ref="C529" r:id="rId1174"/>
-    <hyperlink ref="E529" r:id="rId1175" display="https://www.geeksforgeeks.org/boyer-moore-algorithm-for-pattern-searching/"/>
-    <hyperlink ref="C530" r:id="rId1176"/>
-    <hyperlink ref="D530" r:id="rId1177" display="https://youtu.be/ziteu2FpYsA?si=iLKlrPrn4Qn1Pl3G"/>
-    <hyperlink ref="E530" r:id="rId1178" display="https://www.geeksforgeeks.org/longest-prefix-also-suffix/"/>
-    <hyperlink ref="C531" r:id="rId1179"/>
-    <hyperlink ref="E531" r:id="rId1180" display="https://www.geeksforgeeks.org/longest-prefix-also-suffix/"/>
-    <hyperlink ref="C532" r:id="rId1181"/>
-    <hyperlink ref="D532" r:id="rId1182" display="https://youtu.be/w6LcypDgC4w?si=q2BwgPUVgXvVBs5K"/>
-    <hyperlink ref="E532" r:id="rId1183" display="https://www.geeksforgeeks.org/recursively-remove-adjacent-duplicates-given-string/"/>
-    <hyperlink ref="C533" r:id="rId1184"/>
-    <hyperlink ref="D533" r:id="rId1185" display="https://youtu.be/KEs5UyBJ39g?si=9hG4JdZkDb_a1sju"/>
-    <hyperlink ref="E533" r:id="rId1186" display="https://www.geeksforgeeks.org/string-hashing-using-polynomial-rolling-hash-function/"/>
-    <hyperlink ref="C534" r:id="rId1187"/>
-    <hyperlink ref="D534" r:id="rId1188" display="https://youtu.be/vzdNOK2oB2E?si=jgGJngudIz4L_4oP"/>
-    <hyperlink ref="E534" r:id="rId1189" display="https://www.geeksforgeeks.org/given-a-sequence-of-words-print-all-anagrams-together/"/>
-    <hyperlink ref="C535" r:id="rId1190"/>
-    <hyperlink ref="D535" r:id="rId1191" display="https://www.youtube.com/live/-1qq3hekxBw?si=zOa8LDear3iIsWRl"/>
-    <hyperlink ref="E535" r:id="rId1192" display="https://www.geeksforgeeks.org/z-algorithm-linear-time-pattern-searching-algorithm/"/>
-    <hyperlink ref="C536" r:id="rId1193" display="https://leetcode.com/problems/shortest-palindrome/"/>
-    <hyperlink ref="D536" r:id="rId1194" display="https://youtu.be/xPBLEj41rFU?si=04dcB7ymKkMft7VE"/>
-    <hyperlink ref="E536" r:id="rId1195" display="https://www.geeksforgeeks.org/minimum-insertions-to-form-shortest-palindrome/"/>
-    <hyperlink ref="C537" r:id="rId1196"/>
-    <hyperlink ref="D537" r:id="rId1197" display="https://youtu.be/DBcbRXAlE0U?si=Nm16p-kL_VVEuAAY"/>
-    <hyperlink ref="E537" r:id="rId1198" display="https://www.geeksforgeeks.org/given-array-strings-find-strings-can-chained-form-circle/"/>
-    <hyperlink ref="C538" r:id="rId1199" display="https://www.geeksforgeeks.org/problems/roman-number-to-integer3201/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
-    <hyperlink ref="D538" r:id="rId1200" display="https://youtu.be/dlATMslQ6Uc?si=ImmwMRmjbHD-umKR"/>
-    <hyperlink ref="E538" r:id="rId1201" display="https://www.geeksforgeeks.org/converting-roman-numerals-decimal-lying-1-3999/"/>
-    <hyperlink ref="B544" r:id="rId1202"/>
-    <hyperlink ref="B545" r:id="rId1203"/>
-    <hyperlink ref="B546" r:id="rId1204" display="https://www.overleaf.com/articles/ravi-kukretis-resume/cxprrkxbccgb"/>
+    <hyperlink ref="D34" r:id="rId41" display="https://youtu.be/37E9ckMDdTk?si=0TR032zkFFRqHymE"/>
+    <hyperlink ref="E34" r:id="rId42" display="https://www.geeksforgeeks.org/maximum-and-minimum-in-an-array/"/>
+    <hyperlink ref="C35" r:id="rId43"/>
+    <hyperlink ref="D35" r:id="rId44" display="https://youtu.be/37E9ckMDdTk?si=0TR032zkFFRqHymE"/>
+    <hyperlink ref="E35" r:id="rId45" display="https://www.geeksforgeeks.org/third-largest-element-array-distinct-elements/"/>
+    <hyperlink ref="C36" r:id="rId46"/>
+    <hyperlink ref="D36" r:id="rId47" display="https://youtu.be/wvcQg43_V8U?si=duJ5xqerLGj0IR7R"/>
+    <hyperlink ref="E36" r:id="rId48" display="https://www.geeksforgeeks.org/c-program-to-traverse-an-array/"/>
+    <hyperlink ref="C37" r:id="rId49"/>
+    <hyperlink ref="D37" r:id="rId50" display="https://youtu.be/2D0D8HE6uak?si=HL1gv_qVc7mUaHoJ"/>
+    <hyperlink ref="E37" r:id="rId51" display="https://www.geeksforgeeks.org/find-the-missing-number/"/>
+    <hyperlink ref="D38" r:id="rId52" display="https://youtu.be/2D0D8HE6uak?si=HL1gv_qVc7mUaHoJ"/>
+    <hyperlink ref="C39" r:id="rId53" display="https://www.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s4231/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D39" r:id="rId54" display="https://youtu.be/tp8JIuCXBaU?si=8iicmWUzbNMzAapK"/>
+    <hyperlink ref="E39" r:id="rId55" display="https://www.geeksforgeeks.org/sort-an-array-of-0s-1s-and-2s/"/>
+    <hyperlink ref="C40" r:id="rId56" display="https://www.geeksforgeeks.org/problems/check-if-two-arrays-are-equal-or-not3847/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="E40" r:id="rId57" display="https://www.geeksforgeeks.org/check-if-two-arrays-are-equal-or-not/"/>
+    <hyperlink ref="C41" r:id="rId58" display="https://www.geeksforgeeks.org/problems/cyclically-rotate-an-array-by-one2614/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D41" r:id="rId59" display="https://youtu.be/BHr381Guz3Y?si=LxSVwsQemuIvjvdu"/>
+    <hyperlink ref="E41" r:id="rId60" display="https://www.geeksforgeeks.org/c-program-cyclically-rotate-array-one/"/>
+    <hyperlink ref="C42" r:id="rId61"/>
+    <hyperlink ref="D42" r:id="rId62" display="https://youtu.be/wvcQg43_V8U?si=sd6dy_KO9X1yvwQY"/>
+    <hyperlink ref="E42" r:id="rId63" display="https://www.geeksforgeeks.org/print-array-after-it-is-right-rotated-k-times/"/>
+    <hyperlink ref="C43" r:id="rId64"/>
+    <hyperlink ref="E43" r:id="rId65" display="https://www.geeksforgeeks.org/find-whether-an-array-is-subset-of-another-array-set-1/"/>
+    <hyperlink ref="D44" r:id="rId66" display="https://youtu.be/KEs5UyBJ39g?si=RVR7_pJUEOH4dlUZ"/>
+    <hyperlink ref="E44" r:id="rId67" display="https://www.geeksforgeeks.org/introduction-to-map-data-structure-and-algorithm-tutorials/"/>
+    <hyperlink ref="C45" r:id="rId68"/>
+    <hyperlink ref="E45" r:id="rId69" display="https://www.geeksforgeeks.org/counting-frequencies-of-array-elements/"/>
+    <hyperlink ref="C47" r:id="rId70" display="https://www.geeksforgeeks.org/problems/key-pair5616/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D47" r:id="rId71" display="https://youtu.be/UXDSeD9mN-k?si=0OalQrKPSoSeO6io"/>
+    <hyperlink ref="E47" r:id="rId72" display="https://www.geeksforgeeks.org/check-if-pair-with-given-sum-exists-in-array/"/>
+    <hyperlink ref="C48" r:id="rId73" display="https://www.geeksforgeeks.org/problems/triplet-sum-in-array-1587115621/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D48" r:id="rId74" display="https://youtu.be/DhFh8Kw7ymk?si=Fwh27YWXIuwurZjz"/>
+    <hyperlink ref="E48" r:id="rId75" display="https://www.geeksforgeeks.org/find-a-triplet-that-sum-to-a-given-value/"/>
+    <hyperlink ref="C49" r:id="rId76"/>
+    <hyperlink ref="D49" r:id="rId77" display="https://youtu.be/eD95WRfh81c?si=01Uliqaf14HWboWE"/>
+    <hyperlink ref="E49" r:id="rId78" display="https://www.geeksforgeeks.org/find-four-elements-that-sum-to-a-given-value-set-2/"/>
+    <hyperlink ref="C50" r:id="rId79"/>
+    <hyperlink ref="D50" r:id="rId80" display="https://youtu.be/cJlJwroDw6o?si=UzoMg7WQXEX_-nQL"/>
+    <hyperlink ref="E50" r:id="rId81" display="https://www.geeksforgeeks.org/find-triplets-array-whose-sum-equal-zero/"/>
+    <hyperlink ref="C51" r:id="rId82" display="https://practice.geeksforgeeks.org/problems/count-the-triplets4615/1"/>
+    <hyperlink ref="D51" r:id="rId83" display="https://youtu.be/jqI7kKIJVF8?si=tN1E706NtO33ZE29"/>
+    <hyperlink ref="E51" r:id="rId84" display="https://www.geeksforgeeks.org/count-triplets-such-that-one-of-the-numbers-can-be-written-as-sum-of-the-other-two/"/>
+    <hyperlink ref="C52" r:id="rId85"/>
+    <hyperlink ref="D52" r:id="rId86" display="https://youtu.be/wvcQg43_V8U?si=sd6dy_KO9X1yvwQY"/>
+    <hyperlink ref="E52" r:id="rId87" display="https://www.geeksforgeeks.org/find-union-and-intersection-of-two-unsorted-arrays/"/>
+    <hyperlink ref="C53" r:id="rId88" display="https://www.geeksforgeeks.org/problems/intersection-of-two-arrays2404/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D53" r:id="rId89" display="https://youtu.be/wvcQg43_V8U?si=sd6dy_KO9X1yvwQY"/>
+    <hyperlink ref="E53" r:id="rId90" display="https://www.geeksforgeeks.org/find-union-and-intersection-of-two-unsorted-arrays/"/>
+    <hyperlink ref="C54" r:id="rId91" display="https://www.geeksforgeeks.org/problems/remove-duplicate-elements-from-sorted-array/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D54" r:id="rId92" display="https://youtu.be/37E9ckMDdTk?si=sgQG1IPqP4_lMLI7"/>
+    <hyperlink ref="E54" r:id="rId93" display="https://www.geeksforgeeks.org/remove-duplicates-sorted-array/"/>
+    <hyperlink ref="C55" r:id="rId94" display="https://www.geeksforgeeks.org/problems/k-th-element-of-two-sorted-array1317/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="E55" r:id="rId95" display="https://www.geeksforgeeks.org/k-th-element-two-sorted-arrays/"/>
+    <hyperlink ref="C56" r:id="rId96"/>
+    <hyperlink ref="D56" r:id="rId97" display="https://youtu.be/frf7qxiN2qU?si=JPQuhDD95ggmdzkh"/>
+    <hyperlink ref="E56" r:id="rId98" display="https://www.geeksforgeeks.org/length-of-longest-subarray-with-increasing-contiguous-elements/"/>
+    <hyperlink ref="C57" r:id="rId99" display="https://www.geeksforgeeks.org/problems/trapping-rain-water-1587115621/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D57" r:id="rId100" display="https://youtu.be/m18Hntz4go8?si=ciSWVbyZK9fRqwlD"/>
+    <hyperlink ref="E57" r:id="rId101" display="https://www.geeksforgeeks.org/trapping-rain-water/"/>
+    <hyperlink ref="C59" r:id="rId102"/>
+    <hyperlink ref="D59" r:id="rId103" display="https://youtu.be/nP_ns3uSh80?si=7StWyumzZ4xALf_n"/>
+    <hyperlink ref="E59" r:id="rId104" display="https://www.geeksforgeeks.org/majority-element/"/>
+    <hyperlink ref="C60" r:id="rId105"/>
+    <hyperlink ref="D60" r:id="rId106" display="https://youtu.be/AHZpyENo7k4?si=Gedgrb5NcCsKTvpr"/>
+    <hyperlink ref="E60" r:id="rId107" display="https://www.geeksforgeeks.org/largest-sum-contiguous-subarray/"/>
+    <hyperlink ref="C61" r:id="rId108"/>
+    <hyperlink ref="D61" r:id="rId109" display="https://youtu.be/AseUmwVNaoY?si=ryexsr9Pkd2oEqLb"/>
+    <hyperlink ref="E61" r:id="rId110" display="https://www.geeksforgeeks.org/inversion-count-in-array-using-merge-sort/"/>
+    <hyperlink ref="C62" r:id="rId111"/>
+    <hyperlink ref="D62" r:id="rId112" display="https://youtu.be/IexN60k62jo?si=fTYDjb_XUvQNSMQK"/>
+    <hyperlink ref="E62" r:id="rId113" display="https://www.geeksforgeeks.org/merging-intervals/"/>
+    <hyperlink ref="C63" r:id="rId114"/>
+    <hyperlink ref="D63" r:id="rId115" display="https://youtu.be/hnswaLJvr6g?si=dsjYUnsya81zUUoU"/>
+    <hyperlink ref="E63" r:id="rId116" display="https://www.geeksforgeeks.org/maximum-product-subarray/"/>
+    <hyperlink ref="C64" r:id="rId117"/>
+    <hyperlink ref="D64" r:id="rId118" display="https://youtu.be/JDOXKqF60RQ?si=N0kQyEkb3HU3cAFN"/>
+    <hyperlink ref="E64" r:id="rId119" display="https://www.geeksforgeeks.org/next-permutation/"/>
+    <hyperlink ref="C65" r:id="rId120"/>
+    <hyperlink ref="D65" r:id="rId121" display="https://youtu.be/QDFM7Mjk2mc?si=N-KRLLlVPFDbP7ig"/>
+    <hyperlink ref="E65" r:id="rId122" display="https://www.geeksforgeeks.org/sieve-of-eratosthenes/"/>
+    <hyperlink ref="B66" r:id="rId123" display="https://youtu.be/FPu9Uld7W-E?si=s_d6cjdb6UtlVg16"/>
+    <hyperlink ref="D69" r:id="rId124" display="https://youtu.be/J1aQ9JN4vZY?si=Zyvvj50RIqnHS_dI"/>
+    <hyperlink ref="E69" r:id="rId125" display="https://www.geeksforgeeks.org/multidimensional-arrays-in-c/"/>
+    <hyperlink ref="C70" r:id="rId126"/>
+    <hyperlink ref="D70" r:id="rId127" display="https://youtu.be/JXU4Akft7yk?si=ftzaCZifMOyqSHYd"/>
+    <hyperlink ref="E70" r:id="rId128" display="https://www.geeksforgeeks.org/search-element-sorted-matrix/"/>
+    <hyperlink ref="C71" r:id="rId129"/>
+    <hyperlink ref="D71" r:id="rId130" display="https://youtu.be/Z0R2u6gd3GU?si=09YatNJUpyE7ZCjg"/>
+    <hyperlink ref="E71" r:id="rId131" display="https://www.geeksforgeeks.org/rotate-a-matrix-by-90-degree-in-clockwise-direction-without-using-any-extra-space/"/>
+    <hyperlink ref="C72" r:id="rId132" display="https://www.geeksforgeeks.org/problems/row-with-minimum-number-of-1s5430/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D72" r:id="rId133" display="https://youtu.be/SCz-1TtYxDI?si=XeAz7btJ6r2MbZuh"/>
+    <hyperlink ref="E72" r:id="rId134" display="https://www.geeksforgeeks.org/find-the-row-with-maximum-number-1s/"/>
+    <hyperlink ref="C73" r:id="rId135"/>
+    <hyperlink ref="D73" r:id="rId136" display="https://youtu.be/Z0R2u6gd3GU?si=7sxqBk_sUWTCigqc"/>
+    <hyperlink ref="E73" r:id="rId137" display="https://www.geeksforgeeks.org/rotate-matrix-right-k-times/"/>
+    <hyperlink ref="C74" r:id="rId138" display="https://www.geeksforgeeks.org/problems/print-matrix-in-diagonal-pattern/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="E74" r:id="rId139" display="https://www.geeksforgeeks.org/print-matrix-diagonal-pattern/"/>
+    <hyperlink ref="C75" r:id="rId140"/>
+    <hyperlink ref="D75" r:id="rId141" display="https://youtu.be/N0MgLvceX7M?si=jJ_jUtmeE5mb0LB0"/>
+    <hyperlink ref="E75" r:id="rId142" display="https://takeuforward.org/data-structure/set-matrix-zero/"/>
+    <hyperlink ref="D77" r:id="rId143" display="https://youtu.be/yVdKa8dnKiE?si=SRrnZral-975-l3T"/>
+    <hyperlink ref="E77" r:id="rId144" display="https://www.geeksforgeeks.org/how-to-solve-time-complexity-recurrence-relations-using-recursion-tree-method/"/>
+    <hyperlink ref="C78" r:id="rId145"/>
+    <hyperlink ref="D78" r:id="rId146" display="https://youtu.be/un6PLygfXrA?si=lTiOfyUrTigDKJuT"/>
+    <hyperlink ref="E78" r:id="rId147" display="https://takeuforward.org/data-structure/print-n-to-1-and-1-to-n-using-recursion/"/>
+    <hyperlink ref="C79" r:id="rId148"/>
+    <hyperlink ref="D79" r:id="rId149" display="https://youtu.be/69ZCDFy-OUo?si=ZSOqIZK0c4L27ad2"/>
+    <hyperlink ref="E79" r:id="rId150" display="https://www.geeksforgeeks.org/program-for-factorial-of-a-number/"/>
+    <hyperlink ref="C80" r:id="rId151" display="https://www.geeksforgeeks.org/problems/nth-fibonacci-number1335/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D80" r:id="rId152" display="https://youtu.be/kvRjNm4rVBE?si=HoIm_q77BpGtePSF"/>
+    <hyperlink ref="E80" r:id="rId153" display="https://www.geeksforgeeks.org/program-for-nth-fibonacci-number/"/>
+    <hyperlink ref="C81" r:id="rId154" display="https://www.geeksforgeeks.org/problems/power-of-numbers-1587115620/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D81" r:id="rId155" display="https://youtu.be/l0YC3876qxg?si=gpooiy_1Voz_M2b6"/>
+    <hyperlink ref="E81" r:id="rId156" display="https://www.geeksforgeeks.org/write-a-c-program-to-calculate-powxn/"/>
+    <hyperlink ref="C82" r:id="rId157"/>
+    <hyperlink ref="D82" r:id="rId158" display="https://youtu.be/tNm_NNSB3_w?si=qRueLOLTmrBAtTTC"/>
+    <hyperlink ref="E82" r:id="rId159" display="https://www.geeksforgeeks.org/c-programs-print-interesting-patterns/"/>
+    <hyperlink ref="C83" r:id="rId160" display="https://practice.geeksforgeeks.org/problems/implement-atoi/1?utm_source=geeksforgeeks&amp;utm_medium=ml_article_practice_tab&amp;utm_campaign=article_practice_tab"/>
+    <hyperlink ref="D83" r:id="rId161" display="https://youtu.be/cXf7NKgT13s?si=7CiE2Yq4IRTwI3vh"/>
+    <hyperlink ref="E83" r:id="rId162" display="https://www.geeksforgeeks.org/recursive-implementation-of-atoi/"/>
+    <hyperlink ref="C84" r:id="rId163"/>
+    <hyperlink ref="D84" r:id="rId164" display="https://youtu.be/bR7mQgwQ_o8?si=sqnpPOV603FTpnTr"/>
+    <hyperlink ref="E84" r:id="rId165" display="https://www.geeksforgeeks.org/pascal-triangle/"/>
+    <hyperlink ref="C87" r:id="rId166"/>
+    <hyperlink ref="D87" r:id="rId167" display="https://youtu.be/MHf6awe89xw?si=SZFA7hgK2TgcOc0p"/>
+    <hyperlink ref="E87" r:id="rId168" display="https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-pivoted-array/"/>
+    <hyperlink ref="C88" r:id="rId169"/>
+    <hyperlink ref="D88" r:id="rId170" display="https://youtu.be/6zhGS79oQ4k?si=HTYRycV3VAbAV7wJ"/>
+    <hyperlink ref="E88" r:id="rId171" display="https://takeuforward.org/arrays/floor-and-ceil-in-sorted-array/"/>
+    <hyperlink ref="C89" r:id="rId172"/>
+    <hyperlink ref="D89" r:id="rId173" display="https://youtu.be/hjR1IYVx9lY?si=LvMcs8L77aY4RPsP"/>
+    <hyperlink ref="E89" r:id="rId174" display="https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-pivoted-array/"/>
+    <hyperlink ref="C90" r:id="rId175"/>
+    <hyperlink ref="D90" r:id="rId176" display="https://youtu.be/2D0D8HE6uak?si=lL-NPH7ot2zCdWFk"/>
+    <hyperlink ref="E90" r:id="rId177" display="https://www.geeksforgeeks.org/find-the-missing-number/"/>
+    <hyperlink ref="C91" r:id="rId178" display="https://www.geeksforgeeks.org/problems/square-root/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D91" r:id="rId179" display="https://youtu.be/Bsv3FPUX_BA?si=pkOV3citxe_BydNv"/>
+    <hyperlink ref="E91" r:id="rId180" display="https://www.geeksforgeeks.org/square-root-of-an-integer/"/>
+    <hyperlink ref="C92" r:id="rId181"/>
+    <hyperlink ref="D92" r:id="rId182" display="https://youtu.be/W9QJ8HaRvJQ?si=7qkUdUy7sHugcc-4"/>
+    <hyperlink ref="E92" r:id="rId183" display="https://takeuforward.org/data-structure/search-in-an-infinite-sorted-array/"/>
+    <hyperlink ref="C94" r:id="rId184"/>
+    <hyperlink ref="D94" r:id="rId185" display="https://youtu.be/5qGrJbHhqFs?si=BQOhDElObCoMlfNF"/>
+    <hyperlink ref="E94" r:id="rId186" display="https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-rotated-array-with-duplicates/"/>
+    <hyperlink ref="C95" r:id="rId187"/>
+    <hyperlink ref="D95" r:id="rId188" display="https://youtu.be/nhEMDKMB44g?si=oulPpoG2QvlG0YgL"/>
+    <hyperlink ref="E95" r:id="rId189" display="https://www.geeksforgeeks.org/find-minimum-element-in-a-sorted-and-rotated-array/"/>
+    <hyperlink ref="C96" r:id="rId190" display="https://www.geeksforgeeks.org/problems/rotation4723/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D96" r:id="rId191" display="https://youtu.be/jtSiWTPLwd0?si=-rI5dZ-3sY3qDsS6"/>
+    <hyperlink ref="E96" r:id="rId192" display="https://www.geeksforgeeks.org/find-rotation-count-rotated-sorted-array/"/>
+    <hyperlink ref="E97" r:id="rId193" display="https://www.geeksforgeeks.org/maximum-element-in-a-sorted-and-rotated-array/"/>
+    <hyperlink ref="C99" r:id="rId194"/>
+    <hyperlink ref="D99" r:id="rId195" display="https://youtu.be/cXxmbemS6XM?si=uuZ5GDVRhz1DuRpp"/>
+    <hyperlink ref="E99" r:id="rId196" display="https://www.geeksforgeeks.org/find-a-peak-in-a-given-array/"/>
+    <hyperlink ref="C100" r:id="rId197"/>
+    <hyperlink ref="D100" r:id="rId198" display="https://youtu.be/W9QJ8HaRvJQ?si=7qkUdUy7sHugcc-4"/>
+    <hyperlink ref="E100" r:id="rId199" display="https://www.geeksforgeeks.org/find-element-bitonic-array/"/>
+    <hyperlink ref="C102" r:id="rId200"/>
+    <hyperlink ref="D102" r:id="rId201" display="https://youtu.be/SCz-1TtYxDI?si=U_jEDIFYaa8QGnxo"/>
+    <hyperlink ref="E102" r:id="rId202" display="https://www.geeksforgeeks.org/find-the-row-with-maximum-number-1s/"/>
+    <hyperlink ref="C103" r:id="rId203" display="https://www.geeksforgeeks.org/problems/search-in-a-matrix-1587115621/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D103" r:id="rId204" display="https://youtu.be/JXU4Akft7yk?si=oY5y29BNgKveTd7q"/>
+    <hyperlink ref="E103" r:id="rId205" display="https://www.geeksforgeeks.org/search-in-row-wise-and-column-wise-sorted-matrix/"/>
+    <hyperlink ref="C104" r:id="rId206"/>
+    <hyperlink ref="D104" r:id="rId207" display="https://youtu.be/9ZbB397jU4k?si=LYzHu6tpjUc5D73I"/>
+    <hyperlink ref="E104" r:id="rId208" display="https://www.geeksforgeeks.org/search-in-a-sorted-2d-matrix-stored-in-row-major-order/"/>
+    <hyperlink ref="C105" r:id="rId209"/>
+    <hyperlink ref="D105" r:id="rId210" display="https://youtu.be/9ZbB397jU4k?si=wSh6BEJiQjJRFuhD"/>
+    <hyperlink ref="E105" r:id="rId211" display="https://www.geeksforgeeks.org/find-peak-element-2d-array/"/>
+    <hyperlink ref="C107" r:id="rId212"/>
+    <hyperlink ref="D107" r:id="rId213" display="https://youtu.be/R_Mfw4ew-Vo?si=5YexrvejL-U8Lp9e"/>
+    <hyperlink ref="E107" r:id="rId214" display="https://www.geeksforgeeks.org/assign-stalls-to-k-cows-to-maximize-the-minimum-distance-between-them/"/>
+    <hyperlink ref="C108" r:id="rId215" display="https://www.geeksforgeeks.org/problems/allocate-minimum-number-of-pages0937/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D108" r:id="rId216" display="https://youtu.be/Z0hwjftStI4?si=md6pnkK1gK2OydeX"/>
+    <hyperlink ref="E108" r:id="rId217" display="https://www.geeksforgeeks.org/allocate-minimum-number-pages/"/>
+    <hyperlink ref="C109" r:id="rId218"/>
+    <hyperlink ref="D109" r:id="rId219" display="https://youtu.be/thUd_WJn6wk?si=83_t-BSmFO1JPtFX"/>
+    <hyperlink ref="E109" r:id="rId220" display="https://www.geeksforgeeks.org/painters-partition-problem/"/>
+    <hyperlink ref="C110" r:id="rId221"/>
+    <hyperlink ref="D110" r:id="rId222" display="https://youtu.be/thUd_WJn6wk?si=83_t-BSmFO1JPtFX"/>
+    <hyperlink ref="E110" r:id="rId223" display="https://www.geeksforgeeks.org/split-the-given-array-into-k-sub-arrays-such-that-maximum-sum-of-all-sub-arrays-is-minimum/"/>
+    <hyperlink ref="C111" r:id="rId224"/>
+    <hyperlink ref="D111" r:id="rId225" display="https://youtu.be/TXAuxeYBTdg?si=am2Vhrx6NzRn666i"/>
+    <hyperlink ref="E111" r:id="rId226" display="https://takeuforward.org/arrays/minimum-days-to-make-m-bouquets/"/>
+    <hyperlink ref="C112" r:id="rId227"/>
+    <hyperlink ref="D112" r:id="rId228" display="https://youtu.be/MG-Ac4TAvTY?si=AZ1NbXoBg0WpOIVu"/>
+    <hyperlink ref="E112" r:id="rId229" display="https://www.geeksforgeeks.org/capacity-to-ship-packages-within-d-days/"/>
+    <hyperlink ref="C113" r:id="rId230"/>
+    <hyperlink ref="D113" r:id="rId231" display="https://youtu.be/qyfekrNni90?si=jMI1EAu9QbNoPwdL"/>
+    <hyperlink ref="E113" r:id="rId232" display="https://www.geeksforgeeks.org/koko-eating-bananas/"/>
+    <hyperlink ref="C114" r:id="rId233"/>
+    <hyperlink ref="D114" r:id="rId234" display="https://youtu.be/N-7biZf7a0I?si=CfkbhxMALJCEo69w"/>
+    <hyperlink ref="E114" r:id="rId235" display="https://www.geeksforgeeks.org/kth-smallest-number-in-multiplication-table/"/>
+    <hyperlink ref="C115" r:id="rId236"/>
+    <hyperlink ref="D115" r:id="rId237" display="https://youtu.be/veu_Q-da6ZY?si=T0MVODyANtV8Q8jE"/>
+    <hyperlink ref="E115" r:id="rId238" display="https://www.geeksforgeeks.org/k-th-smallest-absolute-difference-two-elements-array/"/>
+    <hyperlink ref="C116" r:id="rId239"/>
+    <hyperlink ref="D116" r:id="rId240" display="https://youtu.be/X5SuOsIWCoI?si=EQTTz3FlzY37wihS"/>
+    <hyperlink ref="E116" r:id="rId241" display="https://www.geeksforgeeks.org/ugly-numbers/"/>
+    <hyperlink ref="C117" r:id="rId242" display="https://www.geeksforgeeks.org/problems/median-of-2-sorted-arrays-of-different-sizes/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D117" r:id="rId243" display="https://youtu.be/F9c7LpRZWVQ?si=UBBKqg6vDwaEPBla"/>
+    <hyperlink ref="E117" r:id="rId244" display="https://www.geeksforgeeks.org/median-of-two-sorted-arrays-of-different-sizes/"/>
+    <hyperlink ref="C118" r:id="rId245" display="https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold/"/>
+    <hyperlink ref="D118" r:id="rId246" display="https://youtu.be/UvBKTVaG6U8?si=U-dfjanJFfqbEEOE"/>
+    <hyperlink ref="E118" r:id="rId247" display="https://takeuforward.org/arrays/find-the-smallest-divisor-given-a-threshold/"/>
+    <hyperlink ref="C120" r:id="rId248" display="https://www.geeksforgeeks.org/problems/bubble-sort/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D120" r:id="rId249" display="https://youtu.be/HGk_ypEuS24?si=7Y4nO0hu37rPwmjB"/>
+    <hyperlink ref="E120" r:id="rId250" display="https://www.geeksforgeeks.org/bubble-sort/"/>
+    <hyperlink ref="C121" r:id="rId251" display="https://www.geeksforgeeks.org/problems/selection-sort/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D121" r:id="rId252" display="https://youtu.be/HGk_ypEuS24?si=7Y4nO0hu37rPwmjB"/>
+    <hyperlink ref="E121" r:id="rId253" display="https://www.geeksforgeeks.org/selection-sort/"/>
+    <hyperlink ref="C122" r:id="rId254" display="https://www.geeksforgeeks.org/problems/insertion-sort/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D122" r:id="rId255" display="https://youtu.be/HGk_ypEuS24?si=7Y4nO0hu37rPwmjB"/>
+    <hyperlink ref="E122" r:id="rId256" display="https://www.geeksforgeeks.org/insertion-sort/"/>
+    <hyperlink ref="C123" r:id="rId257" display="https://www.geeksforgeeks.org/problems/merge-sort/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D123" r:id="rId258" display="https://youtu.be/ogjf7ORKfd8?si=nHB5zJMfQf-fmOim"/>
+    <hyperlink ref="E123" r:id="rId259" display="https://www.geeksforgeeks.org/merge-sort/"/>
+    <hyperlink ref="C124" r:id="rId260" display="https://www.geeksforgeeks.org/problems/quick-sort/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D124" r:id="rId261" display="https://youtu.be/WIrA4YexLRQ?si=IBwwb6xHsi3YGOSN"/>
+    <hyperlink ref="E124" r:id="rId262" display="https://www.geeksforgeeks.org/quick-sort/"/>
+    <hyperlink ref="D126" r:id="rId263" display="https://youtu.be/Nq7ok-OyEpg?si=ryFFMk9gQcXMephl"/>
+    <hyperlink ref="E126" r:id="rId264" display="https://www.geeksforgeeks.org/what-is-linked-list/"/>
+    <hyperlink ref="D127" r:id="rId265" display="https://youtu.be/VaECK03Dz-g?si=-81fgfc9CAs2P-yg"/>
+    <hyperlink ref="E127" r:id="rId266" display="https://www.programiz.com/dsa/linked-list-operations"/>
+    <hyperlink ref="C128" r:id="rId267"/>
+    <hyperlink ref="D128" r:id="rId268" display="https://youtu.be/Nq7ok-OyEpg?si=oiwMXSQZwVteQp7t"/>
+    <hyperlink ref="E128" r:id="rId269" display="https://www.geeksforgeeks.org/search-an-element-in-a-linked-list-iterative-and-recursive/"/>
+    <hyperlink ref="C129" r:id="rId270"/>
+    <hyperlink ref="D129" r:id="rId271" display="https://youtu.be/D2vI2DNJGd8?si=vljGaBvoeAzu2yjH"/>
+    <hyperlink ref="E129" r:id="rId272" display="https://www.geeksforgeeks.org/reverse-a-linked-list/"/>
+    <hyperlink ref="C130" r:id="rId273"/>
+    <hyperlink ref="D130" r:id="rId274" display="https://youtu.be/lRY_G-u_8jk?si=NpNIWRnrnLxtwvHc"/>
+    <hyperlink ref="E130" r:id="rId275" display="https://www.geeksforgeeks.org/function-to-check-if-a-singly-linked-list-is-palindrome/"/>
+    <hyperlink ref="C131" r:id="rId276"/>
+    <hyperlink ref="D131" r:id="rId277" display="https://youtu.be/7LjQ57RqgEc?si=7TB3YSJldSkveCM6"/>
+    <hyperlink ref="E131" r:id="rId278" display="https://www.geeksforgeeks.org/insert-node-middle-linked-list/"/>
+    <hyperlink ref="C132" r:id="rId279"/>
+    <hyperlink ref="D132" r:id="rId280" display="https://youtu.be/0DYoPz2Tpt4?si=kwaZaI8b848cqh7q"/>
+    <hyperlink ref="E132" r:id="rId281" display="https://www.geeksforgeeks.org/write-a-function-to-get-the-intersection-point-of-two-linked-lists/"/>
+    <hyperlink ref="C133" r:id="rId282" display="https://www.geeksforgeeks.org/problems/union-of-two-linked-list/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D133" r:id="rId283" display="https://youtu.be/wvcQg43_V8U?si=hnKPSWEqSjHN9dNn"/>
+    <hyperlink ref="E133" r:id="rId284" display="https://www.geeksforgeeks.org/union-and-intersection-of-two-linked-lists/"/>
+    <hyperlink ref="C134" r:id="rId285"/>
+    <hyperlink ref="D134" r:id="rId286" display="https://youtu.be/icnp4FJdZ_c?si=NZr1bzvtR_ARASzF"/>
+    <hyperlink ref="E134" r:id="rId287" display="https://www.geeksforgeeks.org/delete-a-node-from-linked-list-without-head-pointer/"/>
+    <hyperlink ref="C135" r:id="rId288"/>
+    <hyperlink ref="E135" r:id="rId289" display="https://www.geeksforgeeks.org/count-pairs-two-linked-lists-whose-sum-equal-given-value/"/>
+    <hyperlink ref="C136" r:id="rId290"/>
+    <hyperlink ref="D136" r:id="rId291" display="https://youtu.be/lIar1skcQYI?si=maRDPjLBH_7lm7XJ"/>
+    <hyperlink ref="E136" r:id="rId292" display="https://www.geeksforgeeks.org/reverse-a-linked-list-in-groups-of-given-size/"/>
+    <hyperlink ref="C138" r:id="rId293"/>
+    <hyperlink ref="D138" r:id="rId294" display="https://youtu.be/wiOo4DC5GGA?si=8SqmTgLyYwgXw95f"/>
+    <hyperlink ref="E138" r:id="rId295" display="https://www.geeksforgeeks.org/detect-loop-in-a-linked-list/"/>
+    <hyperlink ref="C139" r:id="rId296"/>
+    <hyperlink ref="D139" r:id="rId297" display="https://youtu.be/I4g1qbkTPus?si=YqFJkeqopml7lRkN"/>
+    <hyperlink ref="E139" r:id="rId298" display="https://www.geeksforgeeks.org/find-length-of-loop-in-linked-list/"/>
+    <hyperlink ref="C140" r:id="rId299"/>
+    <hyperlink ref="D140" r:id="rId300" display="https://youtu.be/2Kd0KKmmHFc?si=G-cVazaPJN8XjgfB"/>
+    <hyperlink ref="E140" r:id="rId301" display="https://www.geeksforgeeks.org/find-first-node-of-loop-in-a-linked-list/"/>
+    <hyperlink ref="C141" r:id="rId302"/>
+    <hyperlink ref="D141" r:id="rId303" display="https://youtu.be/_BG9rjkAXj8?si=egrP9V6ROMAip9jT"/>
+    <hyperlink ref="E141" r:id="rId304" display="https://www.geeksforgeeks.org/detect-and-remove-loop-in-a-linked-list/"/>
+    <hyperlink ref="C143" r:id="rId305"/>
+    <hyperlink ref="D143" r:id="rId306" display="https://youtu.be/gRII7LhdJWc?si=q-xNQeYvdXPR8WWj"/>
+    <hyperlink ref="E143" r:id="rId307" display="https://www.geeksforgeeks.org/sort-a-linked-list-of-0s-1s-or-2s/"/>
+    <hyperlink ref="C144" r:id="rId308"/>
+    <hyperlink ref="D144" r:id="rId309" display="https://youtu.be/bN8nk4ZXzK0?si=iA2AjojAqKG9d_WU"/>
+    <hyperlink ref="E144" r:id="rId310" display="https://www.geeksforgeeks.org/pairwise-swap-elements-of-a-given-linked-list/"/>
+    <hyperlink ref="C145" r:id="rId311"/>
+    <hyperlink ref="D145" r:id="rId312" display="https://youtu.be/q5a5OiGbT6Q?si=IMmJI7RvGvEP59_C"/>
+    <hyperlink ref="E145" r:id="rId313" display="https://www.geeksforgeeks.org/merge-two-sorted-linked-lists/"/>
+    <hyperlink ref="C146" r:id="rId314"/>
+    <hyperlink ref="D146" r:id="rId315" display="https://youtu.be/ogjf7ORKfd8?si=rzOnEXKe2To-rSdw"/>
+    <hyperlink ref="E146" r:id="rId316" display="https://www.geeksforgeeks.org/merge-sort-for-linked-list/"/>
+    <hyperlink ref="C147" r:id="rId317" display="https://www.geeksforgeeks.org/problems/quick-sort-on-linked-list/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D147" r:id="rId318" display="https://youtu.be/WIrA4YexLRQ?si=-NZqIbzEpb-6OARV"/>
+    <hyperlink ref="E147" r:id="rId319" display="https://www.geeksforgeeks.org/quicksort-on-singly-linked-list/"/>
+    <hyperlink ref="D148" r:id="rId320" display="https://youtu.be/YJKVTnOJXSY?si=v8RSH10efQJUvW0C"/>
+    <hyperlink ref="E148" r:id="rId321" display="https://www.geeksforgeeks.org/remove-duplicates-from-a-sorted-linked-list/"/>
+    <hyperlink ref="C149" r:id="rId322"/>
+    <hyperlink ref="D149" r:id="rId323" display="https://www.youtube.com/live/JfWROTUQcn8?si=o9X1KOCltap_orbJ"/>
+    <hyperlink ref="E149" r:id="rId324" display="https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/"/>
+    <hyperlink ref="C151" r:id="rId325"/>
+    <hyperlink ref="D151" r:id="rId326" display="https://youtu.be/aXQWhbvT3w0?si=YWdIiQXsrfQHnrYn"/>
+    <hyperlink ref="E151" r:id="rId327" display="https://www.geeksforgeeks.org/add-1-number-represented-linked-list/"/>
+    <hyperlink ref="C152" r:id="rId328"/>
+    <hyperlink ref="D152" r:id="rId329" display="https://youtu.be/LBVsXSMOIk4?si=iIQRk_sF9zAtwknT"/>
+    <hyperlink ref="E152" r:id="rId330" display="https://www.geeksforgeeks.org/add-two-numbers-represented-by-linked-list/"/>
+    <hyperlink ref="C153" r:id="rId331"/>
+    <hyperlink ref="E153" r:id="rId332" display="https://www.geeksforgeeks.org/subtract-two-numbers-represented-as-linked-lists/"/>
+    <hyperlink ref="C155" r:id="rId333"/>
+    <hyperlink ref="D155" r:id="rId334" display="https://youtu.be/uT7YI7XbTY8?si=ueKdt7ev8rjshlGW"/>
+    <hyperlink ref="E155" r:id="rId335" display="https://www.geeksforgeeks.org/rearrange-a-given-linked-list-in-place/"/>
+    <hyperlink ref="C156" r:id="rId336"/>
+    <hyperlink ref="D156" r:id="rId337" display="https://youtu.be/ysytSSXpAI0?si=K3PCYAXGifgKqL1p"/>
+    <hyperlink ref="E156" r:id="rId338" display="https://www.geeksforgeeks.org/flattening-a-linked-list/"/>
+    <hyperlink ref="C157" r:id="rId339"/>
+    <hyperlink ref="D157" r:id="rId340" display="https://youtu.be/jDPrM5XIqzM?si=w0IEUl9Y2qmXSdtC"/>
+    <hyperlink ref="E157" r:id="rId341" display="https://www.geeksforgeeks.org/delete-nodes-which-have-a-greater-value-on-right-side/"/>
+    <hyperlink ref="C158" r:id="rId342"/>
+    <hyperlink ref="D158" r:id="rId343" display="https://youtu.be/icnp4FJdZ_c?si=a2BJWMCc9ETeevAO"/>
+    <hyperlink ref="E158" r:id="rId344" display="https://www.geeksforgeeks.org/delete-n-nodes-after-m-nodes-of-a-linked-list/"/>
+    <hyperlink ref="D159" r:id="rId345" display="https://youtu.be/Mh0NH_SD92k?si=_jaOPDZKpnHohet2"/>
+    <hyperlink ref="C160" r:id="rId346"/>
+    <hyperlink ref="D160" r:id="rId347" display="https://youtu.be/VNf6VynfpdM?si=e1slTowpTqIc---M"/>
+    <hyperlink ref="E160" r:id="rId348" display="https://www.geeksforgeeks.org/a-linked-list-with-next-and-arbit-pointer/"/>
+    <hyperlink ref="C161" r:id="rId349"/>
+    <hyperlink ref="D161" r:id="rId350" display="https://youtu.be/6i_T5kkfv4A?si=L6rVlrvdYuSXGiWa"/>
+    <hyperlink ref="E161" r:id="rId351" display="https://www.geeksforgeeks.org/length-longest-palindrome-list-linked-list-using-o1-extra-space/"/>
+    <hyperlink ref="E162" r:id="rId352" display="https://www.geeksforgeeks.org/circular-linked-list/"/>
+    <hyperlink ref="D164" r:id="rId353" display="https://youtu.be/Nq7ok-OyEpg?si=dDrqbUkV_lKFkLSV"/>
+    <hyperlink ref="E164" r:id="rId354" display="https://www.geeksforgeeks.org/what-is-linked-list/"/>
+    <hyperlink ref="C165" r:id="rId355"/>
+    <hyperlink ref="D165" r:id="rId356" display="https://youtu.be/u3WUW2qe6ww?si=hAazIXgy1oPd1_KJ"/>
+    <hyperlink ref="E165" r:id="rId357" display="https://www.geeksforgeeks.org/reverse-a-doubly-linked-list/"/>
+    <hyperlink ref="C166" r:id="rId358"/>
+    <hyperlink ref="D166" r:id="rId359" display="https://youtu.be/YitR4dQsddE?si=mrZaT1w0xdI_VKYJ"/>
+    <hyperlink ref="E166" r:id="rId360" display="https://www.geeksforgeeks.org/find-pairs-given-sum-doubly-linked-list/"/>
+    <hyperlink ref="C169" r:id="rId361"/>
+    <hyperlink ref="E169" r:id="rId362" display="https://www.geeksforgeeks.org/introduction-to-stack-data-structure-and-algorithm-tutorials/"/>
+    <hyperlink ref="C170" r:id="rId363"/>
+    <hyperlink ref="D170" r:id="rId364" display="https://youtu.be/GYptUgnIM_I?si=YEr87UrxZw1xaMk3"/>
+    <hyperlink ref="E170" r:id="rId365" display="https://www.geeksforgeeks.org/implement-two-stacks-in-an-array/"/>
+    <hyperlink ref="C171" r:id="rId366"/>
+    <hyperlink ref="D171" r:id="rId367" display="https://youtu.be/wkDfsKijrZ8?si=xmSeeK82cI-4hsWZ"/>
+    <hyperlink ref="E171" r:id="rId368" display="https://www.geeksforgeeks.org/check-if-given-parentheses-expression-is-balanced-or-not/"/>
+    <hyperlink ref="C172" r:id="rId369"/>
+    <hyperlink ref="E172" r:id="rId370" display="https://www.geeksforgeeks.org/design-a-stack-that-supports-getmin-in-o1-time-and-o1-extra-space/"/>
+    <hyperlink ref="C174" r:id="rId371"/>
+    <hyperlink ref="D174" r:id="rId372" display="https://youtu.be/Du881K7Jtk8?si=1KDoD1_Ke3mzxlL1"/>
+    <hyperlink ref="E174" r:id="rId373" display="https://www.geeksforgeeks.org/next-greater-element/"/>
+    <hyperlink ref="C175" r:id="rId374"/>
+    <hyperlink ref="E175" r:id="rId375" display="https://www.geeksforgeeks.org/find-the-next-greater-element-in-a-circular-array/"/>
+    <hyperlink ref="C177" r:id="rId376"/>
+    <hyperlink ref="D177" r:id="rId377" display="https://youtu.be/_RtghJnM1Qo?si=4qrv3aDDwijeRm_o"/>
+    <hyperlink ref="E177" r:id="rId378" display="https://www.geeksforgeeks.org/find-the-nearest-smaller-numbers-on-left-side-in-an-array/"/>
+    <hyperlink ref="C178" r:id="rId379"/>
+    <hyperlink ref="D178" r:id="rId380" display="https://youtu.be/_RtghJnM1Qo?si=4qrv3aDDwijeRm_o"/>
+    <hyperlink ref="E178" r:id="rId381" display="https://www.procoding.org/nearest-smaller-to-right"/>
+    <hyperlink ref="C179" r:id="rId382"/>
+    <hyperlink ref="D179" r:id="rId383" display="https://youtu.be/slYh0ZNEqSw?si=Bb04H9MqRP1wTDDl"/>
+    <hyperlink ref="E179" r:id="rId384" display="https://www.geeksforgeeks.org/the-stock-span-problem/"/>
+    <hyperlink ref="C180" r:id="rId385" display="https://www.geeksforgeeks.org/problems/trapping-rain-water-1587115621/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D180" r:id="rId386" display="https://youtu.be/m18Hntz4go8?si=7qLelcwMU1zX_f8T"/>
+    <hyperlink ref="E180" r:id="rId387" display="https://www.geeksforgeeks.org/trapping-rain-water/"/>
+    <hyperlink ref="C181" r:id="rId388"/>
+    <hyperlink ref="D181" r:id="rId389" display="https://youtu.be/X0X6G-eWgQ8?si=MRIKghS-DLv_7Pi2"/>
+    <hyperlink ref="E181" r:id="rId390" display="https://www.geeksforgeeks.org/largest-rectangular-area-in-a-histogram-using-stack/"/>
+    <hyperlink ref="C182" r:id="rId391"/>
+    <hyperlink ref="D182" r:id="rId392" display="https://youtu.be/tOylVCugy9k?si=5qpEF2oU_iQyv1yp"/>
+    <hyperlink ref="E182" r:id="rId393" display="https://www.geeksforgeeks.org/maximum-size-rectangle-binary-sub-matrix-1s/"/>
+    <hyperlink ref="C184" r:id="rId394"/>
+    <hyperlink ref="D184" r:id="rId395" display="https://youtu.be/PAceaOSnxQs?si=LFGbZRMkHTMthAqQ"/>
+    <hyperlink ref="E184" r:id="rId396" display="https://www.geeksforgeeks.org/convert-infix-expression-to-postfix-expression/"/>
+    <hyperlink ref="C185" r:id="rId397"/>
+    <hyperlink ref="D185" r:id="rId398" display="https://youtu.be/u3paQa8KXu0?si=v-QZxZvRK7yRTdnm"/>
+    <hyperlink ref="E185" r:id="rId399" display="https://www.geeksforgeeks.org/evaluation-of-postfix-expression/"/>
+    <hyperlink ref="C186" r:id="rId400"/>
+    <hyperlink ref="D186" r:id="rId401" display="https://youtu.be/RY4GkLahbCI?si=PxZ0CNQSmPe5Iri2"/>
+    <hyperlink ref="E186" r:id="rId402" display="https://www.geeksforgeeks.org/prefix-postfix-conversion/"/>
+    <hyperlink ref="C187" r:id="rId403"/>
+    <hyperlink ref="E187" r:id="rId404" display="https://www.geeksforgeeks.org/arithmetic-expression-evalution/"/>
+    <hyperlink ref="C189" r:id="rId405"/>
+    <hyperlink ref="D189" r:id="rId406" display="https://youtu.be/BmZnJehDzyU?si=bZejmkHrQhG9nc-D"/>
+    <hyperlink ref="E189" r:id="rId407" display="https://www.geeksforgeeks.org/program-to-insert-an-element-at-the-bottom-of-a-stack/"/>
+    <hyperlink ref="C190" r:id="rId408"/>
+    <hyperlink ref="D190" r:id="rId409" display="https://youtu.be/SW14tOda_kI?si=8j5-licSNQkxX7GW"/>
+    <hyperlink ref="E190" r:id="rId410" display="https://www.geeksforgeeks.org/reverse-a-stack-using-recursion/"/>
+    <hyperlink ref="C191" r:id="rId411"/>
+    <hyperlink ref="D191" r:id="rId412" display="https://youtu.be/SjDq1xYxC44?si=Y3th_GK9E5TE4LQt"/>
+    <hyperlink ref="E191" r:id="rId413" display="https://www.geeksforgeeks.org/sort-a-stack-using-recursion/"/>
+    <hyperlink ref="C193" r:id="rId414"/>
+    <hyperlink ref="D193" r:id="rId415" display="https://youtu.be/9u2BJfmWNEg?si=6KkJHm8rjX6xTOsm"/>
+    <hyperlink ref="E193" r:id="rId416" display="https://www.geeksforgeeks.org/the-celebrity-problem/"/>
+    <hyperlink ref="C194" r:id="rId417"/>
+    <hyperlink ref="D194" r:id="rId418" display="https://youtu.be/fIdNHd5nEqI?si=AX5qTxIvmvKKlyRf"/>
+    <hyperlink ref="E194" r:id="rId419" display="https://www.geeksforgeeks.org/reduce-the-string-by-removing-k-consecutive-identical-characters/"/>
+    <hyperlink ref="C195" r:id="rId420"/>
+    <hyperlink ref="D195" r:id="rId421" display="https://www.youtube.com/live/Bg0Y9__J8UE?si=bR4Jmm1QtbwHocbQ"/>
+    <hyperlink ref="E195" r:id="rId422" display="https://www.geeksforgeeks.org/minimum-number-of-bracket-reversals-needed-to-make-an-expression-balanced/"/>
+    <hyperlink ref="C198" r:id="rId423"/>
+    <hyperlink ref="D198" r:id="rId424" display="https://youtu.be/M6GnoUDpqEE?si=_dqoKIYUU275Hcmv"/>
+    <hyperlink ref="E198" r:id="rId425" display="https://www.geeksforgeeks.org/array-implementation-of-queue-simple/"/>
+    <hyperlink ref="C199" r:id="rId426"/>
+    <hyperlink ref="E199" r:id="rId427" display="https://www.geeksforgeeks.org/queue-linked-list-implementation/"/>
+    <hyperlink ref="C200" r:id="rId428"/>
+    <hyperlink ref="D200" r:id="rId429" display="https://youtu.be/3Et9MrMc02A?si=voYSp9_jK2S7pkFr"/>
+    <hyperlink ref="E200" r:id="rId430" display="https://www.geeksforgeeks.org/implement-stack-using-queue/"/>
+    <hyperlink ref="C201" r:id="rId431"/>
+    <hyperlink ref="D201" r:id="rId432" display="https://youtu.be/jDZQKzEtbYQ?si=-3eKyh6SDVQXJPIv"/>
+    <hyperlink ref="E201" r:id="rId433" display="https://www.geeksforgeeks.org/implement-stack-using-queue/"/>
+    <hyperlink ref="C202" r:id="rId434"/>
+    <hyperlink ref="E202" r:id="rId435" display="https://www.geeksforgeeks.org/reversing-a-queue/"/>
+    <hyperlink ref="C204" r:id="rId436"/>
+    <hyperlink ref="D204" r:id="rId437" display="https://youtu.be/_gJ3to4RyeQ?si=qK6-vjLpG1O_jjW3"/>
+    <hyperlink ref="E204" r:id="rId438" display="https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/"/>
+    <hyperlink ref="C205" r:id="rId439"/>
+    <hyperlink ref="D205" r:id="rId440" display="https://youtu.be/_gJ3to4RyeQ?si=qK6-vjLpG1O_jjW3"/>
+    <hyperlink ref="E205" r:id="rId441" display="https://www.geeksforgeeks.org/find-first-non-repeating-character-stream-characters/"/>
+    <hyperlink ref="C206" r:id="rId442"/>
+    <hyperlink ref="D206" r:id="rId443" display="https://www.youtube.com/watch?v=_gJ3to4RyeQ&amp;t=4244s"/>
+    <hyperlink ref="E206" r:id="rId444" display="https://www.geeksforgeeks.org/reversing-first-k-elements-queue/"/>
+    <hyperlink ref="C207" r:id="rId445"/>
+    <hyperlink ref="D207" r:id="rId446" display="https://youtu.be/xDEuM5qa0zg?si=1I7GJk3ep77i7dN3"/>
+    <hyperlink ref="E207" r:id="rId447" display="https://www.geeksforgeeks.org/lru-cache-implementation/"/>
+    <hyperlink ref="C208" r:id="rId448"/>
+    <hyperlink ref="E208" r:id="rId449" display="https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/"/>
+    <hyperlink ref="C209" r:id="rId450"/>
+    <hyperlink ref="E209" r:id="rId451" display="https://www.geeksforgeeks.org/nearly-sorted-algorithm/"/>
+    <hyperlink ref="C212" r:id="rId452" display="https://www.geeksforgeeks.org/problems/max-sum-subarray-of-size-k5313/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D212" r:id="rId453" display="https://youtu.be/TCHSXAu5pls?si=ZP_jrOEraTJAophE"/>
+    <hyperlink ref="E212" r:id="rId454" display="https://www.geeksforgeeks.org/find-maximum-minimum-sum-subarray-size-k/"/>
+    <hyperlink ref="C213" r:id="rId455"/>
+    <hyperlink ref="D213" r:id="rId456" display="https://www.youtube.com/live/3QSvHEmJAkc?si=O76LO8eM72LpKL4s"/>
+    <hyperlink ref="E213" r:id="rId457" display="https://www.geeksforgeeks.org/count-distinct-elements-in-every-window-of-size-k/"/>
+    <hyperlink ref="C214" r:id="rId458"/>
+    <hyperlink ref="D214" r:id="rId459" display="https://www.youtube.com/live/QIDV7m1JrnA?si=Lmr9b8Zi6H06MCTS"/>
+    <hyperlink ref="E214" r:id="rId460" display="https://www.geeksforgeeks.org/first-negative-integer-every-window-size-k/"/>
+    <hyperlink ref="C215" r:id="rId461"/>
+    <hyperlink ref="D215" r:id="rId462" display="https://youtu.be/CZQGRp93K4k?si=7zprdiDcdlnC9vmM"/>
+    <hyperlink ref="E215" r:id="rId463" display="https://www.geeksforgeeks.org/sliding-window-maximum-maximum-of-all-subarrays-of-size-k/"/>
+    <hyperlink ref="C216" r:id="rId464"/>
+    <hyperlink ref="D216" r:id="rId465" display="https://youtu.be/WIkO_t1Kam8?si=u2P3Mo1qvBqxwfRv"/>
+    <hyperlink ref="E216" r:id="rId466" display="https://www.geeksforgeeks.org/count-of-substrings-of-length-k-with-exactly-k-distinct-characters/"/>
+    <hyperlink ref="C217" r:id="rId467"/>
+    <hyperlink ref="D217" r:id="rId468" display="https://www.youtube.com/live/CK8PIAF-m2E?si=t61U2qRD6k7jeFwn"/>
+    <hyperlink ref="E217" r:id="rId469" display="https://www.geeksforgeeks.org/find-the-maximum-of-minimums-for-every-window-size-in-a-given-array/"/>
+    <hyperlink ref="C219" r:id="rId470"/>
+    <hyperlink ref="D219" r:id="rId471" display="https://youtu.be/Ofl4KgFhLsM?si=68FBAztFdbHbV_CF"/>
+    <hyperlink ref="E219" r:id="rId472" display="https://www.geeksforgeeks.org/find-subarray-with-given-sum/"/>
+    <hyperlink ref="C220" r:id="rId473"/>
+    <hyperlink ref="D220" r:id="rId474" display="https://youtu.be/frf7qxiN2qU?si=3VDd0PuUXyWxTFTr"/>
+    <hyperlink ref="E220" r:id="rId475" display="https://www.geeksforgeeks.org/longest-sub-array-sum-k/"/>
+    <hyperlink ref="C221" r:id="rId476"/>
+    <hyperlink ref="D221" r:id="rId477" display="https://youtu.be/xmguZ6GbatA?si=Zxs8fEIzorVIa5_X"/>
+    <hyperlink ref="E221" r:id="rId478" display="https://www.geeksforgeeks.org/find-if-there-is-a-subarray-with-0-sum/"/>
+    <hyperlink ref="C222" r:id="rId479"/>
+    <hyperlink ref="D222" r:id="rId480" display="https://youtu.be/zm50uGBsSz4?si=hGS8FZK2mWMPg-vX"/>
+    <hyperlink ref="E222" r:id="rId481" display="https://www.geeksforgeeks.org/smallest-window-contains-characters-string/"/>
+    <hyperlink ref="C223" r:id="rId482"/>
+    <hyperlink ref="D223" r:id="rId483" display="https://www.youtube.com/live/FMxJQqWaD28?si=py1VR3QKmYSdtQWy"/>
+    <hyperlink ref="E223" r:id="rId484" display="https://www.geeksforgeeks.org/smallest-window-containing-0-1-and-2/"/>
+    <hyperlink ref="C224" r:id="rId485"/>
+    <hyperlink ref="D224" r:id="rId486" display="https://youtu.be/jSto0O4AJbM?si=y-lWXYWB4yZZ9cVQ"/>
+    <hyperlink ref="E224" r:id="rId487" display="https://www.geeksforgeeks.org/find-the-smallest-window-in-a-string-containing-all-characters-of-another-string/"/>
+    <hyperlink ref="C225" r:id="rId488"/>
+    <hyperlink ref="D225" r:id="rId489" display="https://youtu.be/qtVh-XEpsJo?si=DdoYedxtXw0DDrNf"/>
+    <hyperlink ref="E225" r:id="rId490" display="https://www.geeksforgeeks.org/length-of-the-longest-substring-without-repeating-characters/"/>
+    <hyperlink ref="C226" r:id="rId491"/>
+    <hyperlink ref="D226" r:id="rId492" display="https://youtu.be/xmguZ6GbatA?si=x29mj29byvR_FBBd"/>
+    <hyperlink ref="E226" r:id="rId493" display="https://www.geeksforgeeks.org/largest-subarray-with-equal-number-of-0s-and-1s/"/>
+    <hyperlink ref="C227" r:id="rId494"/>
+    <hyperlink ref="D227" r:id="rId495" display="https://youtu.be/fYgU6Bi2fRg?si=q45yqwde54whHlR2"/>
+    <hyperlink ref="E227" r:id="rId496" display="https://www.geeksforgeeks.org/count-occurrences-of-anagrams/"/>
+    <hyperlink ref="C228" r:id="rId497"/>
+    <hyperlink ref="D228" r:id="rId498" display="https://youtu.be/Mo33MjjMlyA?si=01XiyS0oBtaaFenb"/>
+    <hyperlink ref="E228" r:id="rId499" display="https://www.geeksforgeeks.org/maximum-consecutive-ones-formed-by-deleting-at-most-k-0s/"/>
+    <hyperlink ref="C229" r:id="rId500"/>
+    <hyperlink ref="C230" r:id="rId501"/>
+    <hyperlink ref="D230" r:id="rId502" display="https://youtu.be/gqXU1UyA8pk?si=ytPr4mkVqLJfD7v4"/>
+    <hyperlink ref="C231" r:id="rId503"/>
+    <hyperlink ref="D231" r:id="rId504" display="https://youtu.be/gqXU1UyA8pk?si=rMwzYE99DsiO2Gj-"/>
+    <hyperlink ref="C232" r:id="rId505"/>
+    <hyperlink ref="D232" r:id="rId506" display="https://youtu.be/jSto0O4AJbM?si=-ls0q5Dhw9uqf-cF"/>
+    <hyperlink ref="C233" r:id="rId507"/>
+    <hyperlink ref="D233" r:id="rId508" display="https://youtu.be/jSto0O4AJbM?si=-ls0q5Dhw9uqf-cF"/>
+    <hyperlink ref="C234" r:id="rId509"/>
+    <hyperlink ref="D234" r:id="rId510" display="https://youtu.be/akwRFY2eyXs?si=AKnbBikPvDJtF2lA"/>
+    <hyperlink ref="D236" r:id="rId511" display="https://youtu.be/_ANrF3FJm7I?si=U4__gOBVdaEBZwJ9"/>
+    <hyperlink ref="C237" r:id="rId512"/>
+    <hyperlink ref="D237" r:id="rId513" display="https://youtu.be/RlUu72JrOCQ?si=Vfh9JTBxwgVQGeIk"/>
+    <hyperlink ref="E237" r:id="rId514" display="https://www.geeksforgeeks.org/preorder-traversal-of-binary-tree/"/>
+    <hyperlink ref="C238" r:id="rId515"/>
+    <hyperlink ref="D238" r:id="rId516" display="https://youtu.be/Z_NEgBgbRVI?si=Ji2rLUtTb7-6OylN"/>
+    <hyperlink ref="E238" r:id="rId517" display="https://www.geeksforgeeks.org/inorder-traversal-of-binary-tree/"/>
+    <hyperlink ref="C239" r:id="rId518"/>
+    <hyperlink ref="D239" r:id="rId519" display="https://youtu.be/COQOU6klsBg?si=0yuM-upS3qmX2kWF"/>
+    <hyperlink ref="E239" r:id="rId520" display="https://www.geeksforgeeks.org/postorder-traversal-of-binary-tree/"/>
+    <hyperlink ref="C240" r:id="rId521"/>
+    <hyperlink ref="D240" r:id="rId522" display="https://youtu.be/EoAsWbO7sqg?si=1NSXTiOBM6LObxiN"/>
+    <hyperlink ref="E240" r:id="rId523" display="https://www.geeksforgeeks.org/level-order-tree-traversal/"/>
+    <hyperlink ref="C241" r:id="rId524"/>
+    <hyperlink ref="D241" r:id="rId525" display="https://youtu.be/0ca1nvR0be4?si=53I0bM9ppRbgnF0x"/>
+    <hyperlink ref="E241" r:id="rId526" display="https://www.geeksforgeeks.org/boundary-traversal-of-binary-tree/"/>
+    <hyperlink ref="C242" r:id="rId527"/>
+    <hyperlink ref="D242" r:id="rId528" display="https://youtu.be/q_a6lpbKJdw?si=uewd5ll1X-h-GTzT"/>
+    <hyperlink ref="E242" r:id="rId529" display="https://www.geeksforgeeks.org/vertical-order-traversal-of-binary-tree-using-map/"/>
+    <hyperlink ref="C243" r:id="rId530"/>
+    <hyperlink ref="D243" r:id="rId531" display="https://youtu.be/Et9OCDNvJ78?si=oeOojp-R7oWt1IVF"/>
+    <hyperlink ref="E243" r:id="rId532" display="https://www.geeksforgeeks.org/print-nodes-top-view-binary-tree/"/>
+    <hyperlink ref="C244" r:id="rId533"/>
+    <hyperlink ref="D244" r:id="rId534" display="https://youtu.be/0FtVY6I4pB8?si=hfNz5XIojTt16c5K"/>
+    <hyperlink ref="E244" r:id="rId535" display="http://v/"/>
+    <hyperlink ref="C245" r:id="rId536"/>
+    <hyperlink ref="D245" r:id="rId537" display="https://youtu.be/KV4mRzTjlAk?si=_fgLNgJSstGTAq5h"/>
+    <hyperlink ref="E245" r:id="rId538" display="https://www.geeksforgeeks.org/print-left-view-binary-tree/"/>
+    <hyperlink ref="C246" r:id="rId539"/>
+    <hyperlink ref="D246" r:id="rId540" display="https://youtu.be/KV4mRzTjlAk?si=_fgLNgJSstGTAq5h"/>
+    <hyperlink ref="E246" r:id="rId541" display="https://www.geeksforgeeks.org/print-right-view-binary-tree-2/"/>
+    <hyperlink ref="C247" r:id="rId542"/>
+    <hyperlink ref="E247" r:id="rId543" display="https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/"/>
+    <hyperlink ref="E249" r:id="rId544" display="https://www.geeksforgeeks.org/insertion-in-binary-search-tree/"/>
+    <hyperlink ref="C250" r:id="rId545"/>
+    <hyperlink ref="D250" r:id="rId546" display="https://youtu.be/eD3tmO66aBA?si=USzVxf8j_Bh8cF9s"/>
+    <hyperlink ref="E250" r:id="rId547" display="https://www.geeksforgeeks.org/find-the-maximum-depth-or-height-of-a-tree/"/>
+    <hyperlink ref="C251" r:id="rId548"/>
+    <hyperlink ref="D251" r:id="rId549" display="https://youtu.be/Rezetez59Nk?si=1PPe8FweQ_aY4r5R"/>
+    <hyperlink ref="E251" r:id="rId550" display="https://www.geeksforgeeks.org/diameter-of-a-binary-tree/"/>
+    <hyperlink ref="C252" r:id="rId551"/>
+    <hyperlink ref="D252" r:id="rId552" display="https://youtu.be/BhuvF_-PWS0?si=jkA1zhLsZjSM3As8"/>
+    <hyperlink ref="E252" r:id="rId553" display="https://www.geeksforgeeks.org/write-c-code-to-determine-if-two-trees-are-identical/"/>
+    <hyperlink ref="C253" r:id="rId554"/>
+    <hyperlink ref="D253" r:id="rId555" display="https://youtu.be/E36O5SWp-LE?si=cIhKUJ-T11II1wJx"/>
+    <hyperlink ref="E253" r:id="rId556" display="https://www.geeksforgeeks.org/check-if-a-binary-tree-is-subtree-of-another-binary-tree/"/>
+    <hyperlink ref="C254" r:id="rId557"/>
+    <hyperlink ref="D254" r:id="rId558" display="https://youtu.be/Yt50Jfbd8Po?si=W4TpdW3XaW-S4cFc"/>
+    <hyperlink ref="E254" r:id="rId559" display="https://www.geeksforgeeks.org/how-to-determine-if-a-binary-tree-is-balanced/"/>
+    <hyperlink ref="C255" r:id="rId560"/>
+    <hyperlink ref="D255" r:id="rId561" display="https://youtu.be/_-QHfMDde90?si=HJ5h-9Tm18BT0ezj"/>
+    <hyperlink ref="E255" r:id="rId562" display="https://www.geeksforgeeks.org/lowest-common-ancestor-binary-tree-set-1/"/>
+    <hyperlink ref="C256" r:id="rId563"/>
+    <hyperlink ref="E256" r:id="rId564" display="https://www.geeksforgeeks.org/check-if-a-given-binary-tree-is-sumtree/"/>
+    <hyperlink ref="C257" r:id="rId565"/>
+    <hyperlink ref="D257" r:id="rId566" display="https://youtu.be/nKggNAiEpBE?si=dUY7QGWwUBs3XxYs"/>
+    <hyperlink ref="E257" r:id="rId567" display="https://www.geeksforgeeks.org/symmetric-tree-tree-which-is-mirror-image-of-itself/"/>
+    <hyperlink ref="C258" r:id="rId568"/>
+    <hyperlink ref="D258" r:id="rId569" display="https://youtu.be/FtdyIHBaKjc?si=pf4peCzMbF56N5UF"/>
+    <hyperlink ref="E258" r:id="rId570" display="https://www.geeksforgeeks.org/write-an-efficient-c-function-to-convert-a-tree-into-its-mirror-tree/"/>
+    <hyperlink ref="C259" r:id="rId571"/>
+    <hyperlink ref="D259" r:id="rId572" display="https://youtu.be/Q9Np3-FX91U?si=ioypQwgjldt1tCGQ"/>
+    <hyperlink ref="C261" r:id="rId573"/>
+    <hyperlink ref="D261" r:id="rId574" display="https://youtu.be/fmflMqVOC7k?si=iSdK8HdoNEeKJARf"/>
+    <hyperlink ref="E261" r:id="rId575" display="https://www.geeksforgeeks.org/given-a-binary-tree-print-all-root-to-leaf-paths/"/>
+    <hyperlink ref="C262" r:id="rId576"/>
+    <hyperlink ref="E262" r:id="rId577" display="https://www.geeksforgeeks.org/root-to-leaf-path-sum-equal-to-a-given-number/"/>
+    <hyperlink ref="C263" r:id="rId578"/>
+    <hyperlink ref="E263" r:id="rId579" display="https://www.geeksforgeeks.org/find-maximum-path-sum-in-a-binary-tree/"/>
+    <hyperlink ref="C264" r:id="rId580"/>
+    <hyperlink ref="D264" r:id="rId581" display="https://youtu.be/7oL8kDCk1OI?si=2qC45jVcOM2sCcJI"/>
+    <hyperlink ref="E264" r:id="rId582" display="https://www.geeksforgeeks.org/count-all-k-sum-paths-in-a-binary-tree/"/>
+    <hyperlink ref="C265" r:id="rId583"/>
+    <hyperlink ref="D265" r:id="rId584" display="https://youtu.be/i9ORlEy6EsI?si=Z4dWg3diarKcc3jR"/>
+    <hyperlink ref="E265" r:id="rId585" display="https://www.geeksforgeeks.org/print-nodes-distance-k-given-node-binary-tree/"/>
+    <hyperlink ref="D266" r:id="rId586" display="https://youtu.be/wIloFJzSOfE?si=qH0sMEREyVagrVK8"/>
+    <hyperlink ref="C267" r:id="rId587"/>
+    <hyperlink ref="D267" r:id="rId588" display="https://youtu.be/joxx4hTYwcw?si=wROhziCvjrJvwsi_"/>
+    <hyperlink ref="E267" r:id="rId589" display="https://www.geeksforgeeks.org/find-distance-between-two-nodes-of-a-binary-tree/"/>
+    <hyperlink ref="C268" r:id="rId590"/>
+    <hyperlink ref="D268" r:id="rId591" display="https://youtu.be/d3ceg_7NcEY?si=dh-dWju5Pqm_WG8E"/>
+    <hyperlink ref="E268" r:id="rId592" display="https://www.geeksforgeeks.org/maximum-difference-between-node-and-its-ancestor-in-binary-tree/"/>
+    <hyperlink ref="C269" r:id="rId593"/>
+    <hyperlink ref="D269" r:id="rId594" display="https://youtu.be/2r5wLmQfD6g?si=Ah-1GqZq9ZvhcISZ"/>
+    <hyperlink ref="E269" r:id="rId595" display="https://www.geeksforgeeks.org/minimum-time-to-burn-a-tree-starting-from-a-leaf-node/"/>
+    <hyperlink ref="D270" r:id="rId596" display="https://youtu.be/p7-9UvDQZ3w?si=iz_Zheaz1rsdY4bv"/>
+    <hyperlink ref="C271" r:id="rId597"/>
+    <hyperlink ref="D271" r:id="rId598" display="https://youtu.be/FiFiNvM29ps?si=7o-MgkkpMI1Aaa5W"/>
+    <hyperlink ref="C272" r:id="rId599"/>
+    <hyperlink ref="D272" r:id="rId600" display="https://youtu.be/KcNt6v_56cc?si=TxJuxG6Ps5NYvy4g"/>
+    <hyperlink ref="E272" r:id="rId601" display="https://www.geeksforgeeks.org/binary-search-tree-data-structure/"/>
+    <hyperlink ref="C273" r:id="rId602"/>
+    <hyperlink ref="E273" r:id="rId603" display="https://www.geeksforgeeks.org/find-maximum-or-minimum-in-binary-tree/"/>
+    <hyperlink ref="C274" r:id="rId604"/>
+    <hyperlink ref="D274" r:id="rId605" display="https://youtu.be/9TJYWh0adfk?si=3x4i8tP5lxtDypuG"/>
+    <hyperlink ref="E274" r:id="rId606" display="https://www.geeksforgeeks.org/find-k-th-smallest-element-in-bst-order-statistics-in-bst/"/>
+    <hyperlink ref="C275" r:id="rId607"/>
+    <hyperlink ref="D275" r:id="rId608" display="https://youtu.be/f-sj7I5oXEI?si=QAg2Uv7BMGfJKGLY"/>
+    <hyperlink ref="E275" r:id="rId609" display="https://www.geeksforgeeks.org/a-program-to-check-if-a-binary-tree-is-bst-or-not/"/>
+    <hyperlink ref="C276" r:id="rId610"/>
+    <hyperlink ref="E276" r:id="rId611" display="https://www.geeksforgeeks.org/find-closest-element-binary-search-tree/"/>
+    <hyperlink ref="C277" r:id="rId612"/>
+    <hyperlink ref="D277" r:id="rId613" display="https://youtu.be/jfk-uX_xKK4?si=2KQlXW2aA51Tz6q5"/>
+    <hyperlink ref="E277" r:id="rId614" display="https://www.geeksforgeeks.org/count-bst-nodes-that-are-in-a-given-range/"/>
+    <hyperlink ref="C278" r:id="rId615"/>
+    <hyperlink ref="D278" r:id="rId616" display="https://youtu.be/X0oXMdtUDwo?si=JBqdu2g0ktKC4DNf"/>
+    <hyperlink ref="E278" r:id="rId617" display="https://www.geeksforgeeks.org/largest-bst-binary-tree-set-2/"/>
+    <hyperlink ref="C279" r:id="rId618"/>
+    <hyperlink ref="D279" r:id="rId619" display="https://youtu.be/cX_kPV_foZc?si=vm8U3w99lvp7UPpc"/>
+    <hyperlink ref="E279" r:id="rId620" display="https://www.geeksforgeeks.org/lowest-common-ancestor-in-a-binary-search-tree/"/>
+    <hyperlink ref="C280" r:id="rId621"/>
+    <hyperlink ref="D280" r:id="rId622" display="https://youtu.be/18w8VduomfI?si=KJ0QdPfLdk6r30Sx"/>
+    <hyperlink ref="E280" r:id="rId623" display="https://www.geeksforgeeks.org/merge-two-bsts-with-limited-extra-space/"/>
+    <hyperlink ref="C281" r:id="rId624"/>
+    <hyperlink ref="D281" r:id="rId625" display="https://youtu.be/SXKAD2svfmI?si=802ib5wC0gtY44eH"/>
+    <hyperlink ref="E281" r:id="rId626" display="https://www.geeksforgeeks.org/inorder-predecessor-successor-given-key-bst/"/>
+    <hyperlink ref="C282" r:id="rId627"/>
+    <hyperlink ref="E282" r:id="rId628" display="https://www.geeksforgeeks.org/populate-inorder-successor-for-all-nodes/"/>
+    <hyperlink ref="C283" r:id="rId629"/>
+    <hyperlink ref="D283" r:id="rId630" display="https://youtu.be/7vVEJwVvAlI?si=Uwd3HoE8H_BhHFb0"/>
+    <hyperlink ref="E283" r:id="rId631" display="https://www.geeksforgeeks.org/transform-bst-sum-tree/"/>
+    <hyperlink ref="C284" r:id="rId632"/>
+    <hyperlink ref="D284" r:id="rId633" display="https://youtu.be/kouxiP_H5WE?si=wjgRijNs4nuSCHXn"/>
+    <hyperlink ref="E284" r:id="rId634" display="https://www.geeksforgeeks.org/deletion-in-binary-search-tree/"/>
+    <hyperlink ref="C286" r:id="rId635"/>
+    <hyperlink ref="D286" r:id="rId636" display="https://youtu.be/aZNaLrVebKQ?si=gAB4STDbhesQVKi0"/>
+    <hyperlink ref="E286" r:id="rId637" display="https://www.geeksforgeeks.org/construct-tree-from-given-inorder-and-preorder-traversal/"/>
+    <hyperlink ref="C287" r:id="rId638"/>
+    <hyperlink ref="D287" r:id="rId639" display="https://youtu.be/LgLRTaEMRVc?si=-Lc1FKuOxYBj4n6u"/>
+    <hyperlink ref="E287" r:id="rId640" display="https://www.geeksforgeeks.org/construct-a-binary-tree-from-postorder-and-inorder/"/>
+    <hyperlink ref="C288" r:id="rId641"/>
+    <hyperlink ref="D288" r:id="rId642" display="https://youtu.be/UmJT3j26t1I?si=tvJcbXtbATGbAUYG"/>
+    <hyperlink ref="E288" r:id="rId643" display="https://www.geeksforgeeks.org/construct-bst-from-given-preorder-traversa/"/>
+    <hyperlink ref="C289" r:id="rId644"/>
+    <hyperlink ref="E289" r:id="rId645" display="https://www.geeksforgeeks.org/construct-a-binary-tree-from-parent-array-representation/"/>
+    <hyperlink ref="C291" r:id="rId646"/>
+    <hyperlink ref="D291" r:id="rId647" display="https://youtu.be/-YbXySKJsX8?si=7GAc6pJLr12-MB1Y"/>
+    <hyperlink ref="E291" r:id="rId648" display="https://www.geeksforgeeks.org/serialize-deserialize-binary-tree/"/>
+    <hyperlink ref="C292" r:id="rId649"/>
+    <hyperlink ref="E292" r:id="rId650" display="https://www.geeksforgeeks.org/find-largest-subtree-sum-tree/"/>
+    <hyperlink ref="C293" r:id="rId651"/>
+    <hyperlink ref="D293" r:id="rId652" display="https://youtu.be/DBxCv9NpPYM?si=jX3oFEBSEGDVyDQF"/>
+    <hyperlink ref="E293" r:id="rId653" display="https://www.geeksforgeeks.org/maximum-sum-nodes-binary-tree-no-two-adjacent/"/>
+    <hyperlink ref="C294" r:id="rId654"/>
+    <hyperlink ref="D294" r:id="rId655" display="https://youtu.be/kn0Z5_qPPzY?si=5hSUj98E7uOL1JXP"/>
+    <hyperlink ref="E294" r:id="rId656" display="https://www.geeksforgeeks.org/find-duplicate-subtrees/"/>
+    <hyperlink ref="C295" r:id="rId657"/>
+    <hyperlink ref="D295" r:id="rId658" display="https://youtu.be/sWf7k1x9XR4?si=fuqHbNz-Kw01_dI1"/>
+    <hyperlink ref="E295" r:id="rId659" display="https://www.geeksforgeeks.org/flatten-a-binary-tree-into-linked-list/"/>
+    <hyperlink ref="C298" r:id="rId660"/>
+    <hyperlink ref="D298" r:id="rId661" display="https://youtu.be/YK78FU5Ffjw?si=b9cfoplt08JA0xJQ"/>
+    <hyperlink ref="E298" r:id="rId662" display="https://www.geeksforgeeks.org/write-a-c-program-to-print-all-permutations-of-a-given-string/"/>
+    <hyperlink ref="C299" r:id="rId663"/>
+    <hyperlink ref="D299" r:id="rId664" display="https://youtu.be/qhBVWf0YafA?si=2t9tPdRW_8ySW1C3"/>
+    <hyperlink ref="E299" r:id="rId665" display="https://www.geeksforgeeks.org/distinct-permutations-string-set-2/"/>
+    <hyperlink ref="C300" r:id="rId666"/>
+    <hyperlink ref="D300" r:id="rId667" display="https://youtu.be/OyZFFqQtu98?si=h4ntlYqyMU635DUw"/>
+    <hyperlink ref="E300" r:id="rId668" display="https://www.geeksforgeeks.org/combinational-sum/"/>
+    <hyperlink ref="C301" r:id="rId669"/>
+    <hyperlink ref="D301" r:id="rId670" display="https://youtu.be/G1fRTGRxXU8?si=CqK5qT_w7EcOkAEh"/>
+    <hyperlink ref="E301" r:id="rId671" display="https://www.geeksforgeeks.org/combinational-sum/"/>
+    <hyperlink ref="C302" r:id="rId672"/>
+    <hyperlink ref="E302" r:id="rId673" display="https://www.geeksforgeeks.org/all-unique-combinations-whose-sum-equals-to-k/"/>
+    <hyperlink ref="C303" r:id="rId674"/>
+    <hyperlink ref="D303" r:id="rId675" display="https://youtu.be/bLGZhJlt4y0?si=bMDZAraICwrxmTnq"/>
+    <hyperlink ref="E303" r:id="rId676" display="https://www.geeksforgeeks.org/rat-in-a-maze/"/>
+    <hyperlink ref="C304" r:id="rId677"/>
+    <hyperlink ref="D304" r:id="rId678" display="https://youtu.be/9ByWqPzfXDU?si=HVyZBiY385QXDma5"/>
+    <hyperlink ref="E304" r:id="rId679" display="https://www.geeksforgeeks.org/find-possible-words-phone-digits/"/>
+    <hyperlink ref="C305" r:id="rId680"/>
+    <hyperlink ref="D305" r:id="rId681" display="https://youtu.be/rYkfBRtMJr8?si=xdRYuVuGFT0hm2UI"/>
+    <hyperlink ref="E305" r:id="rId682" display="https://www.geeksforgeeks.org/backtracking-to-find-all-subsets/"/>
+    <hyperlink ref="C306" r:id="rId683"/>
+    <hyperlink ref="D306" r:id="rId684" display="https://youtu.be/h4zNvA4lbtc?si=uTv2-Y2ji1klfWgb"/>
+    <hyperlink ref="E306" r:id="rId685" display="https://www.geeksforgeeks.org/find-all-unique-subsets-of-a-given-set/"/>
+    <hyperlink ref="C307" r:id="rId686"/>
+    <hyperlink ref="D307" r:id="rId687" display="https://youtu.be/i05Ju7AftcM?si=rSa6wrmVJ8vvkLLz"/>
+    <hyperlink ref="E307" r:id="rId688" display="https://www.geeksforgeeks.org/n-queen-problem-backtracking-3/"/>
+    <hyperlink ref="C308" r:id="rId689"/>
+    <hyperlink ref="C309" r:id="rId690"/>
+    <hyperlink ref="D309" r:id="rId691" display="https://youtu.be/Ya_16rXu7W8?si=c6ZdSR9XKDv4D-gR"/>
+    <hyperlink ref="E309" r:id="rId692" display="https://www.geeksforgeeks.org/print-possible-strings-can-made-placing-spaces/"/>
+    <hyperlink ref="C310" r:id="rId693"/>
+    <hyperlink ref="D310" r:id="rId694" display="https://youtu.be/s9fokUqJ76A?si=zfcDWcp1AqqDy5cG"/>
+    <hyperlink ref="E310" r:id="rId695" display="https://www.geeksforgeeks.org/print-all-combinations-of-balanced-parentheses/"/>
+    <hyperlink ref="C311" r:id="rId696"/>
+    <hyperlink ref="D311" r:id="rId697" display="https://youtu.be/XU4inpwKt8A?si=lm9MpSALwsn4roQo"/>
+    <hyperlink ref="E311" r:id="rId698" display="https://www.geeksforgeeks.org/program-generate-possible-valid-ip-addresses-given-string/"/>
+    <hyperlink ref="C312" r:id="rId699"/>
+    <hyperlink ref="D312" r:id="rId700" display="https://youtu.be/FWAIf_EVUKE?si=q2DUJbZj1T6seOwb"/>
+    <hyperlink ref="E312" r:id="rId701" display="https://www.geeksforgeeks.org/sudoku-backtracking-7/"/>
+    <hyperlink ref="C313" r:id="rId702"/>
+    <hyperlink ref="D313" r:id="rId703" display="https://youtu.be/wT7gcXLYoao?si=cG3Kl4gKxBl92-1m"/>
+    <hyperlink ref="E313" r:id="rId704" display="https://www.geeksforgeeks.org/find-the-k-th-permutation-sequence-of-first-n-natural-numbers/"/>
+    <hyperlink ref="C314" r:id="rId705" display="https://www.geeksforgeeks.org/problems/word-search"/>
+    <hyperlink ref="D314" r:id="rId706" display="https://youtu.be/pfiQ_PS1g8E?si=NSwX3AHJpS6lGme4"/>
+    <hyperlink ref="E314" r:id="rId707" display="https://www.geeksforgeeks.org/search-a-word-in-a-2d-grid-of-characters/"/>
+    <hyperlink ref="C315" r:id="rId708"/>
+    <hyperlink ref="D315" r:id="rId709" display="https://youtu.be/WBgsABoClE0?si=FBXsqWuBLwm75E81"/>
+    <hyperlink ref="E315" r:id="rId710" display="https://www.geeksforgeeks.org/palindrome-partitioning-dp-17/"/>
+    <hyperlink ref="C316" r:id="rId711"/>
+    <hyperlink ref="D316" r:id="rId712" display="https://youtu.be/qB0zZpBJlh8?si=VBKh6H4NSYT6qYVO"/>
+    <hyperlink ref="E316" r:id="rId713" display="https://www.geeksforgeeks.org/decode-string-recursively-encoded-count-followed-substring/"/>
+    <hyperlink ref="C317" r:id="rId714"/>
+    <hyperlink ref="D317" r:id="rId715" display="https://youtu.be/4eOPYDOiwFo?si=VIbEA8JDKDOvwRuD"/>
+    <hyperlink ref="E317" r:id="rId716" display="https://www.geeksforgeeks.org/permute-string-changing-case/"/>
+    <hyperlink ref="C318" r:id="rId717"/>
+    <hyperlink ref="D318" r:id="rId718" display="https://youtu.be/xlPIH9216Ak?si=NpzDre5ux8rDgSdQ"/>
+    <hyperlink ref="E318" r:id="rId719" display="https://www.geeksforgeeks.org/check-given-string-sum-string/"/>
+    <hyperlink ref="C319" r:id="rId720"/>
+    <hyperlink ref="D319" r:id="rId721" display="https://youtu.be/-3rVMYGBwO0?si=w-NmOX7Or4vw8D4T"/>
+    <hyperlink ref="E319" r:id="rId722" display="https://www.geeksforgeeks.org/boggle-find-possible-words-board-characters/"/>
+    <hyperlink ref="C320" r:id="rId723"/>
+    <hyperlink ref="D320" r:id="rId724" display="https://www.youtube.com/live/GstuPf5u3lg?si=9Ymg0mpYPLzeJ38y"/>
+    <hyperlink ref="E320" r:id="rId725" display="https://www.geeksforgeeks.org/find-maximum-number-possible-by-doing-at-most-k-swaps/"/>
+    <hyperlink ref="C321" r:id="rId726"/>
+    <hyperlink ref="D321" r:id="rId727" display="https://youtu.be/mBk4I0X46oI?si=uA-5-uc7zAgLloIe"/>
+    <hyperlink ref="E321" r:id="rId728" display="https://www.geeksforgeeks.org/partition-set-k-subsets-equal-sum/"/>
+    <hyperlink ref="D323" r:id="rId729" display="https://youtu.be/M3_pLsDdeuU?si=SItRP4M088yoch07"/>
+    <hyperlink ref="C324" r:id="rId730"/>
+    <hyperlink ref="D324" r:id="rId731" display="https://youtu.be/-tgVpUgsQ5k?si=Lss9L2Zdy8Gu6BOg"/>
+    <hyperlink ref="E324" r:id="rId732" display="https://www.geeksforgeeks.org/breadth-first-search-or-bfs-for-a-graph/"/>
+    <hyperlink ref="C325" r:id="rId733"/>
+    <hyperlink ref="D325" r:id="rId734" display="https://youtu.be/Qzf1a--rhp8?si=aGYfCnBcl_NDSFad"/>
+    <hyperlink ref="E325" r:id="rId735" display="https://www.geeksforgeeks.org/depth-first-search-or-dfs-for-a-graph/"/>
+    <hyperlink ref="C326" r:id="rId736"/>
+    <hyperlink ref="D326" r:id="rId737" display="https://youtu.be/9twcmtQj4DU?si=8a8yz9stT7quiRiP"/>
+    <hyperlink ref="E326" r:id="rId738" display="https://www.geeksforgeeks.org/detect-cycle-in-a-graph/"/>
+    <hyperlink ref="C327" r:id="rId739"/>
+    <hyperlink ref="D327" r:id="rId740" display="https://youtu.be/zQ3zgFypzX4?si=oXS_VKyOM-oL_4yz"/>
+    <hyperlink ref="E327" r:id="rId741" display="https://www.geeksforgeeks.org/detect-cycle-undirected-graph/"/>
+    <hyperlink ref="C328" r:id="rId742"/>
+    <hyperlink ref="E328" r:id="rId743" display="https://www.geeksforgeeks.org/detect-negative-cycle-graph-bellman-ford/"/>
+    <hyperlink ref="C330" r:id="rId744"/>
+    <hyperlink ref="D330" r:id="rId745" display="https://youtu.be/lea-Wl_uWXY?si=g2dSfr4n7yGr1rmo"/>
+    <hyperlink ref="E330" r:id="rId746" display="https://www.geeksforgeeks.org/strongly-connected-components/"/>
+    <hyperlink ref="C331" r:id="rId747"/>
+    <hyperlink ref="D331" r:id="rId748" display="https://youtu.be/ACzkVtewUYA?si=N0HPRxovroHd2XNQ"/>
+    <hyperlink ref="E331" r:id="rId749" display="https://pnext1.geeksforgeeks.org/problems/number-of-provinces/1?page=1&amp;category%5b%5d=Backtracking&amp;sortBy=submissions"/>
+    <hyperlink ref="C332" r:id="rId750"/>
+    <hyperlink ref="D332" r:id="rId751" display="https://youtu.be/muncqlKJrH0?si=YO3SUPZz6yDpCTM8"/>
+    <hyperlink ref="E332" r:id="rId752" display="https://www.geeksforgeeks.org/find-the-number-of-islands-using-dfs/"/>
+    <hyperlink ref="C333" r:id="rId753"/>
+    <hyperlink ref="D333" r:id="rId754" display="https://youtu.be/7zmgQSJghpo?si=T3zcl9BeVooJBUAX"/>
+    <hyperlink ref="E333" r:id="rId755" display="https://www.geeksforgeeks.org/find-the-number-of-distinct-islands-in-a-2d-matrix/"/>
+    <hyperlink ref="C334" r:id="rId756"/>
+    <hyperlink ref="D334" r:id="rId757" display="https://youtu.be/X8k48xek8g8?si=UILPOo-_LidtdV_k"/>
+    <hyperlink ref="E334" r:id="rId758" display="https://www.geeksforgeeks.org/find-number-of-closed-islands-in-given-matrix/"/>
+    <hyperlink ref="C336" r:id="rId759"/>
+    <hyperlink ref="D336" r:id="rId760" display="https://youtu.be/-vu34sct1g8?si=G9gY0BZEWVQf810J"/>
+    <hyperlink ref="E336" r:id="rId761" display="https://www.geeksforgeeks.org/bipartite-graph/"/>
+    <hyperlink ref="C337" r:id="rId762"/>
+    <hyperlink ref="D337" r:id="rId763" display="https://youtu.be/wuVwUK25Rfc?si=CYcBDjL6ARNTh1FG"/>
+    <hyperlink ref="E337" r:id="rId764" display="https://www.geeksforgeeks.org/m-coloring-problem/"/>
+    <hyperlink ref="C338" r:id="rId765"/>
+    <hyperlink ref="D338" r:id="rId766" display="https://youtu.be/C4gxoTaI71U?si=k1As9n_SZUk7dYJJ"/>
+    <hyperlink ref="E338" r:id="rId767" display="https://www.geeksforgeeks.org/shortest-path-unweighted-graph/"/>
+    <hyperlink ref="C339" r:id="rId768"/>
+    <hyperlink ref="D339" r:id="rId769" display="https://youtu.be/ZUFQfFaU-8U?si=LW37HXwpS6wWWgTC"/>
+    <hyperlink ref="E339" r:id="rId770" display="https://www.geeksforgeeks.org/shortest-path-for-directed-acyclic-graphs/"/>
+    <hyperlink ref="C340" r:id="rId771"/>
+    <hyperlink ref="D340" r:id="rId772" display="https://youtu.be/V6H1qAeB-l4?si=W36zrJBLarmVkn_C"/>
+    <hyperlink ref="E340" r:id="rId773" display="https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-greedy-algo-7/"/>
+    <hyperlink ref="C341" r:id="rId774"/>
+    <hyperlink ref="D341" r:id="rId775" display="https://www.youtube.com/live/6lgT0vEhMPo?si=pTJ2-6RIZfCDjz0X"/>
+    <hyperlink ref="E341" r:id="rId776" display="https://www.geeksforgeeks.org/minimum-steps-reach-target-knight/"/>
+    <hyperlink ref="C342" r:id="rId777"/>
+    <hyperlink ref="E342" r:id="rId778" display="https://www.geeksforgeeks.org/shortest-path-from-a-source-cell-to-a-destination-cell-of-a-binary-matrix-through-cells-consisting-only-of-1s/"/>
+    <hyperlink ref="C343" r:id="rId779"/>
+    <hyperlink ref="D343" r:id="rId780" display="https://youtu.be/Eso1Lu4mtmU?si=EqoQnXHqvPXzrtDP"/>
+    <hyperlink ref="E343" r:id="rId781" display="https://www.geeksforgeeks.org/find-if-there-is-a-path-between-two-vertices-in-an-undirected-graph/"/>
+    <hyperlink ref="C344" r:id="rId782"/>
+    <hyperlink ref="E344" r:id="rId783" display="https://www.geeksforgeeks.org/maximum-time-required-for-all-patients-to-get-infected/"/>
+    <hyperlink ref="C345" r:id="rId784"/>
+    <hyperlink ref="D345" r:id="rId785" display="https://youtu.be/t1shZ8_s6jc?si=xHiW9k7kJJ_tUTI5"/>
+    <hyperlink ref="E345" r:id="rId786" display="https://www.geeksforgeeks.org/min-cost-path-dp-6/"/>
+    <hyperlink ref="C346" r:id="rId787"/>
+    <hyperlink ref="D346" r:id="rId788" display="https://youtu.be/tRPda0rcf8E?si=qMWyd0E8oMQ7WIvy"/>
+    <hyperlink ref="E346" r:id="rId789" display="https://takeuforward.org/graph/word-ladder-i-g-29/"/>
+    <hyperlink ref="C347" r:id="rId790"/>
+    <hyperlink ref="D347" r:id="rId791" display="https://youtu.be/DREutrv2XD0?si=QfIrMBzjrv0paKAJ"/>
+    <hyperlink ref="E347" r:id="rId792" display="https://www.geeksforgeeks.org/word-ladder-length-of-shortest-chain-to-reach-a-target-word/"/>
+    <hyperlink ref="C348" r:id="rId793"/>
+    <hyperlink ref="D348" r:id="rId794" display="https://youtu.be/YbY8cVwWAvw?si=qeBBm6l3SrryejiB"/>
+    <hyperlink ref="E348" r:id="rId795" display="https://www.geeksforgeeks.org/floyd-warshall-algorithm-dp-16/"/>
+    <hyperlink ref="C349" r:id="rId796"/>
+    <hyperlink ref="D349" r:id="rId797" display="https://youtu.be/0vVofAhAYjc?si=e1hQOH4PcFbO_QUG"/>
+    <hyperlink ref="E349" r:id="rId798" display="https://www.geeksforgeeks.org/bellman-ford-algorithm-dp-23/"/>
+    <hyperlink ref="C351" r:id="rId799"/>
+    <hyperlink ref="D351" r:id="rId800" display="https://youtu.be/C-2_uSRli8o?si=z2XOpxmnekERJrxc"/>
+    <hyperlink ref="E351" r:id="rId801" display="https://www.geeksforgeeks.org/flood-fill-algorithm/"/>
+    <hyperlink ref="C352" r:id="rId802"/>
+    <hyperlink ref="E352" r:id="rId803" display="https://www.geeksforgeeks.org/given-matrix-o-x-replace-o-x-surrounded-x/"/>
+    <hyperlink ref="C353" r:id="rId804"/>
+    <hyperlink ref="E353" r:id="rId805" display="https://www.geeksforgeeks.org/find-length-largest-region-boolean-matrix/"/>
+    <hyperlink ref="C354" r:id="rId806"/>
+    <hyperlink ref="D354" r:id="rId807" display="https://youtu.be/yf3oUhkvqA0?si=l_DQbwT42fy1ThaI"/>
+    <hyperlink ref="E354" r:id="rId808" display="https://www.geeksforgeeks.org/minimum-time-required-so-that-all-oranges-become-rotten/"/>
+    <hyperlink ref="C356" r:id="rId809"/>
+    <hyperlink ref="D356" r:id="rId810" display="https://youtu.be/5lZ0iJMrUMk?si=d8Saw4jmgjKmfILx"/>
+    <hyperlink ref="E356" r:id="rId811" display="https://www.geeksforgeeks.org/topological-sorting/"/>
+    <hyperlink ref="C357" r:id="rId812"/>
+    <hyperlink ref="E357" r:id="rId813" display="https://pnext2.geeksforgeeks.org/problems/prerequisite-tasks/1?page=1&amp;company%5b%5d=Apple&amp;sortBy=submissions"/>
+    <hyperlink ref="C358" r:id="rId814"/>
+    <hyperlink ref="D358" r:id="rId815" display="https://youtu.be/WAOfKpxYHR8?si=WIg-894F_ejz1hgv"/>
+    <hyperlink ref="E358" r:id="rId816" display="https://www.geeksforgeeks.org/find-whether-it-is-possible-to-finish-all-tasks-or-not-from-given-dependencies/"/>
+    <hyperlink ref="C359" r:id="rId817"/>
+    <hyperlink ref="D359" r:id="rId818" display="https://youtu.be/WAOfKpxYHR8?si=WIg-894F_ejz1hgv"/>
+    <hyperlink ref="E359" r:id="rId819" display="https://www.geeksforgeeks.org/find-the-ordering-of-tasks-from-given-dependencies/"/>
+    <hyperlink ref="C360" r:id="rId820"/>
+    <hyperlink ref="D360" r:id="rId821" display="https://youtu.be/2gtg3VsDGyc?si=yw-aqlNDy3mCHOj5"/>
+    <hyperlink ref="E360" r:id="rId822" display="https://www.geeksforgeeks.org/eventual-safe-states/"/>
+    <hyperlink ref="C361" r:id="rId823"/>
+    <hyperlink ref="D361" r:id="rId824" display="https://youtu.be/U3N_je7tWAs?si=3QjjfX39WxlhedeU"/>
+    <hyperlink ref="E361" r:id="rId825" display="https://www.geeksforgeeks.org/given-sorted-dictionary-find-precedence-characters/"/>
+    <hyperlink ref="C363" r:id="rId826"/>
+    <hyperlink ref="D363" r:id="rId827" display="https://youtu.be/ZSPjZuZWCME?si=qz-SbjuFnphj89qo"/>
+    <hyperlink ref="E363" r:id="rId828" display="https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/"/>
+    <hyperlink ref="C364" r:id="rId829"/>
+    <hyperlink ref="D364" r:id="rId830" display="https://youtu.be/DMnDM_sxVig?si=_xwNmqyl69ykMMNz"/>
+    <hyperlink ref="E364" r:id="rId831" display="https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/"/>
+    <hyperlink ref="C365" r:id="rId832"/>
+    <hyperlink ref="E365" r:id="rId833" display="https://www.geeksforgeeks.org/minimum-cost-connect-cities/"/>
+    <hyperlink ref="C366" r:id="rId834"/>
+    <hyperlink ref="E366" r:id="rId835" display="https://www.geeksforgeeks.org/minimum-cost-required-to-connect-all-houses-in-a-city/"/>
+    <hyperlink ref="C367" r:id="rId836"/>
+    <hyperlink ref="E367" r:id="rId837" display="https://www.geeksforgeeks.org/water-connection-problem/"/>
+    <hyperlink ref="D369" r:id="rId838" display="https://youtu.be/L1T4AB8xBcw?si=aeusCwB3GXg7GprE"/>
+    <hyperlink ref="E369" r:id="rId839" display="https://www.geeksforgeeks.org/disjoint-set-data-structures/"/>
+    <hyperlink ref="D370" r:id="rId840" display="https://youtu.be/L1T4AB8xBcw?si=aeusCwB3GXg7GprE"/>
+    <hyperlink ref="E370" r:id="rId841" display="https://www.geeksforgeeks.org/union-by-rank-and-path-compression-in-union-find-algorithm/"/>
+    <hyperlink ref="C371" r:id="rId842"/>
+    <hyperlink ref="D371" r:id="rId843" display="https://youtu.be/vadly9uWMPU?si=xqtEXZf4OU7HFDru"/>
+    <hyperlink ref="E371" r:id="rId844" display="https://www.geeksforgeeks.org/minimize-count-of-connections-required-to-be-rearranged-to-make-all-the-computers-connected/"/>
+    <hyperlink ref="C372" r:id="rId845"/>
+    <hyperlink ref="D372" r:id="rId846" display="https://youtu.be/kFe_LRWuZjE?si=UUGOKxVpWXgSA3-m"/>
+    <hyperlink ref="E372" r:id="rId847" display="https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/"/>
+    <hyperlink ref="C373" r:id="rId848"/>
+    <hyperlink ref="C374" r:id="rId849"/>
+    <hyperlink ref="E374" r:id="rId850" display="https://www.geeksforgeeks.org/find-number-pairs-xy-yx/"/>
+    <hyperlink ref="C375" r:id="rId851"/>
+    <hyperlink ref="D375" r:id="rId852" display="https://youtu.be/Rn6B-Q4SNyA?si=KaMazDJMo73etDEb"/>
+    <hyperlink ref="E375" r:id="rId853" display="https://www.geeksforgeeks.org/find-the-number-of-islands-using-disjoint-set/"/>
+    <hyperlink ref="C376" r:id="rId854" display="https://leetcode.com/problems/making-a-large-island/solutions/"/>
+    <hyperlink ref="D376" r:id="rId855" display="https://youtu.be/fi-_r0MtL5I?si=-Fyp3xqjyPhs6hwg"/>
+    <hyperlink ref="E376" r:id="rId856" display="https://www.geeksforgeeks.org/maximum-connected-group-making-a-large-island/"/>
+    <hyperlink ref="C378" r:id="rId857"/>
+    <hyperlink ref="D378" r:id="rId858" display="https://youtu.be/qrAub5z8FeA?si=X1hIai2nrqJBxs5U"/>
+    <hyperlink ref="E378" r:id="rId859" display="https://www.geeksforgeeks.org/bridge-in-a-graph/"/>
+    <hyperlink ref="C379" r:id="rId860"/>
+    <hyperlink ref="D379" r:id="rId861" display="https://youtu.be/j1QDfU21iZk?si=YzffjCCnc3tpTCAS"/>
+    <hyperlink ref="E379" r:id="rId862" display="https://www.geeksforgeeks.org/articulation-points-or-cut-vertices-in-a-graph/"/>
+    <hyperlink ref="C380" r:id="rId863"/>
+    <hyperlink ref="D380" r:id="rId864" display="https://youtu.be/HsBefuOqkd4?si=YSJZK1P5x22IDyQU"/>
+    <hyperlink ref="E380" r:id="rId865" display="https://www.geeksforgeeks.org/find-all-critical-connections-in-the-graph/"/>
+    <hyperlink ref="C381" r:id="rId866"/>
+    <hyperlink ref="D381" r:id="rId867" display="https://youtu.be/R6uoSjZ2imo?si=rKK-k7JxRlgFJNgj"/>
+    <hyperlink ref="E381" r:id="rId868" display="https://www.geeksforgeeks.org/strongly-connected-components/"/>
+    <hyperlink ref="C382" r:id="rId869"/>
+    <hyperlink ref="D382" r:id="rId870" display="https://youtu.be/UJTVaSITcYY?si=hLAyO48WqDXDDH9h"/>
+    <hyperlink ref="E382" r:id="rId871" display="https://www.geeksforgeeks.org/boggle-find-possible-words-board-characters/"/>
+    <hyperlink ref="C383" r:id="rId872"/>
+    <hyperlink ref="E383" r:id="rId873" display="https://www.geeksforgeeks.org/boggle-find-possible-words-board-characters/"/>
+    <hyperlink ref="C386" r:id="rId874"/>
+    <hyperlink ref="D386" r:id="rId875" display="https://youtu.be/_6QpiqTw_ew?si=xUX4W2QueKEKPr7S"/>
+    <hyperlink ref="E386" r:id="rId876" display="https://www.geeksforgeeks.org/minimum-number-of-jumps-to-reach-end-of-a-given-array/"/>
+    <hyperlink ref="C387" r:id="rId877"/>
+    <hyperlink ref="E387" r:id="rId878" display="https://www.geeksforgeeks.org/minimize-operations-required-to-obtain-n/"/>
+    <hyperlink ref="C388" r:id="rId879"/>
+    <hyperlink ref="E388" r:id="rId880" display="https://www.geeksforgeeks.org/minimize-sum-product-two-arrays-permutations-allowed/"/>
+    <hyperlink ref="C389" r:id="rId881"/>
+    <hyperlink ref="E389" r:id="rId882" display="https://www.geeksforgeeks.org/find-the-largest-number-with-given-number-of-digits-and-sum-of-digits/"/>
+    <hyperlink ref="C390" r:id="rId883"/>
+    <hyperlink ref="E390" r:id="rId884" display="https://www.geeksforgeeks.org/lemonade-stand-change-challenge/"/>
+    <hyperlink ref="C391" r:id="rId885"/>
+    <hyperlink ref="D391" r:id="rId886" display="https://youtu.be/jD_D-b6t_eU?si=2zgyQVT6B0-aSO06"/>
+    <hyperlink ref="E391" r:id="rId887" display="https://www.geeksforgeeks.org/activity-selection-problem-greedy-algo-1/"/>
+    <hyperlink ref="C392" r:id="rId888"/>
+    <hyperlink ref="D392" r:id="rId889" display="https://youtu.be/II6ziNnub1Q?si=nyCFIwB6nl2-LOZo"/>
+    <hyperlink ref="E392" r:id="rId890" display="https://takeuforward.org/data-structure/n-meetings-in-one-room/"/>
+    <hyperlink ref="C393" r:id="rId891"/>
+    <hyperlink ref="D393" r:id="rId892" display="https://youtu.be/dxVcMDI7vyI?si=DCFL2eWvpXNvz3dm"/>
+    <hyperlink ref="E393" r:id="rId893" display="https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/"/>
+    <hyperlink ref="C394" r:id="rId894"/>
+    <hyperlink ref="E394" r:id="rId895" display="https://www.geeksforgeeks.org/minimize-the-maximum-difference-between-the-heights/"/>
+    <hyperlink ref="C395" r:id="rId896"/>
+    <hyperlink ref="D395" r:id="rId897" display="https://youtu.be/mVg9CfJvayM?si=ZYElbpIWyYE3yEjA"/>
+    <hyperlink ref="E395" r:id="rId898" display="https://www.geeksforgeeks.org/greedy-algorithm-to-find-minimum-number-of-coins/"/>
+    <hyperlink ref="C396" r:id="rId899"/>
+    <hyperlink ref="D396" r:id="rId900" display="https://youtu.be/LjPx4wQaRIs?si=QuVNrXDBmW0nqlfy"/>
+    <hyperlink ref="E396" r:id="rId901" display="https://www.geeksforgeeks.org/job-sequencing-problem/"/>
+    <hyperlink ref="C397" r:id="rId902"/>
+    <hyperlink ref="D397" r:id="rId903" display="https://youtu.be/F_DDzYnxO14?si=Aiem1u3s1CApvD1Q"/>
+    <hyperlink ref="E397" r:id="rId904" display="https://www.geeksforgeeks.org/fractional-knapsack-problem/"/>
+    <hyperlink ref="C398" r:id="rId905"/>
+    <hyperlink ref="D398" r:id="rId906" display="https://youtu.be/Yan0cv2cLy8?si=6gEyL0RDv97Ebo_S"/>
+    <hyperlink ref="E398" r:id="rId907" display="https://www.geeksforgeeks.org/minimum-number-of-jumps-to-reach-end-of-a-given-array/"/>
+    <hyperlink ref="C399" r:id="rId908"/>
+    <hyperlink ref="D399" r:id="rId909" display="https://youtu.be/A8NUOmlwOlM?si=nSYNoRp7jNmzEZbk"/>
+    <hyperlink ref="E399" r:id="rId910" display="https://www.geeksforgeeks.org/insert-in-sorted-and-non-overlapping-interval-array/"/>
+    <hyperlink ref="C400" r:id="rId911"/>
+    <hyperlink ref="E400" r:id="rId912" display="https://www.geeksforgeeks.org/merging-intervals/"/>
+    <hyperlink ref="C401" r:id="rId913"/>
+    <hyperlink ref="D401" r:id="rId914" display="https://youtu.be/nONCGxWoUfM?si=CCH5fuaNR9Oh4SV9"/>
+    <hyperlink ref="E401" r:id="rId915" display="https://www.geeksforgeeks.org/find-non-overlapping-intervals-among-a-given-set-of-intervals/"/>
+    <hyperlink ref="C402" r:id="rId916"/>
+    <hyperlink ref="D402" r:id="rId917" display="https://youtu.be/_k_c9nqzKN0?si=8aU6CU030tv-stpm"/>
+    <hyperlink ref="E402" r:id="rId918" display="https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/"/>
+    <hyperlink ref="C403" r:id="rId919"/>
+    <hyperlink ref="E403" r:id="rId920" display="https://walkccc.me/LeetCode/problems/0763/"/>
+    <hyperlink ref="C404" r:id="rId921"/>
+    <hyperlink ref="E404" r:id="rId922" display="https://prepfortech.in/leetcode-solutions/cinema-seat-allocation/"/>
+    <hyperlink ref="C405" r:id="rId923"/>
+    <hyperlink ref="E405" r:id="rId924" display="https://www.geeksforgeeks.org/maximum-length-chain-of-pairs-dp-20/"/>
+    <hyperlink ref="C406" r:id="rId925"/>
+    <hyperlink ref="D406" r:id="rId926" display="https://youtu.be/wkDfsKijrZ8?si=M76SonbMLKKgwvoL"/>
+    <hyperlink ref="E406" r:id="rId927" display="https://www.geeksforgeeks.org/minimum-number-of-parentheses-to-be-added-to-make-it-valid/"/>
+    <hyperlink ref="C407" r:id="rId928"/>
+    <hyperlink ref="E407" r:id="rId929" display="https://www.geeksforgeeks.org/program-for-shortest-job-first-or-sjf-cpu-scheduling-set-1-non-preemptive/"/>
+    <hyperlink ref="C408" r:id="rId930"/>
+    <hyperlink ref="D408" r:id="rId931" display="https://youtu.be/xDEuM5qa0zg?si=lm-_MF96z7x2k-FC"/>
+    <hyperlink ref="E408" r:id="rId932" display="https://www.geeksforgeeks.org/lru-cache-implementation/"/>
+    <hyperlink ref="D411" r:id="rId933" display="https://youtu.be/tyB0ztf0DNY?si=g1XFqILApUcgKtJC"/>
+    <hyperlink ref="C413" r:id="rId934"/>
+    <hyperlink ref="E413" r:id="rId935" display="https://www.geeksforgeeks.org/count-number-of-ways-to-cover-a-distance/"/>
+    <hyperlink ref="C414" r:id="rId936"/>
+    <hyperlink ref="D414" r:id="rId937" display="https://youtu.be/mLfjzJsN8us?si=CtLuQbpWqlseteUe"/>
+    <hyperlink ref="E414" r:id="rId938" display="https://www.geeksforgeeks.org/count-ways-reach-nth-stair/"/>
+    <hyperlink ref="C415" r:id="rId939"/>
+    <hyperlink ref="D415" r:id="rId940" display="https://youtu.be/mLfjzJsN8us?si=CtLuQbpWqlseteUe"/>
+    <hyperlink ref="E415" r:id="rId941" display="https://www.geeksforgeeks.org/count-ways-reach-nth-stair/"/>
+    <hyperlink ref="C416" r:id="rId942"/>
+    <hyperlink ref="E416" r:id="rId943" display="https://www.geeksforgeeks.org/find-maximum-possible-stolen-value-houses/"/>
+    <hyperlink ref="C417" r:id="rId944"/>
+    <hyperlink ref="D417" r:id="rId945" display="https://youtu.be/3WaxQMELSkw?si=uGgE6spsNU-YYdHQ"/>
+    <hyperlink ref="C419" r:id="rId946"/>
+    <hyperlink ref="D419" r:id="rId947" display="https://youtu.be/sdE0A2Oxofw?si=k-DhYLU6A7eaUxPF"/>
+    <hyperlink ref="E419" r:id="rId948" display="https://www.geeksforgeeks.org/count-possible-paths-top-left-bottom-right-nxm-matrix/"/>
+    <hyperlink ref="C420" r:id="rId949"/>
+    <hyperlink ref="D420" r:id="rId950" display="https://youtu.be/TmhpgXScLyY?si=Z7i2x05K982xbodl"/>
+    <hyperlink ref="C421" r:id="rId951"/>
+    <hyperlink ref="E421" r:id="rId952" display="https://www.geeksforgeeks.org/count-possible-paths-top-left-bottom-right-nxm-matrix/"/>
+    <hyperlink ref="C422" r:id="rId953"/>
+    <hyperlink ref="D422" r:id="rId954" display="https://www.youtube.com/watch?v=_rgTlyky1uQ"/>
+    <hyperlink ref="C423" r:id="rId955"/>
+    <hyperlink ref="E423" r:id="rId956" display="https://www.geeksforgeeks.org/find-maximum-path-sum-in-a-binary-tree/"/>
+    <hyperlink ref="C424" r:id="rId957"/>
+    <hyperlink ref="D424" r:id="rId958" display="https://www.youtube.com/watch?v=SrP-PiLSYC0"/>
+    <hyperlink ref="C425" r:id="rId959"/>
+    <hyperlink ref="E425" r:id="rId960" display="https://www.geeksforgeeks.org/number-of-paths-with-exactly-k-coins/"/>
+    <hyperlink ref="C426" r:id="rId961"/>
+    <hyperlink ref="D426" r:id="rId962" display="https://youtu.be/N_aJ5qQbYA0?si=ezuW1n6Qa8XxTNEo"/>
+    <hyperlink ref="C427" r:id="rId963"/>
+    <hyperlink ref="C429" r:id="rId964"/>
+    <hyperlink ref="D429" r:id="rId965" display="https://youtu.be/fWX9xDmIzRI?si=JE2TrHBWy_MknoPu"/>
+    <hyperlink ref="C430" r:id="rId966"/>
+    <hyperlink ref="D430" r:id="rId967" display="https://youtu.be/ZHyb-A2Mte4?si=E2zp3ic9YMCmi1el"/>
+    <hyperlink ref="C431" r:id="rId968"/>
+    <hyperlink ref="D431" r:id="rId969" display="https://youtu.be/7win3dcgo3k?si=b7S5AhlT68DbwSRC"/>
+    <hyperlink ref="E431" r:id="rId970" display="https://www.geeksforgeeks.org/partition-problem-dp-18/"/>
+    <hyperlink ref="C432" r:id="rId971"/>
+    <hyperlink ref="D432" r:id="rId972" display="https://youtu.be/GS_OqZb2CWc?si=jtDc7dlrqIBDGkva"/>
+    <hyperlink ref="D433" r:id="rId973" display="https://youtu.be/zoilQD1kYSg?si=Dob0JEkW4sUmGoXn"/>
+    <hyperlink ref="C434" r:id="rId974"/>
+    <hyperlink ref="D434" r:id="rId975" display="https://youtu.be/GqOmJHQZivw?si=Z9uoyRurFlHaiwRs"/>
+    <hyperlink ref="E434" r:id="rId976" display="https://www.geeksforgeeks.org/0-1-knapsack-problem-dp-10/"/>
+    <hyperlink ref="C435" r:id="rId977"/>
+    <hyperlink ref="D435" r:id="rId978" display="https://youtu.be/GrMBfJNk_NY?si=i1ZMM-MkZu3TUA4w"/>
+    <hyperlink ref="C436" r:id="rId979"/>
+    <hyperlink ref="D436" r:id="rId980" display="https://youtu.be/HgyouUi11zk?si=lHMMApBzC27_NrBU"/>
+    <hyperlink ref="E436" r:id="rId981" display="https://www.geeksforgeeks.org/coin-change-dp-7/"/>
+    <hyperlink ref="C437" r:id="rId982"/>
+    <hyperlink ref="D437" r:id="rId983" display="https://youtu.be/myPeWb3Y68A?si=eeOZCGj3ebD3fay7"/>
+    <hyperlink ref="E437" r:id="rId984" display="https://www.geeksforgeeks.org/find-minimum-number-of-coins-that-make-a-change/"/>
+    <hyperlink ref="C438" r:id="rId985"/>
+    <hyperlink ref="D438" r:id="rId986" display="https://youtu.be/mO8XpGoJwuo?si=qNYFr6yJNxqmw4ky"/>
+    <hyperlink ref="C439" r:id="rId987"/>
+    <hyperlink ref="D439" r:id="rId988" display="https://youtu.be/b3GD8263-PQ?si=x22ue_uHcCp3vLdu"/>
+    <hyperlink ref="C440" r:id="rId989"/>
+    <hyperlink ref="C441" r:id="rId990"/>
+    <hyperlink ref="D441" r:id="rId991" display="https://youtu.be/OgvOZ6OrJoY?si=dmmo3by1GELu0E6u"/>
+    <hyperlink ref="E441" r:id="rId992" display="https://www.geeksforgeeks.org/unbounded-knapsack-repetition-items-allowed/"/>
+    <hyperlink ref="C443" r:id="rId993"/>
+    <hyperlink ref="D443" r:id="rId994" display="https://youtu.be/ekcwMsSIzVc?si=8zc9o-Q9JBpR_rLs"/>
+    <hyperlink ref="D444" r:id="rId995" display="https://youtu.be/IFfYfonAFGc?si=KQW5W74J8e_n_kXZ"/>
+    <hyperlink ref="C445" r:id="rId996"/>
+    <hyperlink ref="D445" r:id="rId997" display="https://youtu.be/y4vN0WNdrlg?si=1n-HYDfzakhkM-6W"/>
+    <hyperlink ref="E445" r:id="rId998" display="https://www.geeksforgeeks.org/longest-bitonic-subsequence-dp-15/"/>
+    <hyperlink ref="C446" r:id="rId999"/>
+    <hyperlink ref="D446" r:id="rId1000" display="https://youtu.be/gDuZwBW9VvM?si=1E77tHD7jaVItSLZ"/>
+    <hyperlink ref="C447" r:id="rId1001"/>
+    <hyperlink ref="D447" r:id="rId1002" display="https://youtu.be/YY8iBaYcc4g?si=SVp9w9fPBfUcqhqG"/>
+    <hyperlink ref="C448" r:id="rId1003"/>
+    <hyperlink ref="D448" r:id="rId1004" display="https://youtu.be/cKVl1TFdNXg?si=N8t9as5OGiHoVzrG"/>
+    <hyperlink ref="C450" r:id="rId1005" display="https://leetcode.com/problems/longest-common-subsequence/"/>
+    <hyperlink ref="D450" r:id="rId1006" display="https://youtu.be/NPZn9jBrX8U?si=c38YFd7X1c-QcPRq"/>
+    <hyperlink ref="E450" r:id="rId1007" display="https://www.geeksforgeeks.org/longest-common-subsequence-dp-4/"/>
+    <hyperlink ref="C451" r:id="rId1008"/>
+    <hyperlink ref="D451" r:id="rId1009" display="https://youtu.be/-zI4mrF2Pb4?si=VagQXphIzNfpH9su"/>
+    <hyperlink ref="E451" r:id="rId1010" display="https://www.geeksforgeeks.org/printing-longest-common-subsequence/"/>
+    <hyperlink ref="C452" r:id="rId1011"/>
+    <hyperlink ref="D452" r:id="rId1012" display="https://youtu.be/6i_T5kkfv4A?si=7PcZQtgR9bGjBbl4"/>
+    <hyperlink ref="E452" r:id="rId1013" display="https://www.geeksforgeeks.org/longest-palindromic-subsequence-dp-12/"/>
+    <hyperlink ref="C453" r:id="rId1014"/>
+    <hyperlink ref="D453" r:id="rId1015" display="https://youtu.be/xPBLEj41rFU?si=V9kn1IUGTx3DAlSJ"/>
+    <hyperlink ref="E453" r:id="rId1016" display="https://www.geeksforgeeks.org/minimum-insertions-to-form-a-palindrome-dp-28/"/>
+    <hyperlink ref="C454" r:id="rId1017"/>
+    <hyperlink ref="D454" r:id="rId1018" display="https://youtu.be/yMnH0jrir0Q?si=wz6fbYwdh8tJgOtr"/>
+    <hyperlink ref="E454" r:id="rId1019" display="https://www.geeksforgeeks.org/minimum-number-deletions-insertions-transform-one-string-another/"/>
+    <hyperlink ref="C455" r:id="rId1020"/>
+    <hyperlink ref="D455" r:id="rId1021" display="https://youtu.be/xElxAuBcvsU?si=4dBiTvsaW1LiQ4Qm"/>
+    <hyperlink ref="E455" r:id="rId1022" display="https://www.geeksforgeeks.org/shortest-common-supersequence/"/>
+    <hyperlink ref="C456" r:id="rId1023"/>
+    <hyperlink ref="D456" r:id="rId1024" display="https://youtu.be/_wP9mWNPL5w?si=XyPQqcffZg1cYk6z"/>
+    <hyperlink ref="E456" r:id="rId1025" display="https://www.geeksforgeeks.org/longest-common-subarray-in-the-given-two-arrays/"/>
+    <hyperlink ref="C457" r:id="rId1026"/>
+    <hyperlink ref="D457" r:id="rId1027" display="https://youtu.be/UflHuQj6MVA?si=yUS26OPaaMqlvpcb"/>
+    <hyperlink ref="E457" r:id="rId1028" display="https://www.geeksforgeeks.org/longest-palindromic-substring/"/>
+    <hyperlink ref="C458" r:id="rId1029"/>
+    <hyperlink ref="D458" r:id="rId1030" display="https://youtu.be/ZqG89Z-dKpI?si=E5MPTzZgCWf45VvN"/>
+    <hyperlink ref="E458" r:id="rId1031" display="https://www.geeksforgeeks.org/longest-palindromic-substring/"/>
+    <hyperlink ref="C460" r:id="rId1032"/>
+    <hyperlink ref="D460" r:id="rId1033" display="https://youtu.be/fJaKO8FbDdo?si=SgjrMJO4gsNPV5r6"/>
+    <hyperlink ref="E460" r:id="rId1034" display="https://www.geeksforgeeks.org/edit-distance-dp-5/"/>
+    <hyperlink ref="C461" r:id="rId1035"/>
+    <hyperlink ref="D461" r:id="rId1036" display="https://youtu.be/nVG7eTiD2bY?si=FMMLyM58YqKYxEjh"/>
+    <hyperlink ref="C462" r:id="rId1037"/>
+    <hyperlink ref="D462" r:id="rId1038" display="https://youtu.be/ZmlQ3vgAOMo?si=aqw8ylH5x88-LlJs"/>
+    <hyperlink ref="E462" r:id="rId1039" display="https://www.geeksforgeeks.org/wildcard-pattern-matching/"/>
+    <hyperlink ref="C463" r:id="rId1040"/>
+    <hyperlink ref="D463" r:id="rId1041" display="https://youtu.be/Sx9NNgInc3A?si=BVL4wXtCz9BgZLrL"/>
+    <hyperlink ref="E463" r:id="rId1042" display="https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/"/>
+    <hyperlink ref="C464" r:id="rId1043"/>
+    <hyperlink ref="D464" r:id="rId1044" display="https://youtu.be/Sx9NNgInc3A?si=Hmn5-egLse5GkvIx"/>
+    <hyperlink ref="E464" r:id="rId1045" display="https://www.geeksforgeeks.org/word-break-problem-dp-32/"/>
+    <hyperlink ref="C465" r:id="rId1046"/>
+    <hyperlink ref="E465" r:id="rId1047" display="https://www.geeksforgeeks.org/word-break-problem-dp-32/"/>
+    <hyperlink ref="C466" r:id="rId1048"/>
+    <hyperlink ref="D466" r:id="rId1049" display="https://youtu.be/aPdpJ_RjaXs?si=Ic_4lgafd2xh_odL"/>
+    <hyperlink ref="E466" r:id="rId1050" display="https://www.geeksforgeeks.org/word-wrap-problem-dp-19/"/>
+    <hyperlink ref="C467" r:id="rId1051"/>
+    <hyperlink ref="D467" r:id="rId1052" display="https://youtu.be/3Rw3p9LrgvE?si=WDE8R_TrpBnzAeKL"/>
+    <hyperlink ref="E467" r:id="rId1053" display="https://www.geeksforgeeks.org/find-if-a-string-is-interleaved-of-two-other-strings-dp-33/"/>
+    <hyperlink ref="C469" r:id="rId1054"/>
+    <hyperlink ref="D469" r:id="rId1055" display="https://youtu.be/excAOvwF_Wk?si=e7EyG99KPKityBdF"/>
+    <hyperlink ref="C470" r:id="rId1056"/>
+    <hyperlink ref="D470" r:id="rId1057" display="https://youtu.be/nGJmxkUJQGs?si=_mVvHG8iLKwA95lW"/>
+    <hyperlink ref="C471" r:id="rId1058"/>
+    <hyperlink ref="D471" r:id="rId1059" display="https://youtu.be/-uQGzhYj8BQ?si=FDuxAlLnMWU9e21u"/>
+    <hyperlink ref="C472" r:id="rId1060"/>
+    <hyperlink ref="D472" r:id="rId1061" display="https://youtu.be/IV1dHbk5CDc?si=TILc-BmsGoxTljr-"/>
+    <hyperlink ref="C473" r:id="rId1062"/>
+    <hyperlink ref="D473" r:id="rId1063" display="https://youtu.be/IGIe46xw3YY?si=iUqI6GSSB8BugjDm"/>
+    <hyperlink ref="C474" r:id="rId1064"/>
+    <hyperlink ref="D474" r:id="rId1065" display="https://youtu.be/k4eK-vEmnKg?si=wiaYE8Ioi-K-rSZ0"/>
+    <hyperlink ref="C476" r:id="rId1066"/>
+    <hyperlink ref="D476" r:id="rId1067" display="https://youtu.be/pDCXsbAw5Cg?si=P9UB4sQ8a6vvd2_I"/>
+    <hyperlink ref="E476" r:id="rId1068" display="https://www.geeksforgeeks.org/matrix-chain-multiplication-dp-8/"/>
+    <hyperlink ref="C477" r:id="rId1069"/>
+    <hyperlink ref="D477" r:id="rId1070" display="https://youtu.be/xwomavsC86c?si=IufdXqTfIa1F0V6I"/>
+    <hyperlink ref="E477" r:id="rId1071" display="https://takeuforward.org/data-structure/minimum-cost-to-cut-the-stick-dp-50/"/>
+    <hyperlink ref="C478" r:id="rId1072"/>
+    <hyperlink ref="D478" r:id="rId1073" display="https://youtu.be/Yz4LlDSlkns?si=d7mq5OJwAtvOBAz2"/>
+    <hyperlink ref="E478" r:id="rId1074" display="https://www.geeksforgeeks.org/burst-balloon-to-maximize-coins/"/>
+    <hyperlink ref="C479" r:id="rId1075"/>
+    <hyperlink ref="D479" r:id="rId1076" display="https://youtu.be/MM7fXopgyjw?si=qhNd2faXTK1r5x04"/>
+    <hyperlink ref="E479" r:id="rId1077" display="https://www.geeksforgeeks.org/boolean-parenthesization-problem-dp-37/"/>
+    <hyperlink ref="C480" r:id="rId1078"/>
+    <hyperlink ref="D480" r:id="rId1079" display="https://youtu.be/_H8V5hJUGd0?si=Sxlz-OqRVMjbgwgu"/>
+    <hyperlink ref="E480" r:id="rId1080" display="https://www.geeksforgeeks.org/palindrome-partitioning-dp-17/"/>
+    <hyperlink ref="C481" r:id="rId1081"/>
+    <hyperlink ref="D481" r:id="rId1082" display="https://youtu.be/PhWWJmaKfMc?si=qNDjjLCux8ibRyu-"/>
+    <hyperlink ref="E481" r:id="rId1083" display="https://www.geeksforgeeks.org/maximum-average-sum-partition-array/"/>
+    <hyperlink ref="C482" r:id="rId1084"/>
+    <hyperlink ref="D482" r:id="rId1085" display="https://youtu.be/tOylVCugy9k?si=eDTgv7YFHqvrRGMe"/>
+    <hyperlink ref="E482" r:id="rId1086" display="https://www.geeksforgeeks.org/maximum-size-rectangle-binary-sub-matrix-1s/"/>
+    <hyperlink ref="C483" r:id="rId1087"/>
+    <hyperlink ref="D483" r:id="rId1088" display="https://youtu.be/auS1fynpnjo?si=iq5LsCojilevzhM4"/>
+    <hyperlink ref="D486" r:id="rId1089" display="https://youtu.be/N0Frqx9UlrI?si=4iJkhpOo2ry9QwtQ"/>
+    <hyperlink ref="C487" r:id="rId1090" display="https://www.codingninjas.com/studio/problems/min-heap-implementation_5480527"/>
+    <hyperlink ref="D487" r:id="rId1091" display="https://youtu.be/cuL8gXCSA58?si=LkYy8KbCthuzly5l"/>
+    <hyperlink ref="E487" r:id="rId1092" display="https://www.geeksforgeeks.org/introduction-to-min-heap-data-structure/"/>
+    <hyperlink ref="C488" r:id="rId1093"/>
+    <hyperlink ref="D488" r:id="rId1094" display="https://youtu.be/cuL8gXCSA58?si=uWFN4dlnEnzdzQtq"/>
+    <hyperlink ref="E488" r:id="rId1095" display="https://www.geeksforgeeks.org/introduction-to-max-heap-data-structure/"/>
+    <hyperlink ref="C489" r:id="rId1096"/>
+    <hyperlink ref="D489" r:id="rId1097" display="https://youtu.be/cuL8gXCSA58?si=eC60B9JXzRSI_yFt"/>
+    <hyperlink ref="E489" r:id="rId1098" display="https://www.geeksforgeeks.org/convert-min-heap-to-max-heap/"/>
+    <hyperlink ref="C491" r:id="rId1099"/>
+    <hyperlink ref="D491" r:id="rId1100" display="https://youtu.be/aXJ-p3Qa4TY?si=eWjySsOqZUjCCwBP"/>
+    <hyperlink ref="E491" r:id="rId1101" display="https://www.geeksforgeeks.org/kth-smallest-largest-element-in-unsorted-array/"/>
+    <hyperlink ref="D492" r:id="rId1102" display="https://youtu.be/aXJ-p3Qa4TY?si=oPUFQfZaeFc3tOd_"/>
+    <hyperlink ref="C493" r:id="rId1103"/>
+    <hyperlink ref="D493" r:id="rId1104" display="https://youtu.be/Wh3A29psE_Y?si=X6AP6AiuXpjrM79V"/>
+    <hyperlink ref="C494" r:id="rId1105"/>
+    <hyperlink ref="D494" r:id="rId1106" display="https://youtu.be/YPTqKIgVk-k?si=HGG49q2YPTg-ke_v"/>
+    <hyperlink ref="C495" r:id="rId1107"/>
+    <hyperlink ref="D495" r:id="rId1108" display="https://youtu.be/vltY5jxqcco?si=ZHg-JUnHMX2FgvRM"/>
+    <hyperlink ref="C496" r:id="rId1109"/>
+    <hyperlink ref="D496" r:id="rId1110" display="https://youtu.be/hOjcdrqMoQ8?si=RklRakI8BwOIfYwb"/>
+    <hyperlink ref="E496" r:id="rId1111" display="https://www.geeksforgeeks.org/kth-largest-element-in-a-stream/"/>
+    <hyperlink ref="C497" r:id="rId1112"/>
+    <hyperlink ref="D497" r:id="rId1113" display="https://youtu.be/2g_b1aYTHeg?si=yHEmKdbQDc-C-Li9"/>
+    <hyperlink ref="C498" r:id="rId1114"/>
+    <hyperlink ref="D498" r:id="rId1115" display="https://www.youtube.com/live/C3YCL18cIHM?si=YPvoeHFRgzdCx35n"/>
+    <hyperlink ref="C499" r:id="rId1116"/>
+    <hyperlink ref="C500" r:id="rId1117"/>
+    <hyperlink ref="E500" r:id="rId1118" display="https://youtu.be/X5SuOsIWCoI?si=WH6z4uaMzE8B_UOK"/>
+    <hyperlink ref="C502" r:id="rId1119"/>
+    <hyperlink ref="D502" r:id="rId1120" display="https://youtu.be/kpCesr9VXDA?si=UyD8orvz_UXvSQhl"/>
+    <hyperlink ref="E502" r:id="rId1121" display="https://www.geeksforgeeks.org/merge-k-sorted-arrays/"/>
+    <hyperlink ref="C503" r:id="rId1122"/>
+    <hyperlink ref="C504" r:id="rId1123"/>
+    <hyperlink ref="C506" r:id="rId1124"/>
+    <hyperlink ref="D506" r:id="rId1125" display="https://youtu.be/itmhHWaHupI?si=kOhqNsy0u87ew1gQ"/>
+    <hyperlink ref="E506" r:id="rId1126" display="https://www.geeksforgeeks.org/median-of-stream-of-integers-running-integers/"/>
+    <hyperlink ref="C507" r:id="rId1127"/>
+    <hyperlink ref="D507" r:id="rId1128" display="https://youtu.be/DfljaUwZsOk?si=ATC7K2_3a6QPXdsS"/>
+    <hyperlink ref="C508" r:id="rId1129"/>
+    <hyperlink ref="C510" r:id="rId1130"/>
+    <hyperlink ref="D510" r:id="rId1131" display="https://youtu.be/f7JOBJIC-NA?si=qACVSM1NauAdTfmG"/>
+    <hyperlink ref="E510" r:id="rId1132" display="https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/"/>
+    <hyperlink ref="C511" r:id="rId1133"/>
+    <hyperlink ref="D511" r:id="rId1134" display="https://youtu.be/FdzJmTCVyJU?si=I_7q86O10M1_5nTy"/>
+    <hyperlink ref="E511" r:id="rId1135" display="https://www.geeksforgeeks.org/find-maximum-meetings-in-one-room/"/>
+    <hyperlink ref="C512" r:id="rId1136"/>
+    <hyperlink ref="D512" r:id="rId1137" display="https://youtu.be/IbhQ3U5NHLI?si=PSp_XzWTzv4wQ57W"/>
+    <hyperlink ref="E512" r:id="rId1138" display="https://www.geeksforgeeks.org/minimum-cost-to-complete-given-tasks-if-cost-of-1-7-and-30-days-are-given/"/>
+    <hyperlink ref="C513" r:id="rId1139"/>
+    <hyperlink ref="E513" r:id="rId1140" display="https://www.geeksforgeeks.org/minimum-cost-to-process-m-tasks-where-switching-costs/"/>
+    <hyperlink ref="C514" r:id="rId1141"/>
+    <hyperlink ref="D514" r:id="rId1142" display="https://youtu.be/sKjKLN5JswQ?si=kF07TsHuwP_jmuzh"/>
+    <hyperlink ref="E514" r:id="rId1143" display="https://www.geeksforgeeks.org/minimize-refills-to-reach-end-of-path/"/>
+    <hyperlink ref="C517" r:id="rId1144"/>
+    <hyperlink ref="D517" r:id="rId1145" display="https://youtu.be/oobqoCJlHA0?si=HTMe5ROchxy4KAaU"/>
+    <hyperlink ref="E517" r:id="rId1146" display="https://www.geeksforgeeks.org/trie-insert-and-search/"/>
+    <hyperlink ref="C518" r:id="rId1147" display="https://www.geeksforgeeks.org/problems/word-break-trie--141631/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D518" r:id="rId1148" display="https://youtu.be/th4OnoGasMU?si=r6--sa8rf-0P2Hc0"/>
+    <hyperlink ref="E518" r:id="rId1149" display="https://www.geeksforgeeks.org/word-break-problem-trie-solution/"/>
+    <hyperlink ref="C519" r:id="rId1150"/>
+    <hyperlink ref="D519" r:id="rId1151" display="https://youtu.be/fhyIORFDD0k?si=llRsS8TY44gkz9s6"/>
+    <hyperlink ref="E519" r:id="rId1152" display="https://www.geeksforgeeks.org/longest-common-prefix-using-sorting/"/>
+    <hyperlink ref="C520" r:id="rId1153" display="https://www.geeksforgeeks.org/problems/maximum-xor-of-two-numbers-in-an-array/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D520" r:id="rId1154" display="https://youtu.be/jCuZCbXnpLo?si=bjswCkTxSANJnuQj"/>
+    <hyperlink ref="E520" r:id="rId1155" display="https://www.geeksforgeeks.org/maximum-xor-of-two-numbers-in-an-array/"/>
+    <hyperlink ref="C521" r:id="rId1156" display="https://www.geeksforgeeks.org/problems/unique-rows-in-boolean-matrix/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D521" r:id="rId1157" display="https://youtu.be/GixyVinjtFk?si=7THXd_L892zgFeIw"/>
+    <hyperlink ref="E521" r:id="rId1158" display="https://www.geeksforgeeks.org/print-unique-rows/"/>
+    <hyperlink ref="C522" r:id="rId1159"/>
+    <hyperlink ref="D522" r:id="rId1160" display="https://www.youtube.com/live/bs4MqQ_0ZS0?si=Xgos1T5uEzHu__1a"/>
+    <hyperlink ref="E522" r:id="rId1161" display="https://www.geeksforgeeks.org/count-of-strings-whose-prefix-match-with-the-given-string-to-a-given-length-k/"/>
+    <hyperlink ref="C525" r:id="rId1162"/>
+    <hyperlink ref="D525" r:id="rId1163" display="https://youtu.be/2I9XO8jwZCA?si=ldC-gp4Wv4Gra1z7"/>
+    <hyperlink ref="E525" r:id="rId1164" display="https://www.geeksforgeeks.org/write-your-own-atoi/"/>
+    <hyperlink ref="C526" r:id="rId1165"/>
+    <hyperlink ref="E526" r:id="rId1166" display="https://www.geeksforgeeks.org/look-and-say-sequence/"/>
+    <hyperlink ref="C527" r:id="rId1167" display="https://www.geeksforgeeks.org/problems/count-the-reversals0401/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D527" r:id="rId1168" display="https://youtu.be/8q1sma-qMsA?si=22qpLT56elmIfBgl"/>
+    <hyperlink ref="E527" r:id="rId1169" display="https://www.geeksforgeeks.org/minimum-number-of-bracket-reversals-needed-to-make-an-expression-balanced/"/>
+    <hyperlink ref="C528" r:id="rId1170"/>
+    <hyperlink ref="D528" r:id="rId1171" display="https://youtu.be/oxd_Z1osgCk?si=kxhwCfdV3t6M0IHB"/>
+    <hyperlink ref="E528" r:id="rId1172" display="https://www.geeksforgeeks.org/rabin-karp-algorithm-for-pattern-searching/"/>
+    <hyperlink ref="C529" r:id="rId1173"/>
+    <hyperlink ref="E529" r:id="rId1174" display="https://www.geeksforgeeks.org/boyer-moore-algorithm-for-pattern-searching/"/>
+    <hyperlink ref="C530" r:id="rId1175"/>
+    <hyperlink ref="D530" r:id="rId1176" display="https://youtu.be/ziteu2FpYsA?si=iLKlrPrn4Qn1Pl3G"/>
+    <hyperlink ref="E530" r:id="rId1177" display="https://www.geeksforgeeks.org/longest-prefix-also-suffix/"/>
+    <hyperlink ref="C531" r:id="rId1178"/>
+    <hyperlink ref="E531" r:id="rId1179" display="https://www.geeksforgeeks.org/longest-prefix-also-suffix/"/>
+    <hyperlink ref="C532" r:id="rId1180"/>
+    <hyperlink ref="D532" r:id="rId1181" display="https://youtu.be/w6LcypDgC4w?si=q2BwgPUVgXvVBs5K"/>
+    <hyperlink ref="E532" r:id="rId1182" display="https://www.geeksforgeeks.org/recursively-remove-adjacent-duplicates-given-string/"/>
+    <hyperlink ref="C533" r:id="rId1183"/>
+    <hyperlink ref="D533" r:id="rId1184" display="https://youtu.be/KEs5UyBJ39g?si=9hG4JdZkDb_a1sju"/>
+    <hyperlink ref="E533" r:id="rId1185" display="https://www.geeksforgeeks.org/string-hashing-using-polynomial-rolling-hash-function/"/>
+    <hyperlink ref="C534" r:id="rId1186"/>
+    <hyperlink ref="D534" r:id="rId1187" display="https://youtu.be/vzdNOK2oB2E?si=jgGJngudIz4L_4oP"/>
+    <hyperlink ref="E534" r:id="rId1188" display="https://www.geeksforgeeks.org/given-a-sequence-of-words-print-all-anagrams-together/"/>
+    <hyperlink ref="C535" r:id="rId1189"/>
+    <hyperlink ref="D535" r:id="rId1190" display="https://www.youtube.com/live/-1qq3hekxBw?si=zOa8LDear3iIsWRl"/>
+    <hyperlink ref="E535" r:id="rId1191" display="https://www.geeksforgeeks.org/z-algorithm-linear-time-pattern-searching-algorithm/"/>
+    <hyperlink ref="C536" r:id="rId1192" display="https://leetcode.com/problems/shortest-palindrome/"/>
+    <hyperlink ref="D536" r:id="rId1193" display="https://youtu.be/xPBLEj41rFU?si=04dcB7ymKkMft7VE"/>
+    <hyperlink ref="E536" r:id="rId1194" display="https://www.geeksforgeeks.org/minimum-insertions-to-form-shortest-palindrome/"/>
+    <hyperlink ref="C537" r:id="rId1195"/>
+    <hyperlink ref="D537" r:id="rId1196" display="https://youtu.be/DBcbRXAlE0U?si=Nm16p-kL_VVEuAAY"/>
+    <hyperlink ref="E537" r:id="rId1197" display="https://www.geeksforgeeks.org/given-array-strings-find-strings-can-chained-form-circle/"/>
+    <hyperlink ref="C538" r:id="rId1198" display="https://www.geeksforgeeks.org/problems/roman-number-to-integer3201/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="D538" r:id="rId1199" display="https://youtu.be/dlATMslQ6Uc?si=ImmwMRmjbHD-umKR"/>
+    <hyperlink ref="E538" r:id="rId1200" display="https://www.geeksforgeeks.org/converting-roman-numerals-decimal-lying-1-3999/"/>
+    <hyperlink ref="B544" r:id="rId1201"/>
+    <hyperlink ref="B545" r:id="rId1202"/>
+    <hyperlink ref="B546" r:id="rId1203" display="https://www.overleaf.com/articles/ravi-kukretis-resume/cxprrkxbccgb"/>
+    <hyperlink ref="C34" r:id="rId1204"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1205"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="991">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3568,21 +3568,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3606,6 +3591,21 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3889,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3902,103 +3902,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4010,15 +4010,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4456,7 +4456,9 @@
         <v>21</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4910,12 +4912,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -12533,24 +12535,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="39" t="s">
+      <c r="A540" s="24" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="40"/>
-      <c r="C540" s="40"/>
-      <c r="D540" s="40"/>
-      <c r="E540" s="41"/>
+      <c r="B540" s="25"/>
+      <c r="C540" s="25"/>
+      <c r="D540" s="25"/>
+      <c r="E540" s="26"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="24" t="s">
+      <c r="A541" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="25"/>
-      <c r="C541" s="25"/>
-      <c r="D541" s="25"/>
-      <c r="E541" s="26"/>
+      <c r="B541" s="48"/>
+      <c r="C541" s="48"/>
+      <c r="D541" s="48"/>
+      <c r="E541" s="49"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -12576,12 +12578,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="27" t="s">
+      <c r="B544" s="50" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="28"/>
-      <c r="D544" s="28"/>
-      <c r="E544" s="29"/>
+      <c r="C544" s="51"/>
+      <c r="D544" s="51"/>
+      <c r="E544" s="52"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -12589,12 +12591,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="30" t="s">
+      <c r="B545" s="53" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="31"/>
-      <c r="D545" s="31"/>
-      <c r="E545" s="32"/>
+      <c r="C545" s="54"/>
+      <c r="D545" s="54"/>
+      <c r="E545" s="55"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -12602,25 +12604,25 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="33" t="s">
+      <c r="B546" s="56" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="34"/>
-      <c r="D546" s="34"/>
-      <c r="E546" s="35"/>
+      <c r="C546" s="57"/>
+      <c r="D546" s="57"/>
+      <c r="E546" s="58"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="36" t="s">
+      <c r="A547" s="59" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="37"/>
-      <c r="C547" s="37"/>
-      <c r="D547" s="37"/>
-      <c r="E547" s="37"/>
-      <c r="F547" s="37"/>
-      <c r="G547" s="38"/>
+      <c r="B547" s="60"/>
+      <c r="C547" s="60"/>
+      <c r="D547" s="60"/>
+      <c r="E547" s="60"/>
+      <c r="F547" s="60"/>
+      <c r="G547" s="61"/>
     </row>
     <row r="548" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4"/>
@@ -21273,6 +21275,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -21285,11 +21292,6 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="991">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3568,6 +3568,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3591,21 +3606,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3889,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3902,103 +3902,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4010,15 +4010,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4104,7 +4104,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -4123,7 +4125,9 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -4142,7 +4146,9 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4">
+        <v>3</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
@@ -4161,7 +4167,9 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4">
+        <v>4</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
@@ -4180,7 +4188,9 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4">
+        <v>5</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
@@ -4199,7 +4209,9 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4">
+        <v>6</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
@@ -4218,7 +4230,9 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4">
+        <v>7</v>
+      </c>
       <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
@@ -4237,7 +4251,9 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4">
+        <v>8</v>
+      </c>
       <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
@@ -4256,7 +4272,9 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4">
+        <v>9</v>
+      </c>
       <c r="B27" s="4" t="s">
         <v>37</v>
       </c>
@@ -4275,7 +4293,9 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4">
+        <v>10</v>
+      </c>
       <c r="B28" s="4" t="s">
         <v>39</v>
       </c>
@@ -4294,7 +4314,9 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4">
+        <v>11</v>
+      </c>
       <c r="B29" s="4" t="s">
         <v>41</v>
       </c>
@@ -4313,7 +4335,9 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4">
+        <v>12</v>
+      </c>
       <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
@@ -4371,7 +4395,9 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>49</v>
       </c>
@@ -4390,7 +4416,9 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
       <c r="B35" s="4" t="s">
         <v>51</v>
       </c>
@@ -4409,7 +4437,9 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4">
+        <v>3</v>
+      </c>
       <c r="B36" s="4" t="s">
         <v>53</v>
       </c>
@@ -4428,7 +4458,9 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4">
+        <v>4</v>
+      </c>
       <c r="B37" s="4" t="s">
         <v>55</v>
       </c>
@@ -4447,7 +4479,9 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4">
+        <v>5</v>
+      </c>
       <c r="B38" s="4" t="s">
         <v>57</v>
       </c>
@@ -4462,7 +4496,9 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="A39" s="4">
+        <v>6</v>
+      </c>
       <c r="B39" s="4" t="s">
         <v>58</v>
       </c>
@@ -4475,11 +4511,15 @@
       <c r="E39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+      <c r="A40" s="4">
+        <v>7</v>
+      </c>
       <c r="B40" s="4" t="s">
         <v>60</v>
       </c>
@@ -4492,11 +4532,15 @@
       <c r="E40" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+      <c r="A41" s="4">
+        <v>8</v>
+      </c>
       <c r="B41" s="4" t="s">
         <v>62</v>
       </c>
@@ -4509,11 +4553,15 @@
       <c r="E41" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+      <c r="A42" s="4">
+        <v>9</v>
+      </c>
       <c r="B42" s="4" t="s">
         <v>64</v>
       </c>
@@ -4526,11 +4574,15 @@
       <c r="E42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
+      <c r="A43" s="4">
+        <v>10</v>
+      </c>
       <c r="B43" s="4" t="s">
         <v>66</v>
       </c>
@@ -4547,7 +4599,9 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
+      <c r="A44" s="4">
+        <v>11</v>
+      </c>
       <c r="B44" s="4" t="s">
         <v>68</v>
       </c>
@@ -4562,7 +4616,9 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+      <c r="A45" s="4">
+        <v>12</v>
+      </c>
       <c r="B45" s="4" t="s">
         <v>69</v>
       </c>
@@ -4912,12 +4968,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -12535,24 +12591,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="24" t="s">
+      <c r="A540" s="39" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="25"/>
-      <c r="C540" s="25"/>
-      <c r="D540" s="25"/>
-      <c r="E540" s="26"/>
+      <c r="B540" s="40"/>
+      <c r="C540" s="40"/>
+      <c r="D540" s="40"/>
+      <c r="E540" s="41"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="47" t="s">
+      <c r="A541" s="24" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="48"/>
-      <c r="C541" s="48"/>
-      <c r="D541" s="48"/>
-      <c r="E541" s="49"/>
+      <c r="B541" s="25"/>
+      <c r="C541" s="25"/>
+      <c r="D541" s="25"/>
+      <c r="E541" s="26"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -12578,12 +12634,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="50" t="s">
+      <c r="B544" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="51"/>
-      <c r="D544" s="51"/>
-      <c r="E544" s="52"/>
+      <c r="C544" s="28"/>
+      <c r="D544" s="28"/>
+      <c r="E544" s="29"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -12591,12 +12647,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="53" t="s">
+      <c r="B545" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="54"/>
-      <c r="D545" s="54"/>
-      <c r="E545" s="55"/>
+      <c r="C545" s="31"/>
+      <c r="D545" s="31"/>
+      <c r="E545" s="32"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -12604,25 +12660,25 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="56" t="s">
+      <c r="B546" s="33" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="57"/>
-      <c r="D546" s="57"/>
-      <c r="E546" s="58"/>
+      <c r="C546" s="34"/>
+      <c r="D546" s="34"/>
+      <c r="E546" s="35"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="59" t="s">
+      <c r="A547" s="36" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="60"/>
-      <c r="C547" s="60"/>
-      <c r="D547" s="60"/>
-      <c r="E547" s="60"/>
-      <c r="F547" s="60"/>
-      <c r="G547" s="61"/>
+      <c r="B547" s="37"/>
+      <c r="C547" s="37"/>
+      <c r="D547" s="37"/>
+      <c r="E547" s="37"/>
+      <c r="F547" s="37"/>
+      <c r="G547" s="38"/>
     </row>
     <row r="548" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4"/>
@@ -21275,11 +21331,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -21292,6 +21343,11 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$16:$G$538</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="991">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3568,21 +3571,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3606,6 +3594,21 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3889,116 +3892,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="55.7109375" style="3" customWidth="1"/>
     <col min="4" max="16384" width="30.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4010,15 +4013,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4595,7 +4598,9 @@
       <c r="E43" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4648,7 +4653,9 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
+      <c r="A47" s="4">
+        <v>13</v>
+      </c>
       <c r="B47" s="4" t="s">
         <v>73</v>
       </c>
@@ -4665,7 +4672,9 @@
       <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
+      <c r="A48" s="4">
+        <v>14</v>
+      </c>
       <c r="B48" s="4" t="s">
         <v>75</v>
       </c>
@@ -4682,7 +4691,9 @@
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
+      <c r="A49" s="4">
+        <v>15</v>
+      </c>
       <c r="B49" s="4" t="s">
         <v>77</v>
       </c>
@@ -4699,7 +4710,9 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
+      <c r="A50" s="4">
+        <v>16</v>
+      </c>
       <c r="B50" s="4" t="s">
         <v>79</v>
       </c>
@@ -4713,10 +4726,15 @@
         <v>22</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4">
+        <f>13*35</f>
+        <v>455</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
+      <c r="A51" s="4">
+        <v>17</v>
+      </c>
       <c r="B51" s="4" t="s">
         <v>81</v>
       </c>
@@ -4733,7 +4751,9 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
+      <c r="A52" s="4">
+        <v>18</v>
+      </c>
       <c r="B52" s="4" t="s">
         <v>83</v>
       </c>
@@ -4750,7 +4770,9 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
+      <c r="A53" s="4">
+        <v>19</v>
+      </c>
       <c r="B53" s="4" t="s">
         <v>85</v>
       </c>
@@ -4767,7 +4789,9 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
+      <c r="A54" s="4">
+        <v>20</v>
+      </c>
       <c r="B54" s="4" t="s">
         <v>87</v>
       </c>
@@ -4784,7 +4808,9 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
+      <c r="A55" s="4">
+        <v>21</v>
+      </c>
       <c r="B55" s="4" t="s">
         <v>89</v>
       </c>
@@ -4801,7 +4827,9 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
+      <c r="A56" s="4">
+        <v>22</v>
+      </c>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -4818,7 +4846,9 @@
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
+      <c r="A57" s="4">
+        <v>23</v>
+      </c>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -4846,7 +4876,9 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
+      <c r="A59" s="4">
+        <v>24</v>
+      </c>
       <c r="B59" s="4" t="s">
         <v>96</v>
       </c>
@@ -4863,7 +4895,9 @@
       <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
+      <c r="A60" s="4">
+        <v>25</v>
+      </c>
       <c r="B60" s="4" t="s">
         <v>98</v>
       </c>
@@ -4880,7 +4914,9 @@
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
+      <c r="A61" s="4">
+        <v>26</v>
+      </c>
       <c r="B61" s="4" t="s">
         <v>100</v>
       </c>
@@ -4897,7 +4933,9 @@
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
+      <c r="A62" s="4">
+        <v>27</v>
+      </c>
       <c r="B62" s="4" t="s">
         <v>102</v>
       </c>
@@ -4914,7 +4952,9 @@
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
+      <c r="A63" s="4">
+        <v>28</v>
+      </c>
       <c r="B63" s="4" t="s">
         <v>104</v>
       </c>
@@ -4931,7 +4971,9 @@
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
+      <c r="A64" s="4">
+        <v>29</v>
+      </c>
       <c r="B64" s="4" t="s">
         <v>106</v>
       </c>
@@ -4948,7 +4990,9 @@
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
+      <c r="A65" s="4">
+        <v>30</v>
+      </c>
       <c r="B65" s="17" t="s">
         <v>108</v>
       </c>
@@ -4968,12 +5012,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -5002,7 +5046,9 @@
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
+      <c r="A69" s="3">
+        <v>31</v>
+      </c>
       <c r="B69" s="4" t="s">
         <v>115</v>
       </c>
@@ -5017,7 +5063,9 @@
       <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
+      <c r="A70" s="4">
+        <v>32</v>
+      </c>
       <c r="B70" s="4" t="s">
         <v>116</v>
       </c>
@@ -5034,7 +5082,9 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
+      <c r="A71" s="3">
+        <v>33</v>
+      </c>
       <c r="B71" s="4" t="s">
         <v>118</v>
       </c>
@@ -5051,7 +5101,9 @@
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
+      <c r="A72" s="4">
+        <v>34</v>
+      </c>
       <c r="B72" s="4" t="s">
         <v>120</v>
       </c>
@@ -5068,7 +5120,9 @@
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
+      <c r="A73" s="3">
+        <v>35</v>
+      </c>
       <c r="B73" s="4" t="s">
         <v>122</v>
       </c>
@@ -5085,7 +5139,9 @@
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
+      <c r="A74" s="3">
+        <v>36</v>
+      </c>
       <c r="B74" s="4" t="s">
         <v>124</v>
       </c>
@@ -5102,7 +5158,9 @@
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
+      <c r="A75" s="4">
+        <v>37</v>
+      </c>
       <c r="B75" s="4" t="s">
         <v>126</v>
       </c>
@@ -5149,7 +5207,9 @@
       <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
+      <c r="A78" s="4">
+        <v>38</v>
+      </c>
       <c r="B78" s="4" t="s">
         <v>131</v>
       </c>
@@ -5166,7 +5226,9 @@
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
+      <c r="A79" s="4">
+        <v>39</v>
+      </c>
       <c r="B79" s="4" t="s">
         <v>133</v>
       </c>
@@ -5183,7 +5245,9 @@
       <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
+      <c r="A80" s="4">
+        <v>40</v>
+      </c>
       <c r="B80" s="17" t="s">
         <v>135</v>
       </c>
@@ -5200,7 +5264,9 @@
       <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
+      <c r="A81" s="4">
+        <v>41</v>
+      </c>
       <c r="B81" s="4" t="s">
         <v>137</v>
       </c>
@@ -5217,7 +5283,9 @@
       <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
+      <c r="A82" s="4">
+        <v>42</v>
+      </c>
       <c r="B82" s="4" t="s">
         <v>139</v>
       </c>
@@ -5234,7 +5302,9 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
+      <c r="A83" s="4">
+        <v>43</v>
+      </c>
       <c r="B83" s="4" t="s">
         <v>142</v>
       </c>
@@ -5251,7 +5321,9 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
+      <c r="A84" s="4">
+        <v>44</v>
+      </c>
       <c r="B84" s="4" t="s">
         <v>144</v>
       </c>
@@ -5290,7 +5362,9 @@
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
+      <c r="A87" s="4">
+        <v>45</v>
+      </c>
       <c r="B87" s="4" t="s">
         <v>148</v>
       </c>
@@ -5307,7 +5381,9 @@
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
+      <c r="A88" s="4">
+        <v>46</v>
+      </c>
       <c r="B88" s="4" t="s">
         <v>150</v>
       </c>
@@ -5324,7 +5400,9 @@
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
+      <c r="A89" s="4">
+        <v>47</v>
+      </c>
       <c r="B89" s="4" t="s">
         <v>152</v>
       </c>
@@ -5341,7 +5419,9 @@
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
+      <c r="A90" s="4">
+        <v>48</v>
+      </c>
       <c r="B90" s="4" t="s">
         <v>154</v>
       </c>
@@ -5358,7 +5438,9 @@
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
+      <c r="A91" s="4">
+        <v>49</v>
+      </c>
       <c r="B91" s="4" t="s">
         <v>156</v>
       </c>
@@ -5375,7 +5457,9 @@
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
+      <c r="A92" s="4">
+        <v>50</v>
+      </c>
       <c r="B92" s="4" t="s">
         <v>158</v>
       </c>
@@ -5403,7 +5487,9 @@
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
+      <c r="A94" s="4">
+        <v>51</v>
+      </c>
       <c r="B94" s="4" t="s">
         <v>161</v>
       </c>
@@ -5420,7 +5506,9 @@
       <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
+      <c r="A95" s="4">
+        <v>52</v>
+      </c>
       <c r="B95" s="4" t="s">
         <v>164</v>
       </c>
@@ -5437,7 +5525,9 @@
       <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
+      <c r="A96" s="4">
+        <v>53</v>
+      </c>
       <c r="B96" s="4" t="s">
         <v>166</v>
       </c>
@@ -5454,7 +5544,9 @@
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
+      <c r="A97" s="4">
+        <v>54</v>
+      </c>
       <c r="B97" s="4" t="s">
         <v>168</v>
       </c>
@@ -5480,7 +5572,9 @@
       <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
+      <c r="A99" s="4">
+        <v>55</v>
+      </c>
       <c r="B99" s="4" t="s">
         <v>170</v>
       </c>
@@ -5497,7 +5591,9 @@
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
+      <c r="A100" s="4">
+        <v>56</v>
+      </c>
       <c r="B100" s="4" t="s">
         <v>172</v>
       </c>
@@ -5525,7 +5621,9 @@
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
+      <c r="A102" s="4">
+        <v>57</v>
+      </c>
       <c r="B102" s="4" t="s">
         <v>175</v>
       </c>
@@ -5542,7 +5640,9 @@
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
+      <c r="A103" s="4">
+        <v>58</v>
+      </c>
       <c r="B103" s="4" t="s">
         <v>177</v>
       </c>
@@ -5559,7 +5659,9 @@
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
+      <c r="A104" s="4">
+        <v>59</v>
+      </c>
       <c r="B104" s="4" t="s">
         <v>179</v>
       </c>
@@ -5576,7 +5678,9 @@
       <c r="G104" s="4"/>
     </row>
     <row r="105" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
+      <c r="A105" s="4">
+        <v>57</v>
+      </c>
       <c r="B105" s="4" t="s">
         <v>181</v>
       </c>
@@ -5606,7 +5710,9 @@
       <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
+      <c r="A107" s="4">
+        <v>58</v>
+      </c>
       <c r="B107" s="4" t="s">
         <v>184</v>
       </c>
@@ -5623,7 +5729,9 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
+      <c r="A108" s="4">
+        <v>59</v>
+      </c>
       <c r="B108" s="4" t="s">
         <v>186</v>
       </c>
@@ -5640,7 +5748,9 @@
       <c r="G108" s="4"/>
     </row>
     <row r="109" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
+      <c r="A109" s="4">
+        <v>60</v>
+      </c>
       <c r="B109" s="4" t="s">
         <v>188</v>
       </c>
@@ -5657,7 +5767,9 @@
       <c r="G109" s="4"/>
     </row>
     <row r="110" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
+      <c r="A110" s="4">
+        <v>61</v>
+      </c>
       <c r="B110" s="4" t="s">
         <v>190</v>
       </c>
@@ -5674,7 +5786,9 @@
       <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
+      <c r="A111" s="4">
+        <v>62</v>
+      </c>
       <c r="B111" s="4" t="s">
         <v>192</v>
       </c>
@@ -5691,7 +5805,9 @@
       <c r="G111" s="4"/>
     </row>
     <row r="112" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
+      <c r="A112" s="4">
+        <v>63</v>
+      </c>
       <c r="B112" s="4" t="s">
         <v>194</v>
       </c>
@@ -5708,7 +5824,9 @@
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
+      <c r="A113" s="4">
+        <v>64</v>
+      </c>
       <c r="B113" s="4" t="s">
         <v>196</v>
       </c>
@@ -5725,7 +5843,9 @@
       <c r="G113" s="4"/>
     </row>
     <row r="114" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
+      <c r="A114" s="4">
+        <v>65</v>
+      </c>
       <c r="B114" s="4" t="s">
         <v>198</v>
       </c>
@@ -5742,7 +5862,9 @@
       <c r="G114" s="4"/>
     </row>
     <row r="115" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
+      <c r="A115" s="4">
+        <v>66</v>
+      </c>
       <c r="B115" s="4" t="s">
         <v>200</v>
       </c>
@@ -5759,7 +5881,9 @@
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
+      <c r="A116" s="4">
+        <v>67</v>
+      </c>
       <c r="B116" s="4" t="s">
         <v>202</v>
       </c>
@@ -5776,7 +5900,9 @@
       <c r="G116" s="4"/>
     </row>
     <row r="117" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="17"/>
+      <c r="A117" s="4">
+        <v>68</v>
+      </c>
       <c r="B117" s="17" t="s">
         <v>204</v>
       </c>
@@ -5793,7 +5919,9 @@
       <c r="G117" s="17"/>
     </row>
     <row r="118" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="17"/>
+      <c r="A118" s="4">
+        <v>69</v>
+      </c>
       <c r="B118" s="17" t="s">
         <v>206</v>
       </c>
@@ -5842,7 +5970,9 @@
       <c r="G120" s="4"/>
     </row>
     <row r="121" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
+      <c r="A121" s="4">
+        <v>70</v>
+      </c>
       <c r="B121" s="4" t="s">
         <v>212</v>
       </c>
@@ -5859,7 +5989,9 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
+      <c r="A122" s="4">
+        <v>71</v>
+      </c>
       <c r="B122" s="4" t="s">
         <v>214</v>
       </c>
@@ -5876,7 +6008,9 @@
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
+      <c r="A123" s="4">
+        <v>72</v>
+      </c>
       <c r="B123" s="4" t="s">
         <v>216</v>
       </c>
@@ -5893,7 +6027,9 @@
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
+      <c r="A124" s="4">
+        <v>73</v>
+      </c>
       <c r="B124" s="4" t="s">
         <v>218</v>
       </c>
@@ -5938,7 +6074,9 @@
       <c r="G126" s="17"/>
     </row>
     <row r="127" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
+      <c r="A127" s="4">
+        <v>74</v>
+      </c>
       <c r="B127" s="4" t="s">
         <v>223</v>
       </c>
@@ -5953,7 +6091,9 @@
       <c r="G127" s="17"/>
     </row>
     <row r="128" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
+      <c r="A128" s="4">
+        <v>75</v>
+      </c>
       <c r="B128" s="4" t="s">
         <v>224</v>
       </c>
@@ -5970,7 +6110,9 @@
       <c r="G128" s="17"/>
     </row>
     <row r="129" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4"/>
+      <c r="A129" s="4">
+        <v>76</v>
+      </c>
       <c r="B129" s="4" t="s">
         <v>226</v>
       </c>
@@ -5987,7 +6129,9 @@
       <c r="G129" s="4"/>
     </row>
     <row r="130" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
+      <c r="A130" s="4">
+        <v>77</v>
+      </c>
       <c r="B130" s="4" t="s">
         <v>229</v>
       </c>
@@ -6004,7 +6148,9 @@
       <c r="G130" s="4"/>
     </row>
     <row r="131" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="4"/>
+      <c r="A131" s="4">
+        <v>78</v>
+      </c>
       <c r="B131" s="4" t="s">
         <v>231</v>
       </c>
@@ -6021,7 +6167,9 @@
       <c r="G131" s="4"/>
     </row>
     <row r="132" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
+      <c r="A132" s="4">
+        <v>79</v>
+      </c>
       <c r="B132" s="4" t="s">
         <v>233</v>
       </c>
@@ -6038,7 +6186,9 @@
       <c r="G132" s="4"/>
     </row>
     <row r="133" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
+      <c r="A133" s="4">
+        <v>80</v>
+      </c>
       <c r="B133" s="4" t="s">
         <v>235</v>
       </c>
@@ -6055,7 +6205,9 @@
       <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
+      <c r="A134" s="4">
+        <v>81</v>
+      </c>
       <c r="B134" s="4" t="s">
         <v>237</v>
       </c>
@@ -6072,7 +6224,9 @@
       <c r="G134" s="4"/>
     </row>
     <row r="135" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
+      <c r="A135" s="4">
+        <v>82</v>
+      </c>
       <c r="B135" s="4" t="s">
         <v>239</v>
       </c>
@@ -6089,7 +6243,9 @@
       <c r="G135" s="4"/>
     </row>
     <row r="136" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4"/>
+      <c r="A136" s="4">
+        <v>83</v>
+      </c>
       <c r="B136" s="4" t="s">
         <v>241</v>
       </c>
@@ -6117,7 +6273,9 @@
       <c r="G137" s="4"/>
     </row>
     <row r="138" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4"/>
+      <c r="A138" s="4">
+        <v>84</v>
+      </c>
       <c r="B138" s="4" t="s">
         <v>244</v>
       </c>
@@ -6134,7 +6292,9 @@
       <c r="G138" s="4"/>
     </row>
     <row r="139" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4"/>
+      <c r="A139" s="4">
+        <v>85</v>
+      </c>
       <c r="B139" s="4" t="s">
         <v>246</v>
       </c>
@@ -6151,7 +6311,9 @@
       <c r="G139" s="4"/>
     </row>
     <row r="140" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="4"/>
+      <c r="A140" s="4">
+        <v>86</v>
+      </c>
       <c r="B140" s="4" t="s">
         <v>248</v>
       </c>
@@ -6168,7 +6330,9 @@
       <c r="G140" s="4"/>
     </row>
     <row r="141" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4"/>
+      <c r="A141" s="4">
+        <v>87</v>
+      </c>
       <c r="B141" s="4" t="s">
         <v>250</v>
       </c>
@@ -6196,7 +6360,9 @@
       <c r="G142" s="4"/>
     </row>
     <row r="143" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
+      <c r="A143" s="4">
+        <v>88</v>
+      </c>
       <c r="B143" s="4" t="s">
         <v>253</v>
       </c>
@@ -6213,7 +6379,9 @@
       <c r="G143" s="4"/>
     </row>
     <row r="144" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="4"/>
+      <c r="A144" s="4">
+        <v>89</v>
+      </c>
       <c r="B144" s="4" t="s">
         <v>255</v>
       </c>
@@ -6230,7 +6398,9 @@
       <c r="G144" s="4"/>
     </row>
     <row r="145" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="4"/>
+      <c r="A145" s="4">
+        <v>90</v>
+      </c>
       <c r="B145" s="4" t="s">
         <v>257</v>
       </c>
@@ -6247,7 +6417,9 @@
       <c r="G145" s="4"/>
     </row>
     <row r="146" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="4"/>
+      <c r="A146" s="4">
+        <v>91</v>
+      </c>
       <c r="B146" s="4" t="s">
         <v>259</v>
       </c>
@@ -6264,7 +6436,9 @@
       <c r="G146" s="4"/>
     </row>
     <row r="147" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="4"/>
+      <c r="A147" s="4">
+        <v>92</v>
+      </c>
       <c r="B147" s="4" t="s">
         <v>261</v>
       </c>
@@ -6281,7 +6455,9 @@
       <c r="G147" s="4"/>
     </row>
     <row r="148" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="4"/>
+      <c r="A148" s="4">
+        <v>93</v>
+      </c>
       <c r="B148" s="4" t="s">
         <v>263</v>
       </c>
@@ -6298,7 +6474,9 @@
       <c r="G148" s="4"/>
     </row>
     <row r="149" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="4"/>
+      <c r="A149" s="4">
+        <v>94</v>
+      </c>
       <c r="B149" s="4" t="s">
         <v>264</v>
       </c>
@@ -6326,7 +6504,9 @@
       <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="4"/>
+      <c r="A151" s="4">
+        <v>95</v>
+      </c>
       <c r="B151" s="4" t="s">
         <v>267</v>
       </c>
@@ -6343,7 +6523,9 @@
       <c r="G151" s="4"/>
     </row>
     <row r="152" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="4"/>
+      <c r="A152" s="4">
+        <v>96</v>
+      </c>
       <c r="B152" s="4" t="s">
         <v>269</v>
       </c>
@@ -6360,7 +6542,9 @@
       <c r="G152" s="4"/>
     </row>
     <row r="153" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="4"/>
+      <c r="A153" s="4">
+        <v>97</v>
+      </c>
       <c r="B153" s="4" t="s">
         <v>271</v>
       </c>
@@ -6388,7 +6572,10 @@
       <c r="G154" s="4"/>
     </row>
     <row r="155" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="4"/>
+      <c r="A155" s="4">
+        <f>COUNTA($B$155:B155)+97</f>
+        <v>98</v>
+      </c>
       <c r="B155" s="4" t="s">
         <v>274</v>
       </c>
@@ -6401,11 +6588,17 @@
       <c r="E155" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F155" s="4"/>
+      <c r="F155" s="4">
+        <f>IF(A155&lt;&gt;"", ROW(A155)-ROW(A155)+1,"")</f>
+        <v>1</v>
+      </c>
       <c r="G155" s="4"/>
     </row>
     <row r="156" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="4"/>
+      <c r="A156" s="4">
+        <f>COUNTA($B$155:B156)+97</f>
+        <v>99</v>
+      </c>
       <c r="B156" s="4" t="s">
         <v>276</v>
       </c>
@@ -6422,7 +6615,10 @@
       <c r="G156" s="4"/>
     </row>
     <row r="157" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="4"/>
+      <c r="A157" s="4">
+        <f>COUNTA($B$155:B157)+97</f>
+        <v>100</v>
+      </c>
       <c r="B157" s="4" t="s">
         <v>278</v>
       </c>
@@ -6439,7 +6635,10 @@
       <c r="G157" s="4"/>
     </row>
     <row r="158" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="4"/>
+      <c r="A158" s="4">
+        <f>COUNTA($B$155:B158)+97</f>
+        <v>101</v>
+      </c>
       <c r="B158" s="4" t="s">
         <v>280</v>
       </c>
@@ -6456,7 +6655,10 @@
       <c r="G158" s="4"/>
     </row>
     <row r="159" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="4"/>
+      <c r="A159" s="4">
+        <f>COUNTA($B$155:B159)+97</f>
+        <v>102</v>
+      </c>
       <c r="B159" s="4" t="s">
         <v>282</v>
       </c>
@@ -6469,7 +6671,10 @@
       <c r="G159" s="4"/>
     </row>
     <row r="160" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="4"/>
+      <c r="A160" s="4">
+        <f>COUNTA($B$155:B160)+97</f>
+        <v>103</v>
+      </c>
       <c r="B160" s="4" t="s">
         <v>283</v>
       </c>
@@ -6486,7 +6691,10 @@
       <c r="G160" s="4"/>
     </row>
     <row r="161" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="4"/>
+      <c r="A161" s="4">
+        <f>COUNTA($B$155:B161)+97</f>
+        <v>104</v>
+      </c>
       <c r="B161" s="4" t="s">
         <v>285</v>
       </c>
@@ -6503,7 +6711,10 @@
       <c r="G161" s="4"/>
     </row>
     <row r="162" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="4"/>
+      <c r="A162" s="4">
+        <f>COUNTA($B$155:B162)+97</f>
+        <v>105</v>
+      </c>
       <c r="B162" s="4" t="s">
         <v>287</v>
       </c>
@@ -6529,7 +6740,10 @@
       <c r="G163" s="4"/>
     </row>
     <row r="164" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="4"/>
+      <c r="A164" s="4">
+        <f>COUNTA($B$155:B164)+97</f>
+        <v>106</v>
+      </c>
       <c r="B164" s="4" t="s">
         <v>289</v>
       </c>
@@ -6544,7 +6758,10 @@
       <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="4"/>
+      <c r="A165" s="4">
+        <f>COUNTA($B$155:B165)+97</f>
+        <v>107</v>
+      </c>
       <c r="B165" s="4" t="s">
         <v>290</v>
       </c>
@@ -6561,7 +6778,10 @@
       <c r="G165" s="4"/>
     </row>
     <row r="166" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="4"/>
+      <c r="A166" s="4">
+        <f>COUNTA($B$155:B166)+97</f>
+        <v>108</v>
+      </c>
       <c r="B166" s="4" t="s">
         <v>292</v>
       </c>
@@ -6600,7 +6820,10 @@
       <c r="G168" s="4"/>
     </row>
     <row r="169" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="4"/>
+      <c r="A169" s="4">
+        <f>COUNTA($B$155:B169)+97</f>
+        <v>109</v>
+      </c>
       <c r="B169" s="4" t="s">
         <v>296</v>
       </c>
@@ -6617,7 +6840,10 @@
       <c r="G169" s="4"/>
     </row>
     <row r="170" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="4"/>
+      <c r="A170" s="4">
+        <f>COUNTA($B$155:B170)+97</f>
+        <v>110</v>
+      </c>
       <c r="B170" s="4" t="s">
         <v>298</v>
       </c>
@@ -6634,7 +6860,10 @@
       <c r="G170" s="4"/>
     </row>
     <row r="171" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="4"/>
+      <c r="A171" s="4">
+        <f>COUNTA($B$155:B171)+97</f>
+        <v>111</v>
+      </c>
       <c r="B171" s="4" t="s">
         <v>300</v>
       </c>
@@ -6651,7 +6880,10 @@
       <c r="G171" s="4"/>
     </row>
     <row r="172" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="4"/>
+      <c r="A172" s="4">
+        <f>COUNTA($B$155:B172)+97</f>
+        <v>112</v>
+      </c>
       <c r="B172" s="4" t="s">
         <v>302</v>
       </c>
@@ -6679,7 +6911,10 @@
       <c r="G173" s="4"/>
     </row>
     <row r="174" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="4"/>
+      <c r="A174" s="4">
+        <f>COUNTA($B$155:B174)+97</f>
+        <v>113</v>
+      </c>
       <c r="B174" s="4" t="s">
         <v>304</v>
       </c>
@@ -6696,7 +6931,10 @@
       <c r="G174" s="4"/>
     </row>
     <row r="175" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="4"/>
+      <c r="A175" s="4">
+        <f>COUNTA($B$155:B175)+97</f>
+        <v>114</v>
+      </c>
       <c r="B175" s="4" t="s">
         <v>306</v>
       </c>
@@ -6724,7 +6962,10 @@
       <c r="G176" s="4"/>
     </row>
     <row r="177" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="4"/>
+      <c r="A177" s="4">
+        <f>COUNTA($B$155:B177)+97</f>
+        <v>115</v>
+      </c>
       <c r="B177" s="4" t="s">
         <v>309</v>
       </c>
@@ -6741,7 +6982,10 @@
       <c r="G177" s="17"/>
     </row>
     <row r="178" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="4"/>
+      <c r="A178" s="4">
+        <f>COUNTA($B$155:B178)+97</f>
+        <v>116</v>
+      </c>
       <c r="B178" s="4" t="s">
         <v>311</v>
       </c>
@@ -6758,7 +7002,10 @@
       <c r="G178" s="4"/>
     </row>
     <row r="179" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="4"/>
+      <c r="A179" s="4">
+        <f>COUNTA($B$155:B179)+97</f>
+        <v>117</v>
+      </c>
       <c r="B179" s="17" t="s">
         <v>313</v>
       </c>
@@ -6775,7 +7022,10 @@
       <c r="G179" s="4"/>
     </row>
     <row r="180" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="4"/>
+      <c r="A180" s="4">
+        <f>COUNTA($B$155:B180)+97</f>
+        <v>118</v>
+      </c>
       <c r="B180" s="4" t="s">
         <v>315</v>
       </c>
@@ -6792,7 +7042,10 @@
       <c r="G180" s="4"/>
     </row>
     <row r="181" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="4"/>
+      <c r="A181" s="4">
+        <f>COUNTA($B$155:B181)+97</f>
+        <v>119</v>
+      </c>
       <c r="B181" s="4" t="s">
         <v>316</v>
       </c>
@@ -6809,7 +7062,10 @@
       <c r="G181" s="4"/>
     </row>
     <row r="182" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="4"/>
+      <c r="A182" s="4">
+        <f>COUNTA($B$155:B182)+97</f>
+        <v>120</v>
+      </c>
       <c r="B182" s="4" t="s">
         <v>318</v>
       </c>
@@ -6837,7 +7093,10 @@
       <c r="G183" s="4"/>
     </row>
     <row r="184" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="4"/>
+      <c r="A184" s="4">
+        <f>COUNTA($B$155:B184)+97</f>
+        <v>121</v>
+      </c>
       <c r="B184" s="4" t="s">
         <v>321</v>
       </c>
@@ -6854,7 +7113,10 @@
       <c r="G184" s="4"/>
     </row>
     <row r="185" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="4"/>
+      <c r="A185" s="4">
+        <f>COUNTA($B$155:B185)+97</f>
+        <v>122</v>
+      </c>
       <c r="B185" s="4" t="s">
         <v>323</v>
       </c>
@@ -6871,7 +7133,10 @@
       <c r="G185" s="4"/>
     </row>
     <row r="186" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="4"/>
+      <c r="A186" s="4">
+        <f>COUNTA($B$155:B186)+97</f>
+        <v>123</v>
+      </c>
       <c r="B186" s="4" t="s">
         <v>325</v>
       </c>
@@ -6888,7 +7153,10 @@
       <c r="G186" s="4"/>
     </row>
     <row r="187" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="4"/>
+      <c r="A187" s="4">
+        <f>COUNTA($B$155:B187)+97</f>
+        <v>124</v>
+      </c>
       <c r="B187" s="4" t="s">
         <v>327</v>
       </c>
@@ -6916,7 +7184,10 @@
       <c r="G188" s="4"/>
     </row>
     <row r="189" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="4"/>
+      <c r="A189" s="4">
+        <f>COUNTA($B$155:B189)+97</f>
+        <v>125</v>
+      </c>
       <c r="B189" s="4" t="s">
         <v>330</v>
       </c>
@@ -6933,7 +7204,10 @@
       <c r="G189" s="4"/>
     </row>
     <row r="190" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="4"/>
+      <c r="A190" s="4">
+        <f>COUNTA($B$155:B190)+97</f>
+        <v>126</v>
+      </c>
       <c r="B190" s="4" t="s">
         <v>332</v>
       </c>
@@ -6950,7 +7224,10 @@
       <c r="G190" s="4"/>
     </row>
     <row r="191" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="4"/>
+      <c r="A191" s="4">
+        <f>COUNTA($B$155:B191)+97</f>
+        <v>127</v>
+      </c>
       <c r="B191" s="4" t="s">
         <v>334</v>
       </c>
@@ -6978,7 +7255,10 @@
       <c r="G192" s="4"/>
     </row>
     <row r="193" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="4"/>
+      <c r="A193" s="4">
+        <f>COUNTA($B$155:B193)+97</f>
+        <v>128</v>
+      </c>
       <c r="B193" s="4" t="s">
         <v>337</v>
       </c>
@@ -6995,7 +7275,10 @@
       <c r="G193" s="4"/>
     </row>
     <row r="194" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="4"/>
+      <c r="A194" s="4">
+        <f>COUNTA($B$155:B194)+97</f>
+        <v>129</v>
+      </c>
       <c r="B194" s="4" t="s">
         <v>339</v>
       </c>
@@ -7012,7 +7295,10 @@
       <c r="G194" s="4"/>
     </row>
     <row r="195" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="17"/>
+      <c r="A195" s="17">
+        <f>COUNTA($B$155:B195)+97</f>
+        <v>130</v>
+      </c>
       <c r="B195" s="17" t="s">
         <v>341</v>
       </c>
@@ -7051,7 +7337,10 @@
       <c r="G197" s="4"/>
     </row>
     <row r="198" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="4"/>
+      <c r="A198" s="4">
+        <f>COUNTA($B$155:B198)+97</f>
+        <v>131</v>
+      </c>
       <c r="B198" s="4" t="s">
         <v>344</v>
       </c>
@@ -7068,7 +7357,10 @@
       <c r="G198" s="4"/>
     </row>
     <row r="199" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="4"/>
+      <c r="A199" s="4">
+        <f>COUNTA($B$155:B199)+97</f>
+        <v>132</v>
+      </c>
       <c r="B199" s="4" t="s">
         <v>346</v>
       </c>
@@ -7085,7 +7377,10 @@
       <c r="G199" s="4"/>
     </row>
     <row r="200" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="4"/>
+      <c r="A200" s="4">
+        <f>COUNTA($B$155:B200)+97</f>
+        <v>133</v>
+      </c>
       <c r="B200" s="4" t="s">
         <v>348</v>
       </c>
@@ -7102,7 +7397,10 @@
       <c r="G200" s="4"/>
     </row>
     <row r="201" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="4"/>
+      <c r="A201" s="4">
+        <f>COUNTA($B$155:B201)+97</f>
+        <v>134</v>
+      </c>
       <c r="B201" s="4" t="s">
         <v>350</v>
       </c>
@@ -7119,7 +7417,10 @@
       <c r="G201" s="4"/>
     </row>
     <row r="202" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="4"/>
+      <c r="A202" s="4">
+        <f>COUNTA($B$155:B202)+97</f>
+        <v>135</v>
+      </c>
       <c r="B202" s="4" t="s">
         <v>352</v>
       </c>
@@ -7147,7 +7448,10 @@
       <c r="G203" s="17"/>
     </row>
     <row r="204" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="4"/>
+      <c r="A204" s="4">
+        <f>COUNTA($B$155:B204)+97</f>
+        <v>136</v>
+      </c>
       <c r="B204" s="4" t="s">
         <v>354</v>
       </c>
@@ -7164,7 +7468,10 @@
       <c r="G204" s="4"/>
     </row>
     <row r="205" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="4"/>
+      <c r="A205" s="4">
+        <f>COUNTA($B$155:B205)+97</f>
+        <v>137</v>
+      </c>
       <c r="B205" s="4" t="s">
         <v>356</v>
       </c>
@@ -7181,7 +7488,10 @@
       <c r="G205" s="4"/>
     </row>
     <row r="206" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="4"/>
+      <c r="A206" s="4">
+        <f>COUNTA($B$155:B206)+97</f>
+        <v>138</v>
+      </c>
       <c r="B206" s="4" t="s">
         <v>358</v>
       </c>
@@ -7198,7 +7508,10 @@
       <c r="G206" s="4"/>
     </row>
     <row r="207" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="4"/>
+      <c r="A207" s="4">
+        <f>COUNTA($B$155:B207)+97</f>
+        <v>139</v>
+      </c>
       <c r="B207" s="4" t="s">
         <v>360</v>
       </c>
@@ -7215,7 +7528,10 @@
       <c r="G207" s="4"/>
     </row>
     <row r="208" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="4"/>
+      <c r="A208" s="4">
+        <f>COUNTA($B$155:B208)+97</f>
+        <v>140</v>
+      </c>
       <c r="B208" s="4" t="s">
         <v>362</v>
       </c>
@@ -7232,7 +7548,10 @@
       <c r="G208" s="4"/>
     </row>
     <row r="209" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="17"/>
+      <c r="A209" s="17">
+        <f>COUNTA($B$155:B209)+97</f>
+        <v>141</v>
+      </c>
       <c r="B209" s="17" t="s">
         <v>364</v>
       </c>
@@ -7273,7 +7592,10 @@
       <c r="G211" s="4"/>
     </row>
     <row r="212" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="4"/>
+      <c r="A212" s="4">
+        <f>COUNTA($B$155:B212)+97</f>
+        <v>143</v>
+      </c>
       <c r="B212" s="4" t="s">
         <v>368</v>
       </c>
@@ -7290,7 +7612,10 @@
       <c r="G212" s="4"/>
     </row>
     <row r="213" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="4"/>
+      <c r="A213" s="4">
+        <f>COUNTA($B$155:B213)+97</f>
+        <v>144</v>
+      </c>
       <c r="B213" s="4" t="s">
         <v>370</v>
       </c>
@@ -7307,7 +7632,10 @@
       <c r="G213" s="4"/>
     </row>
     <row r="214" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="4"/>
+      <c r="A214" s="4">
+        <f>COUNTA($B$155:B214)+97</f>
+        <v>145</v>
+      </c>
       <c r="B214" s="4" t="s">
         <v>372</v>
       </c>
@@ -7324,7 +7652,10 @@
       <c r="G214" s="4"/>
     </row>
     <row r="215" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="4"/>
+      <c r="A215" s="4">
+        <f>COUNTA($B$155:B215)+97</f>
+        <v>146</v>
+      </c>
       <c r="B215" s="4" t="s">
         <v>374</v>
       </c>
@@ -7341,7 +7672,10 @@
       <c r="G215" s="4"/>
     </row>
     <row r="216" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="4"/>
+      <c r="A216" s="4">
+        <f>COUNTA($B$155:B216)+97</f>
+        <v>147</v>
+      </c>
       <c r="B216" s="4" t="s">
         <v>376</v>
       </c>
@@ -7358,7 +7692,10 @@
       <c r="G216" s="4"/>
     </row>
     <row r="217" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="4"/>
+      <c r="A217" s="4">
+        <f>COUNTA($B$155:B217)+97</f>
+        <v>148</v>
+      </c>
       <c r="B217" s="4" t="s">
         <v>378</v>
       </c>
@@ -7386,7 +7723,10 @@
       <c r="G218" s="4"/>
     </row>
     <row r="219" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="4"/>
+      <c r="A219" s="4">
+        <f>COUNTA($B$155:B219)+97</f>
+        <v>149</v>
+      </c>
       <c r="B219" s="4" t="s">
         <v>380</v>
       </c>
@@ -7403,7 +7743,10 @@
       <c r="G219" s="4"/>
     </row>
     <row r="220" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="4"/>
+      <c r="A220" s="4">
+        <f>COUNTA($B$155:B220)+97</f>
+        <v>150</v>
+      </c>
       <c r="B220" s="4" t="s">
         <v>382</v>
       </c>
@@ -7420,7 +7763,10 @@
       <c r="G220" s="4"/>
     </row>
     <row r="221" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="4"/>
+      <c r="A221" s="4">
+        <f>COUNTA($B$155:B221)+97</f>
+        <v>151</v>
+      </c>
       <c r="B221" s="4" t="s">
         <v>384</v>
       </c>
@@ -7437,7 +7783,10 @@
       <c r="G221" s="4"/>
     </row>
     <row r="222" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="4"/>
+      <c r="A222" s="4">
+        <f>COUNTA($B$155:B222)+97</f>
+        <v>152</v>
+      </c>
       <c r="B222" s="4" t="s">
         <v>386</v>
       </c>
@@ -7454,7 +7803,10 @@
       <c r="G222" s="4"/>
     </row>
     <row r="223" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="4"/>
+      <c r="A223" s="4">
+        <f>COUNTA($B$155:B223)+97</f>
+        <v>153</v>
+      </c>
       <c r="B223" s="4" t="s">
         <v>388</v>
       </c>
@@ -7471,7 +7823,10 @@
       <c r="G223" s="4"/>
     </row>
     <row r="224" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="4"/>
+      <c r="A224" s="4">
+        <f>COUNTA($B$155:B224)+97</f>
+        <v>154</v>
+      </c>
       <c r="B224" s="4" t="s">
         <v>390</v>
       </c>
@@ -7488,7 +7843,10 @@
       <c r="G224" s="17"/>
     </row>
     <row r="225" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="4"/>
+      <c r="A225" s="4">
+        <f>COUNTA($B$155:B225)+97</f>
+        <v>155</v>
+      </c>
       <c r="B225" s="4" t="s">
         <v>392</v>
       </c>
@@ -7505,7 +7863,10 @@
       <c r="G225" s="4"/>
     </row>
     <row r="226" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="4"/>
+      <c r="A226" s="4">
+        <f>COUNTA($B$155:B226)+97</f>
+        <v>156</v>
+      </c>
       <c r="B226" s="4" t="s">
         <v>394</v>
       </c>
@@ -7522,7 +7883,10 @@
       <c r="G226" s="4"/>
     </row>
     <row r="227" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="4"/>
+      <c r="A227" s="4">
+        <f>COUNTA($B$155:B227)+97</f>
+        <v>157</v>
+      </c>
       <c r="B227" s="4" t="s">
         <v>396</v>
       </c>
@@ -7539,7 +7903,10 @@
       <c r="G227" s="4"/>
     </row>
     <row r="228" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="4"/>
+      <c r="A228" s="4">
+        <f>COUNTA($B$155:B228)+97</f>
+        <v>158</v>
+      </c>
       <c r="B228" s="4" t="s">
         <v>398</v>
       </c>
@@ -7556,7 +7923,10 @@
       <c r="G228" s="4"/>
     </row>
     <row r="229" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="4"/>
+      <c r="A229" s="4">
+        <f>COUNTA($B$155:B229)+97</f>
+        <v>159</v>
+      </c>
       <c r="B229" s="4" t="s">
         <v>400</v>
       </c>
@@ -7573,7 +7943,10 @@
       <c r="G229" s="4"/>
     </row>
     <row r="230" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="4"/>
+      <c r="A230" s="4">
+        <f>COUNTA($B$155:B230)+97</f>
+        <v>160</v>
+      </c>
       <c r="B230" s="4" t="s">
         <v>402</v>
       </c>
@@ -7590,7 +7963,10 @@
       <c r="G230" s="4"/>
     </row>
     <row r="231" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="4"/>
+      <c r="A231" s="4">
+        <f>COUNTA($B$155:B231)+97</f>
+        <v>161</v>
+      </c>
       <c r="B231" s="4" t="s">
         <v>404</v>
       </c>
@@ -7605,7 +7981,10 @@
       <c r="G231" s="4"/>
     </row>
     <row r="232" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="4"/>
+      <c r="A232" s="4">
+        <f>COUNTA($B$155:B232)+97</f>
+        <v>162</v>
+      </c>
       <c r="B232" s="4" t="s">
         <v>406</v>
       </c>
@@ -7622,7 +8001,10 @@
       <c r="G232" s="4"/>
     </row>
     <row r="233" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="4"/>
+      <c r="A233" s="4">
+        <f>COUNTA($B$155:B233)+97</f>
+        <v>163</v>
+      </c>
       <c r="B233" s="4" t="s">
         <v>408</v>
       </c>
@@ -7639,7 +8021,10 @@
       <c r="G233" s="4"/>
     </row>
     <row r="234" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="4"/>
+      <c r="A234" s="4">
+        <f>COUNTA($B$155:B234)+97</f>
+        <v>164</v>
+      </c>
       <c r="B234" s="4" t="s">
         <v>410</v>
       </c>
@@ -7682,7 +8067,10 @@
       <c r="G236" s="4"/>
     </row>
     <row r="237" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="4"/>
+      <c r="A237" s="4">
+        <f>COUNTA($B$155:B237)+97</f>
+        <v>166</v>
+      </c>
       <c r="B237" s="4" t="s">
         <v>415</v>
       </c>
@@ -7699,7 +8087,10 @@
       <c r="G237" s="4"/>
     </row>
     <row r="238" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="4"/>
+      <c r="A238" s="4">
+        <f>COUNTA($B$155:B238)+97</f>
+        <v>167</v>
+      </c>
       <c r="B238" s="4" t="s">
         <v>417</v>
       </c>
@@ -7716,7 +8107,10 @@
       <c r="G238" s="4"/>
     </row>
     <row r="239" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="4"/>
+      <c r="A239" s="4">
+        <f>COUNTA($B$155:B239)+97</f>
+        <v>168</v>
+      </c>
       <c r="B239" s="4" t="s">
         <v>419</v>
       </c>
@@ -7733,7 +8127,10 @@
       <c r="G239" s="4"/>
     </row>
     <row r="240" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="4"/>
+      <c r="A240" s="4">
+        <f>COUNTA($B$155:B240)+97</f>
+        <v>169</v>
+      </c>
       <c r="B240" s="4" t="s">
         <v>421</v>
       </c>
@@ -7750,7 +8147,10 @@
       <c r="G240" s="4"/>
     </row>
     <row r="241" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="4"/>
+      <c r="A241" s="4">
+        <f>COUNTA($B$155:B241)+97</f>
+        <v>170</v>
+      </c>
       <c r="B241" s="17" t="s">
         <v>423</v>
       </c>
@@ -7767,7 +8167,10 @@
       <c r="G241" s="4"/>
     </row>
     <row r="242" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="4"/>
+      <c r="A242" s="4">
+        <f>COUNTA($B$155:B242)+97</f>
+        <v>171</v>
+      </c>
       <c r="B242" s="17" t="s">
         <v>425</v>
       </c>
@@ -7784,7 +8187,10 @@
       <c r="G242" s="4"/>
     </row>
     <row r="243" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="4"/>
+      <c r="A243" s="4">
+        <f>COUNTA($B$155:B243)+97</f>
+        <v>172</v>
+      </c>
       <c r="B243" s="4" t="s">
         <v>427</v>
       </c>
@@ -7801,7 +8207,10 @@
       <c r="G243" s="4"/>
     </row>
     <row r="244" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="4"/>
+      <c r="A244" s="4">
+        <f>COUNTA($B$155:B244)+97</f>
+        <v>173</v>
+      </c>
       <c r="B244" s="4" t="s">
         <v>429</v>
       </c>
@@ -7818,7 +8227,10 @@
       <c r="G244" s="4"/>
     </row>
     <row r="245" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="4"/>
+      <c r="A245" s="4">
+        <f>COUNTA($B$155:B245)+97</f>
+        <v>174</v>
+      </c>
       <c r="B245" s="4" t="s">
         <v>431</v>
       </c>
@@ -7835,7 +8247,10 @@
       <c r="G245" s="17"/>
     </row>
     <row r="246" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="4"/>
+      <c r="A246" s="4">
+        <f>COUNTA($B$155:B246)+97</f>
+        <v>175</v>
+      </c>
       <c r="B246" s="4" t="s">
         <v>433</v>
       </c>
@@ -7852,7 +8267,10 @@
       <c r="G246" s="4"/>
     </row>
     <row r="247" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="4"/>
+      <c r="A247" s="4">
+        <f>COUNTA($B$155:B247)+97</f>
+        <v>176</v>
+      </c>
       <c r="B247" s="4" t="s">
         <v>435</v>
       </c>
@@ -7880,7 +8298,10 @@
       <c r="G248" s="17"/>
     </row>
     <row r="249" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="4"/>
+      <c r="A249" s="4">
+        <f>COUNTA($B$155:B249)+97</f>
+        <v>177</v>
+      </c>
       <c r="B249" s="4" t="s">
         <v>438</v>
       </c>
@@ -7895,7 +8316,10 @@
       <c r="G249" s="4"/>
     </row>
     <row r="250" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="4"/>
+      <c r="A250" s="4">
+        <f>COUNTA($B$155:B250)+97</f>
+        <v>178</v>
+      </c>
       <c r="B250" s="4" t="s">
         <v>439</v>
       </c>
@@ -7912,7 +8336,10 @@
       <c r="G250" s="4"/>
     </row>
     <row r="251" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="4"/>
+      <c r="A251" s="4">
+        <f>COUNTA($B$155:B251)+97</f>
+        <v>179</v>
+      </c>
       <c r="B251" s="4" t="s">
         <v>441</v>
       </c>
@@ -7929,7 +8356,10 @@
       <c r="G251" s="4"/>
     </row>
     <row r="252" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="4"/>
+      <c r="A252" s="4">
+        <f>COUNTA($B$155:B252)+97</f>
+        <v>180</v>
+      </c>
       <c r="B252" s="4" t="s">
         <v>443</v>
       </c>
@@ -7946,7 +8376,10 @@
       <c r="G252" s="4"/>
     </row>
     <row r="253" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="4"/>
+      <c r="A253" s="4">
+        <f>COUNTA($B$155:B253)+97</f>
+        <v>181</v>
+      </c>
       <c r="B253" s="4" t="s">
         <v>445</v>
       </c>
@@ -7963,7 +8396,10 @@
       <c r="G253" s="4"/>
     </row>
     <row r="254" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="4"/>
+      <c r="A254" s="4">
+        <f>COUNTA($B$155:B254)+97</f>
+        <v>182</v>
+      </c>
       <c r="B254" s="4" t="s">
         <v>447</v>
       </c>
@@ -7980,7 +8416,10 @@
       <c r="G254" s="4"/>
     </row>
     <row r="255" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="4"/>
+      <c r="A255" s="4">
+        <f>COUNTA($B$155:B255)+97</f>
+        <v>183</v>
+      </c>
       <c r="B255" s="4" t="s">
         <v>449</v>
       </c>
@@ -7997,7 +8436,10 @@
       <c r="G255" s="4"/>
     </row>
     <row r="256" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="4"/>
+      <c r="A256" s="4">
+        <f>COUNTA($B$155:B256)+97</f>
+        <v>184</v>
+      </c>
       <c r="B256" s="4" t="s">
         <v>451</v>
       </c>
@@ -8014,7 +8456,10 @@
       <c r="G256" s="4"/>
     </row>
     <row r="257" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="4"/>
+      <c r="A257" s="4">
+        <f>COUNTA($B$155:B257)+97</f>
+        <v>185</v>
+      </c>
       <c r="B257" s="4" t="s">
         <v>453</v>
       </c>
@@ -8031,7 +8476,10 @@
       <c r="G257" s="4"/>
     </row>
     <row r="258" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="4"/>
+      <c r="A258" s="4">
+        <f>COUNTA($B$155:B258)+97</f>
+        <v>186</v>
+      </c>
       <c r="B258" s="4" t="s">
         <v>455</v>
       </c>
@@ -8048,7 +8496,10 @@
       <c r="G258" s="4"/>
     </row>
     <row r="259" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="4"/>
+      <c r="A259" s="4">
+        <f>COUNTA($B$155:B259)+97</f>
+        <v>187</v>
+      </c>
       <c r="B259" s="4" t="s">
         <v>457</v>
       </c>
@@ -8076,7 +8527,10 @@
       <c r="G260" s="4"/>
     </row>
     <row r="261" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="4"/>
+      <c r="A261" s="4">
+        <f>COUNTA($B$155:B261)+97</f>
+        <v>188</v>
+      </c>
       <c r="B261" s="4" t="s">
         <v>460</v>
       </c>
@@ -8093,7 +8547,10 @@
       <c r="G261" s="4"/>
     </row>
     <row r="262" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="4"/>
+      <c r="A262" s="4">
+        <f>COUNTA($B$155:B262)+97</f>
+        <v>189</v>
+      </c>
       <c r="B262" s="4" t="s">
         <v>462</v>
       </c>
@@ -8110,7 +8567,10 @@
       <c r="G262" s="4"/>
     </row>
     <row r="263" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="4"/>
+      <c r="A263" s="4">
+        <f>COUNTA($B$155:B263)+97</f>
+        <v>190</v>
+      </c>
       <c r="B263" s="4" t="s">
         <v>463</v>
       </c>
@@ -8127,7 +8587,10 @@
       <c r="G263" s="4"/>
     </row>
     <row r="264" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="4"/>
+      <c r="A264" s="4">
+        <f>COUNTA($B$155:B264)+97</f>
+        <v>191</v>
+      </c>
       <c r="B264" s="4" t="s">
         <v>465</v>
       </c>
@@ -8144,7 +8607,10 @@
       <c r="G264" s="4"/>
     </row>
     <row r="265" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="4"/>
+      <c r="A265" s="4">
+        <f>COUNTA($B$155:B265)+97</f>
+        <v>192</v>
+      </c>
       <c r="B265" s="4" t="s">
         <v>467</v>
       </c>
@@ -8161,7 +8627,10 @@
       <c r="G265" s="4"/>
     </row>
     <row r="266" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="4"/>
+      <c r="A266" s="4">
+        <f>COUNTA($B$155:B266)+97</f>
+        <v>193</v>
+      </c>
       <c r="B266" s="4" t="s">
         <v>469</v>
       </c>
@@ -8176,7 +8645,10 @@
       <c r="G266" s="4"/>
     </row>
     <row r="267" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="4"/>
+      <c r="A267" s="4">
+        <f>COUNTA($B$155:B267)+97</f>
+        <v>194</v>
+      </c>
       <c r="B267" s="4" t="s">
         <v>470</v>
       </c>
@@ -8193,7 +8665,10 @@
       <c r="G267" s="4"/>
     </row>
     <row r="268" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="4"/>
+      <c r="A268" s="4">
+        <f>COUNTA($B$155:B268)+97</f>
+        <v>195</v>
+      </c>
       <c r="B268" s="4" t="s">
         <v>472</v>
       </c>
@@ -8210,7 +8685,10 @@
       <c r="G268" s="4"/>
     </row>
     <row r="269" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="4"/>
+      <c r="A269" s="4">
+        <f>COUNTA($B$155:B269)+97</f>
+        <v>196</v>
+      </c>
       <c r="B269" s="4" t="s">
         <v>474</v>
       </c>
@@ -8242,7 +8720,10 @@
       <c r="G270" s="4"/>
     </row>
     <row r="271" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="4"/>
+      <c r="A271" s="4">
+        <f>COUNTA($B$155:B271)+97</f>
+        <v>198</v>
+      </c>
       <c r="B271" s="4" t="s">
         <v>478</v>
       </c>
@@ -8259,7 +8740,10 @@
       <c r="G271" s="4"/>
     </row>
     <row r="272" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="4"/>
+      <c r="A272" s="4">
+        <f>COUNTA($B$155:B272)+97</f>
+        <v>199</v>
+      </c>
       <c r="B272" s="4" t="s">
         <v>480</v>
       </c>
@@ -8276,7 +8760,10 @@
       <c r="G272" s="4"/>
     </row>
     <row r="273" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="4"/>
+      <c r="A273" s="4">
+        <f>COUNTA($B$155:B273)+97</f>
+        <v>200</v>
+      </c>
       <c r="B273" s="4" t="s">
         <v>482</v>
       </c>
@@ -8293,7 +8780,10 @@
       <c r="G273" s="4"/>
     </row>
     <row r="274" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="4"/>
+      <c r="A274" s="4">
+        <f>COUNTA($B$155:B274)+97</f>
+        <v>201</v>
+      </c>
       <c r="B274" s="4" t="s">
         <v>484</v>
       </c>
@@ -8310,7 +8800,10 @@
       <c r="G274" s="4"/>
     </row>
     <row r="275" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="4"/>
+      <c r="A275" s="4">
+        <f>COUNTA($B$155:B275)+97</f>
+        <v>202</v>
+      </c>
       <c r="B275" s="4" t="s">
         <v>486</v>
       </c>
@@ -8327,7 +8820,10 @@
       <c r="G275" s="4"/>
     </row>
     <row r="276" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="4"/>
+      <c r="A276" s="4">
+        <f>COUNTA($B$155:B276)+97</f>
+        <v>203</v>
+      </c>
       <c r="B276" s="4" t="s">
         <v>488</v>
       </c>
@@ -8344,7 +8840,10 @@
       <c r="G276" s="4"/>
     </row>
     <row r="277" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="4"/>
+      <c r="A277" s="4">
+        <f>COUNTA($B$155:B277)+97</f>
+        <v>204</v>
+      </c>
       <c r="B277" s="4" t="s">
         <v>490</v>
       </c>
@@ -8361,7 +8860,10 @@
       <c r="G277" s="4"/>
     </row>
     <row r="278" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="4"/>
+      <c r="A278" s="4">
+        <f>COUNTA($B$155:B278)+97</f>
+        <v>205</v>
+      </c>
       <c r="B278" s="4" t="s">
         <v>492</v>
       </c>
@@ -8378,7 +8880,10 @@
       <c r="G278" s="4"/>
     </row>
     <row r="279" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="4"/>
+      <c r="A279" s="4">
+        <f>COUNTA($B$155:B279)+97</f>
+        <v>206</v>
+      </c>
       <c r="B279" s="4" t="s">
         <v>494</v>
       </c>
@@ -8395,7 +8900,10 @@
       <c r="G279" s="4"/>
     </row>
     <row r="280" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="4"/>
+      <c r="A280" s="4">
+        <f>COUNTA($B$155:B280)+97</f>
+        <v>207</v>
+      </c>
       <c r="B280" s="4" t="s">
         <v>496</v>
       </c>
@@ -8412,7 +8920,10 @@
       <c r="G280" s="4"/>
     </row>
     <row r="281" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="4"/>
+      <c r="A281" s="4">
+        <f>COUNTA($B$155:B281)+97</f>
+        <v>208</v>
+      </c>
       <c r="B281" s="4" t="s">
         <v>498</v>
       </c>
@@ -8429,7 +8940,10 @@
       <c r="G281" s="4"/>
     </row>
     <row r="282" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="4"/>
+      <c r="A282" s="4">
+        <f>COUNTA($B$155:B282)+97</f>
+        <v>209</v>
+      </c>
       <c r="B282" s="4" t="s">
         <v>500</v>
       </c>
@@ -8446,7 +8960,10 @@
       <c r="G282" s="4"/>
     </row>
     <row r="283" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="4"/>
+      <c r="A283" s="4">
+        <f>COUNTA($B$155:B283)+97</f>
+        <v>210</v>
+      </c>
       <c r="B283" s="4" t="s">
         <v>503</v>
       </c>
@@ -8463,7 +8980,10 @@
       <c r="G283" s="4"/>
     </row>
     <row r="284" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="4"/>
+      <c r="A284" s="4">
+        <f>COUNTA($B$155:B284)+97</f>
+        <v>211</v>
+      </c>
       <c r="B284" s="4" t="s">
         <v>505</v>
       </c>
@@ -8491,7 +9011,10 @@
       <c r="G285" s="4"/>
     </row>
     <row r="286" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="4"/>
+      <c r="A286" s="4">
+        <f>COUNTA($B$155:B286)+97</f>
+        <v>212</v>
+      </c>
       <c r="B286" s="4" t="s">
         <v>508</v>
       </c>
@@ -8508,7 +9031,10 @@
       <c r="G286" s="4"/>
     </row>
     <row r="287" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="4"/>
+      <c r="A287" s="4">
+        <f>COUNTA($B$155:B287)+97</f>
+        <v>213</v>
+      </c>
       <c r="B287" s="17" t="s">
         <v>510</v>
       </c>
@@ -8525,7 +9051,10 @@
       <c r="G287" s="4"/>
     </row>
     <row r="288" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="4"/>
+      <c r="A288" s="4">
+        <f>COUNTA($B$155:B288)+97</f>
+        <v>214</v>
+      </c>
       <c r="B288" s="4" t="s">
         <v>512</v>
       </c>
@@ -8542,7 +9071,10 @@
       <c r="G288" s="4"/>
     </row>
     <row r="289" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="4"/>
+      <c r="A289" s="4">
+        <f>COUNTA($B$155:B289)+97</f>
+        <v>215</v>
+      </c>
       <c r="B289" s="4" t="s">
         <v>514</v>
       </c>
@@ -8570,7 +9102,10 @@
       <c r="G290" s="4"/>
     </row>
     <row r="291" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="4"/>
+      <c r="A291" s="4">
+        <f>COUNTA($B$155:B291)+97</f>
+        <v>216</v>
+      </c>
       <c r="B291" s="4" t="s">
         <v>517</v>
       </c>
@@ -8587,7 +9122,10 @@
       <c r="G291" s="4"/>
     </row>
     <row r="292" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="4"/>
+      <c r="A292" s="4">
+        <f>COUNTA($B$155:B292)+97</f>
+        <v>217</v>
+      </c>
       <c r="B292" s="4" t="s">
         <v>519</v>
       </c>
@@ -8604,7 +9142,10 @@
       <c r="G292" s="4"/>
     </row>
     <row r="293" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="4"/>
+      <c r="A293" s="4">
+        <f>COUNTA($B$155:B293)+97</f>
+        <v>218</v>
+      </c>
       <c r="B293" s="4" t="s">
         <v>521</v>
       </c>
@@ -8621,7 +9162,10 @@
       <c r="G293" s="4"/>
     </row>
     <row r="294" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="4"/>
+      <c r="A294" s="4">
+        <f>COUNTA($B$155:B294)+97</f>
+        <v>219</v>
+      </c>
       <c r="B294" s="4" t="s">
         <v>523</v>
       </c>
@@ -8638,7 +9182,10 @@
       <c r="G294" s="4"/>
     </row>
     <row r="295" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="4"/>
+      <c r="A295" s="4">
+        <f>COUNTA($B$155:B295)+97</f>
+        <v>220</v>
+      </c>
       <c r="B295" s="4" t="s">
         <v>525</v>
       </c>
@@ -8681,7 +9228,10 @@
       <c r="G297" s="17"/>
     </row>
     <row r="298" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="17"/>
+      <c r="A298" s="17">
+        <f>COUNTA($B$155:B298)+97</f>
+        <v>223</v>
+      </c>
       <c r="B298" s="17" t="s">
         <v>531</v>
       </c>
@@ -8698,7 +9248,10 @@
       <c r="G298" s="4"/>
     </row>
     <row r="299" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="17"/>
+      <c r="A299" s="17">
+        <f>COUNTA($B$155:B299)+97</f>
+        <v>224</v>
+      </c>
       <c r="B299" s="17" t="s">
         <v>533</v>
       </c>
@@ -8715,7 +9268,10 @@
       <c r="G299" s="4"/>
     </row>
     <row r="300" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="17"/>
+      <c r="A300" s="17">
+        <f>COUNTA($B$155:B300)+97</f>
+        <v>225</v>
+      </c>
       <c r="B300" s="17" t="s">
         <v>535</v>
       </c>
@@ -8732,7 +9288,10 @@
       <c r="G300" s="4"/>
     </row>
     <row r="301" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="17"/>
+      <c r="A301" s="17">
+        <f>COUNTA($B$155:B301)+97</f>
+        <v>226</v>
+      </c>
       <c r="B301" s="17" t="s">
         <v>537</v>
       </c>
@@ -8749,7 +9308,10 @@
       <c r="G301" s="4"/>
     </row>
     <row r="302" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="17"/>
+      <c r="A302" s="17">
+        <f>COUNTA($B$155:B302)+97</f>
+        <v>227</v>
+      </c>
       <c r="B302" s="17" t="s">
         <v>539</v>
       </c>
@@ -8766,7 +9328,10 @@
       <c r="G302" s="4"/>
     </row>
     <row r="303" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="17"/>
+      <c r="A303" s="17">
+        <f>COUNTA($B$155:B303)+97</f>
+        <v>228</v>
+      </c>
       <c r="B303" s="17" t="s">
         <v>541</v>
       </c>
@@ -8783,7 +9348,10 @@
       <c r="G303" s="4"/>
     </row>
     <row r="304" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="17"/>
+      <c r="A304" s="17">
+        <f>COUNTA($B$155:B304)+97</f>
+        <v>229</v>
+      </c>
       <c r="B304" s="17" t="s">
         <v>543</v>
       </c>
@@ -8800,7 +9368,10 @@
       <c r="G304" s="4"/>
     </row>
     <row r="305" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="17"/>
+      <c r="A305" s="17">
+        <f>COUNTA($B$155:B305)+97</f>
+        <v>230</v>
+      </c>
       <c r="B305" s="17" t="s">
         <v>545</v>
       </c>
@@ -8817,7 +9388,10 @@
       <c r="G305" s="4"/>
     </row>
     <row r="306" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="17"/>
+      <c r="A306" s="17">
+        <f>COUNTA($B$155:B306)+97</f>
+        <v>231</v>
+      </c>
       <c r="B306" s="17" t="s">
         <v>547</v>
       </c>
@@ -8834,7 +9408,10 @@
       <c r="G306" s="4"/>
     </row>
     <row r="307" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="17"/>
+      <c r="A307" s="17">
+        <f>COUNTA($B$155:B307)+97</f>
+        <v>232</v>
+      </c>
       <c r="B307" s="17" t="s">
         <v>549</v>
       </c>
@@ -8851,7 +9428,10 @@
       <c r="G307" s="4"/>
     </row>
     <row r="308" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="17"/>
+      <c r="A308" s="17">
+        <f>COUNTA($B$155:B308)+97</f>
+        <v>233</v>
+      </c>
       <c r="B308" s="17" t="s">
         <v>551</v>
       </c>
@@ -8864,7 +9444,10 @@
       <c r="G308" s="4"/>
     </row>
     <row r="309" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="17"/>
+      <c r="A309" s="17">
+        <f>COUNTA($B$155:B309)+97</f>
+        <v>234</v>
+      </c>
       <c r="B309" s="17" t="s">
         <v>553</v>
       </c>
@@ -8881,7 +9464,10 @@
       <c r="G309" s="4"/>
     </row>
     <row r="310" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="17"/>
+      <c r="A310" s="17">
+        <f>COUNTA($B$155:B310)+97</f>
+        <v>235</v>
+      </c>
       <c r="B310" s="17" t="s">
         <v>555</v>
       </c>
@@ -8898,7 +9484,10 @@
       <c r="G310" s="4"/>
     </row>
     <row r="311" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="17"/>
+      <c r="A311" s="17">
+        <f>COUNTA($B$155:B311)+97</f>
+        <v>236</v>
+      </c>
       <c r="B311" s="17" t="s">
         <v>557</v>
       </c>
@@ -8915,7 +9504,10 @@
       <c r="G311" s="4"/>
     </row>
     <row r="312" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="17"/>
+      <c r="A312" s="17">
+        <f>COUNTA($B$155:B312)+97</f>
+        <v>237</v>
+      </c>
       <c r="B312" s="17" t="s">
         <v>559</v>
       </c>
@@ -8932,7 +9524,10 @@
       <c r="G312" s="4"/>
     </row>
     <row r="313" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="17"/>
+      <c r="A313" s="17">
+        <f>COUNTA($B$155:B313)+97</f>
+        <v>238</v>
+      </c>
       <c r="B313" s="17" t="s">
         <v>561</v>
       </c>
@@ -8949,7 +9544,10 @@
       <c r="G313" s="4"/>
     </row>
     <row r="314" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="4"/>
+      <c r="A314" s="4">
+        <f>COUNTA($B$155:B314)+97</f>
+        <v>239</v>
+      </c>
       <c r="B314" s="4" t="s">
         <v>563</v>
       </c>
@@ -8966,7 +9564,10 @@
       <c r="G314" s="4"/>
     </row>
     <row r="315" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="17"/>
+      <c r="A315" s="17">
+        <f>COUNTA($B$155:B315)+97</f>
+        <v>240</v>
+      </c>
       <c r="B315" s="17" t="s">
         <v>565</v>
       </c>
@@ -8983,7 +9584,10 @@
       <c r="G315" s="4"/>
     </row>
     <row r="316" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="17"/>
+      <c r="A316" s="17">
+        <f>COUNTA($B$155:B316)+97</f>
+        <v>241</v>
+      </c>
       <c r="B316" s="17" t="s">
         <v>567</v>
       </c>
@@ -9000,7 +9604,10 @@
       <c r="G316" s="4"/>
     </row>
     <row r="317" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="17"/>
+      <c r="A317" s="17">
+        <f>COUNTA($B$155:B317)+97</f>
+        <v>242</v>
+      </c>
       <c r="B317" s="17" t="s">
         <v>569</v>
       </c>
@@ -9017,7 +9624,10 @@
       <c r="G317" s="4"/>
     </row>
     <row r="318" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="17"/>
+      <c r="A318" s="17">
+        <f>COUNTA($B$155:B318)+97</f>
+        <v>243</v>
+      </c>
       <c r="B318" s="17" t="s">
         <v>571</v>
       </c>
@@ -9034,7 +9644,10 @@
       <c r="G318" s="4"/>
     </row>
     <row r="319" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="17"/>
+      <c r="A319" s="17">
+        <f>COUNTA($B$155:B319)+97</f>
+        <v>244</v>
+      </c>
       <c r="B319" s="17" t="s">
         <v>573</v>
       </c>
@@ -9051,7 +9664,10 @@
       <c r="G319" s="4"/>
     </row>
     <row r="320" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="17"/>
+      <c r="A320" s="17">
+        <f>COUNTA($B$155:B320)+97</f>
+        <v>245</v>
+      </c>
       <c r="B320" s="17" t="s">
         <v>575</v>
       </c>
@@ -9068,7 +9684,10 @@
       <c r="G320" s="4"/>
     </row>
     <row r="321" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="17"/>
+      <c r="A321" s="17">
+        <f>COUNTA($B$155:B321)+97</f>
+        <v>246</v>
+      </c>
       <c r="B321" s="17" t="s">
         <v>577</v>
       </c>
@@ -9113,7 +9732,10 @@
       <c r="G323" s="4"/>
     </row>
     <row r="324" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="4"/>
+      <c r="A324" s="4">
+        <f>COUNTA($B$155:B324)+97</f>
+        <v>249</v>
+      </c>
       <c r="B324" s="4" t="s">
         <v>583</v>
       </c>
@@ -9130,7 +9752,10 @@
       <c r="G324" s="4"/>
     </row>
     <row r="325" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="4"/>
+      <c r="A325" s="4">
+        <f>COUNTA($B$155:B325)+97</f>
+        <v>250</v>
+      </c>
       <c r="B325" s="4" t="s">
         <v>585</v>
       </c>
@@ -9147,7 +9772,10 @@
       <c r="G325" s="4"/>
     </row>
     <row r="326" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="4"/>
+      <c r="A326" s="4">
+        <f>COUNTA($B$155:B326)+97</f>
+        <v>251</v>
+      </c>
       <c r="B326" s="4" t="s">
         <v>587</v>
       </c>
@@ -9164,7 +9792,10 @@
       <c r="G326" s="4"/>
     </row>
     <row r="327" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="4"/>
+      <c r="A327" s="4">
+        <f>COUNTA($B$155:B327)+97</f>
+        <v>252</v>
+      </c>
       <c r="B327" s="4" t="s">
         <v>589</v>
       </c>
@@ -9181,7 +9812,10 @@
       <c r="G327" s="4"/>
     </row>
     <row r="328" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="4"/>
+      <c r="A328" s="4">
+        <f>COUNTA($B$155:B328)+97</f>
+        <v>253</v>
+      </c>
       <c r="B328" s="4" t="s">
         <v>591</v>
       </c>
@@ -9209,7 +9843,10 @@
       <c r="G329" s="4"/>
     </row>
     <row r="330" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="4"/>
+      <c r="A330" s="4">
+        <f>COUNTA($B$155:B330)+97</f>
+        <v>254</v>
+      </c>
       <c r="B330" s="4" t="s">
         <v>594</v>
       </c>
@@ -9226,7 +9863,10 @@
       <c r="G330" s="4"/>
     </row>
     <row r="331" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="4"/>
+      <c r="A331" s="4">
+        <f>COUNTA($B$155:B331)+97</f>
+        <v>255</v>
+      </c>
       <c r="B331" s="17" t="s">
         <v>596</v>
       </c>
@@ -9243,7 +9883,10 @@
       <c r="G331" s="4"/>
     </row>
     <row r="332" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="4"/>
+      <c r="A332" s="4">
+        <f>COUNTA($B$155:B332)+97</f>
+        <v>256</v>
+      </c>
       <c r="B332" s="4" t="s">
         <v>598</v>
       </c>
@@ -9260,7 +9903,10 @@
       <c r="G332" s="4"/>
     </row>
     <row r="333" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="4"/>
+      <c r="A333" s="4">
+        <f>COUNTA($B$155:B333)+97</f>
+        <v>257</v>
+      </c>
       <c r="B333" s="4" t="s">
         <v>600</v>
       </c>
@@ -9277,7 +9923,10 @@
       <c r="G333" s="4"/>
     </row>
     <row r="334" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="4"/>
+      <c r="A334" s="4">
+        <f>COUNTA($B$155:B334)+97</f>
+        <v>258</v>
+      </c>
       <c r="B334" s="4" t="s">
         <v>602</v>
       </c>
@@ -9305,7 +9954,10 @@
       <c r="G335" s="4"/>
     </row>
     <row r="336" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="4"/>
+      <c r="A336" s="4">
+        <f>COUNTA($B$155:B336)+97</f>
+        <v>259</v>
+      </c>
       <c r="B336" s="4" t="s">
         <v>605</v>
       </c>
@@ -9322,7 +9974,10 @@
       <c r="G336" s="4"/>
     </row>
     <row r="337" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="4"/>
+      <c r="A337" s="4">
+        <f>COUNTA($B$155:B337)+97</f>
+        <v>260</v>
+      </c>
       <c r="B337" s="4" t="s">
         <v>607</v>
       </c>
@@ -9358,7 +10013,10 @@
       <c r="G338" s="4"/>
     </row>
     <row r="339" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="4"/>
+      <c r="A339" s="4">
+        <f>COUNTA($B$155:B339)+97</f>
+        <v>262</v>
+      </c>
       <c r="B339" s="4" t="s">
         <v>612</v>
       </c>
@@ -9375,7 +10033,10 @@
       <c r="G339" s="4"/>
     </row>
     <row r="340" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="4"/>
+      <c r="A340" s="4">
+        <f>COUNTA($B$155:B340)+97</f>
+        <v>263</v>
+      </c>
       <c r="B340" s="4" t="s">
         <v>614</v>
       </c>
@@ -9392,7 +10053,10 @@
       <c r="G340" s="4"/>
     </row>
     <row r="341" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="4"/>
+      <c r="A341" s="4">
+        <f>COUNTA($B$155:B341)+97</f>
+        <v>264</v>
+      </c>
       <c r="B341" s="4" t="s">
         <v>616</v>
       </c>
@@ -9409,7 +10073,10 @@
       <c r="G341" s="4"/>
     </row>
     <row r="342" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="4"/>
+      <c r="A342" s="4">
+        <f>COUNTA($B$155:B342)+97</f>
+        <v>265</v>
+      </c>
       <c r="B342" s="4" t="s">
         <v>618</v>
       </c>
@@ -9426,7 +10093,10 @@
       <c r="G342" s="4"/>
     </row>
     <row r="343" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="4"/>
+      <c r="A343" s="4">
+        <f>COUNTA($B$155:B343)+97</f>
+        <v>266</v>
+      </c>
       <c r="B343" s="4" t="s">
         <v>620</v>
       </c>
@@ -9443,7 +10113,10 @@
       <c r="G343" s="4"/>
     </row>
     <row r="344" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="4"/>
+      <c r="A344" s="4">
+        <f>COUNTA($B$155:B344)+97</f>
+        <v>267</v>
+      </c>
       <c r="B344" s="4" t="s">
         <v>622</v>
       </c>
@@ -9460,7 +10133,10 @@
       <c r="G344" s="4"/>
     </row>
     <row r="345" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="4"/>
+      <c r="A345" s="4">
+        <f>COUNTA($B$155:B345)+97</f>
+        <v>268</v>
+      </c>
       <c r="B345" s="4" t="s">
         <v>624</v>
       </c>
@@ -9477,7 +10153,10 @@
       <c r="G345" s="4"/>
     </row>
     <row r="346" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="4"/>
+      <c r="A346" s="4">
+        <f>COUNTA($B$155:B346)+97</f>
+        <v>269</v>
+      </c>
       <c r="B346" s="4" t="s">
         <v>626</v>
       </c>
@@ -9494,7 +10173,10 @@
       <c r="G346" s="4"/>
     </row>
     <row r="347" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="4"/>
+      <c r="A347" s="4">
+        <f>COUNTA($B$155:B347)+97</f>
+        <v>270</v>
+      </c>
       <c r="B347" s="4" t="s">
         <v>628</v>
       </c>
@@ -9511,7 +10193,10 @@
       <c r="G347" s="4"/>
     </row>
     <row r="348" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="4"/>
+      <c r="A348" s="4">
+        <f>COUNTA($B$155:B348)+97</f>
+        <v>271</v>
+      </c>
       <c r="B348" s="4" t="s">
         <v>630</v>
       </c>
@@ -9528,7 +10213,10 @@
       <c r="G348" s="4"/>
     </row>
     <row r="349" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="4"/>
+      <c r="A349" s="4">
+        <f>COUNTA($B$155:B349)+97</f>
+        <v>272</v>
+      </c>
       <c r="B349" s="4" t="s">
         <v>632</v>
       </c>
@@ -9556,7 +10244,10 @@
       <c r="G350" s="4"/>
     </row>
     <row r="351" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="4"/>
+      <c r="A351" s="4">
+        <f>COUNTA($B$155:B351)+97</f>
+        <v>273</v>
+      </c>
       <c r="B351" s="4" t="s">
         <v>635</v>
       </c>
@@ -9573,7 +10264,10 @@
       <c r="G351" s="4"/>
     </row>
     <row r="352" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="4"/>
+      <c r="A352" s="4">
+        <f>COUNTA($B$155:B352)+97</f>
+        <v>274</v>
+      </c>
       <c r="B352" s="4" t="s">
         <v>637</v>
       </c>
@@ -9590,7 +10284,10 @@
       <c r="G352" s="4"/>
     </row>
     <row r="353" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="4"/>
+      <c r="A353" s="4">
+        <f>COUNTA($B$155:B353)+97</f>
+        <v>275</v>
+      </c>
       <c r="B353" s="4" t="s">
         <v>639</v>
       </c>
@@ -9607,7 +10304,10 @@
       <c r="G353" s="4"/>
     </row>
     <row r="354" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="4"/>
+      <c r="A354" s="4">
+        <f>COUNTA($B$155:B354)+97</f>
+        <v>276</v>
+      </c>
       <c r="B354" s="4" t="s">
         <v>641</v>
       </c>
@@ -9635,7 +10335,10 @@
       <c r="G355" s="4"/>
     </row>
     <row r="356" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="4"/>
+      <c r="A356" s="4">
+        <f>COUNTA($B$155:B356)+97</f>
+        <v>277</v>
+      </c>
       <c r="B356" s="4" t="s">
         <v>644</v>
       </c>
@@ -9652,7 +10355,10 @@
       <c r="G356" s="4"/>
     </row>
     <row r="357" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="4"/>
+      <c r="A357" s="4">
+        <f>COUNTA($B$155:B357)+97</f>
+        <v>278</v>
+      </c>
       <c r="B357" s="4" t="s">
         <v>646</v>
       </c>
@@ -9669,7 +10375,10 @@
       <c r="G357" s="4"/>
     </row>
     <row r="358" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="4"/>
+      <c r="A358" s="4">
+        <f>COUNTA($B$155:B358)+97</f>
+        <v>279</v>
+      </c>
       <c r="B358" s="4" t="s">
         <v>648</v>
       </c>
@@ -9686,7 +10395,10 @@
       <c r="G358" s="4"/>
     </row>
     <row r="359" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="4"/>
+      <c r="A359" s="4">
+        <f>COUNTA($B$155:B359)+97</f>
+        <v>280</v>
+      </c>
       <c r="B359" s="4" t="s">
         <v>650</v>
       </c>
@@ -9703,7 +10415,10 @@
       <c r="G359" s="4"/>
     </row>
     <row r="360" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="4"/>
+      <c r="A360" s="4">
+        <f>COUNTA($B$155:B360)+97</f>
+        <v>281</v>
+      </c>
       <c r="B360" s="4" t="s">
         <v>652</v>
       </c>
@@ -9720,7 +10435,10 @@
       <c r="G360" s="4"/>
     </row>
     <row r="361" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="4"/>
+      <c r="A361" s="4">
+        <f>COUNTA($B$155:B361)+97</f>
+        <v>282</v>
+      </c>
       <c r="B361" s="4" t="s">
         <v>654</v>
       </c>
@@ -9748,7 +10466,10 @@
       <c r="G362" s="4"/>
     </row>
     <row r="363" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="4"/>
+      <c r="A363" s="4">
+        <f>COUNTA($B$155:B363)+97</f>
+        <v>283</v>
+      </c>
       <c r="B363" s="4" t="s">
         <v>657</v>
       </c>
@@ -9765,7 +10486,10 @@
       <c r="G363" s="4"/>
     </row>
     <row r="364" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="4"/>
+      <c r="A364" s="4">
+        <f>COUNTA($B$155:B364)+97</f>
+        <v>284</v>
+      </c>
       <c r="B364" s="4" t="s">
         <v>659</v>
       </c>
@@ -9782,7 +10506,10 @@
       <c r="G364" s="4"/>
     </row>
     <row r="365" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="4"/>
+      <c r="A365" s="4">
+        <f>COUNTA($B$155:B365)+97</f>
+        <v>285</v>
+      </c>
       <c r="B365" s="4" t="s">
         <v>661</v>
       </c>
@@ -9799,7 +10526,10 @@
       <c r="G365" s="4"/>
     </row>
     <row r="366" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="4"/>
+      <c r="A366" s="4">
+        <f>COUNTA($B$155:B366)+97</f>
+        <v>286</v>
+      </c>
       <c r="B366" s="4" t="s">
         <v>663</v>
       </c>
@@ -9816,7 +10546,10 @@
       <c r="G366" s="4"/>
     </row>
     <row r="367" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="4"/>
+      <c r="A367" s="4">
+        <f>COUNTA($B$155:B367)+97</f>
+        <v>287</v>
+      </c>
       <c r="B367" s="4" t="s">
         <v>665</v>
       </c>
@@ -9844,7 +10577,10 @@
       <c r="G368" s="4"/>
     </row>
     <row r="369" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="4"/>
+      <c r="A369" s="4">
+        <f>COUNTA($B$155:B369)+97</f>
+        <v>288</v>
+      </c>
       <c r="B369" s="4" t="s">
         <v>668</v>
       </c>
@@ -9859,7 +10595,10 @@
       <c r="G369" s="4"/>
     </row>
     <row r="370" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="4"/>
+      <c r="A370" s="4">
+        <f>COUNTA($B$155:B370)+97</f>
+        <v>289</v>
+      </c>
       <c r="B370" s="4" t="s">
         <v>669</v>
       </c>
@@ -9874,7 +10613,10 @@
       <c r="G370" s="4"/>
     </row>
     <row r="371" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="4"/>
+      <c r="A371" s="4">
+        <f>COUNTA($B$155:B371)+97</f>
+        <v>290</v>
+      </c>
       <c r="B371" s="4" t="s">
         <v>670</v>
       </c>
@@ -9891,7 +10633,10 @@
       <c r="G371" s="4"/>
     </row>
     <row r="372" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="4"/>
+      <c r="A372" s="4">
+        <f>COUNTA($B$155:B372)+97</f>
+        <v>291</v>
+      </c>
       <c r="B372" s="4" t="s">
         <v>672</v>
       </c>
@@ -9908,7 +10653,10 @@
       <c r="G372" s="4"/>
     </row>
     <row r="373" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="4"/>
+      <c r="A373" s="4">
+        <f>COUNTA($B$155:B373)+97</f>
+        <v>292</v>
+      </c>
       <c r="B373" s="4" t="s">
         <v>674</v>
       </c>
@@ -9925,7 +10673,10 @@
       <c r="G373" s="4"/>
     </row>
     <row r="374" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="4"/>
+      <c r="A374" s="4">
+        <f>COUNTA($B$155:B374)+97</f>
+        <v>293</v>
+      </c>
       <c r="B374" s="4" t="s">
         <v>676</v>
       </c>
@@ -9942,7 +10693,10 @@
       <c r="G374" s="4"/>
     </row>
     <row r="375" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="4"/>
+      <c r="A375" s="4">
+        <f>COUNTA($B$155:B375)+97</f>
+        <v>294</v>
+      </c>
       <c r="B375" s="4" t="s">
         <v>678</v>
       </c>
@@ -9959,7 +10713,10 @@
       <c r="G375" s="4"/>
     </row>
     <row r="376" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="4"/>
+      <c r="A376" s="4">
+        <f>COUNTA($B$155:B376)+97</f>
+        <v>295</v>
+      </c>
       <c r="B376" s="4" t="s">
         <v>680</v>
       </c>
@@ -9987,7 +10744,10 @@
       <c r="G377" s="4"/>
     </row>
     <row r="378" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="4"/>
+      <c r="A378" s="4">
+        <f>COUNTA($B$155:B378)+97</f>
+        <v>296</v>
+      </c>
       <c r="B378" s="4" t="s">
         <v>683</v>
       </c>
@@ -10004,7 +10764,10 @@
       <c r="G378" s="4"/>
     </row>
     <row r="379" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="4"/>
+      <c r="A379" s="4">
+        <f>COUNTA($B$155:B379)+97</f>
+        <v>297</v>
+      </c>
       <c r="B379" s="4" t="s">
         <v>685</v>
       </c>
@@ -10021,7 +10784,10 @@
       <c r="G379" s="4"/>
     </row>
     <row r="380" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="4"/>
+      <c r="A380" s="4">
+        <f>COUNTA($B$155:B380)+97</f>
+        <v>298</v>
+      </c>
       <c r="B380" s="4" t="s">
         <v>687</v>
       </c>
@@ -10038,7 +10804,10 @@
       <c r="G380" s="4"/>
     </row>
     <row r="381" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="4"/>
+      <c r="A381" s="4">
+        <f>COUNTA($B$155:B381)+97</f>
+        <v>299</v>
+      </c>
       <c r="B381" s="4" t="s">
         <v>689</v>
       </c>
@@ -10055,7 +10824,10 @@
       <c r="G381" s="4"/>
     </row>
     <row r="382" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="4"/>
+      <c r="A382" s="4">
+        <f>COUNTA($B$155:B382)+97</f>
+        <v>300</v>
+      </c>
       <c r="B382" s="4" t="s">
         <v>691</v>
       </c>
@@ -10072,7 +10844,10 @@
       <c r="G382" s="4"/>
     </row>
     <row r="383" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="4"/>
+      <c r="A383" s="4">
+        <f>COUNTA($B$155:B383)+97</f>
+        <v>301</v>
+      </c>
       <c r="B383" s="4" t="s">
         <v>693</v>
       </c>
@@ -10111,7 +10886,10 @@
       <c r="G385" s="4"/>
     </row>
     <row r="386" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="4"/>
+      <c r="A386" s="4">
+        <f>COUNTA($B$155:B386)+97</f>
+        <v>302</v>
+      </c>
       <c r="B386" s="4" t="s">
         <v>697</v>
       </c>
@@ -10128,7 +10906,10 @@
       <c r="G386" s="4"/>
     </row>
     <row r="387" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="4"/>
+      <c r="A387" s="4">
+        <f>COUNTA($B$155:B387)+97</f>
+        <v>303</v>
+      </c>
       <c r="B387" s="4" t="s">
         <v>699</v>
       </c>
@@ -10145,7 +10926,10 @@
       <c r="G387" s="4"/>
     </row>
     <row r="388" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="4"/>
+      <c r="A388" s="4">
+        <f>COUNTA($B$155:B388)+97</f>
+        <v>304</v>
+      </c>
       <c r="B388" s="4" t="s">
         <v>701</v>
       </c>
@@ -10162,7 +10946,10 @@
       <c r="G388" s="4"/>
     </row>
     <row r="389" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="4"/>
+      <c r="A389" s="4">
+        <f>COUNTA($B$155:B389)+97</f>
+        <v>305</v>
+      </c>
       <c r="B389" s="4" t="s">
         <v>703</v>
       </c>
@@ -10179,7 +10966,10 @@
       <c r="G389" s="4"/>
     </row>
     <row r="390" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="4"/>
+      <c r="A390" s="4">
+        <f>COUNTA($B$155:B390)+97</f>
+        <v>306</v>
+      </c>
       <c r="B390" s="4" t="s">
         <v>705</v>
       </c>
@@ -10196,7 +10986,10 @@
       <c r="G390" s="4"/>
     </row>
     <row r="391" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="4"/>
+      <c r="A391" s="4">
+        <f>COUNTA($B$155:B391)+97</f>
+        <v>307</v>
+      </c>
       <c r="B391" s="4" t="s">
         <v>707</v>
       </c>
@@ -10213,7 +11006,10 @@
       <c r="G391" s="4"/>
     </row>
     <row r="392" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="4"/>
+      <c r="A392" s="4">
+        <f>COUNTA($B$155:B392)+97</f>
+        <v>308</v>
+      </c>
       <c r="B392" s="4" t="s">
         <v>709</v>
       </c>
@@ -10230,7 +11026,10 @@
       <c r="G392" s="4"/>
     </row>
     <row r="393" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="4"/>
+      <c r="A393" s="4">
+        <f>COUNTA($B$155:B393)+97</f>
+        <v>309</v>
+      </c>
       <c r="B393" s="4" t="s">
         <v>711</v>
       </c>
@@ -10247,7 +11046,10 @@
       <c r="G393" s="4"/>
     </row>
     <row r="394" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="4"/>
+      <c r="A394" s="4">
+        <f>COUNTA($B$155:B394)+97</f>
+        <v>310</v>
+      </c>
       <c r="B394" s="4" t="s">
         <v>714</v>
       </c>
@@ -10264,7 +11066,10 @@
       <c r="G394" s="4"/>
     </row>
     <row r="395" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="4"/>
+      <c r="A395" s="4">
+        <f>COUNTA($B$155:B395)+97</f>
+        <v>311</v>
+      </c>
       <c r="B395" s="4" t="s">
         <v>716</v>
       </c>
@@ -10281,7 +11086,10 @@
       <c r="G395" s="4"/>
     </row>
     <row r="396" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="4"/>
+      <c r="A396" s="4">
+        <f>COUNTA($B$155:B396)+97</f>
+        <v>312</v>
+      </c>
       <c r="B396" s="4" t="s">
         <v>718</v>
       </c>
@@ -10298,7 +11106,10 @@
       <c r="G396" s="4"/>
     </row>
     <row r="397" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="4"/>
+      <c r="A397" s="4">
+        <f>COUNTA($B$155:B397)+97</f>
+        <v>313</v>
+      </c>
       <c r="B397" s="4" t="s">
         <v>720</v>
       </c>
@@ -10315,7 +11126,10 @@
       <c r="G397" s="4"/>
     </row>
     <row r="398" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="4"/>
+      <c r="A398" s="4">
+        <f>COUNTA($B$155:B398)+97</f>
+        <v>314</v>
+      </c>
       <c r="B398" s="4" t="s">
         <v>722</v>
       </c>
@@ -10332,7 +11146,10 @@
       <c r="G398" s="4"/>
     </row>
     <row r="399" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="4"/>
+      <c r="A399" s="4">
+        <f>COUNTA($B$155:B399)+97</f>
+        <v>315</v>
+      </c>
       <c r="B399" s="4" t="s">
         <v>724</v>
       </c>
@@ -10349,7 +11166,10 @@
       <c r="G399" s="4"/>
     </row>
     <row r="400" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="4"/>
+      <c r="A400" s="4">
+        <f>COUNTA($B$155:B400)+97</f>
+        <v>316</v>
+      </c>
       <c r="B400" s="4" t="s">
         <v>726</v>
       </c>
@@ -10366,7 +11186,10 @@
       <c r="G400" s="4"/>
     </row>
     <row r="401" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="4"/>
+      <c r="A401" s="4">
+        <f>COUNTA($B$155:B401)+97</f>
+        <v>317</v>
+      </c>
       <c r="B401" s="4" t="s">
         <v>727</v>
       </c>
@@ -10383,7 +11206,10 @@
       <c r="G401" s="4"/>
     </row>
     <row r="402" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="4"/>
+      <c r="A402" s="4">
+        <f>COUNTA($B$155:B402)+97</f>
+        <v>318</v>
+      </c>
       <c r="B402" s="4" t="s">
         <v>362</v>
       </c>
@@ -10400,7 +11226,10 @@
       <c r="G402" s="4"/>
     </row>
     <row r="403" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="4"/>
+      <c r="A403" s="4">
+        <f>COUNTA($B$155:B403)+97</f>
+        <v>319</v>
+      </c>
       <c r="B403" s="4" t="s">
         <v>730</v>
       </c>
@@ -10417,7 +11246,10 @@
       <c r="G403" s="4"/>
     </row>
     <row r="404" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="4"/>
+      <c r="A404" s="4">
+        <f>COUNTA($B$155:B404)+97</f>
+        <v>320</v>
+      </c>
       <c r="B404" s="4" t="s">
         <v>732</v>
       </c>
@@ -10434,7 +11266,10 @@
       <c r="G404" s="4"/>
     </row>
     <row r="405" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="4"/>
+      <c r="A405" s="4">
+        <f>COUNTA($B$155:B405)+97</f>
+        <v>321</v>
+      </c>
       <c r="B405" s="4" t="s">
         <v>734</v>
       </c>
@@ -10451,7 +11286,10 @@
       <c r="G405" s="4"/>
     </row>
     <row r="406" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="4"/>
+      <c r="A406" s="4">
+        <f>COUNTA($B$155:B406)+97</f>
+        <v>322</v>
+      </c>
       <c r="B406" s="4" t="s">
         <v>736</v>
       </c>
@@ -10468,7 +11306,10 @@
       <c r="G406" s="4"/>
     </row>
     <row r="407" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="4"/>
+      <c r="A407" s="4">
+        <f>COUNTA($B$155:B407)+97</f>
+        <v>323</v>
+      </c>
       <c r="B407" s="4" t="s">
         <v>738</v>
       </c>
@@ -10485,7 +11326,10 @@
       <c r="G407" s="4"/>
     </row>
     <row r="408" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="4"/>
+      <c r="A408" s="4">
+        <f>COUNTA($B$155:B408)+97</f>
+        <v>324</v>
+      </c>
       <c r="B408" s="4" t="s">
         <v>740</v>
       </c>
@@ -10526,7 +11370,10 @@
       <c r="G410" s="4"/>
     </row>
     <row r="411" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="4"/>
+      <c r="A411" s="4">
+        <f>COUNTA($B$155:B411)+97</f>
+        <v>326</v>
+      </c>
       <c r="B411" s="4" t="s">
         <v>744</v>
       </c>
@@ -10552,7 +11399,10 @@
       <c r="G412" s="4"/>
     </row>
     <row r="413" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="4"/>
+      <c r="A413" s="4">
+        <f>COUNTA($B$155:B413)+97</f>
+        <v>327</v>
+      </c>
       <c r="B413" s="4" t="s">
         <v>746</v>
       </c>
@@ -10569,7 +11419,10 @@
       <c r="G413" s="4"/>
     </row>
     <row r="414" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="4"/>
+      <c r="A414" s="4">
+        <f>COUNTA($B$155:B414)+97</f>
+        <v>328</v>
+      </c>
       <c r="B414" s="4" t="s">
         <v>748</v>
       </c>
@@ -10586,7 +11439,10 @@
       <c r="G414" s="4"/>
     </row>
     <row r="415" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="4"/>
+      <c r="A415" s="4">
+        <f>COUNTA($B$155:B415)+97</f>
+        <v>329</v>
+      </c>
       <c r="B415" s="17" t="s">
         <v>750</v>
       </c>
@@ -10603,7 +11459,10 @@
       <c r="G415" s="4"/>
     </row>
     <row r="416" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="4"/>
+      <c r="A416" s="4">
+        <f>COUNTA($B$155:B416)+97</f>
+        <v>330</v>
+      </c>
       <c r="B416" s="4" t="s">
         <v>752</v>
       </c>
@@ -10618,7 +11477,10 @@
       <c r="G416" s="4"/>
     </row>
     <row r="417" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="4"/>
+      <c r="A417" s="4">
+        <f>COUNTA($B$155:B417)+97</f>
+        <v>331</v>
+      </c>
       <c r="B417" s="4" t="s">
         <v>754</v>
       </c>
@@ -10648,7 +11510,10 @@
       <c r="G418" s="4"/>
     </row>
     <row r="419" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="4"/>
+      <c r="A419" s="4">
+        <f>COUNTA($B$155:B419)+97</f>
+        <v>332</v>
+      </c>
       <c r="B419" s="4" t="s">
         <v>757</v>
       </c>
@@ -10665,7 +11530,10 @@
       <c r="G419" s="4"/>
     </row>
     <row r="420" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="4"/>
+      <c r="A420" s="4">
+        <f>COUNTA($B$155:B420)+97</f>
+        <v>333</v>
+      </c>
       <c r="B420" s="4" t="s">
         <v>759</v>
       </c>
@@ -10682,7 +11550,10 @@
       <c r="G420" s="4"/>
     </row>
     <row r="421" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="4"/>
+      <c r="A421" s="4">
+        <f>COUNTA($B$155:B421)+97</f>
+        <v>334</v>
+      </c>
       <c r="B421" s="4" t="s">
         <v>761</v>
       </c>
@@ -10699,7 +11570,10 @@
       <c r="G421" s="4"/>
     </row>
     <row r="422" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="4"/>
+      <c r="A422" s="4">
+        <f>COUNTA($B$155:B422)+97</f>
+        <v>335</v>
+      </c>
       <c r="B422" s="4" t="s">
         <v>763</v>
       </c>
@@ -10716,7 +11590,10 @@
       <c r="G422" s="4"/>
     </row>
     <row r="423" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="4"/>
+      <c r="A423" s="4">
+        <f>COUNTA($B$155:B423)+97</f>
+        <v>336</v>
+      </c>
       <c r="B423" s="4" t="s">
         <v>765</v>
       </c>
@@ -10733,7 +11610,10 @@
       <c r="G423" s="4"/>
     </row>
     <row r="424" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="4"/>
+      <c r="A424" s="4">
+        <f>COUNTA($B$155:B424)+97</f>
+        <v>337</v>
+      </c>
       <c r="B424" s="4" t="s">
         <v>767</v>
       </c>
@@ -10750,7 +11630,10 @@
       <c r="G424" s="4"/>
     </row>
     <row r="425" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="4"/>
+      <c r="A425" s="4">
+        <f>COUNTA($B$155:B425)+97</f>
+        <v>338</v>
+      </c>
       <c r="B425" s="4" t="s">
         <v>769</v>
       </c>
@@ -10767,7 +11650,10 @@
       <c r="G425" s="4"/>
     </row>
     <row r="426" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="4"/>
+      <c r="A426" s="4">
+        <f>COUNTA($B$155:B426)+97</f>
+        <v>339</v>
+      </c>
       <c r="B426" s="4" t="s">
         <v>771</v>
       </c>
@@ -10784,7 +11670,10 @@
       <c r="G426" s="4"/>
     </row>
     <row r="427" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="4"/>
+      <c r="A427" s="4">
+        <f>COUNTA($B$155:B427)+97</f>
+        <v>340</v>
+      </c>
       <c r="B427" s="4" t="s">
         <v>773</v>
       </c>
@@ -10812,7 +11701,10 @@
       <c r="G428" s="4"/>
     </row>
     <row r="429" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="4"/>
+      <c r="A429" s="4">
+        <f>COUNTA($B$155:B429)+97</f>
+        <v>341</v>
+      </c>
       <c r="B429" s="4" t="s">
         <v>776</v>
       </c>
@@ -10829,7 +11721,10 @@
       <c r="G429" s="4"/>
     </row>
     <row r="430" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="4"/>
+      <c r="A430" s="4">
+        <f>COUNTA($B$155:B430)+97</f>
+        <v>342</v>
+      </c>
       <c r="B430" s="4" t="s">
         <v>778</v>
       </c>
@@ -10846,7 +11741,10 @@
       <c r="G430" s="4"/>
     </row>
     <row r="431" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="4"/>
+      <c r="A431" s="4">
+        <f>COUNTA($B$155:B431)+97</f>
+        <v>343</v>
+      </c>
       <c r="B431" s="4" t="s">
         <v>780</v>
       </c>
@@ -10863,7 +11761,10 @@
       <c r="G431" s="4"/>
     </row>
     <row r="432" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="4"/>
+      <c r="A432" s="4">
+        <f>COUNTA($B$155:B432)+97</f>
+        <v>344</v>
+      </c>
       <c r="B432" s="4" t="s">
         <v>782</v>
       </c>
@@ -10880,7 +11781,10 @@
       <c r="G432" s="4"/>
     </row>
     <row r="433" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="4"/>
+      <c r="A433" s="4">
+        <f>COUNTA($B$155:B433)+97</f>
+        <v>345</v>
+      </c>
       <c r="B433" s="4" t="s">
         <v>784</v>
       </c>
@@ -10895,7 +11799,10 @@
       <c r="G433" s="4"/>
     </row>
     <row r="434" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="4"/>
+      <c r="A434" s="4">
+        <f>COUNTA($B$155:B434)+97</f>
+        <v>346</v>
+      </c>
       <c r="B434" s="4" t="s">
         <v>785</v>
       </c>
@@ -10912,7 +11819,10 @@
       <c r="G434" s="4"/>
     </row>
     <row r="435" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="4"/>
+      <c r="A435" s="4">
+        <f>COUNTA($B$155:B435)+97</f>
+        <v>347</v>
+      </c>
       <c r="B435" s="4" t="s">
         <v>787</v>
       </c>
@@ -10929,7 +11839,10 @@
       <c r="G435" s="4"/>
     </row>
     <row r="436" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="4"/>
+      <c r="A436" s="4">
+        <f>COUNTA($B$155:B436)+97</f>
+        <v>348</v>
+      </c>
       <c r="B436" s="4" t="s">
         <v>789</v>
       </c>
@@ -10946,7 +11859,10 @@
       <c r="G436" s="4"/>
     </row>
     <row r="437" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="4"/>
+      <c r="A437" s="4">
+        <f>COUNTA($B$155:B437)+97</f>
+        <v>349</v>
+      </c>
       <c r="B437" s="4" t="s">
         <v>791</v>
       </c>
@@ -10963,7 +11879,10 @@
       <c r="G437" s="4"/>
     </row>
     <row r="438" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="4"/>
+      <c r="A438" s="4">
+        <f>COUNTA($B$155:B438)+97</f>
+        <v>350</v>
+      </c>
       <c r="B438" s="4" t="s">
         <v>793</v>
       </c>
@@ -10980,7 +11899,10 @@
       <c r="G438" s="4"/>
     </row>
     <row r="439" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="4"/>
+      <c r="A439" s="4">
+        <f>COUNTA($B$155:B439)+97</f>
+        <v>351</v>
+      </c>
       <c r="B439" s="4" t="s">
         <v>795</v>
       </c>
@@ -10995,7 +11917,10 @@
       <c r="G439" s="4"/>
     </row>
     <row r="440" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="4"/>
+      <c r="A440" s="4">
+        <f>COUNTA($B$155:B440)+97</f>
+        <v>352</v>
+      </c>
       <c r="B440" s="4" t="s">
         <v>797</v>
       </c>
@@ -11012,7 +11937,10 @@
       <c r="G440" s="4"/>
     </row>
     <row r="441" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="4"/>
+      <c r="A441" s="4">
+        <f>COUNTA($B$155:B441)+97</f>
+        <v>353</v>
+      </c>
       <c r="B441" s="4" t="s">
         <v>799</v>
       </c>
@@ -11042,7 +11970,10 @@
       <c r="G442" s="4"/>
     </row>
     <row r="443" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="4"/>
+      <c r="A443" s="4">
+        <f>COUNTA($B$155:B443)+97</f>
+        <v>354</v>
+      </c>
       <c r="B443" s="4" t="s">
         <v>802</v>
       </c>
@@ -11059,7 +11990,10 @@
       <c r="G443" s="4"/>
     </row>
     <row r="444" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="4"/>
+      <c r="A444" s="4">
+        <f>COUNTA($B$155:B444)+97</f>
+        <v>355</v>
+      </c>
       <c r="B444" s="4" t="s">
         <v>804</v>
       </c>
@@ -11074,7 +12008,10 @@
       <c r="G444" s="4"/>
     </row>
     <row r="445" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="4"/>
+      <c r="A445" s="4">
+        <f>COUNTA($B$155:B445)+97</f>
+        <v>356</v>
+      </c>
       <c r="B445" s="4" t="s">
         <v>805</v>
       </c>
@@ -11091,7 +12028,10 @@
       <c r="G445" s="4"/>
     </row>
     <row r="446" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="4"/>
+      <c r="A446" s="4">
+        <f>COUNTA($B$155:B446)+97</f>
+        <v>357</v>
+      </c>
       <c r="B446" s="4" t="s">
         <v>807</v>
       </c>
@@ -11108,7 +12048,10 @@
       <c r="G446" s="4"/>
     </row>
     <row r="447" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="4"/>
+      <c r="A447" s="4">
+        <f>COUNTA($B$155:B447)+97</f>
+        <v>358</v>
+      </c>
       <c r="B447" s="4" t="s">
         <v>809</v>
       </c>
@@ -11125,7 +12068,10 @@
       <c r="G447" s="4"/>
     </row>
     <row r="448" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="4"/>
+      <c r="A448" s="4">
+        <f>COUNTA($B$155:B448)+97</f>
+        <v>359</v>
+      </c>
       <c r="B448" s="4" t="s">
         <v>811</v>
       </c>
@@ -11153,7 +12099,10 @@
       <c r="G449" s="4"/>
     </row>
     <row r="450" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="4"/>
+      <c r="A450" s="4">
+        <f>COUNTA($B$155:B450)+97</f>
+        <v>360</v>
+      </c>
       <c r="B450" s="4" t="s">
         <v>814</v>
       </c>
@@ -11170,7 +12119,10 @@
       <c r="G450" s="4"/>
     </row>
     <row r="451" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="4"/>
+      <c r="A451" s="4">
+        <f>COUNTA($B$155:B451)+97</f>
+        <v>361</v>
+      </c>
       <c r="B451" s="4" t="s">
         <v>816</v>
       </c>
@@ -11187,7 +12139,10 @@
       <c r="G451" s="4"/>
     </row>
     <row r="452" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="4"/>
+      <c r="A452" s="4">
+        <f>COUNTA($B$155:B452)+97</f>
+        <v>362</v>
+      </c>
       <c r="B452" s="4" t="s">
         <v>818</v>
       </c>
@@ -11204,7 +12159,10 @@
       <c r="G452" s="4"/>
     </row>
     <row r="453" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="4"/>
+      <c r="A453" s="4">
+        <f>COUNTA($B$155:B453)+97</f>
+        <v>363</v>
+      </c>
       <c r="B453" s="4" t="s">
         <v>820</v>
       </c>
@@ -11221,7 +12179,10 @@
       <c r="G453" s="4"/>
     </row>
     <row r="454" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="4"/>
+      <c r="A454" s="4">
+        <f>COUNTA($B$155:B454)+97</f>
+        <v>364</v>
+      </c>
       <c r="B454" s="4" t="s">
         <v>822</v>
       </c>
@@ -11238,7 +12199,10 @@
       <c r="G454" s="4"/>
     </row>
     <row r="455" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A455" s="4"/>
+      <c r="A455" s="4">
+        <f>COUNTA($B$155:B455)+97</f>
+        <v>365</v>
+      </c>
       <c r="B455" s="4" t="s">
         <v>824</v>
       </c>
@@ -11255,7 +12219,10 @@
       <c r="G455" s="4"/>
     </row>
     <row r="456" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="4"/>
+      <c r="A456" s="4">
+        <f>COUNTA($B$155:B456)+97</f>
+        <v>366</v>
+      </c>
       <c r="B456" s="4" t="s">
         <v>826</v>
       </c>
@@ -11272,7 +12239,10 @@
       <c r="G456" s="4"/>
     </row>
     <row r="457" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="4"/>
+      <c r="A457" s="4">
+        <f>COUNTA($B$155:B457)+97</f>
+        <v>367</v>
+      </c>
       <c r="B457" s="4" t="s">
         <v>828</v>
       </c>
@@ -11289,7 +12259,10 @@
       <c r="G457" s="4"/>
     </row>
     <row r="458" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="4"/>
+      <c r="A458" s="4">
+        <f>COUNTA($B$155:B458)+97</f>
+        <v>368</v>
+      </c>
       <c r="B458" s="4" t="s">
         <v>830</v>
       </c>
@@ -11317,7 +12290,10 @@
       <c r="G459" s="4"/>
     </row>
     <row r="460" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="4"/>
+      <c r="A460" s="4">
+        <f>COUNTA($B$155:B460)+97</f>
+        <v>369</v>
+      </c>
       <c r="B460" s="4" t="s">
         <v>833</v>
       </c>
@@ -11334,7 +12310,10 @@
       <c r="G460" s="4"/>
     </row>
     <row r="461" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="4"/>
+      <c r="A461" s="4">
+        <f>COUNTA($B$155:B461)+97</f>
+        <v>370</v>
+      </c>
       <c r="B461" s="4" t="s">
         <v>835</v>
       </c>
@@ -11349,7 +12328,10 @@
       <c r="G461" s="4"/>
     </row>
     <row r="462" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="4"/>
+      <c r="A462" s="4">
+        <f>COUNTA($B$155:B462)+97</f>
+        <v>371</v>
+      </c>
       <c r="B462" s="4" t="s">
         <v>837</v>
       </c>
@@ -11366,7 +12348,10 @@
       <c r="G462" s="4"/>
     </row>
     <row r="463" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="4"/>
+      <c r="A463" s="4">
+        <f>COUNTA($B$155:B463)+97</f>
+        <v>372</v>
+      </c>
       <c r="B463" s="4" t="s">
         <v>839</v>
       </c>
@@ -11383,7 +12368,10 @@
       <c r="G463" s="4"/>
     </row>
     <row r="464" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="4"/>
+      <c r="A464" s="4">
+        <f>COUNTA($B$155:B464)+97</f>
+        <v>373</v>
+      </c>
       <c r="B464" s="4" t="s">
         <v>841</v>
       </c>
@@ -11400,7 +12388,10 @@
       <c r="G464" s="4"/>
     </row>
     <row r="465" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="4"/>
+      <c r="A465" s="4">
+        <f>COUNTA($B$155:B465)+97</f>
+        <v>374</v>
+      </c>
       <c r="B465" s="4" t="s">
         <v>843</v>
       </c>
@@ -11415,7 +12406,10 @@
       <c r="G465" s="4"/>
     </row>
     <row r="466" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="4"/>
+      <c r="A466" s="4">
+        <f>COUNTA($B$155:B466)+97</f>
+        <v>375</v>
+      </c>
       <c r="B466" s="4" t="s">
         <v>845</v>
       </c>
@@ -11432,7 +12426,10 @@
       <c r="G466" s="4"/>
     </row>
     <row r="467" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="4"/>
+      <c r="A467" s="4">
+        <f>COUNTA($B$155:B467)+97</f>
+        <v>376</v>
+      </c>
       <c r="B467" s="4" t="s">
         <v>847</v>
       </c>
@@ -11460,7 +12457,10 @@
       <c r="G468" s="4"/>
     </row>
     <row r="469" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="4"/>
+      <c r="A469" s="4">
+        <f>COUNTA($B$155:B469)+97</f>
+        <v>377</v>
+      </c>
       <c r="B469" s="4" t="s">
         <v>850</v>
       </c>
@@ -11477,7 +12477,10 @@
       <c r="G469" s="4"/>
     </row>
     <row r="470" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="4"/>
+      <c r="A470" s="4">
+        <f>COUNTA($B$155:B470)+97</f>
+        <v>378</v>
+      </c>
       <c r="B470" s="17" t="s">
         <v>852</v>
       </c>
@@ -11494,7 +12497,10 @@
       <c r="G470" s="4"/>
     </row>
     <row r="471" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="4"/>
+      <c r="A471" s="4">
+        <f>COUNTA($B$155:B471)+97</f>
+        <v>379</v>
+      </c>
       <c r="B471" s="4" t="s">
         <v>854</v>
       </c>
@@ -11511,7 +12517,10 @@
       <c r="G471" s="4"/>
     </row>
     <row r="472" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="4"/>
+      <c r="A472" s="4">
+        <f>COUNTA($B$155:B472)+97</f>
+        <v>380</v>
+      </c>
       <c r="B472" s="17" t="s">
         <v>856</v>
       </c>
@@ -11528,7 +12537,10 @@
       <c r="G472" s="4"/>
     </row>
     <row r="473" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="4"/>
+      <c r="A473" s="4">
+        <f>COUNTA($B$155:B473)+97</f>
+        <v>381</v>
+      </c>
       <c r="B473" s="4" t="s">
         <v>858</v>
       </c>
@@ -11545,7 +12557,10 @@
       <c r="G473" s="4"/>
     </row>
     <row r="474" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="4"/>
+      <c r="A474" s="4">
+        <f>COUNTA($B$155:B474)+97</f>
+        <v>382</v>
+      </c>
       <c r="B474" s="17" t="s">
         <v>860</v>
       </c>
@@ -11573,7 +12588,10 @@
       <c r="G475" s="4"/>
     </row>
     <row r="476" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A476" s="4"/>
+      <c r="A476" s="4">
+        <f>COUNTA($B$155:B476)+97</f>
+        <v>383</v>
+      </c>
       <c r="B476" s="4" t="s">
         <v>863</v>
       </c>
@@ -11590,7 +12608,10 @@
       <c r="G476" s="4"/>
     </row>
     <row r="477" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="4"/>
+      <c r="A477" s="4">
+        <f>COUNTA($B$155:B477)+97</f>
+        <v>384</v>
+      </c>
       <c r="B477" s="4" t="s">
         <v>865</v>
       </c>
@@ -11607,7 +12628,10 @@
       <c r="G477" s="4"/>
     </row>
     <row r="478" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="4"/>
+      <c r="A478" s="4">
+        <f>COUNTA($B$155:B478)+97</f>
+        <v>385</v>
+      </c>
       <c r="B478" s="4" t="s">
         <v>867</v>
       </c>
@@ -11624,7 +12648,10 @@
       <c r="G478" s="4"/>
     </row>
     <row r="479" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A479" s="4"/>
+      <c r="A479" s="4">
+        <f>COUNTA($B$155:B479)+97</f>
+        <v>386</v>
+      </c>
       <c r="B479" s="4" t="s">
         <v>869</v>
       </c>
@@ -11641,7 +12668,10 @@
       <c r="G479" s="4"/>
     </row>
     <row r="480" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="4"/>
+      <c r="A480" s="4">
+        <f>COUNTA($B$155:B480)+97</f>
+        <v>387</v>
+      </c>
       <c r="B480" s="4" t="s">
         <v>871</v>
       </c>
@@ -11658,7 +12688,10 @@
       <c r="G480" s="4"/>
     </row>
     <row r="481" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="4"/>
+      <c r="A481" s="4">
+        <f>COUNTA($B$155:B481)+97</f>
+        <v>388</v>
+      </c>
       <c r="B481" s="4" t="s">
         <v>873</v>
       </c>
@@ -11675,7 +12708,10 @@
       <c r="G481" s="4"/>
     </row>
     <row r="482" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="4"/>
+      <c r="A482" s="4">
+        <f>COUNTA($B$155:B482)+97</f>
+        <v>389</v>
+      </c>
       <c r="B482" s="4" t="s">
         <v>875</v>
       </c>
@@ -11692,7 +12728,10 @@
       <c r="G482" s="4"/>
     </row>
     <row r="483" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A483" s="4"/>
+      <c r="A483" s="4">
+        <f>COUNTA($B$155:B483)+97</f>
+        <v>390</v>
+      </c>
       <c r="B483" s="4" t="s">
         <v>877</v>
       </c>
@@ -11731,7 +12770,10 @@
       <c r="G485" s="4"/>
     </row>
     <row r="486" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="4"/>
+      <c r="A486" s="4">
+        <f>COUNTA($B$155:B486)+97</f>
+        <v>391</v>
+      </c>
       <c r="B486" s="4" t="s">
         <v>880</v>
       </c>
@@ -11746,7 +12788,10 @@
       <c r="G486" s="17"/>
     </row>
     <row r="487" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="4"/>
+      <c r="A487" s="4">
+        <f>COUNTA($B$155:B487)+97</f>
+        <v>392</v>
+      </c>
       <c r="B487" s="4" t="s">
         <v>881</v>
       </c>
@@ -11763,7 +12808,10 @@
       <c r="G487" s="4"/>
     </row>
     <row r="488" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="4"/>
+      <c r="A488" s="4">
+        <f>COUNTA($B$155:B488)+97</f>
+        <v>393</v>
+      </c>
       <c r="B488" s="4" t="s">
         <v>883</v>
       </c>
@@ -11780,7 +12828,10 @@
       <c r="G488" s="4"/>
     </row>
     <row r="489" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="4"/>
+      <c r="A489" s="4">
+        <f>COUNTA($B$155:B489)+97</f>
+        <v>394</v>
+      </c>
       <c r="B489" s="4" t="s">
         <v>885</v>
       </c>
@@ -11808,7 +12859,10 @@
       <c r="G490" s="4"/>
     </row>
     <row r="491" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="4"/>
+      <c r="A491" s="4">
+        <f>COUNTA($B$155:B491)+97</f>
+        <v>395</v>
+      </c>
       <c r="B491" s="4" t="s">
         <v>888</v>
       </c>
@@ -11825,7 +12879,10 @@
       <c r="G491" s="17"/>
     </row>
     <row r="492" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="4"/>
+      <c r="A492" s="4">
+        <f>COUNTA($B$155:B492)+97</f>
+        <v>396</v>
+      </c>
       <c r="B492" s="4" t="s">
         <v>890</v>
       </c>
@@ -11840,7 +12897,10 @@
       <c r="G492" s="4"/>
     </row>
     <row r="493" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="4"/>
+      <c r="A493" s="4">
+        <f>COUNTA($B$155:B493)+97</f>
+        <v>397</v>
+      </c>
       <c r="B493" s="4" t="s">
         <v>891</v>
       </c>
@@ -11857,7 +12917,10 @@
       <c r="G493" s="4"/>
     </row>
     <row r="494" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="4"/>
+      <c r="A494" s="4">
+        <f>COUNTA($B$155:B494)+97</f>
+        <v>398</v>
+      </c>
       <c r="B494" s="4" t="s">
         <v>893</v>
       </c>
@@ -11874,7 +12937,10 @@
       <c r="G494" s="4"/>
     </row>
     <row r="495" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A495" s="4"/>
+      <c r="A495" s="4">
+        <f>COUNTA($B$155:B495)+97</f>
+        <v>399</v>
+      </c>
       <c r="B495" s="4" t="s">
         <v>895</v>
       </c>
@@ -11891,7 +12957,10 @@
       <c r="G495" s="4"/>
     </row>
     <row r="496" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A496" s="4"/>
+      <c r="A496" s="4">
+        <f>COUNTA($B$155:B496)+97</f>
+        <v>400</v>
+      </c>
       <c r="B496" s="4" t="s">
         <v>897</v>
       </c>
@@ -11908,7 +12977,10 @@
       <c r="G496" s="4"/>
     </row>
     <row r="497" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A497" s="4"/>
+      <c r="A497" s="4">
+        <f>COUNTA($B$155:B497)+97</f>
+        <v>401</v>
+      </c>
       <c r="B497" s="4" t="s">
         <v>899</v>
       </c>
@@ -11925,7 +12997,10 @@
       <c r="G497" s="4"/>
     </row>
     <row r="498" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="4"/>
+      <c r="A498" s="4">
+        <f>COUNTA($B$155:B498)+97</f>
+        <v>402</v>
+      </c>
       <c r="B498" s="4" t="s">
         <v>901</v>
       </c>
@@ -11942,7 +13017,10 @@
       <c r="G498" s="4"/>
     </row>
     <row r="499" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="4"/>
+      <c r="A499" s="4">
+        <f>COUNTA($B$155:B499)+97</f>
+        <v>403</v>
+      </c>
       <c r="B499" s="4" t="s">
         <v>903</v>
       </c>
@@ -11959,7 +13037,10 @@
       <c r="G499" s="4"/>
     </row>
     <row r="500" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="4"/>
+      <c r="A500" s="4">
+        <f>COUNTA($B$155:B500)+97</f>
+        <v>404</v>
+      </c>
       <c r="B500" s="4" t="s">
         <v>905</v>
       </c>
@@ -11987,7 +13068,10 @@
       <c r="G501" s="4"/>
     </row>
     <row r="502" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="4"/>
+      <c r="A502" s="4">
+        <f>COUNTA($B$155:B502)+97</f>
+        <v>405</v>
+      </c>
       <c r="B502" s="4" t="s">
         <v>907</v>
       </c>
@@ -12004,7 +13088,10 @@
       <c r="G502" s="17"/>
     </row>
     <row r="503" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="4"/>
+      <c r="A503" s="4">
+        <f>COUNTA($B$155:B503)+97</f>
+        <v>406</v>
+      </c>
       <c r="B503" s="4" t="s">
         <v>909</v>
       </c>
@@ -12021,7 +13108,10 @@
       <c r="G503" s="4"/>
     </row>
     <row r="504" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="4"/>
+      <c r="A504" s="4">
+        <f>COUNTA($B$155:B504)+97</f>
+        <v>407</v>
+      </c>
       <c r="B504" s="4" t="s">
         <v>911</v>
       </c>
@@ -12049,7 +13139,10 @@
       <c r="G505" s="4"/>
     </row>
     <row r="506" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="4"/>
+      <c r="A506" s="4">
+        <f>COUNTA($B$155:B506)+97</f>
+        <v>408</v>
+      </c>
       <c r="B506" s="4" t="s">
         <v>914</v>
       </c>
@@ -12066,7 +13159,10 @@
       <c r="G506" s="17"/>
     </row>
     <row r="507" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A507" s="4"/>
+      <c r="A507" s="4">
+        <f>COUNTA($B$155:B507)+97</f>
+        <v>409</v>
+      </c>
       <c r="B507" s="4" t="s">
         <v>916</v>
       </c>
@@ -12083,7 +13179,10 @@
       <c r="G507" s="4"/>
     </row>
     <row r="508" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A508" s="4"/>
+      <c r="A508" s="4">
+        <f>COUNTA($B$155:B508)+97</f>
+        <v>410</v>
+      </c>
       <c r="B508" s="4" t="s">
         <v>918</v>
       </c>
@@ -12111,7 +13210,10 @@
       <c r="G509" s="4"/>
     </row>
     <row r="510" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="4"/>
+      <c r="A510" s="4">
+        <f>COUNTA($B$155:B510)+97</f>
+        <v>411</v>
+      </c>
       <c r="B510" s="4" t="s">
         <v>921</v>
       </c>
@@ -12128,7 +13230,10 @@
       <c r="G510" s="17"/>
     </row>
     <row r="511" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A511" s="4"/>
+      <c r="A511" s="4">
+        <f>COUNTA($B$155:B511)+97</f>
+        <v>412</v>
+      </c>
       <c r="B511" s="4" t="s">
         <v>922</v>
       </c>
@@ -12145,7 +13250,10 @@
       <c r="G511" s="4"/>
     </row>
     <row r="512" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="4"/>
+      <c r="A512" s="4">
+        <f>COUNTA($B$155:B512)+97</f>
+        <v>413</v>
+      </c>
       <c r="B512" s="4" t="s">
         <v>924</v>
       </c>
@@ -12162,7 +13270,10 @@
       <c r="G512" s="4"/>
     </row>
     <row r="513" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A513" s="4"/>
+      <c r="A513" s="4">
+        <f>COUNTA($B$155:B513)+97</f>
+        <v>414</v>
+      </c>
       <c r="B513" s="4" t="s">
         <v>926</v>
       </c>
@@ -12179,7 +13290,10 @@
       <c r="G513" s="4"/>
     </row>
     <row r="514" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A514" s="4"/>
+      <c r="A514" s="4">
+        <f>COUNTA($B$155:B514)+97</f>
+        <v>415</v>
+      </c>
       <c r="B514" s="4" t="s">
         <v>928</v>
       </c>
@@ -12218,7 +13332,10 @@
       <c r="G516" s="4"/>
     </row>
     <row r="517" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A517" s="4"/>
+      <c r="A517" s="4">
+        <f>COUNTA($B$155:B517)+97</f>
+        <v>416</v>
+      </c>
       <c r="B517" s="4" t="s">
         <v>932</v>
       </c>
@@ -12235,7 +13352,10 @@
       <c r="G517" s="4"/>
     </row>
     <row r="518" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A518" s="4"/>
+      <c r="A518" s="4">
+        <f>COUNTA($B$155:B518)+97</f>
+        <v>417</v>
+      </c>
       <c r="B518" s="4" t="s">
         <v>934</v>
       </c>
@@ -12252,7 +13372,10 @@
       <c r="G518" s="4"/>
     </row>
     <row r="519" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A519" s="4"/>
+      <c r="A519" s="4">
+        <f>COUNTA($B$155:B519)+97</f>
+        <v>418</v>
+      </c>
       <c r="B519" s="4" t="s">
         <v>936</v>
       </c>
@@ -12269,7 +13392,10 @@
       <c r="G519" s="4"/>
     </row>
     <row r="520" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="4"/>
+      <c r="A520" s="4">
+        <f>COUNTA($B$155:B520)+97</f>
+        <v>419</v>
+      </c>
       <c r="B520" s="4" t="s">
         <v>938</v>
       </c>
@@ -12286,7 +13412,10 @@
       <c r="G520" s="4"/>
     </row>
     <row r="521" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A521" s="4"/>
+      <c r="A521" s="4">
+        <f>COUNTA($B$155:B521)+97</f>
+        <v>420</v>
+      </c>
       <c r="B521" s="4" t="s">
         <v>940</v>
       </c>
@@ -12303,7 +13432,10 @@
       <c r="G521" s="4"/>
     </row>
     <row r="522" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="4"/>
+      <c r="A522" s="4">
+        <f>COUNTA($B$155:B522)+97</f>
+        <v>421</v>
+      </c>
       <c r="B522" s="4" t="s">
         <v>942</v>
       </c>
@@ -12344,7 +13476,9 @@
       <c r="G524" s="4"/>
     </row>
     <row r="525" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="4"/>
+      <c r="A525" s="4">
+        <v>422</v>
+      </c>
       <c r="B525" s="4" t="s">
         <v>947</v>
       </c>
@@ -12361,7 +13495,9 @@
       <c r="G525" s="4"/>
     </row>
     <row r="526" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="4"/>
+      <c r="A526" s="4">
+        <v>423</v>
+      </c>
       <c r="B526" s="4" t="s">
         <v>949</v>
       </c>
@@ -12378,7 +13514,9 @@
       <c r="G526" s="4"/>
     </row>
     <row r="527" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A527" s="4"/>
+      <c r="A527" s="4">
+        <v>424</v>
+      </c>
       <c r="B527" s="4" t="s">
         <v>951</v>
       </c>
@@ -12395,7 +13533,9 @@
       <c r="G527" s="4"/>
     </row>
     <row r="528" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A528" s="4"/>
+      <c r="A528" s="4">
+        <v>425</v>
+      </c>
       <c r="B528" s="4" t="s">
         <v>953</v>
       </c>
@@ -12412,7 +13552,9 @@
       <c r="G528" s="4"/>
     </row>
     <row r="529" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="4"/>
+      <c r="A529" s="4">
+        <v>426</v>
+      </c>
       <c r="B529" s="4" t="s">
         <v>955</v>
       </c>
@@ -12429,7 +13571,9 @@
       <c r="G529" s="4"/>
     </row>
     <row r="530" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="4"/>
+      <c r="A530" s="4">
+        <v>427</v>
+      </c>
       <c r="B530" s="4" t="s">
         <v>957</v>
       </c>
@@ -12446,7 +13590,9 @@
       <c r="G530" s="4"/>
     </row>
     <row r="531" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="4"/>
+      <c r="A531" s="4">
+        <v>428</v>
+      </c>
       <c r="B531" s="4" t="s">
         <v>959</v>
       </c>
@@ -12463,7 +13609,9 @@
       <c r="G531" s="4"/>
     </row>
     <row r="532" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A532" s="4"/>
+      <c r="A532" s="4">
+        <v>429</v>
+      </c>
       <c r="B532" s="4" t="s">
         <v>961</v>
       </c>
@@ -12480,7 +13628,9 @@
       <c r="G532" s="4"/>
     </row>
     <row r="533" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="4"/>
+      <c r="A533" s="4">
+        <v>430</v>
+      </c>
       <c r="B533" s="4" t="s">
         <v>963</v>
       </c>
@@ -12497,7 +13647,9 @@
       <c r="G533" s="4"/>
     </row>
     <row r="534" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A534" s="4"/>
+      <c r="A534" s="4">
+        <v>431</v>
+      </c>
       <c r="B534" s="4" t="s">
         <v>965</v>
       </c>
@@ -12514,7 +13666,9 @@
       <c r="G534" s="4"/>
     </row>
     <row r="535" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="4"/>
+      <c r="A535" s="4">
+        <v>432</v>
+      </c>
       <c r="B535" s="4" t="s">
         <v>967</v>
       </c>
@@ -12531,7 +13685,9 @@
       <c r="G535" s="4"/>
     </row>
     <row r="536" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="4"/>
+      <c r="A536" s="4">
+        <v>433</v>
+      </c>
       <c r="B536" s="4" t="s">
         <v>969</v>
       </c>
@@ -12548,7 +13704,9 @@
       <c r="G536" s="4"/>
     </row>
     <row r="537" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="4"/>
+      <c r="A537" s="4">
+        <v>434</v>
+      </c>
       <c r="B537" s="4" t="s">
         <v>971</v>
       </c>
@@ -12565,7 +13723,9 @@
       <c r="G537" s="4"/>
     </row>
     <row r="538" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A538" s="4"/>
+      <c r="A538" s="4">
+        <v>435</v>
+      </c>
       <c r="B538" s="4" t="s">
         <v>973</v>
       </c>
@@ -12591,24 +13751,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="39" t="s">
+      <c r="A540" s="24" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="40"/>
-      <c r="C540" s="40"/>
-      <c r="D540" s="40"/>
-      <c r="E540" s="41"/>
+      <c r="B540" s="25"/>
+      <c r="C540" s="25"/>
+      <c r="D540" s="25"/>
+      <c r="E540" s="26"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="24" t="s">
+      <c r="A541" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="25"/>
-      <c r="C541" s="25"/>
-      <c r="D541" s="25"/>
-      <c r="E541" s="26"/>
+      <c r="B541" s="48"/>
+      <c r="C541" s="48"/>
+      <c r="D541" s="48"/>
+      <c r="E541" s="49"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -12634,12 +13794,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="27" t="s">
+      <c r="B544" s="50" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="28"/>
-      <c r="D544" s="28"/>
-      <c r="E544" s="29"/>
+      <c r="C544" s="51"/>
+      <c r="D544" s="51"/>
+      <c r="E544" s="52"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -12647,12 +13807,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="30" t="s">
+      <c r="B545" s="53" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="31"/>
-      <c r="D545" s="31"/>
-      <c r="E545" s="32"/>
+      <c r="C545" s="54"/>
+      <c r="D545" s="54"/>
+      <c r="E545" s="55"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -12660,25 +13820,25 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="33" t="s">
+      <c r="B546" s="56" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="34"/>
-      <c r="D546" s="34"/>
-      <c r="E546" s="35"/>
+      <c r="C546" s="57"/>
+      <c r="D546" s="57"/>
+      <c r="E546" s="58"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="36" t="s">
+      <c r="A547" s="59" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="37"/>
-      <c r="C547" s="37"/>
-      <c r="D547" s="37"/>
-      <c r="E547" s="37"/>
-      <c r="F547" s="37"/>
-      <c r="G547" s="38"/>
+      <c r="B547" s="60"/>
+      <c r="C547" s="60"/>
+      <c r="D547" s="60"/>
+      <c r="E547" s="60"/>
+      <c r="F547" s="60"/>
+      <c r="G547" s="61"/>
     </row>
     <row r="548" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4"/>
@@ -21331,6 +22491,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -21343,11 +22508,6 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="991">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3892,13 +3892,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="66.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="55.7109375" style="3" customWidth="1"/>
     <col min="4" max="16384" width="30.85546875" style="3"/>
@@ -4636,7 +4636,9 @@
       <c r="E45" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4659,7 +4661,7 @@
       <c r="B47" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D47" s="14" t="s">
@@ -4668,7 +4670,9 @@
       <c r="E47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="17"/>
+      <c r="F47" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5203,7 +5207,9 @@
       <c r="E77" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="17"/>
+      <c r="F77" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5222,7 +5228,9 @@
       <c r="E78" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5232,7 +5240,7 @@
       <c r="B79" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="22" t="s">
         <v>134</v>
       </c>
       <c r="D79" s="15" t="s">
@@ -5241,7 +5249,9 @@
       <c r="E79" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="4"/>
+      <c r="F79" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22579,7 +22589,7 @@
     <hyperlink ref="E44" r:id="rId67" display="https://www.geeksforgeeks.org/introduction-to-map-data-structure-and-algorithm-tutorials/"/>
     <hyperlink ref="C45" r:id="rId68"/>
     <hyperlink ref="E45" r:id="rId69" display="https://www.geeksforgeeks.org/counting-frequencies-of-array-elements/"/>
-    <hyperlink ref="C47" r:id="rId70" display="https://www.geeksforgeeks.org/problems/key-pair5616/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="C47" r:id="rId70"/>
     <hyperlink ref="D47" r:id="rId71" display="https://youtu.be/UXDSeD9mN-k?si=0OalQrKPSoSeO6io"/>
     <hyperlink ref="E47" r:id="rId72" display="https://www.geeksforgeeks.org/check-if-pair-with-given-sum-exists-in-array/"/>
     <hyperlink ref="C48" r:id="rId73" display="https://www.geeksforgeeks.org/problems/triplet-sum-in-array-1587115621/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="991">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3892,8 +3892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C527" sqref="C527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5270,7 +5270,9 @@
       <c r="E80" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F80" s="17"/>
+      <c r="F80" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5280,7 +5282,7 @@
       <c r="B81" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="22" t="s">
         <v>138</v>
       </c>
       <c r="D81" s="14" t="s">
@@ -5289,7 +5291,9 @@
       <c r="E81" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="17"/>
+      <c r="F81" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5299,7 +5303,7 @@
       <c r="B82" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="22" t="s">
         <v>140</v>
       </c>
       <c r="D82" s="15" t="s">
@@ -5308,7 +5312,9 @@
       <c r="E82" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F82" s="4"/>
+      <c r="F82" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5318,7 +5324,7 @@
       <c r="B83" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D83" s="15" t="s">
@@ -5337,7 +5343,7 @@
       <c r="B84" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="22" t="s">
         <v>145</v>
       </c>
       <c r="D84" s="15" t="s">
@@ -22673,13 +22679,13 @@
     <hyperlink ref="C80" r:id="rId151" display="https://www.geeksforgeeks.org/problems/nth-fibonacci-number1335/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
     <hyperlink ref="D80" r:id="rId152" display="https://youtu.be/kvRjNm4rVBE?si=HoIm_q77BpGtePSF"/>
     <hyperlink ref="E80" r:id="rId153" display="https://www.geeksforgeeks.org/program-for-nth-fibonacci-number/"/>
-    <hyperlink ref="C81" r:id="rId154" display="https://www.geeksforgeeks.org/problems/power-of-numbers-1587115620/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article"/>
+    <hyperlink ref="C81" r:id="rId154"/>
     <hyperlink ref="D81" r:id="rId155" display="https://youtu.be/l0YC3876qxg?si=gpooiy_1Voz_M2b6"/>
     <hyperlink ref="E81" r:id="rId156" display="https://www.geeksforgeeks.org/write-a-c-program-to-calculate-powxn/"/>
     <hyperlink ref="C82" r:id="rId157"/>
     <hyperlink ref="D82" r:id="rId158" display="https://youtu.be/tNm_NNSB3_w?si=qRueLOLTmrBAtTTC"/>
     <hyperlink ref="E82" r:id="rId159" display="https://www.geeksforgeeks.org/c-programs-print-interesting-patterns/"/>
-    <hyperlink ref="C83" r:id="rId160" display="https://practice.geeksforgeeks.org/problems/implement-atoi/1?utm_source=geeksforgeeks&amp;utm_medium=ml_article_practice_tab&amp;utm_campaign=article_practice_tab"/>
+    <hyperlink ref="C83" r:id="rId160"/>
     <hyperlink ref="D83" r:id="rId161" display="https://youtu.be/cXf7NKgT13s?si=7CiE2Yq4IRTwI3vh"/>
     <hyperlink ref="E83" r:id="rId162" display="https://www.geeksforgeeks.org/recursive-implementation-of-atoi/"/>
     <hyperlink ref="C84" r:id="rId163"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -3571,6 +3571,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3594,21 +3609,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3892,8 +3892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C527" sqref="C527"/>
+    <sheetView tabSelected="1" topLeftCell="A535" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C526" sqref="C526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3905,103 +3905,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4013,15 +4013,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5016,12 +5016,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -13767,24 +13767,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="24" t="s">
+      <c r="A540" s="39" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="25"/>
-      <c r="C540" s="25"/>
-      <c r="D540" s="25"/>
-      <c r="E540" s="26"/>
+      <c r="B540" s="40"/>
+      <c r="C540" s="40"/>
+      <c r="D540" s="40"/>
+      <c r="E540" s="41"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="47" t="s">
+      <c r="A541" s="24" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="48"/>
-      <c r="C541" s="48"/>
-      <c r="D541" s="48"/>
-      <c r="E541" s="49"/>
+      <c r="B541" s="25"/>
+      <c r="C541" s="25"/>
+      <c r="D541" s="25"/>
+      <c r="E541" s="26"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -13810,12 +13810,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="50" t="s">
+      <c r="B544" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="51"/>
-      <c r="D544" s="51"/>
-      <c r="E544" s="52"/>
+      <c r="C544" s="28"/>
+      <c r="D544" s="28"/>
+      <c r="E544" s="29"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -13823,12 +13823,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="53" t="s">
+      <c r="B545" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="54"/>
-      <c r="D545" s="54"/>
-      <c r="E545" s="55"/>
+      <c r="C545" s="31"/>
+      <c r="D545" s="31"/>
+      <c r="E545" s="32"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -13836,25 +13836,25 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="56" t="s">
+      <c r="B546" s="33" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="57"/>
-      <c r="D546" s="57"/>
-      <c r="E546" s="58"/>
+      <c r="C546" s="34"/>
+      <c r="D546" s="34"/>
+      <c r="E546" s="35"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="59" t="s">
+      <c r="A547" s="36" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="60"/>
-      <c r="C547" s="60"/>
-      <c r="D547" s="60"/>
-      <c r="E547" s="60"/>
-      <c r="F547" s="60"/>
-      <c r="G547" s="61"/>
+      <c r="B547" s="37"/>
+      <c r="C547" s="37"/>
+      <c r="D547" s="37"/>
+      <c r="E547" s="37"/>
+      <c r="F547" s="37"/>
+      <c r="G547" s="38"/>
     </row>
     <row r="548" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4"/>
@@ -22507,11 +22507,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -22524,6 +22519,11 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="991">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3571,21 +3571,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3609,6 +3594,21 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3890,10 +3890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1508"/>
+  <dimension ref="A1:G547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A535" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C526" sqref="C526"/>
+    <sheetView tabSelected="1" topLeftCell="A520" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3901,107 +3901,108 @@
     <col min="1" max="1" width="45.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="66.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="55.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="30.85546875" style="3"/>
+    <col min="4" max="4" width="32" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="30.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4013,15 +4014,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4379,7 +4380,9 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4394,7 +4397,9 @@
       <c r="E33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4617,7 +4622,9 @@
       <c r="E44" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4651,7 +4658,9 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4691,7 +4700,9 @@
       <c r="E48" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4710,7 +4721,9 @@
       <c r="E49" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4729,7 +4742,9 @@
       <c r="E50" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="4"/>
+      <c r="F50" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G50" s="4">
         <f>13*35</f>
         <v>455</v>
@@ -4751,7 +4766,9 @@
       <c r="E51" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4770,7 +4787,9 @@
       <c r="E52" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4789,7 +4808,9 @@
       <c r="E53" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4808,7 +4829,9 @@
       <c r="E54" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4827,7 +4850,9 @@
       <c r="E55" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4846,7 +4871,9 @@
       <c r="E56" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="4"/>
+      <c r="F56" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4865,7 +4892,9 @@
       <c r="E57" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4886,7 +4915,7 @@
       <c r="B59" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="22" t="s">
         <v>97</v>
       </c>
       <c r="D59" s="14" t="s">
@@ -5016,12 +5045,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -13517,7 +13546,7 @@
       <c r="B526" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="C526" s="14" t="s">
+      <c r="C526" s="22" t="s">
         <v>950</v>
       </c>
       <c r="D526" s="17" t="s">
@@ -13767,24 +13796,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="39" t="s">
+      <c r="A540" s="24" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="40"/>
-      <c r="C540" s="40"/>
-      <c r="D540" s="40"/>
-      <c r="E540" s="41"/>
+      <c r="B540" s="25"/>
+      <c r="C540" s="25"/>
+      <c r="D540" s="25"/>
+      <c r="E540" s="26"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="24" t="s">
+      <c r="A541" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="25"/>
-      <c r="C541" s="25"/>
-      <c r="D541" s="25"/>
-      <c r="E541" s="26"/>
+      <c r="B541" s="48"/>
+      <c r="C541" s="48"/>
+      <c r="D541" s="48"/>
+      <c r="E541" s="49"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -13810,12 +13839,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="27" t="s">
+      <c r="B544" s="50" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="28"/>
-      <c r="D544" s="28"/>
-      <c r="E544" s="29"/>
+      <c r="C544" s="51"/>
+      <c r="D544" s="51"/>
+      <c r="E544" s="52"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -13823,12 +13852,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="30" t="s">
+      <c r="B545" s="61" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="31"/>
-      <c r="D545" s="31"/>
-      <c r="E545" s="32"/>
+      <c r="C545" s="53"/>
+      <c r="D545" s="53"/>
+      <c r="E545" s="54"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -13836,8677 +13865,33 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="33" t="s">
+      <c r="B546" s="55" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="34"/>
-      <c r="D546" s="34"/>
-      <c r="E546" s="35"/>
+      <c r="C546" s="56"/>
+      <c r="D546" s="56"/>
+      <c r="E546" s="57"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="36" t="s">
+      <c r="A547" s="58" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="37"/>
-      <c r="C547" s="37"/>
-      <c r="D547" s="37"/>
-      <c r="E547" s="37"/>
-      <c r="F547" s="37"/>
-      <c r="G547" s="38"/>
-    </row>
-    <row r="548" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A548" s="4"/>
-      <c r="B548" s="4"/>
-      <c r="C548" s="4"/>
-      <c r="D548" s="4"/>
-      <c r="E548" s="4"/>
-      <c r="F548" s="4"/>
-      <c r="G548" s="4"/>
-    </row>
-    <row r="549" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A549" s="4"/>
-      <c r="B549" s="4"/>
-      <c r="C549" s="4"/>
-      <c r="D549" s="4"/>
-      <c r="E549" s="4"/>
-      <c r="F549" s="4"/>
-      <c r="G549" s="4"/>
-    </row>
-    <row r="550" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="4"/>
-      <c r="B550" s="4"/>
-      <c r="C550" s="4"/>
-      <c r="D550" s="4"/>
-      <c r="E550" s="4"/>
-      <c r="F550" s="4"/>
-      <c r="G550" s="4"/>
-    </row>
-    <row r="551" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A551" s="4"/>
-      <c r="B551" s="4"/>
-      <c r="C551" s="4"/>
-      <c r="D551" s="4"/>
-      <c r="E551" s="4"/>
-      <c r="F551" s="4"/>
-      <c r="G551" s="4"/>
-    </row>
-    <row r="552" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A552" s="4"/>
-      <c r="B552" s="4"/>
-      <c r="C552" s="4"/>
-      <c r="D552" s="4"/>
-      <c r="E552" s="4"/>
-      <c r="F552" s="4"/>
-      <c r="G552" s="4"/>
-    </row>
-    <row r="553" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A553" s="4"/>
-      <c r="B553" s="4"/>
-      <c r="C553" s="4"/>
-      <c r="D553" s="4"/>
-      <c r="E553" s="4"/>
-      <c r="F553" s="4"/>
-      <c r="G553" s="4"/>
-    </row>
-    <row r="554" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A554" s="4"/>
-      <c r="B554" s="4"/>
-      <c r="C554" s="4"/>
-      <c r="D554" s="4"/>
-      <c r="E554" s="4"/>
-      <c r="F554" s="4"/>
-      <c r="G554" s="4"/>
-    </row>
-    <row r="555" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A555" s="4"/>
-      <c r="B555" s="4"/>
-      <c r="C555" s="4"/>
-      <c r="D555" s="4"/>
-      <c r="E555" s="4"/>
-      <c r="F555" s="4"/>
-      <c r="G555" s="4"/>
-    </row>
-    <row r="556" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A556" s="4"/>
-      <c r="B556" s="4"/>
-      <c r="C556" s="4"/>
-      <c r="D556" s="4"/>
-      <c r="E556" s="4"/>
-      <c r="F556" s="4"/>
-      <c r="G556" s="4"/>
-    </row>
-    <row r="557" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A557" s="4"/>
-      <c r="B557" s="4"/>
-      <c r="C557" s="4"/>
-      <c r="D557" s="4"/>
-      <c r="E557" s="4"/>
-      <c r="F557" s="4"/>
-      <c r="G557" s="4"/>
-    </row>
-    <row r="558" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A558" s="4"/>
-      <c r="B558" s="4"/>
-      <c r="C558" s="4"/>
-      <c r="D558" s="4"/>
-      <c r="E558" s="4"/>
-      <c r="F558" s="4"/>
-      <c r="G558" s="4"/>
-    </row>
-    <row r="559" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A559" s="4"/>
-      <c r="B559" s="4"/>
-      <c r="C559" s="4"/>
-      <c r="D559" s="4"/>
-      <c r="E559" s="4"/>
-      <c r="F559" s="4"/>
-      <c r="G559" s="4"/>
-    </row>
-    <row r="560" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A560" s="4"/>
-      <c r="B560" s="4"/>
-      <c r="C560" s="4"/>
-      <c r="D560" s="4"/>
-      <c r="E560" s="4"/>
-      <c r="F560" s="4"/>
-      <c r="G560" s="4"/>
-    </row>
-    <row r="561" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="4"/>
-      <c r="B561" s="4"/>
-      <c r="C561" s="4"/>
-      <c r="D561" s="4"/>
-      <c r="E561" s="4"/>
-      <c r="F561" s="4"/>
-      <c r="G561" s="4"/>
-    </row>
-    <row r="562" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A562" s="4"/>
-      <c r="B562" s="4"/>
-      <c r="C562" s="4"/>
-      <c r="D562" s="4"/>
-      <c r="E562" s="4"/>
-      <c r="F562" s="4"/>
-      <c r="G562" s="4"/>
-    </row>
-    <row r="563" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A563" s="4"/>
-      <c r="B563" s="4"/>
-      <c r="C563" s="4"/>
-      <c r="D563" s="4"/>
-      <c r="E563" s="4"/>
-      <c r="F563" s="4"/>
-      <c r="G563" s="4"/>
-    </row>
-    <row r="564" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A564" s="4"/>
-      <c r="B564" s="4"/>
-      <c r="C564" s="4"/>
-      <c r="D564" s="4"/>
-      <c r="E564" s="4"/>
-      <c r="F564" s="4"/>
-      <c r="G564" s="4"/>
-    </row>
-    <row r="565" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A565" s="4"/>
-      <c r="B565" s="4"/>
-      <c r="C565" s="4"/>
-      <c r="D565" s="4"/>
-      <c r="E565" s="4"/>
-      <c r="F565" s="4"/>
-      <c r="G565" s="4"/>
-    </row>
-    <row r="566" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A566" s="4"/>
-      <c r="B566" s="4"/>
-      <c r="C566" s="4"/>
-      <c r="D566" s="4"/>
-      <c r="E566" s="4"/>
-      <c r="F566" s="4"/>
-      <c r="G566" s="4"/>
-    </row>
-    <row r="567" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A567" s="4"/>
-      <c r="B567" s="4"/>
-      <c r="C567" s="4"/>
-      <c r="D567" s="4"/>
-      <c r="E567" s="4"/>
-      <c r="F567" s="4"/>
-      <c r="G567" s="4"/>
-    </row>
-    <row r="568" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A568" s="4"/>
-      <c r="B568" s="4"/>
-      <c r="C568" s="4"/>
-      <c r="D568" s="4"/>
-      <c r="E568" s="4"/>
-      <c r="F568" s="4"/>
-      <c r="G568" s="4"/>
-    </row>
-    <row r="569" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A569" s="4"/>
-      <c r="B569" s="4"/>
-      <c r="C569" s="4"/>
-      <c r="D569" s="4"/>
-      <c r="E569" s="4"/>
-      <c r="F569" s="4"/>
-      <c r="G569" s="4"/>
-    </row>
-    <row r="570" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="4"/>
-      <c r="B570" s="4"/>
-      <c r="C570" s="4"/>
-      <c r="D570" s="4"/>
-      <c r="E570" s="4"/>
-      <c r="F570" s="4"/>
-      <c r="G570" s="4"/>
-    </row>
-    <row r="571" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A571" s="4"/>
-      <c r="B571" s="4"/>
-      <c r="C571" s="4"/>
-      <c r="D571" s="4"/>
-      <c r="E571" s="4"/>
-      <c r="F571" s="4"/>
-      <c r="G571" s="4"/>
-    </row>
-    <row r="572" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A572" s="4"/>
-      <c r="B572" s="4"/>
-      <c r="C572" s="4"/>
-      <c r="D572" s="4"/>
-      <c r="E572" s="4"/>
-      <c r="F572" s="4"/>
-      <c r="G572" s="4"/>
-    </row>
-    <row r="573" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A573" s="4"/>
-      <c r="B573" s="4"/>
-      <c r="C573" s="4"/>
-      <c r="D573" s="4"/>
-      <c r="E573" s="4"/>
-      <c r="F573" s="4"/>
-      <c r="G573" s="4"/>
-    </row>
-    <row r="574" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="4"/>
-      <c r="B574" s="4"/>
-      <c r="C574" s="4"/>
-      <c r="D574" s="4"/>
-      <c r="E574" s="4"/>
-      <c r="F574" s="4"/>
-      <c r="G574" s="4"/>
-    </row>
-    <row r="575" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A575" s="4"/>
-      <c r="B575" s="4"/>
-      <c r="C575" s="4"/>
-      <c r="D575" s="4"/>
-      <c r="E575" s="4"/>
-      <c r="F575" s="4"/>
-      <c r="G575" s="4"/>
-    </row>
-    <row r="576" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A576" s="4"/>
-      <c r="B576" s="4"/>
-      <c r="C576" s="4"/>
-      <c r="D576" s="4"/>
-      <c r="E576" s="4"/>
-      <c r="F576" s="4"/>
-      <c r="G576" s="4"/>
-    </row>
-    <row r="577" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A577" s="4"/>
-      <c r="B577" s="4"/>
-      <c r="C577" s="4"/>
-      <c r="D577" s="4"/>
-      <c r="E577" s="4"/>
-      <c r="F577" s="4"/>
-      <c r="G577" s="4"/>
-    </row>
-    <row r="578" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A578" s="4"/>
-      <c r="B578" s="4"/>
-      <c r="C578" s="4"/>
-      <c r="D578" s="4"/>
-      <c r="E578" s="4"/>
-      <c r="F578" s="4"/>
-      <c r="G578" s="4"/>
-    </row>
-    <row r="579" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A579" s="4"/>
-      <c r="B579" s="4"/>
-      <c r="C579" s="4"/>
-      <c r="D579" s="4"/>
-      <c r="E579" s="4"/>
-      <c r="F579" s="4"/>
-      <c r="G579" s="4"/>
-    </row>
-    <row r="580" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A580" s="4"/>
-      <c r="B580" s="4"/>
-      <c r="C580" s="4"/>
-      <c r="D580" s="4"/>
-      <c r="E580" s="4"/>
-      <c r="F580" s="4"/>
-      <c r="G580" s="4"/>
-    </row>
-    <row r="581" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A581" s="4"/>
-      <c r="B581" s="4"/>
-      <c r="C581" s="4"/>
-      <c r="D581" s="4"/>
-      <c r="E581" s="4"/>
-      <c r="F581" s="4"/>
-      <c r="G581" s="4"/>
-    </row>
-    <row r="582" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A582" s="4"/>
-      <c r="B582" s="4"/>
-      <c r="C582" s="4"/>
-      <c r="D582" s="4"/>
-      <c r="E582" s="4"/>
-      <c r="F582" s="4"/>
-      <c r="G582" s="4"/>
-    </row>
-    <row r="583" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A583" s="4"/>
-      <c r="B583" s="4"/>
-      <c r="C583" s="4"/>
-      <c r="D583" s="4"/>
-      <c r="E583" s="4"/>
-      <c r="F583" s="4"/>
-      <c r="G583" s="4"/>
-    </row>
-    <row r="584" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="4"/>
-      <c r="B584" s="4"/>
-      <c r="C584" s="4"/>
-      <c r="D584" s="4"/>
-      <c r="E584" s="4"/>
-      <c r="F584" s="4"/>
-      <c r="G584" s="4"/>
-    </row>
-    <row r="585" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A585" s="4"/>
-      <c r="B585" s="4"/>
-      <c r="C585" s="4"/>
-      <c r="D585" s="4"/>
-      <c r="E585" s="4"/>
-      <c r="F585" s="4"/>
-      <c r="G585" s="4"/>
-    </row>
-    <row r="586" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A586" s="4"/>
-      <c r="B586" s="4"/>
-      <c r="C586" s="4"/>
-      <c r="D586" s="4"/>
-      <c r="E586" s="4"/>
-      <c r="F586" s="4"/>
-      <c r="G586" s="4"/>
-    </row>
-    <row r="587" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A587" s="4"/>
-      <c r="B587" s="4"/>
-      <c r="C587" s="4"/>
-      <c r="D587" s="4"/>
-      <c r="E587" s="4"/>
-      <c r="F587" s="4"/>
-      <c r="G587" s="4"/>
-    </row>
-    <row r="588" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A588" s="4"/>
-      <c r="B588" s="4"/>
-      <c r="C588" s="4"/>
-      <c r="D588" s="4"/>
-      <c r="E588" s="4"/>
-      <c r="F588" s="4"/>
-      <c r="G588" s="4"/>
-    </row>
-    <row r="589" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A589" s="4"/>
-      <c r="B589" s="4"/>
-      <c r="C589" s="4"/>
-      <c r="D589" s="4"/>
-      <c r="E589" s="4"/>
-      <c r="F589" s="4"/>
-      <c r="G589" s="4"/>
-    </row>
-    <row r="590" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A590" s="4"/>
-      <c r="B590" s="4"/>
-      <c r="C590" s="4"/>
-      <c r="D590" s="4"/>
-      <c r="E590" s="4"/>
-      <c r="F590" s="4"/>
-      <c r="G590" s="4"/>
-    </row>
-    <row r="591" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A591" s="4"/>
-      <c r="B591" s="4"/>
-      <c r="C591" s="4"/>
-      <c r="D591" s="4"/>
-      <c r="E591" s="4"/>
-      <c r="F591" s="4"/>
-      <c r="G591" s="4"/>
-    </row>
-    <row r="592" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A592" s="4"/>
-      <c r="B592" s="4"/>
-      <c r="C592" s="4"/>
-      <c r="D592" s="4"/>
-      <c r="E592" s="4"/>
-      <c r="F592" s="4"/>
-      <c r="G592" s="4"/>
-    </row>
-    <row r="593" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A593" s="4"/>
-      <c r="B593" s="4"/>
-      <c r="C593" s="4"/>
-      <c r="D593" s="4"/>
-      <c r="E593" s="4"/>
-      <c r="F593" s="4"/>
-      <c r="G593" s="4"/>
-    </row>
-    <row r="594" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A594" s="4"/>
-      <c r="B594" s="4"/>
-      <c r="C594" s="4"/>
-      <c r="D594" s="4"/>
-      <c r="E594" s="4"/>
-      <c r="F594" s="4"/>
-      <c r="G594" s="4"/>
-    </row>
-    <row r="595" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A595" s="4"/>
-      <c r="B595" s="4"/>
-      <c r="C595" s="4"/>
-      <c r="D595" s="4"/>
-      <c r="E595" s="4"/>
-      <c r="F595" s="4"/>
-      <c r="G595" s="4"/>
-    </row>
-    <row r="596" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A596" s="4"/>
-      <c r="B596" s="4"/>
-      <c r="C596" s="4"/>
-      <c r="D596" s="4"/>
-      <c r="E596" s="4"/>
-      <c r="F596" s="4"/>
-      <c r="G596" s="4"/>
-    </row>
-    <row r="597" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A597" s="4"/>
-      <c r="B597" s="4"/>
-      <c r="C597" s="4"/>
-      <c r="D597" s="4"/>
-      <c r="E597" s="4"/>
-      <c r="F597" s="4"/>
-      <c r="G597" s="4"/>
-    </row>
-    <row r="598" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A598" s="4"/>
-      <c r="B598" s="4"/>
-      <c r="C598" s="4"/>
-      <c r="D598" s="4"/>
-      <c r="E598" s="4"/>
-      <c r="F598" s="4"/>
-      <c r="G598" s="4"/>
-    </row>
-    <row r="599" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A599" s="4"/>
-      <c r="B599" s="4"/>
-      <c r="C599" s="4"/>
-      <c r="D599" s="4"/>
-      <c r="E599" s="4"/>
-      <c r="F599" s="4"/>
-      <c r="G599" s="4"/>
-    </row>
-    <row r="600" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A600" s="4"/>
-      <c r="B600" s="4"/>
-      <c r="C600" s="4"/>
-      <c r="D600" s="4"/>
-      <c r="E600" s="4"/>
-      <c r="F600" s="4"/>
-      <c r="G600" s="4"/>
-    </row>
-    <row r="601" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A601" s="4"/>
-      <c r="B601" s="4"/>
-      <c r="C601" s="4"/>
-      <c r="D601" s="4"/>
-      <c r="E601" s="4"/>
-      <c r="F601" s="4"/>
-      <c r="G601" s="4"/>
-    </row>
-    <row r="602" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A602" s="4"/>
-      <c r="B602" s="4"/>
-      <c r="C602" s="4"/>
-      <c r="D602" s="4"/>
-      <c r="E602" s="4"/>
-      <c r="F602" s="4"/>
-      <c r="G602" s="4"/>
-    </row>
-    <row r="603" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A603" s="4"/>
-      <c r="B603" s="4"/>
-      <c r="C603" s="4"/>
-      <c r="D603" s="4"/>
-      <c r="E603" s="4"/>
-      <c r="F603" s="4"/>
-      <c r="G603" s="4"/>
-    </row>
-    <row r="604" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A604" s="4"/>
-      <c r="B604" s="4"/>
-      <c r="C604" s="4"/>
-      <c r="D604" s="4"/>
-      <c r="E604" s="4"/>
-      <c r="F604" s="4"/>
-      <c r="G604" s="4"/>
-    </row>
-    <row r="605" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A605" s="4"/>
-      <c r="B605" s="4"/>
-      <c r="C605" s="4"/>
-      <c r="D605" s="4"/>
-      <c r="E605" s="4"/>
-      <c r="F605" s="4"/>
-      <c r="G605" s="4"/>
-    </row>
-    <row r="606" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A606" s="4"/>
-      <c r="B606" s="4"/>
-      <c r="C606" s="4"/>
-      <c r="D606" s="4"/>
-      <c r="E606" s="4"/>
-      <c r="F606" s="4"/>
-      <c r="G606" s="4"/>
-    </row>
-    <row r="607" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A607" s="4"/>
-      <c r="B607" s="4"/>
-      <c r="C607" s="4"/>
-      <c r="D607" s="4"/>
-      <c r="E607" s="4"/>
-      <c r="F607" s="4"/>
-      <c r="G607" s="4"/>
-    </row>
-    <row r="608" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A608" s="4"/>
-      <c r="B608" s="4"/>
-      <c r="C608" s="4"/>
-      <c r="D608" s="4"/>
-      <c r="E608" s="4"/>
-      <c r="F608" s="4"/>
-      <c r="G608" s="4"/>
-    </row>
-    <row r="609" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A609" s="4"/>
-      <c r="B609" s="4"/>
-      <c r="C609" s="4"/>
-      <c r="D609" s="4"/>
-      <c r="E609" s="4"/>
-      <c r="F609" s="4"/>
-      <c r="G609" s="4"/>
-    </row>
-    <row r="610" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A610" s="4"/>
-      <c r="B610" s="4"/>
-      <c r="C610" s="4"/>
-      <c r="D610" s="4"/>
-      <c r="E610" s="4"/>
-      <c r="F610" s="4"/>
-      <c r="G610" s="4"/>
-    </row>
-    <row r="611" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A611" s="4"/>
-      <c r="B611" s="4"/>
-      <c r="C611" s="4"/>
-      <c r="D611" s="4"/>
-      <c r="E611" s="4"/>
-      <c r="F611" s="4"/>
-      <c r="G611" s="4"/>
-    </row>
-    <row r="612" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A612" s="4"/>
-      <c r="B612" s="4"/>
-      <c r="C612" s="4"/>
-      <c r="D612" s="4"/>
-      <c r="E612" s="4"/>
-      <c r="F612" s="4"/>
-      <c r="G612" s="4"/>
-    </row>
-    <row r="613" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A613" s="4"/>
-      <c r="B613" s="4"/>
-      <c r="C613" s="4"/>
-      <c r="D613" s="4"/>
-      <c r="E613" s="4"/>
-      <c r="F613" s="4"/>
-      <c r="G613" s="4"/>
-    </row>
-    <row r="614" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A614" s="4"/>
-      <c r="B614" s="4"/>
-      <c r="C614" s="4"/>
-      <c r="D614" s="4"/>
-      <c r="E614" s="4"/>
-      <c r="F614" s="4"/>
-      <c r="G614" s="4"/>
-    </row>
-    <row r="615" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A615" s="4"/>
-      <c r="B615" s="4"/>
-      <c r="C615" s="4"/>
-      <c r="D615" s="4"/>
-      <c r="E615" s="4"/>
-      <c r="F615" s="4"/>
-      <c r="G615" s="4"/>
-    </row>
-    <row r="616" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A616" s="4"/>
-      <c r="B616" s="4"/>
-      <c r="C616" s="4"/>
-      <c r="D616" s="4"/>
-      <c r="E616" s="4"/>
-      <c r="F616" s="4"/>
-      <c r="G616" s="4"/>
-    </row>
-    <row r="617" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A617" s="4"/>
-      <c r="B617" s="4"/>
-      <c r="C617" s="4"/>
-      <c r="D617" s="4"/>
-      <c r="E617" s="4"/>
-      <c r="F617" s="4"/>
-      <c r="G617" s="4"/>
-    </row>
-    <row r="618" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A618" s="4"/>
-      <c r="B618" s="4"/>
-      <c r="C618" s="4"/>
-      <c r="D618" s="4"/>
-      <c r="E618" s="4"/>
-      <c r="F618" s="4"/>
-      <c r="G618" s="4"/>
-    </row>
-    <row r="619" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A619" s="4"/>
-      <c r="B619" s="4"/>
-      <c r="C619" s="4"/>
-      <c r="D619" s="4"/>
-      <c r="E619" s="4"/>
-      <c r="F619" s="4"/>
-      <c r="G619" s="4"/>
-    </row>
-    <row r="620" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A620" s="4"/>
-      <c r="B620" s="4"/>
-      <c r="C620" s="4"/>
-      <c r="D620" s="4"/>
-      <c r="E620" s="4"/>
-      <c r="F620" s="4"/>
-      <c r="G620" s="4"/>
-    </row>
-    <row r="621" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A621" s="4"/>
-      <c r="B621" s="4"/>
-      <c r="C621" s="4"/>
-      <c r="D621" s="4"/>
-      <c r="E621" s="4"/>
-      <c r="F621" s="4"/>
-      <c r="G621" s="4"/>
-    </row>
-    <row r="622" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A622" s="4"/>
-      <c r="B622" s="4"/>
-      <c r="C622" s="4"/>
-      <c r="D622" s="4"/>
-      <c r="E622" s="4"/>
-      <c r="F622" s="4"/>
-      <c r="G622" s="4"/>
-    </row>
-    <row r="623" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A623" s="4"/>
-      <c r="B623" s="4"/>
-      <c r="C623" s="4"/>
-      <c r="D623" s="4"/>
-      <c r="E623" s="4"/>
-      <c r="F623" s="4"/>
-      <c r="G623" s="4"/>
-    </row>
-    <row r="624" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A624" s="4"/>
-      <c r="B624" s="4"/>
-      <c r="C624" s="4"/>
-      <c r="D624" s="4"/>
-      <c r="E624" s="4"/>
-      <c r="F624" s="4"/>
-      <c r="G624" s="4"/>
-    </row>
-    <row r="625" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A625" s="4"/>
-      <c r="B625" s="4"/>
-      <c r="C625" s="4"/>
-      <c r="D625" s="4"/>
-      <c r="E625" s="4"/>
-      <c r="F625" s="4"/>
-      <c r="G625" s="4"/>
-    </row>
-    <row r="626" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A626" s="4"/>
-      <c r="B626" s="4"/>
-      <c r="C626" s="4"/>
-      <c r="D626" s="4"/>
-      <c r="E626" s="4"/>
-      <c r="F626" s="4"/>
-      <c r="G626" s="4"/>
-    </row>
-    <row r="627" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A627" s="4"/>
-      <c r="B627" s="4"/>
-      <c r="C627" s="4"/>
-      <c r="D627" s="4"/>
-      <c r="E627" s="4"/>
-      <c r="F627" s="4"/>
-      <c r="G627" s="4"/>
-    </row>
-    <row r="628" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A628" s="4"/>
-      <c r="B628" s="4"/>
-      <c r="C628" s="4"/>
-      <c r="D628" s="4"/>
-      <c r="E628" s="4"/>
-      <c r="F628" s="4"/>
-      <c r="G628" s="4"/>
-    </row>
-    <row r="629" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A629" s="4"/>
-      <c r="B629" s="4"/>
-      <c r="C629" s="4"/>
-      <c r="D629" s="4"/>
-      <c r="E629" s="4"/>
-      <c r="F629" s="4"/>
-      <c r="G629" s="4"/>
-    </row>
-    <row r="630" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A630" s="4"/>
-      <c r="B630" s="4"/>
-      <c r="C630" s="4"/>
-      <c r="D630" s="4"/>
-      <c r="E630" s="4"/>
-      <c r="F630" s="4"/>
-      <c r="G630" s="4"/>
-    </row>
-    <row r="631" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A631" s="4"/>
-      <c r="B631" s="4"/>
-      <c r="C631" s="4"/>
-      <c r="D631" s="4"/>
-      <c r="E631" s="4"/>
-      <c r="F631" s="4"/>
-      <c r="G631" s="4"/>
-    </row>
-    <row r="632" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A632" s="4"/>
-      <c r="B632" s="4"/>
-      <c r="C632" s="4"/>
-      <c r="D632" s="4"/>
-      <c r="E632" s="4"/>
-      <c r="F632" s="4"/>
-      <c r="G632" s="4"/>
-    </row>
-    <row r="633" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A633" s="4"/>
-      <c r="B633" s="4"/>
-      <c r="C633" s="4"/>
-      <c r="D633" s="4"/>
-      <c r="E633" s="4"/>
-      <c r="F633" s="4"/>
-      <c r="G633" s="4"/>
-    </row>
-    <row r="634" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A634" s="4"/>
-      <c r="B634" s="4"/>
-      <c r="C634" s="4"/>
-      <c r="D634" s="4"/>
-      <c r="E634" s="4"/>
-      <c r="F634" s="4"/>
-      <c r="G634" s="4"/>
-    </row>
-    <row r="635" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A635" s="4"/>
-      <c r="B635" s="4"/>
-      <c r="C635" s="4"/>
-      <c r="D635" s="4"/>
-      <c r="E635" s="4"/>
-      <c r="F635" s="4"/>
-      <c r="G635" s="4"/>
-    </row>
-    <row r="636" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A636" s="4"/>
-      <c r="B636" s="4"/>
-      <c r="C636" s="4"/>
-      <c r="D636" s="4"/>
-      <c r="E636" s="4"/>
-      <c r="F636" s="4"/>
-      <c r="G636" s="4"/>
-    </row>
-    <row r="637" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A637" s="4"/>
-      <c r="B637" s="4"/>
-      <c r="C637" s="4"/>
-      <c r="D637" s="4"/>
-      <c r="E637" s="4"/>
-      <c r="F637" s="4"/>
-      <c r="G637" s="4"/>
-    </row>
-    <row r="638" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A638" s="4"/>
-      <c r="B638" s="4"/>
-      <c r="C638" s="4"/>
-      <c r="D638" s="4"/>
-      <c r="E638" s="4"/>
-      <c r="F638" s="4"/>
-      <c r="G638" s="4"/>
-    </row>
-    <row r="639" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A639" s="4"/>
-      <c r="B639" s="4"/>
-      <c r="C639" s="4"/>
-      <c r="D639" s="4"/>
-      <c r="E639" s="4"/>
-      <c r="F639" s="4"/>
-      <c r="G639" s="4"/>
-    </row>
-    <row r="640" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A640" s="4"/>
-      <c r="B640" s="4"/>
-      <c r="C640" s="4"/>
-      <c r="D640" s="4"/>
-      <c r="E640" s="4"/>
-      <c r="F640" s="4"/>
-      <c r="G640" s="4"/>
-    </row>
-    <row r="641" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A641" s="4"/>
-      <c r="B641" s="4"/>
-      <c r="C641" s="4"/>
-      <c r="D641" s="4"/>
-      <c r="E641" s="4"/>
-      <c r="F641" s="4"/>
-      <c r="G641" s="4"/>
-    </row>
-    <row r="642" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A642" s="4"/>
-      <c r="B642" s="4"/>
-      <c r="C642" s="4"/>
-      <c r="D642" s="4"/>
-      <c r="E642" s="4"/>
-      <c r="F642" s="4"/>
-      <c r="G642" s="4"/>
-    </row>
-    <row r="643" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A643" s="4"/>
-      <c r="B643" s="4"/>
-      <c r="C643" s="4"/>
-      <c r="D643" s="4"/>
-      <c r="E643" s="4"/>
-      <c r="F643" s="4"/>
-      <c r="G643" s="4"/>
-    </row>
-    <row r="644" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A644" s="4"/>
-      <c r="B644" s="4"/>
-      <c r="C644" s="4"/>
-      <c r="D644" s="4"/>
-      <c r="E644" s="4"/>
-      <c r="F644" s="4"/>
-      <c r="G644" s="4"/>
-    </row>
-    <row r="645" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A645" s="4"/>
-      <c r="B645" s="4"/>
-      <c r="C645" s="4"/>
-      <c r="D645" s="4"/>
-      <c r="E645" s="4"/>
-      <c r="F645" s="4"/>
-      <c r="G645" s="4"/>
-    </row>
-    <row r="646" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A646" s="4"/>
-      <c r="B646" s="4"/>
-      <c r="C646" s="4"/>
-      <c r="D646" s="4"/>
-      <c r="E646" s="4"/>
-      <c r="F646" s="4"/>
-      <c r="G646" s="4"/>
-    </row>
-    <row r="647" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A647" s="4"/>
-      <c r="B647" s="4"/>
-      <c r="C647" s="4"/>
-      <c r="D647" s="4"/>
-      <c r="E647" s="4"/>
-      <c r="F647" s="4"/>
-      <c r="G647" s="4"/>
-    </row>
-    <row r="648" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A648" s="4"/>
-      <c r="B648" s="4"/>
-      <c r="C648" s="4"/>
-      <c r="D648" s="4"/>
-      <c r="E648" s="4"/>
-      <c r="F648" s="4"/>
-      <c r="G648" s="4"/>
-    </row>
-    <row r="649" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A649" s="4"/>
-      <c r="B649" s="4"/>
-      <c r="C649" s="4"/>
-      <c r="D649" s="4"/>
-      <c r="E649" s="4"/>
-      <c r="F649" s="4"/>
-      <c r="G649" s="4"/>
-    </row>
-    <row r="650" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A650" s="4"/>
-      <c r="B650" s="4"/>
-      <c r="C650" s="4"/>
-      <c r="D650" s="4"/>
-      <c r="E650" s="4"/>
-      <c r="F650" s="4"/>
-      <c r="G650" s="4"/>
-    </row>
-    <row r="651" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A651" s="4"/>
-      <c r="B651" s="4"/>
-      <c r="C651" s="4"/>
-      <c r="D651" s="4"/>
-      <c r="E651" s="4"/>
-      <c r="F651" s="4"/>
-      <c r="G651" s="4"/>
-    </row>
-    <row r="652" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A652" s="4"/>
-      <c r="B652" s="4"/>
-      <c r="C652" s="4"/>
-      <c r="D652" s="4"/>
-      <c r="E652" s="4"/>
-      <c r="F652" s="4"/>
-      <c r="G652" s="4"/>
-    </row>
-    <row r="653" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A653" s="4"/>
-      <c r="B653" s="4"/>
-      <c r="C653" s="4"/>
-      <c r="D653" s="4"/>
-      <c r="E653" s="4"/>
-      <c r="F653" s="4"/>
-      <c r="G653" s="4"/>
-    </row>
-    <row r="654" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A654" s="4"/>
-      <c r="B654" s="4"/>
-      <c r="C654" s="4"/>
-      <c r="D654" s="4"/>
-      <c r="E654" s="4"/>
-      <c r="F654" s="4"/>
-      <c r="G654" s="4"/>
-    </row>
-    <row r="655" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A655" s="4"/>
-      <c r="B655" s="4"/>
-      <c r="C655" s="4"/>
-      <c r="D655" s="4"/>
-      <c r="E655" s="4"/>
-      <c r="F655" s="4"/>
-      <c r="G655" s="4"/>
-    </row>
-    <row r="656" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A656" s="4"/>
-      <c r="B656" s="4"/>
-      <c r="C656" s="4"/>
-      <c r="D656" s="4"/>
-      <c r="E656" s="4"/>
-      <c r="F656" s="4"/>
-      <c r="G656" s="4"/>
-    </row>
-    <row r="657" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A657" s="4"/>
-      <c r="B657" s="4"/>
-      <c r="C657" s="4"/>
-      <c r="D657" s="4"/>
-      <c r="E657" s="4"/>
-      <c r="F657" s="4"/>
-      <c r="G657" s="4"/>
-    </row>
-    <row r="658" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A658" s="4"/>
-      <c r="B658" s="4"/>
-      <c r="C658" s="4"/>
-      <c r="D658" s="4"/>
-      <c r="E658" s="4"/>
-      <c r="F658" s="4"/>
-      <c r="G658" s="4"/>
-    </row>
-    <row r="659" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A659" s="4"/>
-      <c r="B659" s="4"/>
-      <c r="C659" s="4"/>
-      <c r="D659" s="4"/>
-      <c r="E659" s="4"/>
-      <c r="F659" s="4"/>
-      <c r="G659" s="4"/>
-    </row>
-    <row r="660" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A660" s="4"/>
-      <c r="B660" s="4"/>
-      <c r="C660" s="4"/>
-      <c r="D660" s="4"/>
-      <c r="E660" s="4"/>
-      <c r="F660" s="4"/>
-      <c r="G660" s="4"/>
-    </row>
-    <row r="661" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A661" s="4"/>
-      <c r="B661" s="4"/>
-      <c r="C661" s="4"/>
-      <c r="D661" s="4"/>
-      <c r="E661" s="4"/>
-      <c r="F661" s="4"/>
-      <c r="G661" s="4"/>
-    </row>
-    <row r="662" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A662" s="4"/>
-      <c r="B662" s="4"/>
-      <c r="C662" s="4"/>
-      <c r="D662" s="4"/>
-      <c r="E662" s="4"/>
-      <c r="F662" s="4"/>
-      <c r="G662" s="4"/>
-    </row>
-    <row r="663" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A663" s="4"/>
-      <c r="B663" s="4"/>
-      <c r="C663" s="4"/>
-      <c r="D663" s="4"/>
-      <c r="E663" s="4"/>
-      <c r="F663" s="4"/>
-      <c r="G663" s="4"/>
-    </row>
-    <row r="664" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A664" s="4"/>
-      <c r="B664" s="4"/>
-      <c r="C664" s="4"/>
-      <c r="D664" s="4"/>
-      <c r="E664" s="4"/>
-      <c r="F664" s="4"/>
-      <c r="G664" s="4"/>
-    </row>
-    <row r="665" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A665" s="4"/>
-      <c r="B665" s="4"/>
-      <c r="C665" s="4"/>
-      <c r="D665" s="4"/>
-      <c r="E665" s="4"/>
-      <c r="F665" s="4"/>
-      <c r="G665" s="4"/>
-    </row>
-    <row r="666" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A666" s="4"/>
-      <c r="B666" s="4"/>
-      <c r="C666" s="4"/>
-      <c r="D666" s="4"/>
-      <c r="E666" s="4"/>
-      <c r="F666" s="4"/>
-      <c r="G666" s="4"/>
-    </row>
-    <row r="667" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A667" s="4"/>
-      <c r="B667" s="4"/>
-      <c r="C667" s="4"/>
-      <c r="D667" s="4"/>
-      <c r="E667" s="4"/>
-      <c r="F667" s="4"/>
-      <c r="G667" s="4"/>
-    </row>
-    <row r="668" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A668" s="4"/>
-      <c r="B668" s="4"/>
-      <c r="C668" s="4"/>
-      <c r="D668" s="4"/>
-      <c r="E668" s="4"/>
-      <c r="F668" s="4"/>
-      <c r="G668" s="4"/>
-    </row>
-    <row r="669" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A669" s="4"/>
-      <c r="B669" s="4"/>
-      <c r="C669" s="4"/>
-      <c r="D669" s="4"/>
-      <c r="E669" s="4"/>
-      <c r="F669" s="4"/>
-      <c r="G669" s="4"/>
-    </row>
-    <row r="670" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A670" s="4"/>
-      <c r="B670" s="4"/>
-      <c r="C670" s="4"/>
-      <c r="D670" s="4"/>
-      <c r="E670" s="4"/>
-      <c r="F670" s="4"/>
-      <c r="G670" s="4"/>
-    </row>
-    <row r="671" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A671" s="4"/>
-      <c r="B671" s="4"/>
-      <c r="C671" s="4"/>
-      <c r="D671" s="4"/>
-      <c r="E671" s="4"/>
-      <c r="F671" s="4"/>
-      <c r="G671" s="4"/>
-    </row>
-    <row r="672" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A672" s="4"/>
-      <c r="B672" s="4"/>
-      <c r="C672" s="4"/>
-      <c r="D672" s="4"/>
-      <c r="E672" s="4"/>
-      <c r="F672" s="4"/>
-      <c r="G672" s="4"/>
-    </row>
-    <row r="673" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A673" s="4"/>
-      <c r="B673" s="4"/>
-      <c r="C673" s="4"/>
-      <c r="D673" s="4"/>
-      <c r="E673" s="4"/>
-      <c r="F673" s="4"/>
-      <c r="G673" s="4"/>
-    </row>
-    <row r="674" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A674" s="4"/>
-      <c r="B674" s="4"/>
-      <c r="C674" s="4"/>
-      <c r="D674" s="4"/>
-      <c r="E674" s="4"/>
-      <c r="F674" s="4"/>
-      <c r="G674" s="4"/>
-    </row>
-    <row r="675" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A675" s="4"/>
-      <c r="B675" s="4"/>
-      <c r="C675" s="4"/>
-      <c r="D675" s="4"/>
-      <c r="E675" s="4"/>
-      <c r="F675" s="4"/>
-      <c r="G675" s="4"/>
-    </row>
-    <row r="676" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A676" s="4"/>
-      <c r="B676" s="4"/>
-      <c r="C676" s="4"/>
-      <c r="D676" s="4"/>
-      <c r="E676" s="4"/>
-      <c r="F676" s="4"/>
-      <c r="G676" s="4"/>
-    </row>
-    <row r="677" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A677" s="4"/>
-      <c r="B677" s="4"/>
-      <c r="C677" s="4"/>
-      <c r="D677" s="4"/>
-      <c r="E677" s="4"/>
-      <c r="F677" s="4"/>
-      <c r="G677" s="4"/>
-    </row>
-    <row r="678" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A678" s="4"/>
-      <c r="B678" s="4"/>
-      <c r="C678" s="4"/>
-      <c r="D678" s="4"/>
-      <c r="E678" s="4"/>
-      <c r="F678" s="4"/>
-      <c r="G678" s="4"/>
-    </row>
-    <row r="679" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A679" s="4"/>
-      <c r="B679" s="4"/>
-      <c r="C679" s="4"/>
-      <c r="D679" s="4"/>
-      <c r="E679" s="4"/>
-      <c r="F679" s="4"/>
-      <c r="G679" s="4"/>
-    </row>
-    <row r="680" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A680" s="4"/>
-      <c r="B680" s="4"/>
-      <c r="C680" s="4"/>
-      <c r="D680" s="4"/>
-      <c r="E680" s="4"/>
-      <c r="F680" s="4"/>
-      <c r="G680" s="4"/>
-    </row>
-    <row r="681" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A681" s="4"/>
-      <c r="B681" s="4"/>
-      <c r="C681" s="4"/>
-      <c r="D681" s="4"/>
-      <c r="E681" s="4"/>
-      <c r="F681" s="4"/>
-      <c r="G681" s="4"/>
-    </row>
-    <row r="682" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A682" s="4"/>
-      <c r="B682" s="4"/>
-      <c r="C682" s="4"/>
-      <c r="D682" s="4"/>
-      <c r="E682" s="4"/>
-      <c r="F682" s="4"/>
-      <c r="G682" s="4"/>
-    </row>
-    <row r="683" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A683" s="4"/>
-      <c r="B683" s="4"/>
-      <c r="C683" s="4"/>
-      <c r="D683" s="4"/>
-      <c r="E683" s="4"/>
-      <c r="F683" s="4"/>
-      <c r="G683" s="4"/>
-    </row>
-    <row r="684" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A684" s="4"/>
-      <c r="B684" s="4"/>
-      <c r="C684" s="4"/>
-      <c r="D684" s="4"/>
-      <c r="E684" s="4"/>
-      <c r="F684" s="4"/>
-      <c r="G684" s="4"/>
-    </row>
-    <row r="685" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A685" s="4"/>
-      <c r="B685" s="4"/>
-      <c r="C685" s="4"/>
-      <c r="D685" s="4"/>
-      <c r="E685" s="4"/>
-      <c r="F685" s="4"/>
-      <c r="G685" s="4"/>
-    </row>
-    <row r="686" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A686" s="4"/>
-      <c r="B686" s="4"/>
-      <c r="C686" s="4"/>
-      <c r="D686" s="4"/>
-      <c r="E686" s="4"/>
-      <c r="F686" s="4"/>
-      <c r="G686" s="4"/>
-    </row>
-    <row r="687" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A687" s="4"/>
-      <c r="B687" s="4"/>
-      <c r="C687" s="4"/>
-      <c r="D687" s="4"/>
-      <c r="E687" s="4"/>
-      <c r="F687" s="4"/>
-      <c r="G687" s="4"/>
-    </row>
-    <row r="688" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A688" s="4"/>
-      <c r="B688" s="4"/>
-      <c r="C688" s="4"/>
-      <c r="D688" s="4"/>
-      <c r="E688" s="4"/>
-      <c r="F688" s="4"/>
-      <c r="G688" s="4"/>
-    </row>
-    <row r="689" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A689" s="4"/>
-      <c r="B689" s="4"/>
-      <c r="C689" s="4"/>
-      <c r="D689" s="4"/>
-      <c r="E689" s="4"/>
-      <c r="F689" s="4"/>
-      <c r="G689" s="4"/>
-    </row>
-    <row r="690" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A690" s="4"/>
-      <c r="B690" s="4"/>
-      <c r="C690" s="4"/>
-      <c r="D690" s="4"/>
-      <c r="E690" s="4"/>
-      <c r="F690" s="4"/>
-      <c r="G690" s="4"/>
-    </row>
-    <row r="691" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A691" s="4"/>
-      <c r="B691" s="4"/>
-      <c r="C691" s="4"/>
-      <c r="D691" s="4"/>
-      <c r="E691" s="4"/>
-      <c r="F691" s="4"/>
-      <c r="G691" s="4"/>
-    </row>
-    <row r="692" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A692" s="4"/>
-      <c r="B692" s="4"/>
-      <c r="C692" s="4"/>
-      <c r="D692" s="4"/>
-      <c r="E692" s="4"/>
-      <c r="F692" s="4"/>
-      <c r="G692" s="4"/>
-    </row>
-    <row r="693" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A693" s="4"/>
-      <c r="B693" s="4"/>
-      <c r="C693" s="4"/>
-      <c r="D693" s="4"/>
-      <c r="E693" s="4"/>
-      <c r="F693" s="4"/>
-      <c r="G693" s="4"/>
-    </row>
-    <row r="694" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A694" s="4"/>
-      <c r="B694" s="4"/>
-      <c r="C694" s="4"/>
-      <c r="D694" s="4"/>
-      <c r="E694" s="4"/>
-      <c r="F694" s="4"/>
-      <c r="G694" s="4"/>
-    </row>
-    <row r="695" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A695" s="4"/>
-      <c r="B695" s="4"/>
-      <c r="C695" s="4"/>
-      <c r="D695" s="4"/>
-      <c r="E695" s="4"/>
-      <c r="F695" s="4"/>
-      <c r="G695" s="4"/>
-    </row>
-    <row r="696" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A696" s="4"/>
-      <c r="B696" s="4"/>
-      <c r="C696" s="4"/>
-      <c r="D696" s="4"/>
-      <c r="E696" s="4"/>
-      <c r="F696" s="4"/>
-      <c r="G696" s="4"/>
-    </row>
-    <row r="697" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A697" s="4"/>
-      <c r="B697" s="4"/>
-      <c r="C697" s="4"/>
-      <c r="D697" s="4"/>
-      <c r="E697" s="4"/>
-      <c r="F697" s="4"/>
-      <c r="G697" s="4"/>
-    </row>
-    <row r="698" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A698" s="4"/>
-      <c r="B698" s="4"/>
-      <c r="C698" s="4"/>
-      <c r="D698" s="4"/>
-      <c r="E698" s="4"/>
-      <c r="F698" s="4"/>
-      <c r="G698" s="4"/>
-    </row>
-    <row r="699" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A699" s="4"/>
-      <c r="B699" s="4"/>
-      <c r="C699" s="4"/>
-      <c r="D699" s="4"/>
-      <c r="E699" s="4"/>
-      <c r="F699" s="4"/>
-      <c r="G699" s="4"/>
-    </row>
-    <row r="700" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A700" s="4"/>
-      <c r="B700" s="4"/>
-      <c r="C700" s="4"/>
-      <c r="D700" s="4"/>
-      <c r="E700" s="4"/>
-      <c r="F700" s="4"/>
-      <c r="G700" s="4"/>
-    </row>
-    <row r="701" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A701" s="4"/>
-      <c r="B701" s="4"/>
-      <c r="C701" s="4"/>
-      <c r="D701" s="4"/>
-      <c r="E701" s="4"/>
-      <c r="F701" s="4"/>
-      <c r="G701" s="4"/>
-    </row>
-    <row r="702" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A702" s="4"/>
-      <c r="B702" s="4"/>
-      <c r="C702" s="4"/>
-      <c r="D702" s="4"/>
-      <c r="E702" s="4"/>
-      <c r="F702" s="4"/>
-      <c r="G702" s="4"/>
-    </row>
-    <row r="703" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A703" s="4"/>
-      <c r="B703" s="4"/>
-      <c r="C703" s="4"/>
-      <c r="D703" s="4"/>
-      <c r="E703" s="4"/>
-      <c r="F703" s="4"/>
-      <c r="G703" s="4"/>
-    </row>
-    <row r="704" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A704" s="4"/>
-      <c r="B704" s="4"/>
-      <c r="C704" s="4"/>
-      <c r="D704" s="4"/>
-      <c r="E704" s="4"/>
-      <c r="F704" s="4"/>
-      <c r="G704" s="4"/>
-    </row>
-    <row r="705" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A705" s="4"/>
-      <c r="B705" s="4"/>
-      <c r="C705" s="4"/>
-      <c r="D705" s="4"/>
-      <c r="E705" s="4"/>
-      <c r="F705" s="4"/>
-      <c r="G705" s="4"/>
-    </row>
-    <row r="706" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A706" s="4"/>
-      <c r="B706" s="4"/>
-      <c r="C706" s="4"/>
-      <c r="D706" s="4"/>
-      <c r="E706" s="4"/>
-      <c r="F706" s="4"/>
-      <c r="G706" s="4"/>
-    </row>
-    <row r="707" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A707" s="4"/>
-      <c r="B707" s="4"/>
-      <c r="C707" s="4"/>
-      <c r="D707" s="4"/>
-      <c r="E707" s="4"/>
-      <c r="F707" s="4"/>
-      <c r="G707" s="4"/>
-    </row>
-    <row r="708" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A708" s="4"/>
-      <c r="B708" s="4"/>
-      <c r="C708" s="4"/>
-      <c r="D708" s="4"/>
-      <c r="E708" s="4"/>
-      <c r="F708" s="4"/>
-      <c r="G708" s="4"/>
-    </row>
-    <row r="709" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A709" s="4"/>
-      <c r="B709" s="4"/>
-      <c r="C709" s="4"/>
-      <c r="D709" s="4"/>
-      <c r="E709" s="4"/>
-      <c r="F709" s="4"/>
-      <c r="G709" s="4"/>
-    </row>
-    <row r="710" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A710" s="4"/>
-      <c r="B710" s="4"/>
-      <c r="C710" s="4"/>
-      <c r="D710" s="4"/>
-      <c r="E710" s="4"/>
-      <c r="F710" s="4"/>
-      <c r="G710" s="4"/>
-    </row>
-    <row r="711" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A711" s="4"/>
-      <c r="B711" s="4"/>
-      <c r="C711" s="4"/>
-      <c r="D711" s="4"/>
-      <c r="E711" s="4"/>
-      <c r="F711" s="4"/>
-      <c r="G711" s="4"/>
-    </row>
-    <row r="712" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A712" s="4"/>
-      <c r="B712" s="4"/>
-      <c r="C712" s="4"/>
-      <c r="D712" s="4"/>
-      <c r="E712" s="4"/>
-      <c r="F712" s="4"/>
-      <c r="G712" s="4"/>
-    </row>
-    <row r="713" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A713" s="4"/>
-      <c r="B713" s="4"/>
-      <c r="C713" s="4"/>
-      <c r="D713" s="4"/>
-      <c r="E713" s="4"/>
-      <c r="F713" s="4"/>
-      <c r="G713" s="4"/>
-    </row>
-    <row r="714" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A714" s="4"/>
-      <c r="B714" s="4"/>
-      <c r="C714" s="4"/>
-      <c r="D714" s="4"/>
-      <c r="E714" s="4"/>
-      <c r="F714" s="4"/>
-      <c r="G714" s="4"/>
-    </row>
-    <row r="715" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A715" s="4"/>
-      <c r="B715" s="4"/>
-      <c r="C715" s="4"/>
-      <c r="D715" s="4"/>
-      <c r="E715" s="4"/>
-      <c r="F715" s="4"/>
-      <c r="G715" s="4"/>
-    </row>
-    <row r="716" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A716" s="4"/>
-      <c r="B716" s="4"/>
-      <c r="C716" s="4"/>
-      <c r="D716" s="4"/>
-      <c r="E716" s="4"/>
-      <c r="F716" s="4"/>
-      <c r="G716" s="4"/>
-    </row>
-    <row r="717" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A717" s="4"/>
-      <c r="B717" s="4"/>
-      <c r="C717" s="4"/>
-      <c r="D717" s="4"/>
-      <c r="E717" s="4"/>
-      <c r="F717" s="4"/>
-      <c r="G717" s="4"/>
-    </row>
-    <row r="718" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A718" s="4"/>
-      <c r="B718" s="4"/>
-      <c r="C718" s="4"/>
-      <c r="D718" s="4"/>
-      <c r="E718" s="4"/>
-      <c r="F718" s="4"/>
-      <c r="G718" s="4"/>
-    </row>
-    <row r="719" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A719" s="4"/>
-      <c r="B719" s="4"/>
-      <c r="C719" s="4"/>
-      <c r="D719" s="4"/>
-      <c r="E719" s="4"/>
-      <c r="F719" s="4"/>
-      <c r="G719" s="4"/>
-    </row>
-    <row r="720" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A720" s="4"/>
-      <c r="B720" s="4"/>
-      <c r="C720" s="4"/>
-      <c r="D720" s="4"/>
-      <c r="E720" s="4"/>
-      <c r="F720" s="4"/>
-      <c r="G720" s="4"/>
-    </row>
-    <row r="721" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A721" s="4"/>
-      <c r="B721" s="4"/>
-      <c r="C721" s="4"/>
-      <c r="D721" s="4"/>
-      <c r="E721" s="4"/>
-      <c r="F721" s="4"/>
-      <c r="G721" s="4"/>
-    </row>
-    <row r="722" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A722" s="4"/>
-      <c r="B722" s="4"/>
-      <c r="C722" s="4"/>
-      <c r="D722" s="4"/>
-      <c r="E722" s="4"/>
-      <c r="F722" s="4"/>
-      <c r="G722" s="4"/>
-    </row>
-    <row r="723" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A723" s="4"/>
-      <c r="B723" s="4"/>
-      <c r="C723" s="4"/>
-      <c r="D723" s="4"/>
-      <c r="E723" s="4"/>
-      <c r="F723" s="4"/>
-      <c r="G723" s="4"/>
-    </row>
-    <row r="724" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A724" s="4"/>
-      <c r="B724" s="4"/>
-      <c r="C724" s="4"/>
-      <c r="D724" s="4"/>
-      <c r="E724" s="4"/>
-      <c r="F724" s="4"/>
-      <c r="G724" s="4"/>
-    </row>
-    <row r="725" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A725" s="4"/>
-      <c r="B725" s="4"/>
-      <c r="C725" s="4"/>
-      <c r="D725" s="4"/>
-      <c r="E725" s="4"/>
-      <c r="F725" s="4"/>
-      <c r="G725" s="4"/>
-    </row>
-    <row r="726" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A726" s="4"/>
-      <c r="B726" s="4"/>
-      <c r="C726" s="4"/>
-      <c r="D726" s="4"/>
-      <c r="E726" s="4"/>
-      <c r="F726" s="4"/>
-      <c r="G726" s="4"/>
-    </row>
-    <row r="727" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A727" s="4"/>
-      <c r="B727" s="4"/>
-      <c r="C727" s="4"/>
-      <c r="D727" s="4"/>
-      <c r="E727" s="4"/>
-      <c r="F727" s="4"/>
-      <c r="G727" s="4"/>
-    </row>
-    <row r="728" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A728" s="4"/>
-      <c r="B728" s="4"/>
-      <c r="C728" s="4"/>
-      <c r="D728" s="4"/>
-      <c r="E728" s="4"/>
-      <c r="F728" s="4"/>
-      <c r="G728" s="4"/>
-    </row>
-    <row r="729" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A729" s="4"/>
-      <c r="B729" s="4"/>
-      <c r="C729" s="4"/>
-      <c r="D729" s="4"/>
-      <c r="E729" s="4"/>
-      <c r="F729" s="4"/>
-      <c r="G729" s="4"/>
-    </row>
-    <row r="730" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A730" s="4"/>
-      <c r="B730" s="4"/>
-      <c r="C730" s="4"/>
-      <c r="D730" s="4"/>
-      <c r="E730" s="4"/>
-      <c r="F730" s="4"/>
-      <c r="G730" s="4"/>
-    </row>
-    <row r="731" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A731" s="4"/>
-      <c r="B731" s="4"/>
-      <c r="C731" s="4"/>
-      <c r="D731" s="4"/>
-      <c r="E731" s="4"/>
-      <c r="F731" s="4"/>
-      <c r="G731" s="4"/>
-    </row>
-    <row r="732" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A732" s="4"/>
-      <c r="B732" s="4"/>
-      <c r="C732" s="4"/>
-      <c r="D732" s="4"/>
-      <c r="E732" s="4"/>
-      <c r="F732" s="4"/>
-      <c r="G732" s="4"/>
-    </row>
-    <row r="733" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A733" s="4"/>
-      <c r="B733" s="4"/>
-      <c r="C733" s="4"/>
-      <c r="D733" s="4"/>
-      <c r="E733" s="4"/>
-      <c r="F733" s="4"/>
-      <c r="G733" s="4"/>
-    </row>
-    <row r="734" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A734" s="4"/>
-      <c r="B734" s="4"/>
-      <c r="C734" s="4"/>
-      <c r="D734" s="4"/>
-      <c r="E734" s="4"/>
-      <c r="F734" s="4"/>
-      <c r="G734" s="4"/>
-    </row>
-    <row r="735" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A735" s="4"/>
-      <c r="B735" s="4"/>
-      <c r="C735" s="4"/>
-      <c r="D735" s="4"/>
-      <c r="E735" s="4"/>
-      <c r="F735" s="4"/>
-      <c r="G735" s="4"/>
-    </row>
-    <row r="736" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A736" s="4"/>
-      <c r="B736" s="4"/>
-      <c r="C736" s="4"/>
-      <c r="D736" s="4"/>
-      <c r="E736" s="4"/>
-      <c r="F736" s="4"/>
-      <c r="G736" s="4"/>
-    </row>
-    <row r="737" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A737" s="4"/>
-      <c r="B737" s="4"/>
-      <c r="C737" s="4"/>
-      <c r="D737" s="4"/>
-      <c r="E737" s="4"/>
-      <c r="F737" s="4"/>
-      <c r="G737" s="4"/>
-    </row>
-    <row r="738" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A738" s="4"/>
-      <c r="B738" s="4"/>
-      <c r="C738" s="4"/>
-      <c r="D738" s="4"/>
-      <c r="E738" s="4"/>
-      <c r="F738" s="4"/>
-      <c r="G738" s="4"/>
-    </row>
-    <row r="739" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A739" s="4"/>
-      <c r="B739" s="4"/>
-      <c r="C739" s="4"/>
-      <c r="D739" s="4"/>
-      <c r="E739" s="4"/>
-      <c r="F739" s="4"/>
-      <c r="G739" s="4"/>
-    </row>
-    <row r="740" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A740" s="4"/>
-      <c r="B740" s="4"/>
-      <c r="C740" s="4"/>
-      <c r="D740" s="4"/>
-      <c r="E740" s="4"/>
-      <c r="F740" s="4"/>
-      <c r="G740" s="4"/>
-    </row>
-    <row r="741" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A741" s="4"/>
-      <c r="B741" s="4"/>
-      <c r="C741" s="4"/>
-      <c r="D741" s="4"/>
-      <c r="E741" s="4"/>
-      <c r="F741" s="4"/>
-      <c r="G741" s="4"/>
-    </row>
-    <row r="742" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A742" s="4"/>
-      <c r="B742" s="4"/>
-      <c r="C742" s="4"/>
-      <c r="D742" s="4"/>
-      <c r="E742" s="4"/>
-      <c r="F742" s="4"/>
-      <c r="G742" s="4"/>
-    </row>
-    <row r="743" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A743" s="4"/>
-      <c r="B743" s="4"/>
-      <c r="C743" s="4"/>
-      <c r="D743" s="4"/>
-      <c r="E743" s="4"/>
-      <c r="F743" s="4"/>
-      <c r="G743" s="4"/>
-    </row>
-    <row r="744" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A744" s="4"/>
-      <c r="B744" s="4"/>
-      <c r="C744" s="4"/>
-      <c r="D744" s="4"/>
-      <c r="E744" s="4"/>
-      <c r="F744" s="4"/>
-      <c r="G744" s="4"/>
-    </row>
-    <row r="745" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A745" s="4"/>
-      <c r="B745" s="4"/>
-      <c r="C745" s="4"/>
-      <c r="D745" s="4"/>
-      <c r="E745" s="4"/>
-      <c r="F745" s="4"/>
-      <c r="G745" s="4"/>
-    </row>
-    <row r="746" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A746" s="4"/>
-      <c r="B746" s="4"/>
-      <c r="C746" s="4"/>
-      <c r="D746" s="4"/>
-      <c r="E746" s="4"/>
-      <c r="F746" s="4"/>
-      <c r="G746" s="4"/>
-    </row>
-    <row r="747" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A747" s="4"/>
-      <c r="B747" s="4"/>
-      <c r="C747" s="4"/>
-      <c r="D747" s="4"/>
-      <c r="E747" s="4"/>
-      <c r="F747" s="4"/>
-      <c r="G747" s="4"/>
-    </row>
-    <row r="748" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A748" s="4"/>
-      <c r="B748" s="4"/>
-      <c r="C748" s="4"/>
-      <c r="D748" s="4"/>
-      <c r="E748" s="4"/>
-      <c r="F748" s="4"/>
-      <c r="G748" s="4"/>
-    </row>
-    <row r="749" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A749" s="4"/>
-      <c r="B749" s="4"/>
-      <c r="C749" s="4"/>
-      <c r="D749" s="4"/>
-      <c r="E749" s="4"/>
-      <c r="F749" s="4"/>
-      <c r="G749" s="4"/>
-    </row>
-    <row r="750" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A750" s="4"/>
-      <c r="B750" s="4"/>
-      <c r="C750" s="4"/>
-      <c r="D750" s="4"/>
-      <c r="E750" s="4"/>
-      <c r="F750" s="4"/>
-      <c r="G750" s="4"/>
-    </row>
-    <row r="751" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A751" s="4"/>
-      <c r="B751" s="4"/>
-      <c r="C751" s="4"/>
-      <c r="D751" s="4"/>
-      <c r="E751" s="4"/>
-      <c r="F751" s="4"/>
-      <c r="G751" s="4"/>
-    </row>
-    <row r="752" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A752" s="4"/>
-      <c r="B752" s="4"/>
-      <c r="C752" s="4"/>
-      <c r="D752" s="4"/>
-      <c r="E752" s="4"/>
-      <c r="F752" s="4"/>
-      <c r="G752" s="4"/>
-    </row>
-    <row r="753" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A753" s="4"/>
-      <c r="B753" s="4"/>
-      <c r="C753" s="4"/>
-      <c r="D753" s="4"/>
-      <c r="E753" s="4"/>
-      <c r="F753" s="4"/>
-      <c r="G753" s="4"/>
-    </row>
-    <row r="754" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A754" s="4"/>
-      <c r="B754" s="4"/>
-      <c r="C754" s="4"/>
-      <c r="D754" s="4"/>
-      <c r="E754" s="4"/>
-      <c r="F754" s="4"/>
-      <c r="G754" s="4"/>
-    </row>
-    <row r="755" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A755" s="4"/>
-      <c r="B755" s="4"/>
-      <c r="C755" s="4"/>
-      <c r="D755" s="4"/>
-      <c r="E755" s="4"/>
-      <c r="F755" s="4"/>
-      <c r="G755" s="4"/>
-    </row>
-    <row r="756" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A756" s="4"/>
-      <c r="B756" s="4"/>
-      <c r="C756" s="4"/>
-      <c r="D756" s="4"/>
-      <c r="E756" s="4"/>
-      <c r="F756" s="4"/>
-      <c r="G756" s="4"/>
-    </row>
-    <row r="757" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A757" s="4"/>
-      <c r="B757" s="4"/>
-      <c r="C757" s="4"/>
-      <c r="D757" s="4"/>
-      <c r="E757" s="4"/>
-      <c r="F757" s="4"/>
-      <c r="G757" s="4"/>
-    </row>
-    <row r="758" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A758" s="4"/>
-      <c r="B758" s="4"/>
-      <c r="C758" s="4"/>
-      <c r="D758" s="4"/>
-      <c r="E758" s="4"/>
-      <c r="F758" s="4"/>
-      <c r="G758" s="4"/>
-    </row>
-    <row r="759" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A759" s="4"/>
-      <c r="B759" s="4"/>
-      <c r="C759" s="4"/>
-      <c r="D759" s="4"/>
-      <c r="E759" s="4"/>
-      <c r="F759" s="4"/>
-      <c r="G759" s="4"/>
-    </row>
-    <row r="760" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A760" s="4"/>
-      <c r="B760" s="4"/>
-      <c r="C760" s="4"/>
-      <c r="D760" s="4"/>
-      <c r="E760" s="4"/>
-      <c r="F760" s="4"/>
-      <c r="G760" s="4"/>
-    </row>
-    <row r="761" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A761" s="4"/>
-      <c r="B761" s="4"/>
-      <c r="C761" s="4"/>
-      <c r="D761" s="4"/>
-      <c r="E761" s="4"/>
-      <c r="F761" s="4"/>
-      <c r="G761" s="4"/>
-    </row>
-    <row r="762" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A762" s="4"/>
-      <c r="B762" s="4"/>
-      <c r="C762" s="4"/>
-      <c r="D762" s="4"/>
-      <c r="E762" s="4"/>
-      <c r="F762" s="4"/>
-      <c r="G762" s="4"/>
-    </row>
-    <row r="763" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A763" s="4"/>
-      <c r="B763" s="4"/>
-      <c r="C763" s="4"/>
-      <c r="D763" s="4"/>
-      <c r="E763" s="4"/>
-      <c r="F763" s="4"/>
-      <c r="G763" s="4"/>
-    </row>
-    <row r="764" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A764" s="4"/>
-      <c r="B764" s="4"/>
-      <c r="C764" s="4"/>
-      <c r="D764" s="4"/>
-      <c r="E764" s="4"/>
-      <c r="F764" s="4"/>
-      <c r="G764" s="4"/>
-    </row>
-    <row r="765" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A765" s="4"/>
-      <c r="B765" s="4"/>
-      <c r="C765" s="4"/>
-      <c r="D765" s="4"/>
-      <c r="E765" s="4"/>
-      <c r="F765" s="4"/>
-      <c r="G765" s="4"/>
-    </row>
-    <row r="766" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A766" s="4"/>
-      <c r="B766" s="4"/>
-      <c r="C766" s="4"/>
-      <c r="D766" s="4"/>
-      <c r="E766" s="4"/>
-      <c r="F766" s="4"/>
-      <c r="G766" s="4"/>
-    </row>
-    <row r="767" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A767" s="4"/>
-      <c r="B767" s="4"/>
-      <c r="C767" s="4"/>
-      <c r="D767" s="4"/>
-      <c r="E767" s="4"/>
-      <c r="F767" s="4"/>
-      <c r="G767" s="4"/>
-    </row>
-    <row r="768" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A768" s="4"/>
-      <c r="B768" s="4"/>
-      <c r="C768" s="4"/>
-      <c r="D768" s="4"/>
-      <c r="E768" s="4"/>
-      <c r="F768" s="4"/>
-      <c r="G768" s="4"/>
-    </row>
-    <row r="769" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A769" s="4"/>
-      <c r="B769" s="4"/>
-      <c r="C769" s="4"/>
-      <c r="D769" s="4"/>
-      <c r="E769" s="4"/>
-      <c r="F769" s="4"/>
-      <c r="G769" s="4"/>
-    </row>
-    <row r="770" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A770" s="4"/>
-      <c r="B770" s="4"/>
-      <c r="C770" s="4"/>
-      <c r="D770" s="4"/>
-      <c r="E770" s="4"/>
-      <c r="F770" s="4"/>
-      <c r="G770" s="4"/>
-    </row>
-    <row r="771" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A771" s="4"/>
-      <c r="B771" s="4"/>
-      <c r="C771" s="4"/>
-      <c r="D771" s="4"/>
-      <c r="E771" s="4"/>
-      <c r="F771" s="4"/>
-      <c r="G771" s="4"/>
-    </row>
-    <row r="772" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A772" s="4"/>
-      <c r="B772" s="4"/>
-      <c r="C772" s="4"/>
-      <c r="D772" s="4"/>
-      <c r="E772" s="4"/>
-      <c r="F772" s="4"/>
-      <c r="G772" s="4"/>
-    </row>
-    <row r="773" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A773" s="4"/>
-      <c r="B773" s="4"/>
-      <c r="C773" s="4"/>
-      <c r="D773" s="4"/>
-      <c r="E773" s="4"/>
-      <c r="F773" s="4"/>
-      <c r="G773" s="4"/>
-    </row>
-    <row r="774" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A774" s="4"/>
-      <c r="B774" s="4"/>
-      <c r="C774" s="4"/>
-      <c r="D774" s="4"/>
-      <c r="E774" s="4"/>
-      <c r="F774" s="4"/>
-      <c r="G774" s="4"/>
-    </row>
-    <row r="775" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A775" s="4"/>
-      <c r="B775" s="4"/>
-      <c r="C775" s="4"/>
-      <c r="D775" s="4"/>
-      <c r="E775" s="4"/>
-      <c r="F775" s="4"/>
-      <c r="G775" s="4"/>
-    </row>
-    <row r="776" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A776" s="4"/>
-      <c r="B776" s="4"/>
-      <c r="C776" s="4"/>
-      <c r="D776" s="4"/>
-      <c r="E776" s="4"/>
-      <c r="F776" s="4"/>
-      <c r="G776" s="4"/>
-    </row>
-    <row r="777" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A777" s="4"/>
-      <c r="B777" s="4"/>
-      <c r="C777" s="4"/>
-      <c r="D777" s="4"/>
-      <c r="E777" s="4"/>
-      <c r="F777" s="4"/>
-      <c r="G777" s="4"/>
-    </row>
-    <row r="778" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A778" s="4"/>
-      <c r="B778" s="4"/>
-      <c r="C778" s="4"/>
-      <c r="D778" s="4"/>
-      <c r="E778" s="4"/>
-      <c r="F778" s="4"/>
-      <c r="G778" s="4"/>
-    </row>
-    <row r="779" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A779" s="4"/>
-      <c r="B779" s="4"/>
-      <c r="C779" s="4"/>
-      <c r="D779" s="4"/>
-      <c r="E779" s="4"/>
-      <c r="F779" s="4"/>
-      <c r="G779" s="4"/>
-    </row>
-    <row r="780" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A780" s="4"/>
-      <c r="B780" s="4"/>
-      <c r="C780" s="4"/>
-      <c r="D780" s="4"/>
-      <c r="E780" s="4"/>
-      <c r="F780" s="4"/>
-      <c r="G780" s="4"/>
-    </row>
-    <row r="781" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A781" s="4"/>
-      <c r="B781" s="4"/>
-      <c r="C781" s="4"/>
-      <c r="D781" s="4"/>
-      <c r="E781" s="4"/>
-      <c r="F781" s="4"/>
-      <c r="G781" s="4"/>
-    </row>
-    <row r="782" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A782" s="4"/>
-      <c r="B782" s="4"/>
-      <c r="C782" s="4"/>
-      <c r="D782" s="4"/>
-      <c r="E782" s="4"/>
-      <c r="F782" s="4"/>
-      <c r="G782" s="4"/>
-    </row>
-    <row r="783" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A783" s="4"/>
-      <c r="B783" s="4"/>
-      <c r="C783" s="4"/>
-      <c r="D783" s="4"/>
-      <c r="E783" s="4"/>
-      <c r="F783" s="4"/>
-      <c r="G783" s="4"/>
-    </row>
-    <row r="784" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A784" s="4"/>
-      <c r="B784" s="4"/>
-      <c r="C784" s="4"/>
-      <c r="D784" s="4"/>
-      <c r="E784" s="4"/>
-      <c r="F784" s="4"/>
-      <c r="G784" s="4"/>
-    </row>
-    <row r="785" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A785" s="4"/>
-      <c r="B785" s="4"/>
-      <c r="C785" s="4"/>
-      <c r="D785" s="4"/>
-      <c r="E785" s="4"/>
-      <c r="F785" s="4"/>
-      <c r="G785" s="4"/>
-    </row>
-    <row r="786" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A786" s="4"/>
-      <c r="B786" s="4"/>
-      <c r="C786" s="4"/>
-      <c r="D786" s="4"/>
-      <c r="E786" s="4"/>
-      <c r="F786" s="4"/>
-      <c r="G786" s="4"/>
-    </row>
-    <row r="787" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A787" s="4"/>
-      <c r="B787" s="4"/>
-      <c r="C787" s="4"/>
-      <c r="D787" s="4"/>
-      <c r="E787" s="4"/>
-      <c r="F787" s="4"/>
-      <c r="G787" s="4"/>
-    </row>
-    <row r="788" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A788" s="4"/>
-      <c r="B788" s="4"/>
-      <c r="C788" s="4"/>
-      <c r="D788" s="4"/>
-      <c r="E788" s="4"/>
-      <c r="F788" s="4"/>
-      <c r="G788" s="4"/>
-    </row>
-    <row r="789" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A789" s="4"/>
-      <c r="B789" s="4"/>
-      <c r="C789" s="4"/>
-      <c r="D789" s="4"/>
-      <c r="E789" s="4"/>
-      <c r="F789" s="4"/>
-      <c r="G789" s="4"/>
-    </row>
-    <row r="790" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A790" s="4"/>
-      <c r="B790" s="4"/>
-      <c r="C790" s="4"/>
-      <c r="D790" s="4"/>
-      <c r="E790" s="4"/>
-      <c r="F790" s="4"/>
-      <c r="G790" s="4"/>
-    </row>
-    <row r="791" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A791" s="4"/>
-      <c r="B791" s="4"/>
-      <c r="C791" s="4"/>
-      <c r="D791" s="4"/>
-      <c r="E791" s="4"/>
-      <c r="F791" s="4"/>
-      <c r="G791" s="4"/>
-    </row>
-    <row r="792" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A792" s="4"/>
-      <c r="B792" s="4"/>
-      <c r="C792" s="4"/>
-      <c r="D792" s="4"/>
-      <c r="E792" s="4"/>
-      <c r="F792" s="4"/>
-      <c r="G792" s="4"/>
-    </row>
-    <row r="793" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A793" s="4"/>
-      <c r="B793" s="4"/>
-      <c r="C793" s="4"/>
-      <c r="D793" s="4"/>
-      <c r="E793" s="4"/>
-      <c r="F793" s="4"/>
-      <c r="G793" s="4"/>
-    </row>
-    <row r="794" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A794" s="4"/>
-      <c r="B794" s="4"/>
-      <c r="C794" s="4"/>
-      <c r="D794" s="4"/>
-      <c r="E794" s="4"/>
-      <c r="F794" s="4"/>
-      <c r="G794" s="4"/>
-    </row>
-    <row r="795" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A795" s="4"/>
-      <c r="B795" s="4"/>
-      <c r="C795" s="4"/>
-      <c r="D795" s="4"/>
-      <c r="E795" s="4"/>
-      <c r="F795" s="4"/>
-      <c r="G795" s="4"/>
-    </row>
-    <row r="796" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A796" s="4"/>
-      <c r="B796" s="4"/>
-      <c r="C796" s="4"/>
-      <c r="D796" s="4"/>
-      <c r="E796" s="4"/>
-      <c r="F796" s="4"/>
-      <c r="G796" s="4"/>
-    </row>
-    <row r="797" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A797" s="4"/>
-      <c r="B797" s="4"/>
-      <c r="C797" s="4"/>
-      <c r="D797" s="4"/>
-      <c r="E797" s="4"/>
-      <c r="F797" s="4"/>
-      <c r="G797" s="4"/>
-    </row>
-    <row r="798" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A798" s="4"/>
-      <c r="B798" s="4"/>
-      <c r="C798" s="4"/>
-      <c r="D798" s="4"/>
-      <c r="E798" s="4"/>
-      <c r="F798" s="4"/>
-      <c r="G798" s="4"/>
-    </row>
-    <row r="799" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A799" s="4"/>
-      <c r="B799" s="4"/>
-      <c r="C799" s="4"/>
-      <c r="D799" s="4"/>
-      <c r="E799" s="4"/>
-      <c r="F799" s="4"/>
-      <c r="G799" s="4"/>
-    </row>
-    <row r="800" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A800" s="4"/>
-      <c r="B800" s="4"/>
-      <c r="C800" s="4"/>
-      <c r="D800" s="4"/>
-      <c r="E800" s="4"/>
-      <c r="F800" s="4"/>
-      <c r="G800" s="4"/>
-    </row>
-    <row r="801" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A801" s="4"/>
-      <c r="B801" s="4"/>
-      <c r="C801" s="4"/>
-      <c r="D801" s="4"/>
-      <c r="E801" s="4"/>
-      <c r="F801" s="4"/>
-      <c r="G801" s="4"/>
-    </row>
-    <row r="802" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A802" s="4"/>
-      <c r="B802" s="4"/>
-      <c r="C802" s="4"/>
-      <c r="D802" s="4"/>
-      <c r="E802" s="4"/>
-      <c r="F802" s="4"/>
-      <c r="G802" s="4"/>
-    </row>
-    <row r="803" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A803" s="4"/>
-      <c r="B803" s="4"/>
-      <c r="C803" s="4"/>
-      <c r="D803" s="4"/>
-      <c r="E803" s="4"/>
-      <c r="F803" s="4"/>
-      <c r="G803" s="4"/>
-    </row>
-    <row r="804" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A804" s="4"/>
-      <c r="B804" s="4"/>
-      <c r="C804" s="4"/>
-      <c r="D804" s="4"/>
-      <c r="E804" s="4"/>
-      <c r="F804" s="4"/>
-      <c r="G804" s="4"/>
-    </row>
-    <row r="805" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A805" s="4"/>
-      <c r="B805" s="4"/>
-      <c r="C805" s="4"/>
-      <c r="D805" s="4"/>
-      <c r="E805" s="4"/>
-      <c r="F805" s="4"/>
-      <c r="G805" s="4"/>
-    </row>
-    <row r="806" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A806" s="4"/>
-      <c r="B806" s="4"/>
-      <c r="C806" s="4"/>
-      <c r="D806" s="4"/>
-      <c r="E806" s="4"/>
-      <c r="F806" s="4"/>
-      <c r="G806" s="4"/>
-    </row>
-    <row r="807" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A807" s="4"/>
-      <c r="B807" s="4"/>
-      <c r="C807" s="4"/>
-      <c r="D807" s="4"/>
-      <c r="E807" s="4"/>
-      <c r="F807" s="4"/>
-      <c r="G807" s="4"/>
-    </row>
-    <row r="808" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A808" s="4"/>
-      <c r="B808" s="4"/>
-      <c r="C808" s="4"/>
-      <c r="D808" s="4"/>
-      <c r="E808" s="4"/>
-      <c r="F808" s="4"/>
-      <c r="G808" s="4"/>
-    </row>
-    <row r="809" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A809" s="4"/>
-      <c r="B809" s="4"/>
-      <c r="C809" s="4"/>
-      <c r="D809" s="4"/>
-      <c r="E809" s="4"/>
-      <c r="F809" s="4"/>
-      <c r="G809" s="4"/>
-    </row>
-    <row r="810" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A810" s="4"/>
-      <c r="B810" s="4"/>
-      <c r="C810" s="4"/>
-      <c r="D810" s="4"/>
-      <c r="E810" s="4"/>
-      <c r="F810" s="4"/>
-      <c r="G810" s="4"/>
-    </row>
-    <row r="811" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A811" s="4"/>
-      <c r="B811" s="4"/>
-      <c r="C811" s="4"/>
-      <c r="D811" s="4"/>
-      <c r="E811" s="4"/>
-      <c r="F811" s="4"/>
-      <c r="G811" s="4"/>
-    </row>
-    <row r="812" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A812" s="4"/>
-      <c r="B812" s="4"/>
-      <c r="C812" s="4"/>
-      <c r="D812" s="4"/>
-      <c r="E812" s="4"/>
-      <c r="F812" s="4"/>
-      <c r="G812" s="4"/>
-    </row>
-    <row r="813" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A813" s="4"/>
-      <c r="B813" s="4"/>
-      <c r="C813" s="4"/>
-      <c r="D813" s="4"/>
-      <c r="E813" s="4"/>
-      <c r="F813" s="4"/>
-      <c r="G813" s="4"/>
-    </row>
-    <row r="814" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A814" s="4"/>
-      <c r="B814" s="4"/>
-      <c r="C814" s="4"/>
-      <c r="D814" s="4"/>
-      <c r="E814" s="4"/>
-      <c r="F814" s="4"/>
-      <c r="G814" s="4"/>
-    </row>
-    <row r="815" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A815" s="4"/>
-      <c r="B815" s="4"/>
-      <c r="C815" s="4"/>
-      <c r="D815" s="4"/>
-      <c r="E815" s="4"/>
-      <c r="F815" s="4"/>
-      <c r="G815" s="4"/>
-    </row>
-    <row r="816" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A816" s="4"/>
-      <c r="B816" s="4"/>
-      <c r="C816" s="4"/>
-      <c r="D816" s="4"/>
-      <c r="E816" s="4"/>
-      <c r="F816" s="4"/>
-      <c r="G816" s="4"/>
-    </row>
-    <row r="817" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A817" s="4"/>
-      <c r="B817" s="4"/>
-      <c r="C817" s="4"/>
-      <c r="D817" s="4"/>
-      <c r="E817" s="4"/>
-      <c r="F817" s="4"/>
-      <c r="G817" s="4"/>
-    </row>
-    <row r="818" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A818" s="4"/>
-      <c r="B818" s="4"/>
-      <c r="C818" s="4"/>
-      <c r="D818" s="4"/>
-      <c r="E818" s="4"/>
-      <c r="F818" s="4"/>
-      <c r="G818" s="4"/>
-    </row>
-    <row r="819" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A819" s="4"/>
-      <c r="B819" s="4"/>
-      <c r="C819" s="4"/>
-      <c r="D819" s="4"/>
-      <c r="E819" s="4"/>
-      <c r="F819" s="4"/>
-      <c r="G819" s="4"/>
-    </row>
-    <row r="820" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A820" s="4"/>
-      <c r="B820" s="4"/>
-      <c r="C820" s="4"/>
-      <c r="D820" s="4"/>
-      <c r="E820" s="4"/>
-      <c r="F820" s="4"/>
-      <c r="G820" s="4"/>
-    </row>
-    <row r="821" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A821" s="4"/>
-      <c r="B821" s="4"/>
-      <c r="C821" s="4"/>
-      <c r="D821" s="4"/>
-      <c r="E821" s="4"/>
-      <c r="F821" s="4"/>
-      <c r="G821" s="4"/>
-    </row>
-    <row r="822" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A822" s="4"/>
-      <c r="B822" s="4"/>
-      <c r="C822" s="4"/>
-      <c r="D822" s="4"/>
-      <c r="E822" s="4"/>
-      <c r="F822" s="4"/>
-      <c r="G822" s="4"/>
-    </row>
-    <row r="823" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A823" s="4"/>
-      <c r="B823" s="4"/>
-      <c r="C823" s="4"/>
-      <c r="D823" s="4"/>
-      <c r="E823" s="4"/>
-      <c r="F823" s="4"/>
-      <c r="G823" s="4"/>
-    </row>
-    <row r="824" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A824" s="4"/>
-      <c r="B824" s="4"/>
-      <c r="C824" s="4"/>
-      <c r="D824" s="4"/>
-      <c r="E824" s="4"/>
-      <c r="F824" s="4"/>
-      <c r="G824" s="4"/>
-    </row>
-    <row r="825" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A825" s="4"/>
-      <c r="B825" s="4"/>
-      <c r="C825" s="4"/>
-      <c r="D825" s="4"/>
-      <c r="E825" s="4"/>
-      <c r="F825" s="4"/>
-      <c r="G825" s="4"/>
-    </row>
-    <row r="826" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A826" s="4"/>
-      <c r="B826" s="4"/>
-      <c r="C826" s="4"/>
-      <c r="D826" s="4"/>
-      <c r="E826" s="4"/>
-      <c r="F826" s="4"/>
-      <c r="G826" s="4"/>
-    </row>
-    <row r="827" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A827" s="4"/>
-      <c r="B827" s="4"/>
-      <c r="C827" s="4"/>
-      <c r="D827" s="4"/>
-      <c r="E827" s="4"/>
-      <c r="F827" s="4"/>
-      <c r="G827" s="4"/>
-    </row>
-    <row r="828" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A828" s="4"/>
-      <c r="B828" s="4"/>
-      <c r="C828" s="4"/>
-      <c r="D828" s="4"/>
-      <c r="E828" s="4"/>
-      <c r="F828" s="4"/>
-      <c r="G828" s="4"/>
-    </row>
-    <row r="829" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A829" s="4"/>
-      <c r="B829" s="4"/>
-      <c r="C829" s="4"/>
-      <c r="D829" s="4"/>
-      <c r="E829" s="4"/>
-      <c r="F829" s="4"/>
-      <c r="G829" s="4"/>
-    </row>
-    <row r="830" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A830" s="4"/>
-      <c r="B830" s="4"/>
-      <c r="C830" s="4"/>
-      <c r="D830" s="4"/>
-      <c r="E830" s="4"/>
-      <c r="F830" s="4"/>
-      <c r="G830" s="4"/>
-    </row>
-    <row r="831" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A831" s="4"/>
-      <c r="B831" s="4"/>
-      <c r="C831" s="4"/>
-      <c r="D831" s="4"/>
-      <c r="E831" s="4"/>
-      <c r="F831" s="4"/>
-      <c r="G831" s="4"/>
-    </row>
-    <row r="832" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A832" s="4"/>
-      <c r="B832" s="4"/>
-      <c r="C832" s="4"/>
-      <c r="D832" s="4"/>
-      <c r="E832" s="4"/>
-      <c r="F832" s="4"/>
-      <c r="G832" s="4"/>
-    </row>
-    <row r="833" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A833" s="4"/>
-      <c r="B833" s="4"/>
-      <c r="C833" s="4"/>
-      <c r="D833" s="4"/>
-      <c r="E833" s="4"/>
-      <c r="F833" s="4"/>
-      <c r="G833" s="4"/>
-    </row>
-    <row r="834" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A834" s="4"/>
-      <c r="B834" s="4"/>
-      <c r="C834" s="4"/>
-      <c r="D834" s="4"/>
-      <c r="E834" s="4"/>
-      <c r="F834" s="4"/>
-      <c r="G834" s="4"/>
-    </row>
-    <row r="835" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A835" s="4"/>
-      <c r="B835" s="4"/>
-      <c r="C835" s="4"/>
-      <c r="D835" s="4"/>
-      <c r="E835" s="4"/>
-      <c r="F835" s="4"/>
-      <c r="G835" s="4"/>
-    </row>
-    <row r="836" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A836" s="4"/>
-      <c r="B836" s="4"/>
-      <c r="C836" s="4"/>
-      <c r="D836" s="4"/>
-      <c r="E836" s="4"/>
-      <c r="F836" s="4"/>
-      <c r="G836" s="4"/>
-    </row>
-    <row r="837" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A837" s="4"/>
-      <c r="B837" s="4"/>
-      <c r="C837" s="4"/>
-      <c r="D837" s="4"/>
-      <c r="E837" s="4"/>
-      <c r="F837" s="4"/>
-      <c r="G837" s="4"/>
-    </row>
-    <row r="838" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A838" s="4"/>
-      <c r="B838" s="4"/>
-      <c r="C838" s="4"/>
-      <c r="D838" s="4"/>
-      <c r="E838" s="4"/>
-      <c r="F838" s="4"/>
-      <c r="G838" s="4"/>
-    </row>
-    <row r="839" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A839" s="4"/>
-      <c r="B839" s="4"/>
-      <c r="C839" s="4"/>
-      <c r="D839" s="4"/>
-      <c r="E839" s="4"/>
-      <c r="F839" s="4"/>
-      <c r="G839" s="4"/>
-    </row>
-    <row r="840" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A840" s="4"/>
-      <c r="B840" s="4"/>
-      <c r="C840" s="4"/>
-      <c r="D840" s="4"/>
-      <c r="E840" s="4"/>
-      <c r="F840" s="4"/>
-      <c r="G840" s="4"/>
-    </row>
-    <row r="841" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A841" s="4"/>
-      <c r="B841" s="4"/>
-      <c r="C841" s="4"/>
-      <c r="D841" s="4"/>
-      <c r="E841" s="4"/>
-      <c r="F841" s="4"/>
-      <c r="G841" s="4"/>
-    </row>
-    <row r="842" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A842" s="4"/>
-      <c r="B842" s="4"/>
-      <c r="C842" s="4"/>
-      <c r="D842" s="4"/>
-      <c r="E842" s="4"/>
-      <c r="F842" s="4"/>
-      <c r="G842" s="4"/>
-    </row>
-    <row r="843" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A843" s="4"/>
-      <c r="B843" s="4"/>
-      <c r="C843" s="4"/>
-      <c r="D843" s="4"/>
-      <c r="E843" s="4"/>
-      <c r="F843" s="4"/>
-      <c r="G843" s="4"/>
-    </row>
-    <row r="844" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A844" s="4"/>
-      <c r="B844" s="4"/>
-      <c r="C844" s="4"/>
-      <c r="D844" s="4"/>
-      <c r="E844" s="4"/>
-      <c r="F844" s="4"/>
-      <c r="G844" s="4"/>
-    </row>
-    <row r="845" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A845" s="4"/>
-      <c r="B845" s="4"/>
-      <c r="C845" s="4"/>
-      <c r="D845" s="4"/>
-      <c r="E845" s="4"/>
-      <c r="F845" s="4"/>
-      <c r="G845" s="4"/>
-    </row>
-    <row r="846" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A846" s="4"/>
-      <c r="B846" s="4"/>
-      <c r="C846" s="4"/>
-      <c r="D846" s="4"/>
-      <c r="E846" s="4"/>
-      <c r="F846" s="4"/>
-      <c r="G846" s="4"/>
-    </row>
-    <row r="847" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A847" s="4"/>
-      <c r="B847" s="4"/>
-      <c r="C847" s="4"/>
-      <c r="D847" s="4"/>
-      <c r="E847" s="4"/>
-      <c r="F847" s="4"/>
-      <c r="G847" s="4"/>
-    </row>
-    <row r="848" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A848" s="4"/>
-      <c r="B848" s="4"/>
-      <c r="C848" s="4"/>
-      <c r="D848" s="4"/>
-      <c r="E848" s="4"/>
-      <c r="F848" s="4"/>
-      <c r="G848" s="4"/>
-    </row>
-    <row r="849" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A849" s="4"/>
-      <c r="B849" s="4"/>
-      <c r="C849" s="4"/>
-      <c r="D849" s="4"/>
-      <c r="E849" s="4"/>
-      <c r="F849" s="4"/>
-      <c r="G849" s="4"/>
-    </row>
-    <row r="850" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A850" s="4"/>
-      <c r="B850" s="4"/>
-      <c r="C850" s="4"/>
-      <c r="D850" s="4"/>
-      <c r="E850" s="4"/>
-      <c r="F850" s="4"/>
-      <c r="G850" s="4"/>
-    </row>
-    <row r="851" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A851" s="4"/>
-      <c r="B851" s="4"/>
-      <c r="C851" s="4"/>
-      <c r="D851" s="4"/>
-      <c r="E851" s="4"/>
-      <c r="F851" s="4"/>
-      <c r="G851" s="4"/>
-    </row>
-    <row r="852" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A852" s="4"/>
-      <c r="B852" s="4"/>
-      <c r="C852" s="4"/>
-      <c r="D852" s="4"/>
-      <c r="E852" s="4"/>
-      <c r="F852" s="4"/>
-      <c r="G852" s="4"/>
-    </row>
-    <row r="853" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A853" s="4"/>
-      <c r="B853" s="4"/>
-      <c r="C853" s="4"/>
-      <c r="D853" s="4"/>
-      <c r="E853" s="4"/>
-      <c r="F853" s="4"/>
-      <c r="G853" s="4"/>
-    </row>
-    <row r="854" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A854" s="4"/>
-      <c r="B854" s="4"/>
-      <c r="C854" s="4"/>
-      <c r="D854" s="4"/>
-      <c r="E854" s="4"/>
-      <c r="F854" s="4"/>
-      <c r="G854" s="4"/>
-    </row>
-    <row r="855" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A855" s="4"/>
-      <c r="B855" s="4"/>
-      <c r="C855" s="4"/>
-      <c r="D855" s="4"/>
-      <c r="E855" s="4"/>
-      <c r="F855" s="4"/>
-      <c r="G855" s="4"/>
-    </row>
-    <row r="856" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A856" s="4"/>
-      <c r="B856" s="4"/>
-      <c r="C856" s="4"/>
-      <c r="D856" s="4"/>
-      <c r="E856" s="4"/>
-      <c r="F856" s="4"/>
-      <c r="G856" s="4"/>
-    </row>
-    <row r="857" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A857" s="4"/>
-      <c r="B857" s="4"/>
-      <c r="C857" s="4"/>
-      <c r="D857" s="4"/>
-      <c r="E857" s="4"/>
-      <c r="F857" s="4"/>
-      <c r="G857" s="4"/>
-    </row>
-    <row r="858" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A858" s="4"/>
-      <c r="B858" s="4"/>
-      <c r="C858" s="4"/>
-      <c r="D858" s="4"/>
-      <c r="E858" s="4"/>
-      <c r="F858" s="4"/>
-      <c r="G858" s="4"/>
-    </row>
-    <row r="859" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A859" s="4"/>
-      <c r="B859" s="4"/>
-      <c r="C859" s="4"/>
-      <c r="D859" s="4"/>
-      <c r="E859" s="4"/>
-      <c r="F859" s="4"/>
-      <c r="G859" s="4"/>
-    </row>
-    <row r="860" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A860" s="4"/>
-      <c r="B860" s="4"/>
-      <c r="C860" s="4"/>
-      <c r="D860" s="4"/>
-      <c r="E860" s="4"/>
-      <c r="F860" s="4"/>
-      <c r="G860" s="4"/>
-    </row>
-    <row r="861" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A861" s="4"/>
-      <c r="B861" s="4"/>
-      <c r="C861" s="4"/>
-      <c r="D861" s="4"/>
-      <c r="E861" s="4"/>
-      <c r="F861" s="4"/>
-      <c r="G861" s="4"/>
-    </row>
-    <row r="862" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A862" s="4"/>
-      <c r="B862" s="4"/>
-      <c r="C862" s="4"/>
-      <c r="D862" s="4"/>
-      <c r="E862" s="4"/>
-      <c r="F862" s="4"/>
-      <c r="G862" s="4"/>
-    </row>
-    <row r="863" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A863" s="4"/>
-      <c r="B863" s="4"/>
-      <c r="C863" s="4"/>
-      <c r="D863" s="4"/>
-      <c r="E863" s="4"/>
-      <c r="F863" s="4"/>
-      <c r="G863" s="4"/>
-    </row>
-    <row r="864" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A864" s="4"/>
-      <c r="B864" s="4"/>
-      <c r="C864" s="4"/>
-      <c r="D864" s="4"/>
-      <c r="E864" s="4"/>
-      <c r="F864" s="4"/>
-      <c r="G864" s="4"/>
-    </row>
-    <row r="865" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A865" s="4"/>
-      <c r="B865" s="4"/>
-      <c r="C865" s="4"/>
-      <c r="D865" s="4"/>
-      <c r="E865" s="4"/>
-      <c r="F865" s="4"/>
-      <c r="G865" s="4"/>
-    </row>
-    <row r="866" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A866" s="4"/>
-      <c r="B866" s="4"/>
-      <c r="C866" s="4"/>
-      <c r="D866" s="4"/>
-      <c r="E866" s="4"/>
-      <c r="F866" s="4"/>
-      <c r="G866" s="4"/>
-    </row>
-    <row r="867" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A867" s="4"/>
-      <c r="B867" s="4"/>
-      <c r="C867" s="4"/>
-      <c r="D867" s="4"/>
-      <c r="E867" s="4"/>
-      <c r="F867" s="4"/>
-      <c r="G867" s="4"/>
-    </row>
-    <row r="868" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A868" s="4"/>
-      <c r="B868" s="4"/>
-      <c r="C868" s="4"/>
-      <c r="D868" s="4"/>
-      <c r="E868" s="4"/>
-      <c r="F868" s="4"/>
-      <c r="G868" s="4"/>
-    </row>
-    <row r="869" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A869" s="4"/>
-      <c r="B869" s="4"/>
-      <c r="C869" s="4"/>
-      <c r="D869" s="4"/>
-      <c r="E869" s="4"/>
-      <c r="F869" s="4"/>
-      <c r="G869" s="4"/>
-    </row>
-    <row r="870" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A870" s="4"/>
-      <c r="B870" s="4"/>
-      <c r="C870" s="4"/>
-      <c r="D870" s="4"/>
-      <c r="E870" s="4"/>
-      <c r="F870" s="4"/>
-      <c r="G870" s="4"/>
-    </row>
-    <row r="871" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A871" s="4"/>
-      <c r="B871" s="4"/>
-      <c r="C871" s="4"/>
-      <c r="D871" s="4"/>
-      <c r="E871" s="4"/>
-      <c r="F871" s="4"/>
-      <c r="G871" s="4"/>
-    </row>
-    <row r="872" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A872" s="4"/>
-      <c r="B872" s="4"/>
-      <c r="C872" s="4"/>
-      <c r="D872" s="4"/>
-      <c r="E872" s="4"/>
-      <c r="F872" s="4"/>
-      <c r="G872" s="4"/>
-    </row>
-    <row r="873" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A873" s="4"/>
-      <c r="B873" s="4"/>
-      <c r="C873" s="4"/>
-      <c r="D873" s="4"/>
-      <c r="E873" s="4"/>
-      <c r="F873" s="4"/>
-      <c r="G873" s="4"/>
-    </row>
-    <row r="874" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A874" s="4"/>
-      <c r="B874" s="4"/>
-      <c r="C874" s="4"/>
-      <c r="D874" s="4"/>
-      <c r="E874" s="4"/>
-      <c r="F874" s="4"/>
-      <c r="G874" s="4"/>
-    </row>
-    <row r="875" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A875" s="4"/>
-      <c r="B875" s="4"/>
-      <c r="C875" s="4"/>
-      <c r="D875" s="4"/>
-      <c r="E875" s="4"/>
-      <c r="F875" s="4"/>
-      <c r="G875" s="4"/>
-    </row>
-    <row r="876" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A876" s="4"/>
-      <c r="B876" s="4"/>
-      <c r="C876" s="4"/>
-      <c r="D876" s="4"/>
-      <c r="E876" s="4"/>
-      <c r="F876" s="4"/>
-      <c r="G876" s="4"/>
-    </row>
-    <row r="877" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A877" s="4"/>
-      <c r="B877" s="4"/>
-      <c r="C877" s="4"/>
-      <c r="D877" s="4"/>
-      <c r="E877" s="4"/>
-      <c r="F877" s="4"/>
-      <c r="G877" s="4"/>
-    </row>
-    <row r="878" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A878" s="4"/>
-      <c r="B878" s="4"/>
-      <c r="C878" s="4"/>
-      <c r="D878" s="4"/>
-      <c r="E878" s="4"/>
-      <c r="F878" s="4"/>
-      <c r="G878" s="4"/>
-    </row>
-    <row r="879" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A879" s="4"/>
-      <c r="B879" s="4"/>
-      <c r="C879" s="4"/>
-      <c r="D879" s="4"/>
-      <c r="E879" s="4"/>
-      <c r="F879" s="4"/>
-      <c r="G879" s="4"/>
-    </row>
-    <row r="880" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A880" s="4"/>
-      <c r="B880" s="4"/>
-      <c r="C880" s="4"/>
-      <c r="D880" s="4"/>
-      <c r="E880" s="4"/>
-      <c r="F880" s="4"/>
-      <c r="G880" s="4"/>
-    </row>
-    <row r="881" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A881" s="4"/>
-      <c r="B881" s="4"/>
-      <c r="C881" s="4"/>
-      <c r="D881" s="4"/>
-      <c r="E881" s="4"/>
-      <c r="F881" s="4"/>
-      <c r="G881" s="4"/>
-    </row>
-    <row r="882" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A882" s="4"/>
-      <c r="B882" s="4"/>
-      <c r="C882" s="4"/>
-      <c r="D882" s="4"/>
-      <c r="E882" s="4"/>
-      <c r="F882" s="4"/>
-      <c r="G882" s="4"/>
-    </row>
-    <row r="883" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A883" s="4"/>
-      <c r="B883" s="4"/>
-      <c r="C883" s="4"/>
-      <c r="D883" s="4"/>
-      <c r="E883" s="4"/>
-      <c r="F883" s="4"/>
-      <c r="G883" s="4"/>
-    </row>
-    <row r="884" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A884" s="4"/>
-      <c r="B884" s="4"/>
-      <c r="C884" s="4"/>
-      <c r="D884" s="4"/>
-      <c r="E884" s="4"/>
-      <c r="F884" s="4"/>
-      <c r="G884" s="4"/>
-    </row>
-    <row r="885" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A885" s="4"/>
-      <c r="B885" s="4"/>
-      <c r="C885" s="4"/>
-      <c r="D885" s="4"/>
-      <c r="E885" s="4"/>
-      <c r="F885" s="4"/>
-      <c r="G885" s="4"/>
-    </row>
-    <row r="886" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A886" s="4"/>
-      <c r="B886" s="4"/>
-      <c r="C886" s="4"/>
-      <c r="D886" s="4"/>
-      <c r="E886" s="4"/>
-      <c r="F886" s="4"/>
-      <c r="G886" s="4"/>
-    </row>
-    <row r="887" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A887" s="4"/>
-      <c r="B887" s="4"/>
-      <c r="C887" s="4"/>
-      <c r="D887" s="4"/>
-      <c r="E887" s="4"/>
-      <c r="F887" s="4"/>
-      <c r="G887" s="4"/>
-    </row>
-    <row r="888" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A888" s="4"/>
-      <c r="B888" s="4"/>
-      <c r="C888" s="4"/>
-      <c r="D888" s="4"/>
-      <c r="E888" s="4"/>
-      <c r="F888" s="4"/>
-      <c r="G888" s="4"/>
-    </row>
-    <row r="889" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A889" s="4"/>
-      <c r="B889" s="4"/>
-      <c r="C889" s="4"/>
-      <c r="D889" s="4"/>
-      <c r="E889" s="4"/>
-      <c r="F889" s="4"/>
-      <c r="G889" s="4"/>
-    </row>
-    <row r="890" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A890" s="4"/>
-      <c r="B890" s="4"/>
-      <c r="C890" s="4"/>
-      <c r="D890" s="4"/>
-      <c r="E890" s="4"/>
-      <c r="F890" s="4"/>
-      <c r="G890" s="4"/>
-    </row>
-    <row r="891" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A891" s="4"/>
-      <c r="B891" s="4"/>
-      <c r="C891" s="4"/>
-      <c r="D891" s="4"/>
-      <c r="E891" s="4"/>
-      <c r="F891" s="4"/>
-      <c r="G891" s="4"/>
-    </row>
-    <row r="892" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A892" s="4"/>
-      <c r="B892" s="4"/>
-      <c r="C892" s="4"/>
-      <c r="D892" s="4"/>
-      <c r="E892" s="4"/>
-      <c r="F892" s="4"/>
-      <c r="G892" s="4"/>
-    </row>
-    <row r="893" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A893" s="4"/>
-      <c r="B893" s="4"/>
-      <c r="C893" s="4"/>
-      <c r="D893" s="4"/>
-      <c r="E893" s="4"/>
-      <c r="F893" s="4"/>
-      <c r="G893" s="4"/>
-    </row>
-    <row r="894" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A894" s="4"/>
-      <c r="B894" s="4"/>
-      <c r="C894" s="4"/>
-      <c r="D894" s="4"/>
-      <c r="E894" s="4"/>
-      <c r="F894" s="4"/>
-      <c r="G894" s="4"/>
-    </row>
-    <row r="895" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A895" s="4"/>
-      <c r="B895" s="4"/>
-      <c r="C895" s="4"/>
-      <c r="D895" s="4"/>
-      <c r="E895" s="4"/>
-      <c r="F895" s="4"/>
-      <c r="G895" s="4"/>
-    </row>
-    <row r="896" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A896" s="4"/>
-      <c r="B896" s="4"/>
-      <c r="C896" s="4"/>
-      <c r="D896" s="4"/>
-      <c r="E896" s="4"/>
-      <c r="F896" s="4"/>
-      <c r="G896" s="4"/>
-    </row>
-    <row r="897" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A897" s="4"/>
-      <c r="B897" s="4"/>
-      <c r="C897" s="4"/>
-      <c r="D897" s="4"/>
-      <c r="E897" s="4"/>
-      <c r="F897" s="4"/>
-      <c r="G897" s="4"/>
-    </row>
-    <row r="898" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A898" s="4"/>
-      <c r="B898" s="4"/>
-      <c r="C898" s="4"/>
-      <c r="D898" s="4"/>
-      <c r="E898" s="4"/>
-      <c r="F898" s="4"/>
-      <c r="G898" s="4"/>
-    </row>
-    <row r="899" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A899" s="4"/>
-      <c r="B899" s="4"/>
-      <c r="C899" s="4"/>
-      <c r="D899" s="4"/>
-      <c r="E899" s="4"/>
-      <c r="F899" s="4"/>
-      <c r="G899" s="4"/>
-    </row>
-    <row r="900" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A900" s="4"/>
-      <c r="B900" s="4"/>
-      <c r="C900" s="4"/>
-      <c r="D900" s="4"/>
-      <c r="E900" s="4"/>
-      <c r="F900" s="4"/>
-      <c r="G900" s="4"/>
-    </row>
-    <row r="901" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A901" s="4"/>
-      <c r="B901" s="4"/>
-      <c r="C901" s="4"/>
-      <c r="D901" s="4"/>
-      <c r="E901" s="4"/>
-      <c r="F901" s="4"/>
-      <c r="G901" s="4"/>
-    </row>
-    <row r="902" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A902" s="4"/>
-      <c r="B902" s="4"/>
-      <c r="C902" s="4"/>
-      <c r="D902" s="4"/>
-      <c r="E902" s="4"/>
-      <c r="F902" s="4"/>
-      <c r="G902" s="4"/>
-    </row>
-    <row r="903" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A903" s="4"/>
-      <c r="B903" s="4"/>
-      <c r="C903" s="4"/>
-      <c r="D903" s="4"/>
-      <c r="E903" s="4"/>
-      <c r="F903" s="4"/>
-      <c r="G903" s="4"/>
-    </row>
-    <row r="904" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A904" s="4"/>
-      <c r="B904" s="4"/>
-      <c r="C904" s="4"/>
-      <c r="D904" s="4"/>
-      <c r="E904" s="4"/>
-      <c r="F904" s="4"/>
-      <c r="G904" s="4"/>
-    </row>
-    <row r="905" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A905" s="4"/>
-      <c r="B905" s="4"/>
-      <c r="C905" s="4"/>
-      <c r="D905" s="4"/>
-      <c r="E905" s="4"/>
-      <c r="F905" s="4"/>
-      <c r="G905" s="4"/>
-    </row>
-    <row r="906" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A906" s="4"/>
-      <c r="B906" s="4"/>
-      <c r="C906" s="4"/>
-      <c r="D906" s="4"/>
-      <c r="E906" s="4"/>
-      <c r="F906" s="4"/>
-      <c r="G906" s="4"/>
-    </row>
-    <row r="907" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A907" s="4"/>
-      <c r="B907" s="4"/>
-      <c r="C907" s="4"/>
-      <c r="D907" s="4"/>
-      <c r="E907" s="4"/>
-      <c r="F907" s="4"/>
-      <c r="G907" s="4"/>
-    </row>
-    <row r="908" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A908" s="4"/>
-      <c r="B908" s="4"/>
-      <c r="C908" s="4"/>
-      <c r="D908" s="4"/>
-      <c r="E908" s="4"/>
-      <c r="F908" s="4"/>
-      <c r="G908" s="4"/>
-    </row>
-    <row r="909" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A909" s="4"/>
-      <c r="B909" s="4"/>
-      <c r="C909" s="4"/>
-      <c r="D909" s="4"/>
-      <c r="E909" s="4"/>
-      <c r="F909" s="4"/>
-      <c r="G909" s="4"/>
-    </row>
-    <row r="910" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A910" s="4"/>
-      <c r="B910" s="4"/>
-      <c r="C910" s="4"/>
-      <c r="D910" s="4"/>
-      <c r="E910" s="4"/>
-      <c r="F910" s="4"/>
-      <c r="G910" s="4"/>
-    </row>
-    <row r="911" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A911" s="4"/>
-      <c r="B911" s="4"/>
-      <c r="C911" s="4"/>
-      <c r="D911" s="4"/>
-      <c r="E911" s="4"/>
-      <c r="F911" s="4"/>
-      <c r="G911" s="4"/>
-    </row>
-    <row r="912" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A912" s="4"/>
-      <c r="B912" s="4"/>
-      <c r="C912" s="4"/>
-      <c r="D912" s="4"/>
-      <c r="E912" s="4"/>
-      <c r="F912" s="4"/>
-      <c r="G912" s="4"/>
-    </row>
-    <row r="913" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A913" s="4"/>
-      <c r="B913" s="4"/>
-      <c r="C913" s="4"/>
-      <c r="D913" s="4"/>
-      <c r="E913" s="4"/>
-      <c r="F913" s="4"/>
-      <c r="G913" s="4"/>
-    </row>
-    <row r="914" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A914" s="4"/>
-      <c r="B914" s="4"/>
-      <c r="C914" s="4"/>
-      <c r="D914" s="4"/>
-      <c r="E914" s="4"/>
-      <c r="F914" s="4"/>
-      <c r="G914" s="4"/>
-    </row>
-    <row r="915" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A915" s="4"/>
-      <c r="B915" s="4"/>
-      <c r="C915" s="4"/>
-      <c r="D915" s="4"/>
-      <c r="E915" s="4"/>
-      <c r="F915" s="4"/>
-      <c r="G915" s="4"/>
-    </row>
-    <row r="916" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A916" s="4"/>
-      <c r="B916" s="4"/>
-      <c r="C916" s="4"/>
-      <c r="D916" s="4"/>
-      <c r="E916" s="4"/>
-      <c r="F916" s="4"/>
-      <c r="G916" s="4"/>
-    </row>
-    <row r="917" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A917" s="4"/>
-      <c r="B917" s="4"/>
-      <c r="C917" s="4"/>
-      <c r="D917" s="4"/>
-      <c r="E917" s="4"/>
-      <c r="F917" s="4"/>
-      <c r="G917" s="4"/>
-    </row>
-    <row r="918" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A918" s="4"/>
-      <c r="B918" s="4"/>
-      <c r="C918" s="4"/>
-      <c r="D918" s="4"/>
-      <c r="E918" s="4"/>
-      <c r="F918" s="4"/>
-      <c r="G918" s="4"/>
-    </row>
-    <row r="919" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A919" s="4"/>
-      <c r="B919" s="4"/>
-      <c r="C919" s="4"/>
-      <c r="D919" s="4"/>
-      <c r="E919" s="4"/>
-      <c r="F919" s="4"/>
-      <c r="G919" s="4"/>
-    </row>
-    <row r="920" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A920" s="4"/>
-      <c r="B920" s="4"/>
-      <c r="C920" s="4"/>
-      <c r="D920" s="4"/>
-      <c r="E920" s="4"/>
-      <c r="F920" s="4"/>
-      <c r="G920" s="4"/>
-    </row>
-    <row r="921" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A921" s="4"/>
-      <c r="B921" s="4"/>
-      <c r="C921" s="4"/>
-      <c r="D921" s="4"/>
-      <c r="E921" s="4"/>
-      <c r="F921" s="4"/>
-      <c r="G921" s="4"/>
-    </row>
-    <row r="922" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A922" s="4"/>
-      <c r="B922" s="4"/>
-      <c r="C922" s="4"/>
-      <c r="D922" s="4"/>
-      <c r="E922" s="4"/>
-      <c r="F922" s="4"/>
-      <c r="G922" s="4"/>
-    </row>
-    <row r="923" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A923" s="4"/>
-      <c r="B923" s="4"/>
-      <c r="C923" s="4"/>
-      <c r="D923" s="4"/>
-      <c r="E923" s="4"/>
-      <c r="F923" s="4"/>
-      <c r="G923" s="4"/>
-    </row>
-    <row r="924" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A924" s="4"/>
-      <c r="B924" s="4"/>
-      <c r="C924" s="4"/>
-      <c r="D924" s="4"/>
-      <c r="E924" s="4"/>
-      <c r="F924" s="4"/>
-      <c r="G924" s="4"/>
-    </row>
-    <row r="925" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A925" s="4"/>
-      <c r="B925" s="4"/>
-      <c r="C925" s="4"/>
-      <c r="D925" s="4"/>
-      <c r="E925" s="4"/>
-      <c r="F925" s="4"/>
-      <c r="G925" s="4"/>
-    </row>
-    <row r="926" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A926" s="4"/>
-      <c r="B926" s="4"/>
-      <c r="C926" s="4"/>
-      <c r="D926" s="4"/>
-      <c r="E926" s="4"/>
-      <c r="F926" s="4"/>
-      <c r="G926" s="4"/>
-    </row>
-    <row r="927" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A927" s="4"/>
-      <c r="B927" s="4"/>
-      <c r="C927" s="4"/>
-      <c r="D927" s="4"/>
-      <c r="E927" s="4"/>
-      <c r="F927" s="4"/>
-      <c r="G927" s="4"/>
-    </row>
-    <row r="928" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A928" s="4"/>
-      <c r="B928" s="4"/>
-      <c r="C928" s="4"/>
-      <c r="D928" s="4"/>
-      <c r="E928" s="4"/>
-      <c r="F928" s="4"/>
-      <c r="G928" s="4"/>
-    </row>
-    <row r="929" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A929" s="4"/>
-      <c r="B929" s="4"/>
-      <c r="C929" s="4"/>
-      <c r="D929" s="4"/>
-      <c r="E929" s="4"/>
-      <c r="F929" s="4"/>
-      <c r="G929" s="4"/>
-    </row>
-    <row r="930" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A930" s="4"/>
-      <c r="B930" s="4"/>
-      <c r="C930" s="4"/>
-      <c r="D930" s="4"/>
-      <c r="E930" s="4"/>
-      <c r="F930" s="4"/>
-      <c r="G930" s="4"/>
-    </row>
-    <row r="931" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A931" s="4"/>
-      <c r="B931" s="4"/>
-      <c r="C931" s="4"/>
-      <c r="D931" s="4"/>
-      <c r="E931" s="4"/>
-      <c r="F931" s="4"/>
-      <c r="G931" s="4"/>
-    </row>
-    <row r="932" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A932" s="4"/>
-      <c r="B932" s="4"/>
-      <c r="C932" s="4"/>
-      <c r="D932" s="4"/>
-      <c r="E932" s="4"/>
-      <c r="F932" s="4"/>
-      <c r="G932" s="4"/>
-    </row>
-    <row r="933" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A933" s="4"/>
-      <c r="B933" s="4"/>
-      <c r="C933" s="4"/>
-      <c r="D933" s="4"/>
-      <c r="E933" s="4"/>
-      <c r="F933" s="4"/>
-      <c r="G933" s="4"/>
-    </row>
-    <row r="934" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A934" s="4"/>
-      <c r="B934" s="4"/>
-      <c r="C934" s="4"/>
-      <c r="D934" s="4"/>
-      <c r="E934" s="4"/>
-      <c r="F934" s="4"/>
-      <c r="G934" s="4"/>
-    </row>
-    <row r="935" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A935" s="4"/>
-      <c r="B935" s="4"/>
-      <c r="C935" s="4"/>
-      <c r="D935" s="4"/>
-      <c r="E935" s="4"/>
-      <c r="F935" s="4"/>
-      <c r="G935" s="4"/>
-    </row>
-    <row r="936" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A936" s="4"/>
-      <c r="B936" s="4"/>
-      <c r="C936" s="4"/>
-      <c r="D936" s="4"/>
-      <c r="E936" s="4"/>
-      <c r="F936" s="4"/>
-      <c r="G936" s="4"/>
-    </row>
-    <row r="937" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A937" s="4"/>
-      <c r="B937" s="4"/>
-      <c r="C937" s="4"/>
-      <c r="D937" s="4"/>
-      <c r="E937" s="4"/>
-      <c r="F937" s="4"/>
-      <c r="G937" s="4"/>
-    </row>
-    <row r="938" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A938" s="4"/>
-      <c r="B938" s="4"/>
-      <c r="C938" s="4"/>
-      <c r="D938" s="4"/>
-      <c r="E938" s="4"/>
-      <c r="F938" s="4"/>
-      <c r="G938" s="4"/>
-    </row>
-    <row r="939" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A939" s="4"/>
-      <c r="B939" s="4"/>
-      <c r="C939" s="4"/>
-      <c r="D939" s="4"/>
-      <c r="E939" s="4"/>
-      <c r="F939" s="4"/>
-      <c r="G939" s="4"/>
-    </row>
-    <row r="940" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A940" s="4"/>
-      <c r="B940" s="4"/>
-      <c r="C940" s="4"/>
-      <c r="D940" s="4"/>
-      <c r="E940" s="4"/>
-      <c r="F940" s="4"/>
-      <c r="G940" s="4"/>
-    </row>
-    <row r="941" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A941" s="4"/>
-      <c r="B941" s="4"/>
-      <c r="C941" s="4"/>
-      <c r="D941" s="4"/>
-      <c r="E941" s="4"/>
-      <c r="F941" s="4"/>
-      <c r="G941" s="4"/>
-    </row>
-    <row r="942" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A942" s="4"/>
-      <c r="B942" s="4"/>
-      <c r="C942" s="4"/>
-      <c r="D942" s="4"/>
-      <c r="E942" s="4"/>
-      <c r="F942" s="4"/>
-      <c r="G942" s="4"/>
-    </row>
-    <row r="943" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A943" s="4"/>
-      <c r="B943" s="4"/>
-      <c r="C943" s="4"/>
-      <c r="D943" s="4"/>
-      <c r="E943" s="4"/>
-      <c r="F943" s="4"/>
-      <c r="G943" s="4"/>
-    </row>
-    <row r="944" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A944" s="4"/>
-      <c r="B944" s="4"/>
-      <c r="C944" s="4"/>
-      <c r="D944" s="4"/>
-      <c r="E944" s="4"/>
-      <c r="F944" s="4"/>
-      <c r="G944" s="4"/>
-    </row>
-    <row r="945" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A945" s="4"/>
-      <c r="B945" s="4"/>
-      <c r="C945" s="4"/>
-      <c r="D945" s="4"/>
-      <c r="E945" s="4"/>
-      <c r="F945" s="4"/>
-      <c r="G945" s="4"/>
-    </row>
-    <row r="946" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A946" s="4"/>
-      <c r="B946" s="4"/>
-      <c r="C946" s="4"/>
-      <c r="D946" s="4"/>
-      <c r="E946" s="4"/>
-      <c r="F946" s="4"/>
-      <c r="G946" s="4"/>
-    </row>
-    <row r="947" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A947" s="4"/>
-      <c r="B947" s="4"/>
-      <c r="C947" s="4"/>
-      <c r="D947" s="4"/>
-      <c r="E947" s="4"/>
-      <c r="F947" s="4"/>
-      <c r="G947" s="4"/>
-    </row>
-    <row r="948" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A948" s="4"/>
-      <c r="B948" s="4"/>
-      <c r="C948" s="4"/>
-      <c r="D948" s="4"/>
-      <c r="E948" s="4"/>
-      <c r="F948" s="4"/>
-      <c r="G948" s="4"/>
-    </row>
-    <row r="949" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A949" s="4"/>
-      <c r="B949" s="4"/>
-      <c r="C949" s="4"/>
-      <c r="D949" s="4"/>
-      <c r="E949" s="4"/>
-      <c r="F949" s="4"/>
-      <c r="G949" s="4"/>
-    </row>
-    <row r="950" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A950" s="4"/>
-      <c r="B950" s="4"/>
-      <c r="C950" s="4"/>
-      <c r="D950" s="4"/>
-      <c r="E950" s="4"/>
-      <c r="F950" s="4"/>
-      <c r="G950" s="4"/>
-    </row>
-    <row r="951" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A951" s="4"/>
-      <c r="B951" s="4"/>
-      <c r="C951" s="4"/>
-      <c r="D951" s="4"/>
-      <c r="E951" s="4"/>
-      <c r="F951" s="4"/>
-      <c r="G951" s="4"/>
-    </row>
-    <row r="952" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A952" s="4"/>
-      <c r="B952" s="4"/>
-      <c r="C952" s="4"/>
-      <c r="D952" s="4"/>
-      <c r="E952" s="4"/>
-      <c r="F952" s="4"/>
-      <c r="G952" s="4"/>
-    </row>
-    <row r="953" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A953" s="4"/>
-      <c r="B953" s="4"/>
-      <c r="C953" s="4"/>
-      <c r="D953" s="4"/>
-      <c r="E953" s="4"/>
-      <c r="F953" s="4"/>
-      <c r="G953" s="4"/>
-    </row>
-    <row r="954" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A954" s="4"/>
-      <c r="B954" s="4"/>
-      <c r="C954" s="4"/>
-      <c r="D954" s="4"/>
-      <c r="E954" s="4"/>
-      <c r="F954" s="4"/>
-      <c r="G954" s="4"/>
-    </row>
-    <row r="955" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A955" s="4"/>
-      <c r="B955" s="4"/>
-      <c r="C955" s="4"/>
-      <c r="D955" s="4"/>
-      <c r="E955" s="4"/>
-      <c r="F955" s="4"/>
-      <c r="G955" s="4"/>
-    </row>
-    <row r="956" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A956" s="4"/>
-      <c r="B956" s="4"/>
-      <c r="C956" s="4"/>
-      <c r="D956" s="4"/>
-      <c r="E956" s="4"/>
-      <c r="F956" s="4"/>
-      <c r="G956" s="4"/>
-    </row>
-    <row r="957" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A957" s="4"/>
-      <c r="B957" s="4"/>
-      <c r="C957" s="4"/>
-      <c r="D957" s="4"/>
-      <c r="E957" s="4"/>
-      <c r="F957" s="4"/>
-      <c r="G957" s="4"/>
-    </row>
-    <row r="958" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A958" s="4"/>
-      <c r="B958" s="4"/>
-      <c r="C958" s="4"/>
-      <c r="D958" s="4"/>
-      <c r="E958" s="4"/>
-      <c r="F958" s="4"/>
-      <c r="G958" s="4"/>
-    </row>
-    <row r="959" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A959" s="4"/>
-      <c r="B959" s="4"/>
-      <c r="C959" s="4"/>
-      <c r="D959" s="4"/>
-      <c r="E959" s="4"/>
-      <c r="F959" s="4"/>
-      <c r="G959" s="4"/>
-    </row>
-    <row r="960" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A960" s="4"/>
-      <c r="B960" s="4"/>
-      <c r="C960" s="4"/>
-      <c r="D960" s="4"/>
-      <c r="E960" s="4"/>
-      <c r="F960" s="4"/>
-      <c r="G960" s="4"/>
-    </row>
-    <row r="961" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A961" s="4"/>
-      <c r="B961" s="4"/>
-      <c r="C961" s="4"/>
-      <c r="D961" s="4"/>
-      <c r="E961" s="4"/>
-      <c r="F961" s="4"/>
-      <c r="G961" s="4"/>
-    </row>
-    <row r="962" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A962" s="4"/>
-      <c r="B962" s="4"/>
-      <c r="C962" s="4"/>
-      <c r="D962" s="4"/>
-      <c r="E962" s="4"/>
-      <c r="F962" s="4"/>
-      <c r="G962" s="4"/>
-    </row>
-    <row r="963" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A963" s="4"/>
-      <c r="B963" s="4"/>
-      <c r="C963" s="4"/>
-      <c r="D963" s="4"/>
-      <c r="E963" s="4"/>
-      <c r="F963" s="4"/>
-      <c r="G963" s="4"/>
-    </row>
-    <row r="964" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A964" s="4"/>
-      <c r="B964" s="4"/>
-      <c r="C964" s="4"/>
-      <c r="D964" s="4"/>
-      <c r="E964" s="4"/>
-      <c r="F964" s="4"/>
-      <c r="G964" s="4"/>
-    </row>
-    <row r="965" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A965" s="4"/>
-      <c r="B965" s="4"/>
-      <c r="C965" s="4"/>
-      <c r="D965" s="4"/>
-      <c r="E965" s="4"/>
-      <c r="F965" s="4"/>
-      <c r="G965" s="4"/>
-    </row>
-    <row r="966" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A966" s="4"/>
-      <c r="B966" s="4"/>
-      <c r="C966" s="4"/>
-      <c r="D966" s="4"/>
-      <c r="E966" s="4"/>
-      <c r="F966" s="4"/>
-      <c r="G966" s="4"/>
-    </row>
-    <row r="967" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A967" s="4"/>
-      <c r="B967" s="4"/>
-      <c r="C967" s="4"/>
-      <c r="D967" s="4"/>
-      <c r="E967" s="4"/>
-      <c r="F967" s="4"/>
-      <c r="G967" s="4"/>
-    </row>
-    <row r="968" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A968" s="4"/>
-      <c r="B968" s="4"/>
-      <c r="C968" s="4"/>
-      <c r="D968" s="4"/>
-      <c r="E968" s="4"/>
-      <c r="F968" s="4"/>
-      <c r="G968" s="4"/>
-    </row>
-    <row r="969" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A969" s="4"/>
-      <c r="B969" s="4"/>
-      <c r="C969" s="4"/>
-      <c r="D969" s="4"/>
-      <c r="E969" s="4"/>
-      <c r="F969" s="4"/>
-      <c r="G969" s="4"/>
-    </row>
-    <row r="970" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A970" s="4"/>
-      <c r="B970" s="4"/>
-      <c r="C970" s="4"/>
-      <c r="D970" s="4"/>
-      <c r="E970" s="4"/>
-      <c r="F970" s="4"/>
-      <c r="G970" s="4"/>
-    </row>
-    <row r="971" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A971" s="4"/>
-      <c r="B971" s="4"/>
-      <c r="C971" s="4"/>
-      <c r="D971" s="4"/>
-      <c r="E971" s="4"/>
-      <c r="F971" s="4"/>
-      <c r="G971" s="4"/>
-    </row>
-    <row r="972" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A972" s="4"/>
-      <c r="B972" s="4"/>
-      <c r="C972" s="4"/>
-      <c r="D972" s="4"/>
-      <c r="E972" s="4"/>
-      <c r="F972" s="4"/>
-      <c r="G972" s="4"/>
-    </row>
-    <row r="973" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A973" s="4"/>
-      <c r="B973" s="4"/>
-      <c r="C973" s="4"/>
-      <c r="D973" s="4"/>
-      <c r="E973" s="4"/>
-      <c r="F973" s="4"/>
-      <c r="G973" s="4"/>
-    </row>
-    <row r="974" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A974" s="4"/>
-      <c r="B974" s="4"/>
-      <c r="C974" s="4"/>
-      <c r="D974" s="4"/>
-      <c r="E974" s="4"/>
-      <c r="F974" s="4"/>
-      <c r="G974" s="4"/>
-    </row>
-    <row r="975" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A975" s="4"/>
-      <c r="B975" s="4"/>
-      <c r="C975" s="4"/>
-      <c r="D975" s="4"/>
-      <c r="E975" s="4"/>
-      <c r="F975" s="4"/>
-      <c r="G975" s="4"/>
-    </row>
-    <row r="976" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A976" s="4"/>
-      <c r="B976" s="4"/>
-      <c r="C976" s="4"/>
-      <c r="D976" s="4"/>
-      <c r="E976" s="4"/>
-      <c r="F976" s="4"/>
-      <c r="G976" s="4"/>
-    </row>
-    <row r="977" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A977" s="4"/>
-      <c r="B977" s="4"/>
-      <c r="C977" s="4"/>
-      <c r="D977" s="4"/>
-      <c r="E977" s="4"/>
-      <c r="F977" s="4"/>
-      <c r="G977" s="4"/>
-    </row>
-    <row r="978" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A978" s="4"/>
-      <c r="B978" s="4"/>
-      <c r="C978" s="4"/>
-      <c r="D978" s="4"/>
-      <c r="E978" s="4"/>
-      <c r="F978" s="4"/>
-      <c r="G978" s="4"/>
-    </row>
-    <row r="979" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A979" s="4"/>
-      <c r="B979" s="4"/>
-      <c r="C979" s="4"/>
-      <c r="D979" s="4"/>
-      <c r="E979" s="4"/>
-      <c r="F979" s="4"/>
-      <c r="G979" s="4"/>
-    </row>
-    <row r="980" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A980" s="4"/>
-      <c r="B980" s="4"/>
-      <c r="C980" s="4"/>
-      <c r="D980" s="4"/>
-      <c r="E980" s="4"/>
-      <c r="F980" s="4"/>
-      <c r="G980" s="4"/>
-    </row>
-    <row r="981" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A981" s="4"/>
-      <c r="B981" s="4"/>
-      <c r="C981" s="4"/>
-      <c r="D981" s="4"/>
-      <c r="E981" s="4"/>
-      <c r="F981" s="4"/>
-      <c r="G981" s="4"/>
-    </row>
-    <row r="982" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A982" s="4"/>
-      <c r="B982" s="4"/>
-      <c r="C982" s="4"/>
-      <c r="D982" s="4"/>
-      <c r="E982" s="4"/>
-      <c r="F982" s="4"/>
-      <c r="G982" s="4"/>
-    </row>
-    <row r="983" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A983" s="4"/>
-      <c r="B983" s="4"/>
-      <c r="C983" s="4"/>
-      <c r="D983" s="4"/>
-      <c r="E983" s="4"/>
-      <c r="F983" s="4"/>
-      <c r="G983" s="4"/>
-    </row>
-    <row r="984" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A984" s="4"/>
-      <c r="B984" s="4"/>
-      <c r="C984" s="4"/>
-      <c r="D984" s="4"/>
-      <c r="E984" s="4"/>
-      <c r="F984" s="4"/>
-      <c r="G984" s="4"/>
-    </row>
-    <row r="985" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A985" s="4"/>
-      <c r="B985" s="4"/>
-      <c r="C985" s="4"/>
-      <c r="D985" s="4"/>
-      <c r="E985" s="4"/>
-      <c r="F985" s="4"/>
-      <c r="G985" s="4"/>
-    </row>
-    <row r="986" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A986" s="4"/>
-      <c r="B986" s="4"/>
-      <c r="C986" s="4"/>
-      <c r="D986" s="4"/>
-      <c r="E986" s="4"/>
-      <c r="F986" s="4"/>
-      <c r="G986" s="4"/>
-    </row>
-    <row r="987" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A987" s="4"/>
-      <c r="B987" s="4"/>
-      <c r="C987" s="4"/>
-      <c r="D987" s="4"/>
-      <c r="E987" s="4"/>
-      <c r="F987" s="4"/>
-      <c r="G987" s="4"/>
-    </row>
-    <row r="988" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A988" s="4"/>
-      <c r="B988" s="4"/>
-      <c r="C988" s="4"/>
-      <c r="D988" s="4"/>
-      <c r="E988" s="4"/>
-      <c r="F988" s="4"/>
-      <c r="G988" s="4"/>
-    </row>
-    <row r="989" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A989" s="4"/>
-      <c r="B989" s="4"/>
-      <c r="C989" s="4"/>
-      <c r="D989" s="4"/>
-      <c r="E989" s="4"/>
-      <c r="F989" s="4"/>
-      <c r="G989" s="4"/>
-    </row>
-    <row r="990" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A990" s="4"/>
-      <c r="B990" s="4"/>
-      <c r="C990" s="4"/>
-      <c r="D990" s="4"/>
-      <c r="E990" s="4"/>
-      <c r="F990" s="4"/>
-      <c r="G990" s="4"/>
-    </row>
-    <row r="991" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A991" s="4"/>
-      <c r="B991" s="4"/>
-      <c r="C991" s="4"/>
-      <c r="D991" s="4"/>
-      <c r="E991" s="4"/>
-      <c r="F991" s="4"/>
-      <c r="G991" s="4"/>
-    </row>
-    <row r="992" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A992" s="4"/>
-      <c r="B992" s="4"/>
-      <c r="C992" s="4"/>
-      <c r="D992" s="4"/>
-      <c r="E992" s="4"/>
-      <c r="F992" s="4"/>
-      <c r="G992" s="4"/>
-    </row>
-    <row r="993" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A993" s="4"/>
-      <c r="B993" s="4"/>
-      <c r="C993" s="4"/>
-      <c r="D993" s="4"/>
-      <c r="E993" s="4"/>
-      <c r="F993" s="4"/>
-      <c r="G993" s="4"/>
-    </row>
-    <row r="994" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A994" s="4"/>
-      <c r="B994" s="4"/>
-      <c r="C994" s="4"/>
-      <c r="D994" s="4"/>
-      <c r="E994" s="4"/>
-      <c r="F994" s="4"/>
-      <c r="G994" s="4"/>
-    </row>
-    <row r="995" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A995" s="4"/>
-      <c r="B995" s="4"/>
-      <c r="C995" s="4"/>
-      <c r="D995" s="4"/>
-      <c r="E995" s="4"/>
-      <c r="F995" s="4"/>
-      <c r="G995" s="4"/>
-    </row>
-    <row r="996" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A996" s="4"/>
-      <c r="B996" s="4"/>
-      <c r="C996" s="4"/>
-      <c r="D996" s="4"/>
-      <c r="E996" s="4"/>
-      <c r="F996" s="4"/>
-      <c r="G996" s="4"/>
-    </row>
-    <row r="997" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A997" s="4"/>
-      <c r="B997" s="4"/>
-      <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
-      <c r="E997" s="4"/>
-      <c r="F997" s="4"/>
-      <c r="G997" s="4"/>
-    </row>
-    <row r="998" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A998" s="4"/>
-      <c r="B998" s="4"/>
-      <c r="C998" s="4"/>
-      <c r="D998" s="4"/>
-      <c r="E998" s="4"/>
-      <c r="F998" s="4"/>
-      <c r="G998" s="4"/>
-    </row>
-    <row r="999" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A999" s="4"/>
-      <c r="B999" s="4"/>
-      <c r="C999" s="4"/>
-      <c r="D999" s="4"/>
-      <c r="E999" s="4"/>
-      <c r="F999" s="4"/>
-      <c r="G999" s="4"/>
-    </row>
-    <row r="1000" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1000" s="4"/>
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
-    </row>
-    <row r="1001" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1001" s="4"/>
-      <c r="B1001" s="4"/>
-      <c r="C1001" s="4"/>
-      <c r="D1001" s="4"/>
-      <c r="E1001" s="4"/>
-      <c r="F1001" s="4"/>
-      <c r="G1001" s="4"/>
-    </row>
-    <row r="1002" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1002" s="4"/>
-      <c r="B1002" s="4"/>
-      <c r="C1002" s="4"/>
-      <c r="D1002" s="4"/>
-      <c r="E1002" s="4"/>
-      <c r="F1002" s="4"/>
-      <c r="G1002" s="4"/>
-    </row>
-    <row r="1003" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1003" s="4"/>
-      <c r="B1003" s="4"/>
-      <c r="C1003" s="4"/>
-      <c r="D1003" s="4"/>
-      <c r="E1003" s="4"/>
-      <c r="F1003" s="4"/>
-      <c r="G1003" s="4"/>
-    </row>
-    <row r="1004" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1004" s="4"/>
-      <c r="B1004" s="4"/>
-      <c r="C1004" s="4"/>
-      <c r="D1004" s="4"/>
-      <c r="E1004" s="4"/>
-      <c r="F1004" s="4"/>
-      <c r="G1004" s="4"/>
-    </row>
-    <row r="1005" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1005" s="4"/>
-      <c r="B1005" s="4"/>
-      <c r="C1005" s="4"/>
-      <c r="D1005" s="4"/>
-      <c r="E1005" s="4"/>
-      <c r="F1005" s="4"/>
-      <c r="G1005" s="4"/>
-    </row>
-    <row r="1006" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1006" s="4"/>
-      <c r="B1006" s="4"/>
-      <c r="C1006" s="4"/>
-      <c r="D1006" s="4"/>
-      <c r="E1006" s="4"/>
-      <c r="F1006" s="4"/>
-      <c r="G1006" s="4"/>
-    </row>
-    <row r="1007" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1007" s="4"/>
-      <c r="B1007" s="4"/>
-      <c r="C1007" s="4"/>
-      <c r="D1007" s="4"/>
-      <c r="E1007" s="4"/>
-      <c r="F1007" s="4"/>
-      <c r="G1007" s="4"/>
-    </row>
-    <row r="1008" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1008" s="4"/>
-      <c r="B1008" s="4"/>
-      <c r="C1008" s="4"/>
-      <c r="D1008" s="4"/>
-      <c r="E1008" s="4"/>
-      <c r="F1008" s="4"/>
-      <c r="G1008" s="4"/>
-    </row>
-    <row r="1009" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1009" s="4"/>
-      <c r="B1009" s="4"/>
-      <c r="C1009" s="4"/>
-      <c r="D1009" s="4"/>
-      <c r="E1009" s="4"/>
-      <c r="F1009" s="4"/>
-      <c r="G1009" s="4"/>
-    </row>
-    <row r="1010" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1010" s="4"/>
-      <c r="B1010" s="4"/>
-      <c r="C1010" s="4"/>
-      <c r="D1010" s="4"/>
-      <c r="E1010" s="4"/>
-      <c r="F1010" s="4"/>
-      <c r="G1010" s="4"/>
-    </row>
-    <row r="1011" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1011" s="4"/>
-      <c r="B1011" s="4"/>
-      <c r="C1011" s="4"/>
-      <c r="D1011" s="4"/>
-      <c r="E1011" s="4"/>
-      <c r="F1011" s="4"/>
-      <c r="G1011" s="4"/>
-    </row>
-    <row r="1012" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1012" s="4"/>
-      <c r="B1012" s="4"/>
-      <c r="C1012" s="4"/>
-      <c r="D1012" s="4"/>
-      <c r="E1012" s="4"/>
-      <c r="F1012" s="4"/>
-      <c r="G1012" s="4"/>
-    </row>
-    <row r="1013" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1013" s="4"/>
-      <c r="B1013" s="4"/>
-      <c r="C1013" s="4"/>
-      <c r="D1013" s="4"/>
-      <c r="E1013" s="4"/>
-      <c r="F1013" s="4"/>
-      <c r="G1013" s="4"/>
-    </row>
-    <row r="1014" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1014" s="4"/>
-      <c r="B1014" s="4"/>
-      <c r="C1014" s="4"/>
-      <c r="D1014" s="4"/>
-      <c r="E1014" s="4"/>
-      <c r="F1014" s="4"/>
-      <c r="G1014" s="4"/>
-    </row>
-    <row r="1015" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1015" s="4"/>
-      <c r="B1015" s="4"/>
-      <c r="C1015" s="4"/>
-      <c r="D1015" s="4"/>
-      <c r="E1015" s="4"/>
-      <c r="F1015" s="4"/>
-      <c r="G1015" s="4"/>
-    </row>
-    <row r="1016" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1016" s="4"/>
-      <c r="B1016" s="4"/>
-      <c r="C1016" s="4"/>
-      <c r="D1016" s="4"/>
-      <c r="E1016" s="4"/>
-      <c r="F1016" s="4"/>
-      <c r="G1016" s="4"/>
-    </row>
-    <row r="1017" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1017" s="4"/>
-      <c r="B1017" s="4"/>
-      <c r="C1017" s="4"/>
-      <c r="D1017" s="4"/>
-      <c r="E1017" s="4"/>
-      <c r="F1017" s="4"/>
-      <c r="G1017" s="4"/>
-    </row>
-    <row r="1018" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1018" s="4"/>
-      <c r="B1018" s="4"/>
-      <c r="C1018" s="4"/>
-      <c r="D1018" s="4"/>
-      <c r="E1018" s="4"/>
-      <c r="F1018" s="4"/>
-      <c r="G1018" s="4"/>
-    </row>
-    <row r="1019" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1019" s="4"/>
-      <c r="B1019" s="4"/>
-      <c r="C1019" s="4"/>
-      <c r="D1019" s="4"/>
-      <c r="E1019" s="4"/>
-      <c r="F1019" s="4"/>
-      <c r="G1019" s="4"/>
-    </row>
-    <row r="1020" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1020" s="4"/>
-      <c r="B1020" s="4"/>
-      <c r="C1020" s="4"/>
-      <c r="D1020" s="4"/>
-      <c r="E1020" s="4"/>
-      <c r="F1020" s="4"/>
-      <c r="G1020" s="4"/>
-    </row>
-    <row r="1021" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1021" s="4"/>
-      <c r="B1021" s="4"/>
-      <c r="C1021" s="4"/>
-      <c r="D1021" s="4"/>
-      <c r="E1021" s="4"/>
-      <c r="F1021" s="4"/>
-      <c r="G1021" s="4"/>
-    </row>
-    <row r="1022" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1022" s="4"/>
-      <c r="B1022" s="4"/>
-      <c r="C1022" s="4"/>
-      <c r="D1022" s="4"/>
-      <c r="E1022" s="4"/>
-      <c r="F1022" s="4"/>
-      <c r="G1022" s="4"/>
-    </row>
-    <row r="1023" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1023" s="4"/>
-      <c r="B1023" s="4"/>
-      <c r="C1023" s="4"/>
-      <c r="D1023" s="4"/>
-      <c r="E1023" s="4"/>
-      <c r="F1023" s="4"/>
-      <c r="G1023" s="4"/>
-    </row>
-    <row r="1024" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1024" s="4"/>
-      <c r="B1024" s="4"/>
-      <c r="C1024" s="4"/>
-      <c r="D1024" s="4"/>
-      <c r="E1024" s="4"/>
-      <c r="F1024" s="4"/>
-      <c r="G1024" s="4"/>
-    </row>
-    <row r="1025" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1025" s="4"/>
-      <c r="B1025" s="4"/>
-      <c r="C1025" s="4"/>
-      <c r="D1025" s="4"/>
-      <c r="E1025" s="4"/>
-      <c r="F1025" s="4"/>
-      <c r="G1025" s="4"/>
-    </row>
-    <row r="1026" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1026" s="4"/>
-      <c r="B1026" s="4"/>
-      <c r="C1026" s="4"/>
-      <c r="D1026" s="4"/>
-      <c r="E1026" s="4"/>
-      <c r="F1026" s="4"/>
-      <c r="G1026" s="4"/>
-    </row>
-    <row r="1027" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1027" s="4"/>
-      <c r="B1027" s="4"/>
-      <c r="C1027" s="4"/>
-      <c r="D1027" s="4"/>
-      <c r="E1027" s="4"/>
-      <c r="F1027" s="4"/>
-      <c r="G1027" s="4"/>
-    </row>
-    <row r="1028" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1028" s="4"/>
-      <c r="B1028" s="4"/>
-      <c r="C1028" s="4"/>
-      <c r="D1028" s="4"/>
-      <c r="E1028" s="4"/>
-      <c r="F1028" s="4"/>
-      <c r="G1028" s="4"/>
-    </row>
-    <row r="1029" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1029" s="4"/>
-      <c r="B1029" s="4"/>
-      <c r="C1029" s="4"/>
-      <c r="D1029" s="4"/>
-      <c r="E1029" s="4"/>
-      <c r="F1029" s="4"/>
-      <c r="G1029" s="4"/>
-    </row>
-    <row r="1030" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1030" s="4"/>
-      <c r="B1030" s="4"/>
-      <c r="C1030" s="4"/>
-      <c r="D1030" s="4"/>
-      <c r="E1030" s="4"/>
-      <c r="F1030" s="4"/>
-      <c r="G1030" s="4"/>
-    </row>
-    <row r="1031" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1031" s="4"/>
-      <c r="B1031" s="4"/>
-      <c r="C1031" s="4"/>
-      <c r="D1031" s="4"/>
-      <c r="E1031" s="4"/>
-      <c r="F1031" s="4"/>
-      <c r="G1031" s="4"/>
-    </row>
-    <row r="1032" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1032" s="4"/>
-      <c r="B1032" s="4"/>
-      <c r="C1032" s="4"/>
-      <c r="D1032" s="4"/>
-      <c r="E1032" s="4"/>
-      <c r="F1032" s="4"/>
-      <c r="G1032" s="4"/>
-    </row>
-    <row r="1033" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1033" s="4"/>
-      <c r="B1033" s="4"/>
-      <c r="C1033" s="4"/>
-      <c r="D1033" s="4"/>
-      <c r="E1033" s="4"/>
-      <c r="F1033" s="4"/>
-      <c r="G1033" s="4"/>
-    </row>
-    <row r="1034" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1034" s="4"/>
-      <c r="B1034" s="4"/>
-      <c r="C1034" s="4"/>
-      <c r="D1034" s="4"/>
-      <c r="E1034" s="4"/>
-      <c r="F1034" s="4"/>
-      <c r="G1034" s="4"/>
-    </row>
-    <row r="1035" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1035" s="4"/>
-      <c r="B1035" s="4"/>
-      <c r="C1035" s="4"/>
-      <c r="D1035" s="4"/>
-      <c r="E1035" s="4"/>
-      <c r="F1035" s="4"/>
-      <c r="G1035" s="4"/>
-    </row>
-    <row r="1036" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1036" s="4"/>
-      <c r="B1036" s="4"/>
-      <c r="C1036" s="4"/>
-      <c r="D1036" s="4"/>
-      <c r="E1036" s="4"/>
-      <c r="F1036" s="4"/>
-      <c r="G1036" s="4"/>
-    </row>
-    <row r="1037" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1037" s="4"/>
-      <c r="B1037" s="4"/>
-      <c r="C1037" s="4"/>
-      <c r="D1037" s="4"/>
-      <c r="E1037" s="4"/>
-      <c r="F1037" s="4"/>
-      <c r="G1037" s="4"/>
-    </row>
-    <row r="1038" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1038" s="4"/>
-      <c r="B1038" s="4"/>
-      <c r="C1038" s="4"/>
-      <c r="D1038" s="4"/>
-      <c r="E1038" s="4"/>
-      <c r="F1038" s="4"/>
-      <c r="G1038" s="4"/>
-    </row>
-    <row r="1039" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1039" s="4"/>
-      <c r="B1039" s="4"/>
-      <c r="C1039" s="4"/>
-      <c r="D1039" s="4"/>
-      <c r="E1039" s="4"/>
-      <c r="F1039" s="4"/>
-      <c r="G1039" s="4"/>
-    </row>
-    <row r="1040" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1040" s="4"/>
-      <c r="B1040" s="4"/>
-      <c r="C1040" s="4"/>
-      <c r="D1040" s="4"/>
-      <c r="E1040" s="4"/>
-      <c r="F1040" s="4"/>
-      <c r="G1040" s="4"/>
-    </row>
-    <row r="1041" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1041" s="4"/>
-      <c r="B1041" s="4"/>
-      <c r="C1041" s="4"/>
-      <c r="D1041" s="4"/>
-      <c r="E1041" s="4"/>
-      <c r="F1041" s="4"/>
-      <c r="G1041" s="4"/>
-    </row>
-    <row r="1042" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1042" s="4"/>
-      <c r="B1042" s="4"/>
-      <c r="C1042" s="4"/>
-      <c r="D1042" s="4"/>
-      <c r="E1042" s="4"/>
-      <c r="F1042" s="4"/>
-      <c r="G1042" s="4"/>
-    </row>
-    <row r="1043" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1043" s="4"/>
-      <c r="B1043" s="4"/>
-      <c r="C1043" s="4"/>
-      <c r="D1043" s="4"/>
-      <c r="E1043" s="4"/>
-      <c r="F1043" s="4"/>
-      <c r="G1043" s="4"/>
-    </row>
-    <row r="1044" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1044" s="4"/>
-      <c r="B1044" s="4"/>
-      <c r="C1044" s="4"/>
-      <c r="D1044" s="4"/>
-      <c r="E1044" s="4"/>
-      <c r="F1044" s="4"/>
-      <c r="G1044" s="4"/>
-    </row>
-    <row r="1045" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1045" s="4"/>
-      <c r="B1045" s="4"/>
-      <c r="C1045" s="4"/>
-      <c r="D1045" s="4"/>
-      <c r="E1045" s="4"/>
-      <c r="F1045" s="4"/>
-      <c r="G1045" s="4"/>
-    </row>
-    <row r="1046" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1046" s="4"/>
-      <c r="B1046" s="4"/>
-      <c r="C1046" s="4"/>
-      <c r="D1046" s="4"/>
-      <c r="E1046" s="4"/>
-      <c r="F1046" s="4"/>
-      <c r="G1046" s="4"/>
-    </row>
-    <row r="1047" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1047" s="4"/>
-      <c r="B1047" s="4"/>
-      <c r="C1047" s="4"/>
-      <c r="D1047" s="4"/>
-      <c r="E1047" s="4"/>
-      <c r="F1047" s="4"/>
-      <c r="G1047" s="4"/>
-    </row>
-    <row r="1048" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1048" s="4"/>
-      <c r="B1048" s="4"/>
-      <c r="C1048" s="4"/>
-      <c r="D1048" s="4"/>
-      <c r="E1048" s="4"/>
-      <c r="F1048" s="4"/>
-      <c r="G1048" s="4"/>
-    </row>
-    <row r="1049" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1049" s="4"/>
-      <c r="B1049" s="4"/>
-      <c r="C1049" s="4"/>
-      <c r="D1049" s="4"/>
-      <c r="E1049" s="4"/>
-      <c r="F1049" s="4"/>
-      <c r="G1049" s="4"/>
-    </row>
-    <row r="1050" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1050" s="4"/>
-      <c r="B1050" s="4"/>
-      <c r="C1050" s="4"/>
-      <c r="D1050" s="4"/>
-      <c r="E1050" s="4"/>
-      <c r="F1050" s="4"/>
-      <c r="G1050" s="4"/>
-    </row>
-    <row r="1051" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1051" s="4"/>
-      <c r="B1051" s="4"/>
-      <c r="C1051" s="4"/>
-      <c r="D1051" s="4"/>
-      <c r="E1051" s="4"/>
-      <c r="F1051" s="4"/>
-      <c r="G1051" s="4"/>
-    </row>
-    <row r="1052" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1052" s="4"/>
-      <c r="B1052" s="4"/>
-      <c r="C1052" s="4"/>
-      <c r="D1052" s="4"/>
-      <c r="E1052" s="4"/>
-      <c r="F1052" s="4"/>
-      <c r="G1052" s="4"/>
-    </row>
-    <row r="1053" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1053" s="4"/>
-      <c r="B1053" s="4"/>
-      <c r="C1053" s="4"/>
-      <c r="D1053" s="4"/>
-      <c r="E1053" s="4"/>
-      <c r="F1053" s="4"/>
-      <c r="G1053" s="4"/>
-    </row>
-    <row r="1054" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1054" s="4"/>
-      <c r="B1054" s="4"/>
-      <c r="C1054" s="4"/>
-      <c r="D1054" s="4"/>
-      <c r="E1054" s="4"/>
-      <c r="F1054" s="4"/>
-      <c r="G1054" s="4"/>
-    </row>
-    <row r="1055" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1055" s="4"/>
-      <c r="B1055" s="4"/>
-      <c r="C1055" s="4"/>
-      <c r="D1055" s="4"/>
-      <c r="E1055" s="4"/>
-      <c r="F1055" s="4"/>
-      <c r="G1055" s="4"/>
-    </row>
-    <row r="1056" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1056" s="4"/>
-      <c r="B1056" s="4"/>
-      <c r="C1056" s="4"/>
-      <c r="D1056" s="4"/>
-      <c r="E1056" s="4"/>
-      <c r="F1056" s="4"/>
-      <c r="G1056" s="4"/>
-    </row>
-    <row r="1057" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1057" s="4"/>
-      <c r="B1057" s="4"/>
-      <c r="C1057" s="4"/>
-      <c r="D1057" s="4"/>
-      <c r="E1057" s="4"/>
-      <c r="F1057" s="4"/>
-      <c r="G1057" s="4"/>
-    </row>
-    <row r="1058" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1058" s="4"/>
-      <c r="B1058" s="4"/>
-      <c r="C1058" s="4"/>
-      <c r="D1058" s="4"/>
-      <c r="E1058" s="4"/>
-      <c r="F1058" s="4"/>
-      <c r="G1058" s="4"/>
-    </row>
-    <row r="1059" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1059" s="4"/>
-      <c r="B1059" s="4"/>
-      <c r="C1059" s="4"/>
-      <c r="D1059" s="4"/>
-      <c r="E1059" s="4"/>
-      <c r="F1059" s="4"/>
-      <c r="G1059" s="4"/>
-    </row>
-    <row r="1060" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1060" s="4"/>
-      <c r="B1060" s="4"/>
-      <c r="C1060" s="4"/>
-      <c r="D1060" s="4"/>
-      <c r="E1060" s="4"/>
-      <c r="F1060" s="4"/>
-      <c r="G1060" s="4"/>
-    </row>
-    <row r="1061" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1061" s="4"/>
-      <c r="B1061" s="4"/>
-      <c r="C1061" s="4"/>
-      <c r="D1061" s="4"/>
-      <c r="E1061" s="4"/>
-      <c r="F1061" s="4"/>
-      <c r="G1061" s="4"/>
-    </row>
-    <row r="1062" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1062" s="4"/>
-      <c r="B1062" s="4"/>
-      <c r="C1062" s="4"/>
-      <c r="D1062" s="4"/>
-      <c r="E1062" s="4"/>
-      <c r="F1062" s="4"/>
-      <c r="G1062" s="4"/>
-    </row>
-    <row r="1063" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1063" s="4"/>
-      <c r="B1063" s="4"/>
-      <c r="C1063" s="4"/>
-      <c r="D1063" s="4"/>
-      <c r="E1063" s="4"/>
-      <c r="F1063" s="4"/>
-      <c r="G1063" s="4"/>
-    </row>
-    <row r="1064" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1064" s="4"/>
-      <c r="B1064" s="4"/>
-      <c r="C1064" s="4"/>
-      <c r="D1064" s="4"/>
-      <c r="E1064" s="4"/>
-      <c r="F1064" s="4"/>
-      <c r="G1064" s="4"/>
-    </row>
-    <row r="1065" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1065" s="4"/>
-      <c r="B1065" s="4"/>
-      <c r="C1065" s="4"/>
-      <c r="D1065" s="4"/>
-      <c r="E1065" s="4"/>
-      <c r="F1065" s="4"/>
-      <c r="G1065" s="4"/>
-    </row>
-    <row r="1066" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1066" s="4"/>
-      <c r="B1066" s="4"/>
-      <c r="C1066" s="4"/>
-      <c r="D1066" s="4"/>
-      <c r="E1066" s="4"/>
-      <c r="F1066" s="4"/>
-      <c r="G1066" s="4"/>
-    </row>
-    <row r="1067" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1067" s="4"/>
-      <c r="B1067" s="4"/>
-      <c r="C1067" s="4"/>
-      <c r="D1067" s="4"/>
-      <c r="E1067" s="4"/>
-      <c r="F1067" s="4"/>
-      <c r="G1067" s="4"/>
-    </row>
-    <row r="1068" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1068" s="4"/>
-      <c r="B1068" s="4"/>
-      <c r="C1068" s="4"/>
-      <c r="D1068" s="4"/>
-      <c r="E1068" s="4"/>
-      <c r="F1068" s="4"/>
-      <c r="G1068" s="4"/>
-    </row>
-    <row r="1069" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1069" s="4"/>
-      <c r="B1069" s="4"/>
-      <c r="C1069" s="4"/>
-      <c r="D1069" s="4"/>
-      <c r="E1069" s="4"/>
-      <c r="F1069" s="4"/>
-      <c r="G1069" s="4"/>
-    </row>
-    <row r="1070" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1070" s="4"/>
-      <c r="B1070" s="4"/>
-      <c r="C1070" s="4"/>
-      <c r="D1070" s="4"/>
-      <c r="E1070" s="4"/>
-      <c r="F1070" s="4"/>
-      <c r="G1070" s="4"/>
-    </row>
-    <row r="1071" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1071" s="4"/>
-      <c r="B1071" s="4"/>
-      <c r="C1071" s="4"/>
-      <c r="D1071" s="4"/>
-      <c r="E1071" s="4"/>
-      <c r="F1071" s="4"/>
-      <c r="G1071" s="4"/>
-    </row>
-    <row r="1072" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1072" s="4"/>
-      <c r="B1072" s="4"/>
-      <c r="C1072" s="4"/>
-      <c r="D1072" s="4"/>
-      <c r="E1072" s="4"/>
-      <c r="F1072" s="4"/>
-      <c r="G1072" s="4"/>
-    </row>
-    <row r="1073" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1073" s="4"/>
-      <c r="B1073" s="4"/>
-      <c r="C1073" s="4"/>
-      <c r="D1073" s="4"/>
-      <c r="E1073" s="4"/>
-      <c r="F1073" s="4"/>
-      <c r="G1073" s="4"/>
-    </row>
-    <row r="1074" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1074" s="4"/>
-      <c r="B1074" s="4"/>
-      <c r="C1074" s="4"/>
-      <c r="D1074" s="4"/>
-      <c r="E1074" s="4"/>
-      <c r="F1074" s="4"/>
-      <c r="G1074" s="4"/>
-    </row>
-    <row r="1075" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1075" s="4"/>
-      <c r="B1075" s="4"/>
-      <c r="C1075" s="4"/>
-      <c r="D1075" s="4"/>
-      <c r="E1075" s="4"/>
-      <c r="F1075" s="4"/>
-      <c r="G1075" s="4"/>
-    </row>
-    <row r="1076" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1076" s="4"/>
-      <c r="B1076" s="4"/>
-      <c r="C1076" s="4"/>
-      <c r="D1076" s="4"/>
-      <c r="E1076" s="4"/>
-      <c r="F1076" s="4"/>
-      <c r="G1076" s="4"/>
-    </row>
-    <row r="1077" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1077" s="4"/>
-      <c r="B1077" s="4"/>
-      <c r="C1077" s="4"/>
-      <c r="D1077" s="4"/>
-      <c r="E1077" s="4"/>
-      <c r="F1077" s="4"/>
-      <c r="G1077" s="4"/>
-    </row>
-    <row r="1078" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1078" s="4"/>
-      <c r="B1078" s="4"/>
-      <c r="C1078" s="4"/>
-      <c r="D1078" s="4"/>
-      <c r="E1078" s="4"/>
-      <c r="F1078" s="4"/>
-      <c r="G1078" s="4"/>
-    </row>
-    <row r="1079" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1079" s="4"/>
-      <c r="B1079" s="4"/>
-      <c r="C1079" s="4"/>
-      <c r="D1079" s="4"/>
-      <c r="E1079" s="4"/>
-      <c r="F1079" s="4"/>
-      <c r="G1079" s="4"/>
-    </row>
-    <row r="1080" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1080" s="4"/>
-      <c r="B1080" s="4"/>
-      <c r="C1080" s="4"/>
-      <c r="D1080" s="4"/>
-      <c r="E1080" s="4"/>
-      <c r="F1080" s="4"/>
-      <c r="G1080" s="4"/>
-    </row>
-    <row r="1081" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1081" s="4"/>
-      <c r="B1081" s="4"/>
-      <c r="C1081" s="4"/>
-      <c r="D1081" s="4"/>
-      <c r="E1081" s="4"/>
-      <c r="F1081" s="4"/>
-      <c r="G1081" s="4"/>
-    </row>
-    <row r="1082" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1082" s="4"/>
-      <c r="B1082" s="4"/>
-      <c r="C1082" s="4"/>
-      <c r="D1082" s="4"/>
-      <c r="E1082" s="4"/>
-      <c r="F1082" s="4"/>
-      <c r="G1082" s="4"/>
-    </row>
-    <row r="1083" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1083" s="4"/>
-      <c r="B1083" s="4"/>
-      <c r="C1083" s="4"/>
-      <c r="D1083" s="4"/>
-      <c r="E1083" s="4"/>
-      <c r="F1083" s="4"/>
-      <c r="G1083" s="4"/>
-    </row>
-    <row r="1084" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1084" s="4"/>
-      <c r="B1084" s="4"/>
-      <c r="C1084" s="4"/>
-      <c r="D1084" s="4"/>
-      <c r="E1084" s="4"/>
-      <c r="F1084" s="4"/>
-      <c r="G1084" s="4"/>
-    </row>
-    <row r="1085" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1085" s="4"/>
-      <c r="B1085" s="4"/>
-      <c r="C1085" s="4"/>
-      <c r="D1085" s="4"/>
-      <c r="E1085" s="4"/>
-      <c r="F1085" s="4"/>
-      <c r="G1085" s="4"/>
-    </row>
-    <row r="1086" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1086" s="4"/>
-      <c r="B1086" s="4"/>
-      <c r="C1086" s="4"/>
-      <c r="D1086" s="4"/>
-      <c r="E1086" s="4"/>
-      <c r="F1086" s="4"/>
-      <c r="G1086" s="4"/>
-    </row>
-    <row r="1087" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1087" s="4"/>
-      <c r="B1087" s="4"/>
-      <c r="C1087" s="4"/>
-      <c r="D1087" s="4"/>
-      <c r="E1087" s="4"/>
-      <c r="F1087" s="4"/>
-      <c r="G1087" s="4"/>
-    </row>
-    <row r="1088" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1088" s="4"/>
-      <c r="B1088" s="4"/>
-      <c r="C1088" s="4"/>
-      <c r="D1088" s="4"/>
-      <c r="E1088" s="4"/>
-      <c r="F1088" s="4"/>
-      <c r="G1088" s="4"/>
-    </row>
-    <row r="1089" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1089" s="4"/>
-      <c r="B1089" s="4"/>
-      <c r="C1089" s="4"/>
-      <c r="D1089" s="4"/>
-      <c r="E1089" s="4"/>
-      <c r="F1089" s="4"/>
-      <c r="G1089" s="4"/>
-    </row>
-    <row r="1090" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1090" s="4"/>
-      <c r="B1090" s="4"/>
-      <c r="C1090" s="4"/>
-      <c r="D1090" s="4"/>
-      <c r="E1090" s="4"/>
-      <c r="F1090" s="4"/>
-      <c r="G1090" s="4"/>
-    </row>
-    <row r="1091" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1091" s="4"/>
-      <c r="B1091" s="4"/>
-      <c r="C1091" s="4"/>
-      <c r="D1091" s="4"/>
-      <c r="E1091" s="4"/>
-      <c r="F1091" s="4"/>
-      <c r="G1091" s="4"/>
-    </row>
-    <row r="1092" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1092" s="4"/>
-      <c r="B1092" s="4"/>
-      <c r="C1092" s="4"/>
-      <c r="D1092" s="4"/>
-      <c r="E1092" s="4"/>
-      <c r="F1092" s="4"/>
-      <c r="G1092" s="4"/>
-    </row>
-    <row r="1093" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1093" s="4"/>
-      <c r="B1093" s="4"/>
-      <c r="C1093" s="4"/>
-      <c r="D1093" s="4"/>
-      <c r="E1093" s="4"/>
-      <c r="F1093" s="4"/>
-      <c r="G1093" s="4"/>
-    </row>
-    <row r="1094" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1094" s="4"/>
-      <c r="B1094" s="4"/>
-      <c r="C1094" s="4"/>
-      <c r="D1094" s="4"/>
-      <c r="E1094" s="4"/>
-      <c r="F1094" s="4"/>
-      <c r="G1094" s="4"/>
-    </row>
-    <row r="1095" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1095" s="4"/>
-      <c r="B1095" s="4"/>
-      <c r="C1095" s="4"/>
-      <c r="D1095" s="4"/>
-      <c r="E1095" s="4"/>
-      <c r="F1095" s="4"/>
-      <c r="G1095" s="4"/>
-    </row>
-    <row r="1096" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1096" s="4"/>
-      <c r="B1096" s="4"/>
-      <c r="C1096" s="4"/>
-      <c r="D1096" s="4"/>
-      <c r="E1096" s="4"/>
-      <c r="F1096" s="4"/>
-      <c r="G1096" s="4"/>
-    </row>
-    <row r="1097" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1097" s="4"/>
-      <c r="B1097" s="4"/>
-      <c r="C1097" s="4"/>
-      <c r="D1097" s="4"/>
-      <c r="E1097" s="4"/>
-      <c r="F1097" s="4"/>
-      <c r="G1097" s="4"/>
-    </row>
-    <row r="1098" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1098" s="4"/>
-      <c r="B1098" s="4"/>
-      <c r="C1098" s="4"/>
-      <c r="D1098" s="4"/>
-      <c r="E1098" s="4"/>
-      <c r="F1098" s="4"/>
-      <c r="G1098" s="4"/>
-    </row>
-    <row r="1099" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1099" s="4"/>
-      <c r="B1099" s="4"/>
-      <c r="C1099" s="4"/>
-      <c r="D1099" s="4"/>
-      <c r="E1099" s="4"/>
-      <c r="F1099" s="4"/>
-      <c r="G1099" s="4"/>
-    </row>
-    <row r="1100" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1100" s="4"/>
-      <c r="B1100" s="4"/>
-      <c r="C1100" s="4"/>
-      <c r="D1100" s="4"/>
-      <c r="E1100" s="4"/>
-      <c r="F1100" s="4"/>
-      <c r="G1100" s="4"/>
-    </row>
-    <row r="1101" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1101" s="4"/>
-      <c r="B1101" s="4"/>
-      <c r="C1101" s="4"/>
-      <c r="D1101" s="4"/>
-      <c r="E1101" s="4"/>
-      <c r="F1101" s="4"/>
-      <c r="G1101" s="4"/>
-    </row>
-    <row r="1102" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1102" s="4"/>
-      <c r="B1102" s="4"/>
-      <c r="C1102" s="4"/>
-      <c r="D1102" s="4"/>
-      <c r="E1102" s="4"/>
-      <c r="F1102" s="4"/>
-      <c r="G1102" s="4"/>
-    </row>
-    <row r="1103" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1103" s="4"/>
-      <c r="B1103" s="4"/>
-      <c r="C1103" s="4"/>
-      <c r="D1103" s="4"/>
-      <c r="E1103" s="4"/>
-      <c r="F1103" s="4"/>
-      <c r="G1103" s="4"/>
-    </row>
-    <row r="1104" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1104" s="4"/>
-      <c r="B1104" s="4"/>
-      <c r="C1104" s="4"/>
-      <c r="D1104" s="4"/>
-      <c r="E1104" s="4"/>
-      <c r="F1104" s="4"/>
-      <c r="G1104" s="4"/>
-    </row>
-    <row r="1105" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1105" s="4"/>
-      <c r="B1105" s="4"/>
-      <c r="C1105" s="4"/>
-      <c r="D1105" s="4"/>
-      <c r="E1105" s="4"/>
-      <c r="F1105" s="4"/>
-      <c r="G1105" s="4"/>
-    </row>
-    <row r="1106" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1106" s="4"/>
-      <c r="B1106" s="4"/>
-      <c r="C1106" s="4"/>
-      <c r="D1106" s="4"/>
-      <c r="E1106" s="4"/>
-      <c r="F1106" s="4"/>
-      <c r="G1106" s="4"/>
-    </row>
-    <row r="1107" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1107" s="4"/>
-      <c r="B1107" s="4"/>
-      <c r="C1107" s="4"/>
-      <c r="D1107" s="4"/>
-      <c r="E1107" s="4"/>
-      <c r="F1107" s="4"/>
-      <c r="G1107" s="4"/>
-    </row>
-    <row r="1108" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1108" s="4"/>
-      <c r="B1108" s="4"/>
-      <c r="C1108" s="4"/>
-      <c r="D1108" s="4"/>
-      <c r="E1108" s="4"/>
-      <c r="F1108" s="4"/>
-      <c r="G1108" s="4"/>
-    </row>
-    <row r="1109" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1109" s="4"/>
-      <c r="B1109" s="4"/>
-      <c r="C1109" s="4"/>
-      <c r="D1109" s="4"/>
-      <c r="E1109" s="4"/>
-      <c r="F1109" s="4"/>
-      <c r="G1109" s="4"/>
-    </row>
-    <row r="1110" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1110" s="4"/>
-      <c r="B1110" s="4"/>
-      <c r="C1110" s="4"/>
-      <c r="D1110" s="4"/>
-      <c r="E1110" s="4"/>
-      <c r="F1110" s="4"/>
-      <c r="G1110" s="4"/>
-    </row>
-    <row r="1111" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1111" s="4"/>
-      <c r="B1111" s="4"/>
-      <c r="C1111" s="4"/>
-      <c r="D1111" s="4"/>
-      <c r="E1111" s="4"/>
-      <c r="F1111" s="4"/>
-      <c r="G1111" s="4"/>
-    </row>
-    <row r="1112" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1112" s="4"/>
-      <c r="B1112" s="4"/>
-      <c r="C1112" s="4"/>
-      <c r="D1112" s="4"/>
-      <c r="E1112" s="4"/>
-      <c r="F1112" s="4"/>
-      <c r="G1112" s="4"/>
-    </row>
-    <row r="1113" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1113" s="4"/>
-      <c r="B1113" s="4"/>
-      <c r="C1113" s="4"/>
-      <c r="D1113" s="4"/>
-      <c r="E1113" s="4"/>
-      <c r="F1113" s="4"/>
-      <c r="G1113" s="4"/>
-    </row>
-    <row r="1114" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1114" s="4"/>
-      <c r="B1114" s="4"/>
-      <c r="C1114" s="4"/>
-      <c r="D1114" s="4"/>
-      <c r="E1114" s="4"/>
-      <c r="F1114" s="4"/>
-      <c r="G1114" s="4"/>
-    </row>
-    <row r="1115" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1115" s="4"/>
-      <c r="B1115" s="4"/>
-      <c r="C1115" s="4"/>
-      <c r="D1115" s="4"/>
-      <c r="E1115" s="4"/>
-      <c r="F1115" s="4"/>
-      <c r="G1115" s="4"/>
-    </row>
-    <row r="1116" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1116" s="4"/>
-      <c r="B1116" s="4"/>
-      <c r="C1116" s="4"/>
-      <c r="D1116" s="4"/>
-      <c r="E1116" s="4"/>
-      <c r="F1116" s="4"/>
-      <c r="G1116" s="4"/>
-    </row>
-    <row r="1117" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1117" s="4"/>
-      <c r="B1117" s="4"/>
-      <c r="C1117" s="4"/>
-      <c r="D1117" s="4"/>
-      <c r="E1117" s="4"/>
-      <c r="F1117" s="4"/>
-      <c r="G1117" s="4"/>
-    </row>
-    <row r="1118" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1118" s="4"/>
-      <c r="B1118" s="4"/>
-      <c r="C1118" s="4"/>
-      <c r="D1118" s="4"/>
-      <c r="E1118" s="4"/>
-      <c r="F1118" s="4"/>
-      <c r="G1118" s="4"/>
-    </row>
-    <row r="1119" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1119" s="4"/>
-      <c r="B1119" s="4"/>
-      <c r="C1119" s="4"/>
-      <c r="D1119" s="4"/>
-      <c r="E1119" s="4"/>
-      <c r="F1119" s="4"/>
-      <c r="G1119" s="4"/>
-    </row>
-    <row r="1120" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1120" s="4"/>
-      <c r="B1120" s="4"/>
-      <c r="C1120" s="4"/>
-      <c r="D1120" s="4"/>
-      <c r="E1120" s="4"/>
-      <c r="F1120" s="4"/>
-      <c r="G1120" s="4"/>
-    </row>
-    <row r="1121" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1121" s="4"/>
-      <c r="B1121" s="4"/>
-      <c r="C1121" s="4"/>
-      <c r="D1121" s="4"/>
-      <c r="E1121" s="4"/>
-      <c r="F1121" s="4"/>
-      <c r="G1121" s="4"/>
-    </row>
-    <row r="1122" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1122" s="4"/>
-      <c r="B1122" s="4"/>
-      <c r="C1122" s="4"/>
-      <c r="D1122" s="4"/>
-      <c r="E1122" s="4"/>
-      <c r="F1122" s="4"/>
-      <c r="G1122" s="4"/>
-    </row>
-    <row r="1123" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1123" s="4"/>
-      <c r="B1123" s="4"/>
-      <c r="C1123" s="4"/>
-      <c r="D1123" s="4"/>
-      <c r="E1123" s="4"/>
-      <c r="F1123" s="4"/>
-      <c r="G1123" s="4"/>
-    </row>
-    <row r="1124" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1124" s="4"/>
-      <c r="B1124" s="4"/>
-      <c r="C1124" s="4"/>
-      <c r="D1124" s="4"/>
-      <c r="E1124" s="4"/>
-      <c r="F1124" s="4"/>
-      <c r="G1124" s="4"/>
-    </row>
-    <row r="1125" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1125" s="4"/>
-      <c r="B1125" s="4"/>
-      <c r="C1125" s="4"/>
-      <c r="D1125" s="4"/>
-      <c r="E1125" s="4"/>
-      <c r="F1125" s="4"/>
-      <c r="G1125" s="4"/>
-    </row>
-    <row r="1126" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1126" s="4"/>
-      <c r="B1126" s="4"/>
-      <c r="C1126" s="4"/>
-      <c r="D1126" s="4"/>
-      <c r="E1126" s="4"/>
-      <c r="F1126" s="4"/>
-      <c r="G1126" s="4"/>
-    </row>
-    <row r="1127" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1127" s="4"/>
-      <c r="B1127" s="4"/>
-      <c r="C1127" s="4"/>
-      <c r="D1127" s="4"/>
-      <c r="E1127" s="4"/>
-      <c r="F1127" s="4"/>
-      <c r="G1127" s="4"/>
-    </row>
-    <row r="1128" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1128" s="4"/>
-      <c r="B1128" s="4"/>
-      <c r="C1128" s="4"/>
-      <c r="D1128" s="4"/>
-      <c r="E1128" s="4"/>
-      <c r="F1128" s="4"/>
-      <c r="G1128" s="4"/>
-    </row>
-    <row r="1129" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1129" s="4"/>
-      <c r="B1129" s="4"/>
-      <c r="C1129" s="4"/>
-      <c r="D1129" s="4"/>
-      <c r="E1129" s="4"/>
-      <c r="F1129" s="4"/>
-      <c r="G1129" s="4"/>
-    </row>
-    <row r="1130" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1130" s="4"/>
-      <c r="B1130" s="4"/>
-      <c r="C1130" s="4"/>
-      <c r="D1130" s="4"/>
-      <c r="E1130" s="4"/>
-      <c r="F1130" s="4"/>
-      <c r="G1130" s="4"/>
-    </row>
-    <row r="1131" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1131" s="4"/>
-      <c r="B1131" s="4"/>
-      <c r="C1131" s="4"/>
-      <c r="D1131" s="4"/>
-      <c r="E1131" s="4"/>
-      <c r="F1131" s="4"/>
-      <c r="G1131" s="4"/>
-    </row>
-    <row r="1132" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1132" s="4"/>
-      <c r="B1132" s="4"/>
-      <c r="C1132" s="4"/>
-      <c r="D1132" s="4"/>
-      <c r="E1132" s="4"/>
-      <c r="F1132" s="4"/>
-      <c r="G1132" s="4"/>
-    </row>
-    <row r="1133" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1133" s="4"/>
-      <c r="B1133" s="4"/>
-      <c r="C1133" s="4"/>
-      <c r="D1133" s="4"/>
-      <c r="E1133" s="4"/>
-      <c r="F1133" s="4"/>
-      <c r="G1133" s="4"/>
-    </row>
-    <row r="1134" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1134" s="4"/>
-      <c r="B1134" s="4"/>
-      <c r="C1134" s="4"/>
-      <c r="D1134" s="4"/>
-      <c r="E1134" s="4"/>
-      <c r="F1134" s="4"/>
-      <c r="G1134" s="4"/>
-    </row>
-    <row r="1135" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1135" s="4"/>
-      <c r="B1135" s="4"/>
-      <c r="C1135" s="4"/>
-      <c r="D1135" s="4"/>
-      <c r="E1135" s="4"/>
-      <c r="F1135" s="4"/>
-      <c r="G1135" s="4"/>
-    </row>
-    <row r="1136" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1136" s="4"/>
-      <c r="B1136" s="4"/>
-      <c r="C1136" s="4"/>
-      <c r="D1136" s="4"/>
-      <c r="E1136" s="4"/>
-      <c r="F1136" s="4"/>
-      <c r="G1136" s="4"/>
-    </row>
-    <row r="1137" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1137" s="4"/>
-      <c r="B1137" s="4"/>
-      <c r="C1137" s="4"/>
-      <c r="D1137" s="4"/>
-      <c r="E1137" s="4"/>
-      <c r="F1137" s="4"/>
-      <c r="G1137" s="4"/>
-    </row>
-    <row r="1138" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1138" s="4"/>
-      <c r="B1138" s="4"/>
-      <c r="C1138" s="4"/>
-      <c r="D1138" s="4"/>
-      <c r="E1138" s="4"/>
-      <c r="F1138" s="4"/>
-      <c r="G1138" s="4"/>
-    </row>
-    <row r="1139" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1139" s="4"/>
-      <c r="B1139" s="4"/>
-      <c r="C1139" s="4"/>
-      <c r="D1139" s="4"/>
-      <c r="E1139" s="4"/>
-      <c r="F1139" s="4"/>
-      <c r="G1139" s="4"/>
-    </row>
-    <row r="1140" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1140" s="4"/>
-      <c r="B1140" s="4"/>
-      <c r="C1140" s="4"/>
-      <c r="D1140" s="4"/>
-      <c r="E1140" s="4"/>
-      <c r="F1140" s="4"/>
-      <c r="G1140" s="4"/>
-    </row>
-    <row r="1141" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1141" s="4"/>
-      <c r="B1141" s="4"/>
-      <c r="C1141" s="4"/>
-      <c r="D1141" s="4"/>
-      <c r="E1141" s="4"/>
-      <c r="F1141" s="4"/>
-      <c r="G1141" s="4"/>
-    </row>
-    <row r="1142" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1142" s="4"/>
-      <c r="B1142" s="4"/>
-      <c r="C1142" s="4"/>
-      <c r="D1142" s="4"/>
-      <c r="E1142" s="4"/>
-      <c r="F1142" s="4"/>
-      <c r="G1142" s="4"/>
-    </row>
-    <row r="1143" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1143" s="4"/>
-      <c r="B1143" s="4"/>
-      <c r="C1143" s="4"/>
-      <c r="D1143" s="4"/>
-      <c r="E1143" s="4"/>
-      <c r="F1143" s="4"/>
-      <c r="G1143" s="4"/>
-    </row>
-    <row r="1144" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1144" s="4"/>
-      <c r="B1144" s="4"/>
-      <c r="C1144" s="4"/>
-      <c r="D1144" s="4"/>
-      <c r="E1144" s="4"/>
-      <c r="F1144" s="4"/>
-      <c r="G1144" s="4"/>
-    </row>
-    <row r="1145" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1145" s="4"/>
-      <c r="B1145" s="4"/>
-      <c r="C1145" s="4"/>
-      <c r="D1145" s="4"/>
-      <c r="E1145" s="4"/>
-      <c r="F1145" s="4"/>
-      <c r="G1145" s="4"/>
-    </row>
-    <row r="1146" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1146" s="4"/>
-      <c r="B1146" s="4"/>
-      <c r="C1146" s="4"/>
-      <c r="D1146" s="4"/>
-      <c r="E1146" s="4"/>
-      <c r="F1146" s="4"/>
-      <c r="G1146" s="4"/>
-    </row>
-    <row r="1147" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1147" s="4"/>
-      <c r="B1147" s="4"/>
-      <c r="C1147" s="4"/>
-      <c r="D1147" s="4"/>
-      <c r="E1147" s="4"/>
-      <c r="F1147" s="4"/>
-      <c r="G1147" s="4"/>
-    </row>
-    <row r="1148" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1148" s="4"/>
-      <c r="B1148" s="4"/>
-      <c r="C1148" s="4"/>
-      <c r="D1148" s="4"/>
-      <c r="E1148" s="4"/>
-      <c r="F1148" s="4"/>
-      <c r="G1148" s="4"/>
-    </row>
-    <row r="1149" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1149" s="4"/>
-      <c r="B1149" s="4"/>
-      <c r="C1149" s="4"/>
-      <c r="D1149" s="4"/>
-      <c r="E1149" s="4"/>
-      <c r="F1149" s="4"/>
-      <c r="G1149" s="4"/>
-    </row>
-    <row r="1150" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1150" s="4"/>
-      <c r="B1150" s="4"/>
-      <c r="C1150" s="4"/>
-      <c r="D1150" s="4"/>
-      <c r="E1150" s="4"/>
-      <c r="F1150" s="4"/>
-      <c r="G1150" s="4"/>
-    </row>
-    <row r="1151" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1151" s="4"/>
-      <c r="B1151" s="4"/>
-      <c r="C1151" s="4"/>
-      <c r="D1151" s="4"/>
-      <c r="E1151" s="4"/>
-      <c r="F1151" s="4"/>
-      <c r="G1151" s="4"/>
-    </row>
-    <row r="1152" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1152" s="4"/>
-      <c r="B1152" s="4"/>
-      <c r="C1152" s="4"/>
-      <c r="D1152" s="4"/>
-      <c r="E1152" s="4"/>
-      <c r="F1152" s="4"/>
-      <c r="G1152" s="4"/>
-    </row>
-    <row r="1153" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1153" s="4"/>
-      <c r="B1153" s="4"/>
-      <c r="C1153" s="4"/>
-      <c r="D1153" s="4"/>
-      <c r="E1153" s="4"/>
-      <c r="F1153" s="4"/>
-      <c r="G1153" s="4"/>
-    </row>
-    <row r="1154" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1154" s="4"/>
-      <c r="B1154" s="4"/>
-      <c r="C1154" s="4"/>
-      <c r="D1154" s="4"/>
-      <c r="E1154" s="4"/>
-      <c r="F1154" s="4"/>
-      <c r="G1154" s="4"/>
-    </row>
-    <row r="1155" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1155" s="4"/>
-      <c r="B1155" s="4"/>
-      <c r="C1155" s="4"/>
-      <c r="D1155" s="4"/>
-      <c r="E1155" s="4"/>
-      <c r="F1155" s="4"/>
-      <c r="G1155" s="4"/>
-    </row>
-    <row r="1156" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1156" s="4"/>
-      <c r="B1156" s="4"/>
-      <c r="C1156" s="4"/>
-      <c r="D1156" s="4"/>
-      <c r="E1156" s="4"/>
-      <c r="F1156" s="4"/>
-      <c r="G1156" s="4"/>
-    </row>
-    <row r="1157" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1157" s="4"/>
-      <c r="B1157" s="4"/>
-      <c r="C1157" s="4"/>
-      <c r="D1157" s="4"/>
-      <c r="E1157" s="4"/>
-      <c r="F1157" s="4"/>
-      <c r="G1157" s="4"/>
-    </row>
-    <row r="1158" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1158" s="4"/>
-      <c r="B1158" s="4"/>
-      <c r="C1158" s="4"/>
-      <c r="D1158" s="4"/>
-      <c r="E1158" s="4"/>
-      <c r="F1158" s="4"/>
-      <c r="G1158" s="4"/>
-    </row>
-    <row r="1159" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1159" s="4"/>
-      <c r="B1159" s="4"/>
-      <c r="C1159" s="4"/>
-      <c r="D1159" s="4"/>
-      <c r="E1159" s="4"/>
-      <c r="F1159" s="4"/>
-      <c r="G1159" s="4"/>
-    </row>
-    <row r="1160" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1160" s="4"/>
-      <c r="B1160" s="4"/>
-      <c r="C1160" s="4"/>
-      <c r="D1160" s="4"/>
-      <c r="E1160" s="4"/>
-      <c r="F1160" s="4"/>
-      <c r="G1160" s="4"/>
-    </row>
-    <row r="1161" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1161" s="4"/>
-      <c r="B1161" s="4"/>
-      <c r="C1161" s="4"/>
-      <c r="D1161" s="4"/>
-      <c r="E1161" s="4"/>
-      <c r="F1161" s="4"/>
-      <c r="G1161" s="4"/>
-    </row>
-    <row r="1162" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1162" s="4"/>
-      <c r="B1162" s="4"/>
-      <c r="C1162" s="4"/>
-      <c r="D1162" s="4"/>
-      <c r="E1162" s="4"/>
-      <c r="F1162" s="4"/>
-      <c r="G1162" s="4"/>
-    </row>
-    <row r="1163" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1163" s="4"/>
-      <c r="B1163" s="4"/>
-      <c r="C1163" s="4"/>
-      <c r="D1163" s="4"/>
-      <c r="E1163" s="4"/>
-      <c r="F1163" s="4"/>
-      <c r="G1163" s="4"/>
-    </row>
-    <row r="1164" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1164" s="4"/>
-      <c r="B1164" s="4"/>
-      <c r="C1164" s="4"/>
-      <c r="D1164" s="4"/>
-      <c r="E1164" s="4"/>
-      <c r="F1164" s="4"/>
-      <c r="G1164" s="4"/>
-    </row>
-    <row r="1165" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1165" s="4"/>
-      <c r="B1165" s="4"/>
-      <c r="C1165" s="4"/>
-      <c r="D1165" s="4"/>
-      <c r="E1165" s="4"/>
-      <c r="F1165" s="4"/>
-      <c r="G1165" s="4"/>
-    </row>
-    <row r="1166" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1166" s="4"/>
-      <c r="B1166" s="4"/>
-      <c r="C1166" s="4"/>
-      <c r="D1166" s="4"/>
-      <c r="E1166" s="4"/>
-      <c r="F1166" s="4"/>
-      <c r="G1166" s="4"/>
-    </row>
-    <row r="1167" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1167" s="4"/>
-      <c r="B1167" s="4"/>
-      <c r="C1167" s="4"/>
-      <c r="D1167" s="4"/>
-      <c r="E1167" s="4"/>
-      <c r="F1167" s="4"/>
-      <c r="G1167" s="4"/>
-    </row>
-    <row r="1168" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1168" s="4"/>
-      <c r="B1168" s="4"/>
-      <c r="C1168" s="4"/>
-      <c r="D1168" s="4"/>
-      <c r="E1168" s="4"/>
-      <c r="F1168" s="4"/>
-      <c r="G1168" s="4"/>
-    </row>
-    <row r="1169" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1169" s="4"/>
-      <c r="B1169" s="4"/>
-      <c r="C1169" s="4"/>
-      <c r="D1169" s="4"/>
-      <c r="E1169" s="4"/>
-      <c r="F1169" s="4"/>
-      <c r="G1169" s="4"/>
-    </row>
-    <row r="1170" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1170" s="4"/>
-      <c r="B1170" s="4"/>
-      <c r="C1170" s="4"/>
-      <c r="D1170" s="4"/>
-      <c r="E1170" s="4"/>
-      <c r="F1170" s="4"/>
-      <c r="G1170" s="4"/>
-    </row>
-    <row r="1171" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1171" s="4"/>
-      <c r="B1171" s="4"/>
-      <c r="C1171" s="4"/>
-      <c r="D1171" s="4"/>
-      <c r="E1171" s="4"/>
-      <c r="F1171" s="4"/>
-      <c r="G1171" s="4"/>
-    </row>
-    <row r="1172" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1172" s="4"/>
-      <c r="B1172" s="4"/>
-      <c r="C1172" s="4"/>
-      <c r="D1172" s="4"/>
-      <c r="E1172" s="4"/>
-      <c r="F1172" s="4"/>
-      <c r="G1172" s="4"/>
-    </row>
-    <row r="1173" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1173" s="4"/>
-      <c r="B1173" s="4"/>
-      <c r="C1173" s="4"/>
-      <c r="D1173" s="4"/>
-      <c r="E1173" s="4"/>
-      <c r="F1173" s="4"/>
-      <c r="G1173" s="4"/>
-    </row>
-    <row r="1174" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1174" s="4"/>
-      <c r="B1174" s="4"/>
-      <c r="C1174" s="4"/>
-      <c r="D1174" s="4"/>
-      <c r="E1174" s="4"/>
-      <c r="F1174" s="4"/>
-      <c r="G1174" s="4"/>
-    </row>
-    <row r="1175" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1175" s="4"/>
-      <c r="B1175" s="4"/>
-      <c r="C1175" s="4"/>
-      <c r="D1175" s="4"/>
-      <c r="E1175" s="4"/>
-      <c r="F1175" s="4"/>
-      <c r="G1175" s="4"/>
-    </row>
-    <row r="1176" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1176" s="4"/>
-      <c r="B1176" s="4"/>
-      <c r="C1176" s="4"/>
-      <c r="D1176" s="4"/>
-      <c r="E1176" s="4"/>
-      <c r="F1176" s="4"/>
-      <c r="G1176" s="4"/>
-    </row>
-    <row r="1177" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1177" s="4"/>
-      <c r="B1177" s="4"/>
-      <c r="C1177" s="4"/>
-      <c r="D1177" s="4"/>
-      <c r="E1177" s="4"/>
-      <c r="F1177" s="4"/>
-      <c r="G1177" s="4"/>
-    </row>
-    <row r="1178" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1178" s="4"/>
-      <c r="B1178" s="4"/>
-      <c r="C1178" s="4"/>
-      <c r="D1178" s="4"/>
-      <c r="E1178" s="4"/>
-      <c r="F1178" s="4"/>
-      <c r="G1178" s="4"/>
-    </row>
-    <row r="1179" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1179" s="4"/>
-      <c r="B1179" s="4"/>
-      <c r="C1179" s="4"/>
-      <c r="D1179" s="4"/>
-      <c r="E1179" s="4"/>
-      <c r="F1179" s="4"/>
-      <c r="G1179" s="4"/>
-    </row>
-    <row r="1180" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1180" s="4"/>
-      <c r="B1180" s="4"/>
-      <c r="C1180" s="4"/>
-      <c r="D1180" s="4"/>
-      <c r="E1180" s="4"/>
-      <c r="F1180" s="4"/>
-      <c r="G1180" s="4"/>
-    </row>
-    <row r="1181" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1181" s="4"/>
-      <c r="B1181" s="4"/>
-      <c r="C1181" s="4"/>
-      <c r="D1181" s="4"/>
-      <c r="E1181" s="4"/>
-      <c r="F1181" s="4"/>
-      <c r="G1181" s="4"/>
-    </row>
-    <row r="1182" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1182" s="4"/>
-      <c r="B1182" s="4"/>
-      <c r="C1182" s="4"/>
-      <c r="D1182" s="4"/>
-      <c r="E1182" s="4"/>
-      <c r="F1182" s="4"/>
-      <c r="G1182" s="4"/>
-    </row>
-    <row r="1183" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1183" s="4"/>
-      <c r="B1183" s="4"/>
-      <c r="C1183" s="4"/>
-      <c r="D1183" s="4"/>
-      <c r="E1183" s="4"/>
-      <c r="F1183" s="4"/>
-      <c r="G1183" s="4"/>
-    </row>
-    <row r="1184" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1184" s="4"/>
-      <c r="B1184" s="4"/>
-      <c r="C1184" s="4"/>
-      <c r="D1184" s="4"/>
-      <c r="E1184" s="4"/>
-      <c r="F1184" s="4"/>
-      <c r="G1184" s="4"/>
-    </row>
-    <row r="1185" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1185" s="4"/>
-      <c r="B1185" s="4"/>
-      <c r="C1185" s="4"/>
-      <c r="D1185" s="4"/>
-      <c r="E1185" s="4"/>
-      <c r="F1185" s="4"/>
-      <c r="G1185" s="4"/>
-    </row>
-    <row r="1186" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1186" s="4"/>
-      <c r="B1186" s="4"/>
-      <c r="C1186" s="4"/>
-      <c r="D1186" s="4"/>
-      <c r="E1186" s="4"/>
-      <c r="F1186" s="4"/>
-      <c r="G1186" s="4"/>
-    </row>
-    <row r="1187" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1187" s="4"/>
-      <c r="B1187" s="4"/>
-      <c r="C1187" s="4"/>
-      <c r="D1187" s="4"/>
-      <c r="E1187" s="4"/>
-      <c r="F1187" s="4"/>
-      <c r="G1187" s="4"/>
-    </row>
-    <row r="1188" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1188" s="4"/>
-      <c r="B1188" s="4"/>
-      <c r="C1188" s="4"/>
-      <c r="D1188" s="4"/>
-      <c r="E1188" s="4"/>
-      <c r="F1188" s="4"/>
-      <c r="G1188" s="4"/>
-    </row>
-    <row r="1189" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1189" s="4"/>
-      <c r="B1189" s="4"/>
-      <c r="C1189" s="4"/>
-      <c r="D1189" s="4"/>
-      <c r="E1189" s="4"/>
-      <c r="F1189" s="4"/>
-      <c r="G1189" s="4"/>
-    </row>
-    <row r="1190" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1190" s="4"/>
-      <c r="B1190" s="4"/>
-      <c r="C1190" s="4"/>
-      <c r="D1190" s="4"/>
-      <c r="E1190" s="4"/>
-      <c r="F1190" s="4"/>
-      <c r="G1190" s="4"/>
-    </row>
-    <row r="1191" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1191" s="4"/>
-      <c r="B1191" s="4"/>
-      <c r="C1191" s="4"/>
-      <c r="D1191" s="4"/>
-      <c r="E1191" s="4"/>
-      <c r="F1191" s="4"/>
-      <c r="G1191" s="4"/>
-    </row>
-    <row r="1192" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1192" s="4"/>
-      <c r="B1192" s="4"/>
-      <c r="C1192" s="4"/>
-      <c r="D1192" s="4"/>
-      <c r="E1192" s="4"/>
-      <c r="F1192" s="4"/>
-      <c r="G1192" s="4"/>
-    </row>
-    <row r="1193" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1193" s="4"/>
-      <c r="B1193" s="4"/>
-      <c r="C1193" s="4"/>
-      <c r="D1193" s="4"/>
-      <c r="E1193" s="4"/>
-      <c r="F1193" s="4"/>
-      <c r="G1193" s="4"/>
-    </row>
-    <row r="1194" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1194" s="4"/>
-      <c r="B1194" s="4"/>
-      <c r="C1194" s="4"/>
-      <c r="D1194" s="4"/>
-      <c r="E1194" s="4"/>
-      <c r="F1194" s="4"/>
-      <c r="G1194" s="4"/>
-    </row>
-    <row r="1195" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1195" s="4"/>
-      <c r="B1195" s="4"/>
-      <c r="C1195" s="4"/>
-      <c r="D1195" s="4"/>
-      <c r="E1195" s="4"/>
-      <c r="F1195" s="4"/>
-      <c r="G1195" s="4"/>
-    </row>
-    <row r="1196" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1196" s="4"/>
-      <c r="B1196" s="4"/>
-      <c r="C1196" s="4"/>
-      <c r="D1196" s="4"/>
-      <c r="E1196" s="4"/>
-      <c r="F1196" s="4"/>
-      <c r="G1196" s="4"/>
-    </row>
-    <row r="1197" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1197" s="4"/>
-      <c r="B1197" s="4"/>
-      <c r="C1197" s="4"/>
-      <c r="D1197" s="4"/>
-      <c r="E1197" s="4"/>
-      <c r="F1197" s="4"/>
-      <c r="G1197" s="4"/>
-    </row>
-    <row r="1198" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1198" s="4"/>
-      <c r="B1198" s="4"/>
-      <c r="C1198" s="4"/>
-      <c r="D1198" s="4"/>
-      <c r="E1198" s="4"/>
-      <c r="F1198" s="4"/>
-      <c r="G1198" s="4"/>
-    </row>
-    <row r="1199" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1199" s="4"/>
-      <c r="B1199" s="4"/>
-      <c r="C1199" s="4"/>
-      <c r="D1199" s="4"/>
-      <c r="E1199" s="4"/>
-      <c r="F1199" s="4"/>
-      <c r="G1199" s="4"/>
-    </row>
-    <row r="1200" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1200" s="4"/>
-      <c r="B1200" s="4"/>
-      <c r="C1200" s="4"/>
-      <c r="D1200" s="4"/>
-      <c r="E1200" s="4"/>
-      <c r="F1200" s="4"/>
-      <c r="G1200" s="4"/>
-    </row>
-    <row r="1201" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1201" s="4"/>
-      <c r="B1201" s="4"/>
-      <c r="C1201" s="4"/>
-      <c r="D1201" s="4"/>
-      <c r="E1201" s="4"/>
-      <c r="F1201" s="4"/>
-      <c r="G1201" s="4"/>
-    </row>
-    <row r="1202" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1202" s="4"/>
-      <c r="B1202" s="4"/>
-      <c r="C1202" s="4"/>
-      <c r="D1202" s="4"/>
-      <c r="E1202" s="4"/>
-      <c r="F1202" s="4"/>
-      <c r="G1202" s="4"/>
-    </row>
-    <row r="1203" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1203" s="4"/>
-      <c r="B1203" s="4"/>
-      <c r="C1203" s="4"/>
-      <c r="D1203" s="4"/>
-      <c r="E1203" s="4"/>
-      <c r="F1203" s="4"/>
-      <c r="G1203" s="4"/>
-    </row>
-    <row r="1204" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1204" s="4"/>
-      <c r="B1204" s="4"/>
-      <c r="C1204" s="4"/>
-      <c r="D1204" s="4"/>
-      <c r="E1204" s="4"/>
-      <c r="F1204" s="4"/>
-      <c r="G1204" s="4"/>
-    </row>
-    <row r="1205" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1205" s="4"/>
-      <c r="B1205" s="4"/>
-      <c r="C1205" s="4"/>
-      <c r="D1205" s="4"/>
-      <c r="E1205" s="4"/>
-      <c r="F1205" s="4"/>
-      <c r="G1205" s="4"/>
-    </row>
-    <row r="1206" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1206" s="4"/>
-      <c r="B1206" s="4"/>
-      <c r="C1206" s="4"/>
-      <c r="D1206" s="4"/>
-      <c r="E1206" s="4"/>
-      <c r="F1206" s="4"/>
-      <c r="G1206" s="4"/>
-    </row>
-    <row r="1207" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1207" s="4"/>
-      <c r="B1207" s="4"/>
-      <c r="C1207" s="4"/>
-      <c r="D1207" s="4"/>
-      <c r="E1207" s="4"/>
-      <c r="F1207" s="4"/>
-      <c r="G1207" s="4"/>
-    </row>
-    <row r="1208" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1208" s="4"/>
-      <c r="B1208" s="4"/>
-      <c r="C1208" s="4"/>
-      <c r="D1208" s="4"/>
-      <c r="E1208" s="4"/>
-      <c r="F1208" s="4"/>
-      <c r="G1208" s="4"/>
-    </row>
-    <row r="1209" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1209" s="4"/>
-      <c r="B1209" s="4"/>
-      <c r="C1209" s="4"/>
-      <c r="D1209" s="4"/>
-      <c r="E1209" s="4"/>
-      <c r="F1209" s="4"/>
-      <c r="G1209" s="4"/>
-    </row>
-    <row r="1210" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1210" s="4"/>
-      <c r="B1210" s="4"/>
-      <c r="C1210" s="4"/>
-      <c r="D1210" s="4"/>
-      <c r="E1210" s="4"/>
-      <c r="F1210" s="4"/>
-      <c r="G1210" s="4"/>
-    </row>
-    <row r="1211" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1211" s="4"/>
-      <c r="B1211" s="4"/>
-      <c r="C1211" s="4"/>
-      <c r="D1211" s="4"/>
-      <c r="E1211" s="4"/>
-      <c r="F1211" s="4"/>
-      <c r="G1211" s="4"/>
-    </row>
-    <row r="1212" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1212" s="4"/>
-      <c r="B1212" s="4"/>
-      <c r="C1212" s="4"/>
-      <c r="D1212" s="4"/>
-      <c r="E1212" s="4"/>
-      <c r="F1212" s="4"/>
-      <c r="G1212" s="4"/>
-    </row>
-    <row r="1213" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1213" s="4"/>
-      <c r="B1213" s="4"/>
-      <c r="C1213" s="4"/>
-      <c r="D1213" s="4"/>
-      <c r="E1213" s="4"/>
-      <c r="F1213" s="4"/>
-      <c r="G1213" s="4"/>
-    </row>
-    <row r="1214" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1214" s="4"/>
-      <c r="B1214" s="4"/>
-      <c r="C1214" s="4"/>
-      <c r="D1214" s="4"/>
-      <c r="E1214" s="4"/>
-      <c r="F1214" s="4"/>
-      <c r="G1214" s="4"/>
-    </row>
-    <row r="1215" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1215" s="4"/>
-      <c r="B1215" s="4"/>
-      <c r="C1215" s="4"/>
-      <c r="D1215" s="4"/>
-      <c r="E1215" s="4"/>
-      <c r="F1215" s="4"/>
-      <c r="G1215" s="4"/>
-    </row>
-    <row r="1216" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1216" s="4"/>
-      <c r="B1216" s="4"/>
-      <c r="C1216" s="4"/>
-      <c r="D1216" s="4"/>
-      <c r="E1216" s="4"/>
-      <c r="F1216" s="4"/>
-      <c r="G1216" s="4"/>
-    </row>
-    <row r="1217" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1217" s="4"/>
-      <c r="B1217" s="4"/>
-      <c r="C1217" s="4"/>
-      <c r="D1217" s="4"/>
-      <c r="E1217" s="4"/>
-      <c r="F1217" s="4"/>
-      <c r="G1217" s="4"/>
-    </row>
-    <row r="1218" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1218" s="4"/>
-      <c r="B1218" s="4"/>
-      <c r="C1218" s="4"/>
-      <c r="D1218" s="4"/>
-      <c r="E1218" s="4"/>
-      <c r="F1218" s="4"/>
-      <c r="G1218" s="4"/>
-    </row>
-    <row r="1219" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1219" s="4"/>
-      <c r="B1219" s="4"/>
-      <c r="C1219" s="4"/>
-      <c r="D1219" s="4"/>
-      <c r="E1219" s="4"/>
-      <c r="F1219" s="4"/>
-      <c r="G1219" s="4"/>
-    </row>
-    <row r="1220" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1220" s="4"/>
-      <c r="B1220" s="4"/>
-      <c r="C1220" s="4"/>
-      <c r="D1220" s="4"/>
-      <c r="E1220" s="4"/>
-      <c r="F1220" s="4"/>
-      <c r="G1220" s="4"/>
-    </row>
-    <row r="1221" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1221" s="4"/>
-      <c r="B1221" s="4"/>
-      <c r="C1221" s="4"/>
-      <c r="D1221" s="4"/>
-      <c r="E1221" s="4"/>
-      <c r="F1221" s="4"/>
-      <c r="G1221" s="4"/>
-    </row>
-    <row r="1222" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1222" s="4"/>
-      <c r="B1222" s="4"/>
-      <c r="C1222" s="4"/>
-      <c r="D1222" s="4"/>
-      <c r="E1222" s="4"/>
-      <c r="F1222" s="4"/>
-      <c r="G1222" s="4"/>
-    </row>
-    <row r="1223" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1223" s="4"/>
-      <c r="B1223" s="4"/>
-      <c r="C1223" s="4"/>
-      <c r="D1223" s="4"/>
-      <c r="E1223" s="4"/>
-      <c r="F1223" s="4"/>
-      <c r="G1223" s="4"/>
-    </row>
-    <row r="1224" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1224" s="4"/>
-      <c r="B1224" s="4"/>
-      <c r="C1224" s="4"/>
-      <c r="D1224" s="4"/>
-      <c r="E1224" s="4"/>
-      <c r="F1224" s="4"/>
-      <c r="G1224" s="4"/>
-    </row>
-    <row r="1225" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1225" s="4"/>
-      <c r="B1225" s="4"/>
-      <c r="C1225" s="4"/>
-      <c r="D1225" s="4"/>
-      <c r="E1225" s="4"/>
-      <c r="F1225" s="4"/>
-      <c r="G1225" s="4"/>
-    </row>
-    <row r="1226" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1226" s="4"/>
-      <c r="B1226" s="4"/>
-      <c r="C1226" s="4"/>
-      <c r="D1226" s="4"/>
-      <c r="E1226" s="4"/>
-      <c r="F1226" s="4"/>
-      <c r="G1226" s="4"/>
-    </row>
-    <row r="1227" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1227" s="4"/>
-      <c r="B1227" s="4"/>
-      <c r="C1227" s="4"/>
-      <c r="D1227" s="4"/>
-      <c r="E1227" s="4"/>
-      <c r="F1227" s="4"/>
-      <c r="G1227" s="4"/>
-    </row>
-    <row r="1228" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1228" s="4"/>
-      <c r="B1228" s="4"/>
-      <c r="C1228" s="4"/>
-      <c r="D1228" s="4"/>
-      <c r="E1228" s="4"/>
-      <c r="F1228" s="4"/>
-      <c r="G1228" s="4"/>
-    </row>
-    <row r="1229" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1229" s="4"/>
-      <c r="B1229" s="4"/>
-      <c r="C1229" s="4"/>
-      <c r="D1229" s="4"/>
-      <c r="E1229" s="4"/>
-      <c r="F1229" s="4"/>
-      <c r="G1229" s="4"/>
-    </row>
-    <row r="1230" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1230" s="4"/>
-      <c r="B1230" s="4"/>
-      <c r="C1230" s="4"/>
-      <c r="D1230" s="4"/>
-      <c r="E1230" s="4"/>
-      <c r="F1230" s="4"/>
-      <c r="G1230" s="4"/>
-    </row>
-    <row r="1231" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1231" s="4"/>
-      <c r="B1231" s="4"/>
-      <c r="C1231" s="4"/>
-      <c r="D1231" s="4"/>
-      <c r="E1231" s="4"/>
-      <c r="F1231" s="4"/>
-      <c r="G1231" s="4"/>
-    </row>
-    <row r="1232" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1232" s="4"/>
-      <c r="B1232" s="4"/>
-      <c r="C1232" s="4"/>
-      <c r="D1232" s="4"/>
-      <c r="E1232" s="4"/>
-      <c r="F1232" s="4"/>
-      <c r="G1232" s="4"/>
-    </row>
-    <row r="1233" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1233" s="4"/>
-      <c r="B1233" s="4"/>
-      <c r="C1233" s="4"/>
-      <c r="D1233" s="4"/>
-      <c r="E1233" s="4"/>
-      <c r="F1233" s="4"/>
-      <c r="G1233" s="4"/>
-    </row>
-    <row r="1234" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1234" s="4"/>
-      <c r="B1234" s="4"/>
-      <c r="C1234" s="4"/>
-      <c r="D1234" s="4"/>
-      <c r="E1234" s="4"/>
-      <c r="F1234" s="4"/>
-      <c r="G1234" s="4"/>
-    </row>
-    <row r="1235" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1235" s="4"/>
-      <c r="B1235" s="4"/>
-      <c r="C1235" s="4"/>
-      <c r="D1235" s="4"/>
-      <c r="E1235" s="4"/>
-      <c r="F1235" s="4"/>
-      <c r="G1235" s="4"/>
-    </row>
-    <row r="1236" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1236" s="4"/>
-      <c r="B1236" s="4"/>
-      <c r="C1236" s="4"/>
-      <c r="D1236" s="4"/>
-      <c r="E1236" s="4"/>
-      <c r="F1236" s="4"/>
-      <c r="G1236" s="4"/>
-    </row>
-    <row r="1237" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1237" s="4"/>
-      <c r="B1237" s="4"/>
-      <c r="C1237" s="4"/>
-      <c r="D1237" s="4"/>
-      <c r="E1237" s="4"/>
-      <c r="F1237" s="4"/>
-      <c r="G1237" s="4"/>
-    </row>
-    <row r="1238" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1238" s="4"/>
-      <c r="B1238" s="4"/>
-      <c r="C1238" s="4"/>
-      <c r="D1238" s="4"/>
-      <c r="E1238" s="4"/>
-      <c r="F1238" s="4"/>
-      <c r="G1238" s="4"/>
-    </row>
-    <row r="1239" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1239" s="4"/>
-      <c r="B1239" s="4"/>
-      <c r="C1239" s="4"/>
-      <c r="D1239" s="4"/>
-      <c r="E1239" s="4"/>
-      <c r="F1239" s="4"/>
-      <c r="G1239" s="4"/>
-    </row>
-    <row r="1240" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1240" s="4"/>
-      <c r="B1240" s="4"/>
-      <c r="C1240" s="4"/>
-      <c r="D1240" s="4"/>
-      <c r="E1240" s="4"/>
-      <c r="F1240" s="4"/>
-      <c r="G1240" s="4"/>
-    </row>
-    <row r="1241" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1241" s="4"/>
-      <c r="B1241" s="4"/>
-      <c r="C1241" s="4"/>
-      <c r="D1241" s="4"/>
-      <c r="E1241" s="4"/>
-      <c r="F1241" s="4"/>
-      <c r="G1241" s="4"/>
-    </row>
-    <row r="1242" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1242" s="4"/>
-      <c r="B1242" s="4"/>
-      <c r="C1242" s="4"/>
-      <c r="D1242" s="4"/>
-      <c r="E1242" s="4"/>
-      <c r="F1242" s="4"/>
-      <c r="G1242" s="4"/>
-    </row>
-    <row r="1243" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1243" s="4"/>
-      <c r="B1243" s="4"/>
-      <c r="C1243" s="4"/>
-      <c r="D1243" s="4"/>
-      <c r="E1243" s="4"/>
-      <c r="F1243" s="4"/>
-      <c r="G1243" s="4"/>
-    </row>
-    <row r="1244" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1244" s="4"/>
-      <c r="B1244" s="4"/>
-      <c r="C1244" s="4"/>
-      <c r="D1244" s="4"/>
-      <c r="E1244" s="4"/>
-      <c r="F1244" s="4"/>
-      <c r="G1244" s="4"/>
-    </row>
-    <row r="1245" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1245" s="4"/>
-      <c r="B1245" s="4"/>
-      <c r="C1245" s="4"/>
-      <c r="D1245" s="4"/>
-      <c r="E1245" s="4"/>
-      <c r="F1245" s="4"/>
-      <c r="G1245" s="4"/>
-    </row>
-    <row r="1246" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1246" s="4"/>
-      <c r="B1246" s="4"/>
-      <c r="C1246" s="4"/>
-      <c r="D1246" s="4"/>
-      <c r="E1246" s="4"/>
-      <c r="F1246" s="4"/>
-      <c r="G1246" s="4"/>
-    </row>
-    <row r="1247" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1247" s="4"/>
-      <c r="B1247" s="4"/>
-      <c r="C1247" s="4"/>
-      <c r="D1247" s="4"/>
-      <c r="E1247" s="4"/>
-      <c r="F1247" s="4"/>
-      <c r="G1247" s="4"/>
-    </row>
-    <row r="1248" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1248" s="4"/>
-      <c r="B1248" s="4"/>
-      <c r="C1248" s="4"/>
-      <c r="D1248" s="4"/>
-      <c r="E1248" s="4"/>
-      <c r="F1248" s="4"/>
-      <c r="G1248" s="4"/>
-    </row>
-    <row r="1249" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1249" s="4"/>
-      <c r="B1249" s="4"/>
-      <c r="C1249" s="4"/>
-      <c r="D1249" s="4"/>
-      <c r="E1249" s="4"/>
-      <c r="F1249" s="4"/>
-      <c r="G1249" s="4"/>
-    </row>
-    <row r="1250" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1250" s="4"/>
-      <c r="B1250" s="4"/>
-      <c r="C1250" s="4"/>
-      <c r="D1250" s="4"/>
-      <c r="E1250" s="4"/>
-      <c r="F1250" s="4"/>
-      <c r="G1250" s="4"/>
-    </row>
-    <row r="1251" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1251" s="4"/>
-      <c r="B1251" s="4"/>
-      <c r="C1251" s="4"/>
-      <c r="D1251" s="4"/>
-      <c r="E1251" s="4"/>
-      <c r="F1251" s="4"/>
-      <c r="G1251" s="4"/>
-    </row>
-    <row r="1252" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1252" s="4"/>
-      <c r="B1252" s="4"/>
-      <c r="C1252" s="4"/>
-      <c r="D1252" s="4"/>
-      <c r="E1252" s="4"/>
-      <c r="F1252" s="4"/>
-      <c r="G1252" s="4"/>
-    </row>
-    <row r="1253" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1253" s="4"/>
-      <c r="B1253" s="4"/>
-      <c r="C1253" s="4"/>
-      <c r="D1253" s="4"/>
-      <c r="E1253" s="4"/>
-      <c r="F1253" s="4"/>
-      <c r="G1253" s="4"/>
-    </row>
-    <row r="1254" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1254" s="4"/>
-      <c r="B1254" s="4"/>
-      <c r="C1254" s="4"/>
-      <c r="D1254" s="4"/>
-      <c r="E1254" s="4"/>
-      <c r="F1254" s="4"/>
-      <c r="G1254" s="4"/>
-    </row>
-    <row r="1255" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1255" s="4"/>
-      <c r="B1255" s="4"/>
-      <c r="C1255" s="4"/>
-      <c r="D1255" s="4"/>
-      <c r="E1255" s="4"/>
-      <c r="F1255" s="4"/>
-      <c r="G1255" s="4"/>
-    </row>
-    <row r="1256" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1256" s="4"/>
-      <c r="B1256" s="4"/>
-      <c r="C1256" s="4"/>
-      <c r="D1256" s="4"/>
-      <c r="E1256" s="4"/>
-      <c r="F1256" s="4"/>
-      <c r="G1256" s="4"/>
-    </row>
-    <row r="1257" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1257" s="4"/>
-      <c r="B1257" s="4"/>
-      <c r="C1257" s="4"/>
-      <c r="D1257" s="4"/>
-      <c r="E1257" s="4"/>
-      <c r="F1257" s="4"/>
-      <c r="G1257" s="4"/>
-    </row>
-    <row r="1258" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1258" s="4"/>
-      <c r="B1258" s="4"/>
-      <c r="C1258" s="4"/>
-      <c r="D1258" s="4"/>
-      <c r="E1258" s="4"/>
-      <c r="F1258" s="4"/>
-      <c r="G1258" s="4"/>
-    </row>
-    <row r="1259" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1259" s="4"/>
-      <c r="B1259" s="4"/>
-      <c r="C1259" s="4"/>
-      <c r="D1259" s="4"/>
-      <c r="E1259" s="4"/>
-      <c r="F1259" s="4"/>
-      <c r="G1259" s="4"/>
-    </row>
-    <row r="1260" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1260" s="4"/>
-      <c r="B1260" s="4"/>
-      <c r="C1260" s="4"/>
-      <c r="D1260" s="4"/>
-      <c r="E1260" s="4"/>
-      <c r="F1260" s="4"/>
-      <c r="G1260" s="4"/>
-    </row>
-    <row r="1261" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1261" s="4"/>
-      <c r="B1261" s="4"/>
-      <c r="C1261" s="4"/>
-      <c r="D1261" s="4"/>
-      <c r="E1261" s="4"/>
-      <c r="F1261" s="4"/>
-      <c r="G1261" s="4"/>
-    </row>
-    <row r="1262" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1262" s="4"/>
-      <c r="B1262" s="4"/>
-      <c r="C1262" s="4"/>
-      <c r="D1262" s="4"/>
-      <c r="E1262" s="4"/>
-      <c r="F1262" s="4"/>
-      <c r="G1262" s="4"/>
-    </row>
-    <row r="1263" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1263" s="4"/>
-      <c r="B1263" s="4"/>
-      <c r="C1263" s="4"/>
-      <c r="D1263" s="4"/>
-      <c r="E1263" s="4"/>
-      <c r="F1263" s="4"/>
-      <c r="G1263" s="4"/>
-    </row>
-    <row r="1264" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1264" s="4"/>
-      <c r="B1264" s="4"/>
-      <c r="C1264" s="4"/>
-      <c r="D1264" s="4"/>
-      <c r="E1264" s="4"/>
-      <c r="F1264" s="4"/>
-      <c r="G1264" s="4"/>
-    </row>
-    <row r="1265" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1265" s="4"/>
-      <c r="B1265" s="4"/>
-      <c r="C1265" s="4"/>
-      <c r="D1265" s="4"/>
-      <c r="E1265" s="4"/>
-      <c r="F1265" s="4"/>
-      <c r="G1265" s="4"/>
-    </row>
-    <row r="1266" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1266" s="4"/>
-      <c r="B1266" s="4"/>
-      <c r="C1266" s="4"/>
-      <c r="D1266" s="4"/>
-      <c r="E1266" s="4"/>
-      <c r="F1266" s="4"/>
-      <c r="G1266" s="4"/>
-    </row>
-    <row r="1267" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1267" s="4"/>
-      <c r="B1267" s="4"/>
-      <c r="C1267" s="4"/>
-      <c r="D1267" s="4"/>
-      <c r="E1267" s="4"/>
-      <c r="F1267" s="4"/>
-      <c r="G1267" s="4"/>
-    </row>
-    <row r="1268" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1268" s="4"/>
-      <c r="B1268" s="4"/>
-      <c r="C1268" s="4"/>
-      <c r="D1268" s="4"/>
-      <c r="E1268" s="4"/>
-      <c r="F1268" s="4"/>
-      <c r="G1268" s="4"/>
-    </row>
-    <row r="1269" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1269" s="4"/>
-      <c r="B1269" s="4"/>
-      <c r="C1269" s="4"/>
-      <c r="D1269" s="4"/>
-      <c r="E1269" s="4"/>
-      <c r="F1269" s="4"/>
-      <c r="G1269" s="4"/>
-    </row>
-    <row r="1270" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1270" s="4"/>
-      <c r="B1270" s="4"/>
-      <c r="C1270" s="4"/>
-      <c r="D1270" s="4"/>
-      <c r="E1270" s="4"/>
-      <c r="F1270" s="4"/>
-      <c r="G1270" s="4"/>
-    </row>
-    <row r="1271" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1271" s="4"/>
-      <c r="B1271" s="4"/>
-      <c r="C1271" s="4"/>
-      <c r="D1271" s="4"/>
-      <c r="E1271" s="4"/>
-      <c r="F1271" s="4"/>
-      <c r="G1271" s="4"/>
-    </row>
-    <row r="1272" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1272" s="4"/>
-      <c r="B1272" s="4"/>
-      <c r="C1272" s="4"/>
-      <c r="D1272" s="4"/>
-      <c r="E1272" s="4"/>
-      <c r="F1272" s="4"/>
-      <c r="G1272" s="4"/>
-    </row>
-    <row r="1273" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1273" s="4"/>
-      <c r="B1273" s="4"/>
-      <c r="C1273" s="4"/>
-      <c r="D1273" s="4"/>
-      <c r="E1273" s="4"/>
-      <c r="F1273" s="4"/>
-      <c r="G1273" s="4"/>
-    </row>
-    <row r="1274" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1274" s="4"/>
-      <c r="B1274" s="4"/>
-      <c r="C1274" s="4"/>
-      <c r="D1274" s="4"/>
-      <c r="E1274" s="4"/>
-      <c r="F1274" s="4"/>
-      <c r="G1274" s="4"/>
-    </row>
-    <row r="1275" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1275" s="4"/>
-      <c r="B1275" s="4"/>
-      <c r="C1275" s="4"/>
-      <c r="D1275" s="4"/>
-      <c r="E1275" s="4"/>
-      <c r="F1275" s="4"/>
-      <c r="G1275" s="4"/>
-    </row>
-    <row r="1276" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1276" s="4"/>
-      <c r="B1276" s="4"/>
-      <c r="C1276" s="4"/>
-      <c r="D1276" s="4"/>
-      <c r="E1276" s="4"/>
-      <c r="F1276" s="4"/>
-      <c r="G1276" s="4"/>
-    </row>
-    <row r="1277" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1277" s="4"/>
-      <c r="B1277" s="4"/>
-      <c r="C1277" s="4"/>
-      <c r="D1277" s="4"/>
-      <c r="E1277" s="4"/>
-      <c r="F1277" s="4"/>
-      <c r="G1277" s="4"/>
-    </row>
-    <row r="1278" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1278" s="4"/>
-      <c r="B1278" s="4"/>
-      <c r="C1278" s="4"/>
-      <c r="D1278" s="4"/>
-      <c r="E1278" s="4"/>
-      <c r="F1278" s="4"/>
-      <c r="G1278" s="4"/>
-    </row>
-    <row r="1279" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1279" s="4"/>
-      <c r="B1279" s="4"/>
-      <c r="C1279" s="4"/>
-      <c r="D1279" s="4"/>
-      <c r="E1279" s="4"/>
-      <c r="F1279" s="4"/>
-      <c r="G1279" s="4"/>
-    </row>
-    <row r="1280" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1280" s="4"/>
-      <c r="B1280" s="4"/>
-      <c r="C1280" s="4"/>
-      <c r="D1280" s="4"/>
-      <c r="E1280" s="4"/>
-      <c r="F1280" s="4"/>
-      <c r="G1280" s="4"/>
-    </row>
-    <row r="1281" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1281" s="4"/>
-      <c r="B1281" s="4"/>
-      <c r="C1281" s="4"/>
-      <c r="D1281" s="4"/>
-      <c r="E1281" s="4"/>
-      <c r="F1281" s="4"/>
-      <c r="G1281" s="4"/>
-    </row>
-    <row r="1282" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1282" s="4"/>
-      <c r="B1282" s="4"/>
-      <c r="C1282" s="4"/>
-      <c r="D1282" s="4"/>
-      <c r="E1282" s="4"/>
-      <c r="F1282" s="4"/>
-      <c r="G1282" s="4"/>
-    </row>
-    <row r="1283" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1283" s="4"/>
-      <c r="B1283" s="4"/>
-      <c r="C1283" s="4"/>
-      <c r="D1283" s="4"/>
-      <c r="E1283" s="4"/>
-      <c r="F1283" s="4"/>
-      <c r="G1283" s="4"/>
-    </row>
-    <row r="1284" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1284" s="4"/>
-      <c r="B1284" s="4"/>
-      <c r="C1284" s="4"/>
-      <c r="D1284" s="4"/>
-      <c r="E1284" s="4"/>
-      <c r="F1284" s="4"/>
-      <c r="G1284" s="4"/>
-    </row>
-    <row r="1285" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1285" s="4"/>
-      <c r="B1285" s="4"/>
-      <c r="C1285" s="4"/>
-      <c r="D1285" s="4"/>
-      <c r="E1285" s="4"/>
-      <c r="F1285" s="4"/>
-      <c r="G1285" s="4"/>
-    </row>
-    <row r="1286" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1286" s="4"/>
-      <c r="B1286" s="4"/>
-      <c r="C1286" s="4"/>
-      <c r="D1286" s="4"/>
-      <c r="E1286" s="4"/>
-      <c r="F1286" s="4"/>
-      <c r="G1286" s="4"/>
-    </row>
-    <row r="1287" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1287" s="4"/>
-      <c r="B1287" s="4"/>
-      <c r="C1287" s="4"/>
-      <c r="D1287" s="4"/>
-      <c r="E1287" s="4"/>
-      <c r="F1287" s="4"/>
-      <c r="G1287" s="4"/>
-    </row>
-    <row r="1288" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1288" s="4"/>
-      <c r="B1288" s="4"/>
-      <c r="C1288" s="4"/>
-      <c r="D1288" s="4"/>
-      <c r="E1288" s="4"/>
-      <c r="F1288" s="4"/>
-      <c r="G1288" s="4"/>
-    </row>
-    <row r="1289" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1289" s="4"/>
-      <c r="B1289" s="4"/>
-      <c r="C1289" s="4"/>
-      <c r="D1289" s="4"/>
-      <c r="E1289" s="4"/>
-      <c r="F1289" s="4"/>
-      <c r="G1289" s="4"/>
-    </row>
-    <row r="1290" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1290" s="4"/>
-      <c r="B1290" s="4"/>
-      <c r="C1290" s="4"/>
-      <c r="D1290" s="4"/>
-      <c r="E1290" s="4"/>
-      <c r="F1290" s="4"/>
-      <c r="G1290" s="4"/>
-    </row>
-    <row r="1291" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1291" s="4"/>
-      <c r="B1291" s="4"/>
-      <c r="C1291" s="4"/>
-      <c r="D1291" s="4"/>
-      <c r="E1291" s="4"/>
-      <c r="F1291" s="4"/>
-      <c r="G1291" s="4"/>
-    </row>
-    <row r="1292" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1292" s="4"/>
-      <c r="B1292" s="4"/>
-      <c r="C1292" s="4"/>
-      <c r="D1292" s="4"/>
-      <c r="E1292" s="4"/>
-      <c r="F1292" s="4"/>
-      <c r="G1292" s="4"/>
-    </row>
-    <row r="1293" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1293" s="4"/>
-      <c r="B1293" s="4"/>
-      <c r="C1293" s="4"/>
-      <c r="D1293" s="4"/>
-      <c r="E1293" s="4"/>
-      <c r="F1293" s="4"/>
-      <c r="G1293" s="4"/>
-    </row>
-    <row r="1294" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1294" s="4"/>
-      <c r="B1294" s="4"/>
-      <c r="C1294" s="4"/>
-      <c r="D1294" s="4"/>
-      <c r="E1294" s="4"/>
-      <c r="F1294" s="4"/>
-      <c r="G1294" s="4"/>
-    </row>
-    <row r="1295" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1295" s="4"/>
-      <c r="B1295" s="4"/>
-      <c r="C1295" s="4"/>
-      <c r="D1295" s="4"/>
-      <c r="E1295" s="4"/>
-      <c r="F1295" s="4"/>
-      <c r="G1295" s="4"/>
-    </row>
-    <row r="1296" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1296" s="4"/>
-      <c r="B1296" s="4"/>
-      <c r="C1296" s="4"/>
-      <c r="D1296" s="4"/>
-      <c r="E1296" s="4"/>
-      <c r="F1296" s="4"/>
-      <c r="G1296" s="4"/>
-    </row>
-    <row r="1297" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1297" s="4"/>
-      <c r="B1297" s="4"/>
-      <c r="C1297" s="4"/>
-      <c r="D1297" s="4"/>
-      <c r="E1297" s="4"/>
-      <c r="F1297" s="4"/>
-      <c r="G1297" s="4"/>
-    </row>
-    <row r="1298" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1298" s="4"/>
-      <c r="B1298" s="4"/>
-      <c r="C1298" s="4"/>
-      <c r="D1298" s="4"/>
-      <c r="E1298" s="4"/>
-      <c r="F1298" s="4"/>
-      <c r="G1298" s="4"/>
-    </row>
-    <row r="1299" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1299" s="4"/>
-      <c r="B1299" s="4"/>
-      <c r="C1299" s="4"/>
-      <c r="D1299" s="4"/>
-      <c r="E1299" s="4"/>
-      <c r="F1299" s="4"/>
-      <c r="G1299" s="4"/>
-    </row>
-    <row r="1300" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1300" s="4"/>
-      <c r="B1300" s="4"/>
-      <c r="C1300" s="4"/>
-      <c r="D1300" s="4"/>
-      <c r="E1300" s="4"/>
-      <c r="F1300" s="4"/>
-      <c r="G1300" s="4"/>
-    </row>
-    <row r="1301" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1301" s="4"/>
-      <c r="B1301" s="4"/>
-      <c r="C1301" s="4"/>
-      <c r="D1301" s="4"/>
-      <c r="E1301" s="4"/>
-      <c r="F1301" s="4"/>
-      <c r="G1301" s="4"/>
-    </row>
-    <row r="1302" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1302" s="4"/>
-      <c r="B1302" s="4"/>
-      <c r="C1302" s="4"/>
-      <c r="D1302" s="4"/>
-      <c r="E1302" s="4"/>
-      <c r="F1302" s="4"/>
-      <c r="G1302" s="4"/>
-    </row>
-    <row r="1303" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1303" s="4"/>
-      <c r="B1303" s="4"/>
-      <c r="C1303" s="4"/>
-      <c r="D1303" s="4"/>
-      <c r="E1303" s="4"/>
-      <c r="F1303" s="4"/>
-      <c r="G1303" s="4"/>
-    </row>
-    <row r="1304" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1304" s="4"/>
-      <c r="B1304" s="4"/>
-      <c r="C1304" s="4"/>
-      <c r="D1304" s="4"/>
-      <c r="E1304" s="4"/>
-      <c r="F1304" s="4"/>
-      <c r="G1304" s="4"/>
-    </row>
-    <row r="1305" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1305" s="4"/>
-      <c r="B1305" s="4"/>
-      <c r="C1305" s="4"/>
-      <c r="D1305" s="4"/>
-      <c r="E1305" s="4"/>
-      <c r="F1305" s="4"/>
-      <c r="G1305" s="4"/>
-    </row>
-    <row r="1306" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1306" s="4"/>
-      <c r="B1306" s="4"/>
-      <c r="C1306" s="4"/>
-      <c r="D1306" s="4"/>
-      <c r="E1306" s="4"/>
-      <c r="F1306" s="4"/>
-      <c r="G1306" s="4"/>
-    </row>
-    <row r="1307" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1307" s="4"/>
-      <c r="B1307" s="4"/>
-      <c r="C1307" s="4"/>
-      <c r="D1307" s="4"/>
-      <c r="E1307" s="4"/>
-      <c r="F1307" s="4"/>
-      <c r="G1307" s="4"/>
-    </row>
-    <row r="1308" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1308" s="4"/>
-      <c r="B1308" s="4"/>
-      <c r="C1308" s="4"/>
-      <c r="D1308" s="4"/>
-      <c r="E1308" s="4"/>
-      <c r="F1308" s="4"/>
-      <c r="G1308" s="4"/>
-    </row>
-    <row r="1309" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1309" s="4"/>
-      <c r="B1309" s="4"/>
-      <c r="C1309" s="4"/>
-      <c r="D1309" s="4"/>
-      <c r="E1309" s="4"/>
-      <c r="F1309" s="4"/>
-      <c r="G1309" s="4"/>
-    </row>
-    <row r="1310" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1310" s="4"/>
-      <c r="B1310" s="4"/>
-      <c r="C1310" s="4"/>
-      <c r="D1310" s="4"/>
-      <c r="E1310" s="4"/>
-      <c r="F1310" s="4"/>
-      <c r="G1310" s="4"/>
-    </row>
-    <row r="1311" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1311" s="4"/>
-      <c r="B1311" s="4"/>
-      <c r="C1311" s="4"/>
-      <c r="D1311" s="4"/>
-      <c r="E1311" s="4"/>
-      <c r="F1311" s="4"/>
-      <c r="G1311" s="4"/>
-    </row>
-    <row r="1312" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1312" s="4"/>
-      <c r="B1312" s="4"/>
-      <c r="C1312" s="4"/>
-      <c r="D1312" s="4"/>
-      <c r="E1312" s="4"/>
-      <c r="F1312" s="4"/>
-      <c r="G1312" s="4"/>
-    </row>
-    <row r="1313" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1313" s="4"/>
-      <c r="B1313" s="4"/>
-      <c r="C1313" s="4"/>
-      <c r="D1313" s="4"/>
-      <c r="E1313" s="4"/>
-      <c r="F1313" s="4"/>
-      <c r="G1313" s="4"/>
-    </row>
-    <row r="1314" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1314" s="4"/>
-      <c r="B1314" s="4"/>
-      <c r="C1314" s="4"/>
-      <c r="D1314" s="4"/>
-      <c r="E1314" s="4"/>
-      <c r="F1314" s="4"/>
-      <c r="G1314" s="4"/>
-    </row>
-    <row r="1315" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1315" s="4"/>
-      <c r="B1315" s="4"/>
-      <c r="C1315" s="4"/>
-      <c r="D1315" s="4"/>
-      <c r="E1315" s="4"/>
-      <c r="F1315" s="4"/>
-      <c r="G1315" s="4"/>
-    </row>
-    <row r="1316" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1316" s="4"/>
-      <c r="B1316" s="4"/>
-      <c r="C1316" s="4"/>
-      <c r="D1316" s="4"/>
-      <c r="E1316" s="4"/>
-      <c r="F1316" s="4"/>
-      <c r="G1316" s="4"/>
-    </row>
-    <row r="1317" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1317" s="4"/>
-      <c r="B1317" s="4"/>
-      <c r="C1317" s="4"/>
-      <c r="D1317" s="4"/>
-      <c r="E1317" s="4"/>
-      <c r="F1317" s="4"/>
-      <c r="G1317" s="4"/>
-    </row>
-    <row r="1318" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1318" s="4"/>
-      <c r="B1318" s="4"/>
-      <c r="C1318" s="4"/>
-      <c r="D1318" s="4"/>
-      <c r="E1318" s="4"/>
-      <c r="F1318" s="4"/>
-      <c r="G1318" s="4"/>
-    </row>
-    <row r="1319" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1319" s="4"/>
-      <c r="B1319" s="4"/>
-      <c r="C1319" s="4"/>
-      <c r="D1319" s="4"/>
-      <c r="E1319" s="4"/>
-      <c r="F1319" s="4"/>
-      <c r="G1319" s="4"/>
-    </row>
-    <row r="1320" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1320" s="4"/>
-      <c r="B1320" s="4"/>
-      <c r="C1320" s="4"/>
-      <c r="D1320" s="4"/>
-      <c r="E1320" s="4"/>
-      <c r="F1320" s="4"/>
-      <c r="G1320" s="4"/>
-    </row>
-    <row r="1321" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1321" s="4"/>
-      <c r="B1321" s="4"/>
-      <c r="C1321" s="4"/>
-      <c r="D1321" s="4"/>
-      <c r="E1321" s="4"/>
-      <c r="F1321" s="4"/>
-      <c r="G1321" s="4"/>
-    </row>
-    <row r="1322" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1322" s="4"/>
-      <c r="B1322" s="4"/>
-      <c r="C1322" s="4"/>
-      <c r="D1322" s="4"/>
-      <c r="E1322" s="4"/>
-      <c r="F1322" s="4"/>
-      <c r="G1322" s="4"/>
-    </row>
-    <row r="1323" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1323" s="4"/>
-      <c r="B1323" s="4"/>
-      <c r="C1323" s="4"/>
-      <c r="D1323" s="4"/>
-      <c r="E1323" s="4"/>
-      <c r="F1323" s="4"/>
-      <c r="G1323" s="4"/>
-    </row>
-    <row r="1324" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1324" s="4"/>
-      <c r="B1324" s="4"/>
-      <c r="C1324" s="4"/>
-      <c r="D1324" s="4"/>
-      <c r="E1324" s="4"/>
-      <c r="F1324" s="4"/>
-      <c r="G1324" s="4"/>
-    </row>
-    <row r="1325" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1325" s="4"/>
-      <c r="B1325" s="4"/>
-      <c r="C1325" s="4"/>
-      <c r="D1325" s="4"/>
-      <c r="E1325" s="4"/>
-      <c r="F1325" s="4"/>
-      <c r="G1325" s="4"/>
-    </row>
-    <row r="1326" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1326" s="4"/>
-      <c r="B1326" s="4"/>
-      <c r="C1326" s="4"/>
-      <c r="D1326" s="4"/>
-      <c r="E1326" s="4"/>
-      <c r="F1326" s="4"/>
-      <c r="G1326" s="4"/>
-    </row>
-    <row r="1327" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1327" s="4"/>
-      <c r="B1327" s="4"/>
-      <c r="C1327" s="4"/>
-      <c r="D1327" s="4"/>
-      <c r="E1327" s="4"/>
-      <c r="F1327" s="4"/>
-      <c r="G1327" s="4"/>
-    </row>
-    <row r="1328" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1328" s="4"/>
-      <c r="B1328" s="4"/>
-      <c r="C1328" s="4"/>
-      <c r="D1328" s="4"/>
-      <c r="E1328" s="4"/>
-      <c r="F1328" s="4"/>
-      <c r="G1328" s="4"/>
-    </row>
-    <row r="1329" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1329" s="4"/>
-      <c r="B1329" s="4"/>
-      <c r="C1329" s="4"/>
-      <c r="D1329" s="4"/>
-      <c r="E1329" s="4"/>
-      <c r="F1329" s="4"/>
-      <c r="G1329" s="4"/>
-    </row>
-    <row r="1330" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1330" s="4"/>
-      <c r="B1330" s="4"/>
-      <c r="C1330" s="4"/>
-      <c r="D1330" s="4"/>
-      <c r="E1330" s="4"/>
-      <c r="F1330" s="4"/>
-      <c r="G1330" s="4"/>
-    </row>
-    <row r="1331" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1331" s="4"/>
-      <c r="B1331" s="4"/>
-      <c r="C1331" s="4"/>
-      <c r="D1331" s="4"/>
-      <c r="E1331" s="4"/>
-      <c r="F1331" s="4"/>
-      <c r="G1331" s="4"/>
-    </row>
-    <row r="1332" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1332" s="4"/>
-      <c r="B1332" s="4"/>
-      <c r="C1332" s="4"/>
-      <c r="D1332" s="4"/>
-      <c r="E1332" s="4"/>
-      <c r="F1332" s="4"/>
-      <c r="G1332" s="4"/>
-    </row>
-    <row r="1333" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1333" s="4"/>
-      <c r="B1333" s="4"/>
-      <c r="C1333" s="4"/>
-      <c r="D1333" s="4"/>
-      <c r="E1333" s="4"/>
-      <c r="F1333" s="4"/>
-      <c r="G1333" s="4"/>
-    </row>
-    <row r="1334" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1334" s="4"/>
-      <c r="B1334" s="4"/>
-      <c r="C1334" s="4"/>
-      <c r="D1334" s="4"/>
-      <c r="E1334" s="4"/>
-      <c r="F1334" s="4"/>
-      <c r="G1334" s="4"/>
-    </row>
-    <row r="1335" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1335" s="4"/>
-      <c r="B1335" s="4"/>
-      <c r="C1335" s="4"/>
-      <c r="D1335" s="4"/>
-      <c r="E1335" s="4"/>
-      <c r="F1335" s="4"/>
-      <c r="G1335" s="4"/>
-    </row>
-    <row r="1336" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1336" s="4"/>
-      <c r="B1336" s="4"/>
-      <c r="C1336" s="4"/>
-      <c r="D1336" s="4"/>
-      <c r="E1336" s="4"/>
-      <c r="F1336" s="4"/>
-      <c r="G1336" s="4"/>
-    </row>
-    <row r="1337" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1337" s="4"/>
-      <c r="B1337" s="4"/>
-      <c r="C1337" s="4"/>
-      <c r="D1337" s="4"/>
-      <c r="E1337" s="4"/>
-      <c r="F1337" s="4"/>
-      <c r="G1337" s="4"/>
-    </row>
-    <row r="1338" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1338" s="4"/>
-      <c r="B1338" s="4"/>
-      <c r="C1338" s="4"/>
-      <c r="D1338" s="4"/>
-      <c r="E1338" s="4"/>
-      <c r="F1338" s="4"/>
-      <c r="G1338" s="4"/>
-    </row>
-    <row r="1339" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1339" s="4"/>
-      <c r="B1339" s="4"/>
-      <c r="C1339" s="4"/>
-      <c r="D1339" s="4"/>
-      <c r="E1339" s="4"/>
-      <c r="F1339" s="4"/>
-      <c r="G1339" s="4"/>
-    </row>
-    <row r="1340" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1340" s="4"/>
-      <c r="B1340" s="4"/>
-      <c r="C1340" s="4"/>
-      <c r="D1340" s="4"/>
-      <c r="E1340" s="4"/>
-      <c r="F1340" s="4"/>
-      <c r="G1340" s="4"/>
-    </row>
-    <row r="1341" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1341" s="4"/>
-      <c r="B1341" s="4"/>
-      <c r="C1341" s="4"/>
-      <c r="D1341" s="4"/>
-      <c r="E1341" s="4"/>
-      <c r="F1341" s="4"/>
-      <c r="G1341" s="4"/>
-    </row>
-    <row r="1342" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1342" s="4"/>
-      <c r="B1342" s="4"/>
-      <c r="C1342" s="4"/>
-      <c r="D1342" s="4"/>
-      <c r="E1342" s="4"/>
-      <c r="F1342" s="4"/>
-      <c r="G1342" s="4"/>
-    </row>
-    <row r="1343" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1343" s="4"/>
-      <c r="B1343" s="4"/>
-      <c r="C1343" s="4"/>
-      <c r="D1343" s="4"/>
-      <c r="E1343" s="4"/>
-      <c r="F1343" s="4"/>
-      <c r="G1343" s="4"/>
-    </row>
-    <row r="1344" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1344" s="4"/>
-      <c r="B1344" s="4"/>
-      <c r="C1344" s="4"/>
-      <c r="D1344" s="4"/>
-      <c r="E1344" s="4"/>
-      <c r="F1344" s="4"/>
-      <c r="G1344" s="4"/>
-    </row>
-    <row r="1345" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1345" s="4"/>
-      <c r="B1345" s="4"/>
-      <c r="C1345" s="4"/>
-      <c r="D1345" s="4"/>
-      <c r="E1345" s="4"/>
-      <c r="F1345" s="4"/>
-      <c r="G1345" s="4"/>
-    </row>
-    <row r="1346" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1346" s="4"/>
-      <c r="B1346" s="4"/>
-      <c r="C1346" s="4"/>
-      <c r="D1346" s="4"/>
-      <c r="E1346" s="4"/>
-      <c r="F1346" s="4"/>
-      <c r="G1346" s="4"/>
-    </row>
-    <row r="1347" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1347" s="4"/>
-      <c r="B1347" s="4"/>
-      <c r="C1347" s="4"/>
-      <c r="D1347" s="4"/>
-      <c r="E1347" s="4"/>
-      <c r="F1347" s="4"/>
-      <c r="G1347" s="4"/>
-    </row>
-    <row r="1348" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1348" s="4"/>
-      <c r="B1348" s="4"/>
-      <c r="C1348" s="4"/>
-      <c r="D1348" s="4"/>
-      <c r="E1348" s="4"/>
-      <c r="F1348" s="4"/>
-      <c r="G1348" s="4"/>
-    </row>
-    <row r="1349" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1349" s="4"/>
-      <c r="B1349" s="4"/>
-      <c r="C1349" s="4"/>
-      <c r="D1349" s="4"/>
-      <c r="E1349" s="4"/>
-      <c r="F1349" s="4"/>
-      <c r="G1349" s="4"/>
-    </row>
-    <row r="1350" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1350" s="4"/>
-      <c r="B1350" s="4"/>
-      <c r="C1350" s="4"/>
-      <c r="D1350" s="4"/>
-      <c r="E1350" s="4"/>
-      <c r="F1350" s="4"/>
-      <c r="G1350" s="4"/>
-    </row>
-    <row r="1351" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1351" s="4"/>
-      <c r="B1351" s="4"/>
-      <c r="C1351" s="4"/>
-      <c r="D1351" s="4"/>
-      <c r="E1351" s="4"/>
-      <c r="F1351" s="4"/>
-      <c r="G1351" s="4"/>
-    </row>
-    <row r="1352" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1352" s="4"/>
-      <c r="B1352" s="4"/>
-      <c r="C1352" s="4"/>
-      <c r="D1352" s="4"/>
-      <c r="E1352" s="4"/>
-      <c r="F1352" s="4"/>
-      <c r="G1352" s="4"/>
-    </row>
-    <row r="1353" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1353" s="4"/>
-      <c r="B1353" s="4"/>
-      <c r="C1353" s="4"/>
-      <c r="D1353" s="4"/>
-      <c r="E1353" s="4"/>
-      <c r="F1353" s="4"/>
-      <c r="G1353" s="4"/>
-    </row>
-    <row r="1354" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1354" s="4"/>
-      <c r="B1354" s="4"/>
-      <c r="C1354" s="4"/>
-      <c r="D1354" s="4"/>
-      <c r="E1354" s="4"/>
-      <c r="F1354" s="4"/>
-      <c r="G1354" s="4"/>
-    </row>
-    <row r="1355" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1355" s="4"/>
-      <c r="B1355" s="4"/>
-      <c r="C1355" s="4"/>
-      <c r="D1355" s="4"/>
-      <c r="E1355" s="4"/>
-      <c r="F1355" s="4"/>
-      <c r="G1355" s="4"/>
-    </row>
-    <row r="1356" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1356" s="4"/>
-      <c r="B1356" s="4"/>
-      <c r="C1356" s="4"/>
-      <c r="D1356" s="4"/>
-      <c r="E1356" s="4"/>
-      <c r="F1356" s="4"/>
-      <c r="G1356" s="4"/>
-    </row>
-    <row r="1357" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1357" s="4"/>
-      <c r="B1357" s="4"/>
-      <c r="C1357" s="4"/>
-      <c r="D1357" s="4"/>
-      <c r="E1357" s="4"/>
-      <c r="F1357" s="4"/>
-      <c r="G1357" s="4"/>
-    </row>
-    <row r="1358" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1358" s="4"/>
-      <c r="B1358" s="4"/>
-      <c r="C1358" s="4"/>
-      <c r="D1358" s="4"/>
-      <c r="E1358" s="4"/>
-      <c r="F1358" s="4"/>
-      <c r="G1358" s="4"/>
-    </row>
-    <row r="1359" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1359" s="4"/>
-      <c r="B1359" s="4"/>
-      <c r="C1359" s="4"/>
-      <c r="D1359" s="4"/>
-      <c r="E1359" s="4"/>
-      <c r="F1359" s="4"/>
-      <c r="G1359" s="4"/>
-    </row>
-    <row r="1360" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1360" s="4"/>
-      <c r="B1360" s="4"/>
-      <c r="C1360" s="4"/>
-      <c r="D1360" s="4"/>
-      <c r="E1360" s="4"/>
-      <c r="F1360" s="4"/>
-      <c r="G1360" s="4"/>
-    </row>
-    <row r="1361" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1361" s="4"/>
-      <c r="B1361" s="4"/>
-      <c r="C1361" s="4"/>
-      <c r="D1361" s="4"/>
-      <c r="E1361" s="4"/>
-      <c r="F1361" s="4"/>
-      <c r="G1361" s="4"/>
-    </row>
-    <row r="1362" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1362" s="4"/>
-      <c r="B1362" s="4"/>
-      <c r="C1362" s="4"/>
-      <c r="D1362" s="4"/>
-      <c r="E1362" s="4"/>
-      <c r="F1362" s="4"/>
-      <c r="G1362" s="4"/>
-    </row>
-    <row r="1363" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1363" s="4"/>
-      <c r="B1363" s="4"/>
-      <c r="C1363" s="4"/>
-      <c r="D1363" s="4"/>
-      <c r="E1363" s="4"/>
-      <c r="F1363" s="4"/>
-      <c r="G1363" s="4"/>
-    </row>
-    <row r="1364" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1364" s="4"/>
-      <c r="B1364" s="4"/>
-      <c r="C1364" s="4"/>
-      <c r="D1364" s="4"/>
-      <c r="E1364" s="4"/>
-      <c r="F1364" s="4"/>
-      <c r="G1364" s="4"/>
-    </row>
-    <row r="1365" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1365" s="4"/>
-      <c r="B1365" s="4"/>
-      <c r="C1365" s="4"/>
-      <c r="D1365" s="4"/>
-      <c r="E1365" s="4"/>
-      <c r="F1365" s="4"/>
-      <c r="G1365" s="4"/>
-    </row>
-    <row r="1366" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1366" s="4"/>
-      <c r="B1366" s="4"/>
-      <c r="C1366" s="4"/>
-      <c r="D1366" s="4"/>
-      <c r="E1366" s="4"/>
-      <c r="F1366" s="4"/>
-      <c r="G1366" s="4"/>
-    </row>
-    <row r="1367" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1367" s="4"/>
-      <c r="B1367" s="4"/>
-      <c r="C1367" s="4"/>
-      <c r="D1367" s="4"/>
-      <c r="E1367" s="4"/>
-      <c r="F1367" s="4"/>
-      <c r="G1367" s="4"/>
-    </row>
-    <row r="1368" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1368" s="4"/>
-      <c r="B1368" s="4"/>
-      <c r="C1368" s="4"/>
-      <c r="D1368" s="4"/>
-      <c r="E1368" s="4"/>
-      <c r="F1368" s="4"/>
-      <c r="G1368" s="4"/>
-    </row>
-    <row r="1369" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1369" s="4"/>
-      <c r="B1369" s="4"/>
-      <c r="C1369" s="4"/>
-      <c r="D1369" s="4"/>
-      <c r="E1369" s="4"/>
-      <c r="F1369" s="4"/>
-      <c r="G1369" s="4"/>
-    </row>
-    <row r="1370" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1370" s="4"/>
-      <c r="B1370" s="4"/>
-      <c r="C1370" s="4"/>
-      <c r="D1370" s="4"/>
-      <c r="E1370" s="4"/>
-      <c r="F1370" s="4"/>
-      <c r="G1370" s="4"/>
-    </row>
-    <row r="1371" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1371" s="4"/>
-      <c r="B1371" s="4"/>
-      <c r="C1371" s="4"/>
-      <c r="D1371" s="4"/>
-      <c r="E1371" s="4"/>
-      <c r="F1371" s="4"/>
-      <c r="G1371" s="4"/>
-    </row>
-    <row r="1372" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1372" s="4"/>
-      <c r="B1372" s="4"/>
-      <c r="C1372" s="4"/>
-      <c r="D1372" s="4"/>
-      <c r="E1372" s="4"/>
-      <c r="F1372" s="4"/>
-      <c r="G1372" s="4"/>
-    </row>
-    <row r="1373" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1373" s="4"/>
-      <c r="B1373" s="4"/>
-      <c r="C1373" s="4"/>
-      <c r="D1373" s="4"/>
-      <c r="E1373" s="4"/>
-      <c r="F1373" s="4"/>
-      <c r="G1373" s="4"/>
-    </row>
-    <row r="1374" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1374" s="4"/>
-      <c r="B1374" s="4"/>
-      <c r="C1374" s="4"/>
-      <c r="D1374" s="4"/>
-      <c r="E1374" s="4"/>
-      <c r="F1374" s="4"/>
-      <c r="G1374" s="4"/>
-    </row>
-    <row r="1375" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1375" s="4"/>
-      <c r="B1375" s="4"/>
-      <c r="C1375" s="4"/>
-      <c r="D1375" s="4"/>
-      <c r="E1375" s="4"/>
-      <c r="F1375" s="4"/>
-      <c r="G1375" s="4"/>
-    </row>
-    <row r="1376" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1376" s="4"/>
-      <c r="B1376" s="4"/>
-      <c r="C1376" s="4"/>
-      <c r="D1376" s="4"/>
-      <c r="E1376" s="4"/>
-      <c r="F1376" s="4"/>
-      <c r="G1376" s="4"/>
-    </row>
-    <row r="1377" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1377" s="4"/>
-      <c r="B1377" s="4"/>
-      <c r="C1377" s="4"/>
-      <c r="D1377" s="4"/>
-      <c r="E1377" s="4"/>
-      <c r="F1377" s="4"/>
-      <c r="G1377" s="4"/>
-    </row>
-    <row r="1378" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1378" s="4"/>
-      <c r="B1378" s="4"/>
-      <c r="C1378" s="4"/>
-      <c r="D1378" s="4"/>
-      <c r="E1378" s="4"/>
-      <c r="F1378" s="4"/>
-      <c r="G1378" s="4"/>
-    </row>
-    <row r="1379" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1379" s="4"/>
-      <c r="B1379" s="4"/>
-      <c r="C1379" s="4"/>
-      <c r="D1379" s="4"/>
-      <c r="E1379" s="4"/>
-      <c r="F1379" s="4"/>
-      <c r="G1379" s="4"/>
-    </row>
-    <row r="1380" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1380" s="4"/>
-      <c r="B1380" s="4"/>
-      <c r="C1380" s="4"/>
-      <c r="D1380" s="4"/>
-      <c r="E1380" s="4"/>
-      <c r="F1380" s="4"/>
-      <c r="G1380" s="4"/>
-    </row>
-    <row r="1381" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1381" s="4"/>
-      <c r="B1381" s="4"/>
-      <c r="C1381" s="4"/>
-      <c r="D1381" s="4"/>
-      <c r="E1381" s="4"/>
-      <c r="F1381" s="4"/>
-      <c r="G1381" s="4"/>
-    </row>
-    <row r="1382" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1382" s="4"/>
-      <c r="B1382" s="4"/>
-      <c r="C1382" s="4"/>
-      <c r="D1382" s="4"/>
-      <c r="E1382" s="4"/>
-      <c r="F1382" s="4"/>
-      <c r="G1382" s="4"/>
-    </row>
-    <row r="1383" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1383" s="4"/>
-      <c r="B1383" s="4"/>
-      <c r="C1383" s="4"/>
-      <c r="D1383" s="4"/>
-      <c r="E1383" s="4"/>
-      <c r="F1383" s="4"/>
-      <c r="G1383" s="4"/>
-    </row>
-    <row r="1384" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1384" s="4"/>
-      <c r="B1384" s="4"/>
-      <c r="C1384" s="4"/>
-      <c r="D1384" s="4"/>
-      <c r="E1384" s="4"/>
-      <c r="F1384" s="4"/>
-      <c r="G1384" s="4"/>
-    </row>
-    <row r="1385" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1385" s="4"/>
-      <c r="B1385" s="4"/>
-      <c r="C1385" s="4"/>
-      <c r="D1385" s="4"/>
-      <c r="E1385" s="4"/>
-      <c r="F1385" s="4"/>
-      <c r="G1385" s="4"/>
-    </row>
-    <row r="1386" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1386" s="4"/>
-      <c r="B1386" s="4"/>
-      <c r="C1386" s="4"/>
-      <c r="D1386" s="4"/>
-      <c r="E1386" s="4"/>
-      <c r="F1386" s="4"/>
-      <c r="G1386" s="4"/>
-    </row>
-    <row r="1387" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1387" s="4"/>
-      <c r="B1387" s="4"/>
-      <c r="C1387" s="4"/>
-      <c r="D1387" s="4"/>
-      <c r="E1387" s="4"/>
-      <c r="F1387" s="4"/>
-      <c r="G1387" s="4"/>
-    </row>
-    <row r="1388" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1388" s="4"/>
-      <c r="B1388" s="4"/>
-      <c r="C1388" s="4"/>
-      <c r="D1388" s="4"/>
-      <c r="E1388" s="4"/>
-      <c r="F1388" s="4"/>
-      <c r="G1388" s="4"/>
-    </row>
-    <row r="1389" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1389" s="4"/>
-      <c r="B1389" s="4"/>
-      <c r="C1389" s="4"/>
-      <c r="D1389" s="4"/>
-      <c r="E1389" s="4"/>
-      <c r="F1389" s="4"/>
-      <c r="G1389" s="4"/>
-    </row>
-    <row r="1390" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1390" s="4"/>
-      <c r="B1390" s="4"/>
-      <c r="C1390" s="4"/>
-      <c r="D1390" s="4"/>
-      <c r="E1390" s="4"/>
-      <c r="F1390" s="4"/>
-      <c r="G1390" s="4"/>
-    </row>
-    <row r="1391" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1391" s="4"/>
-      <c r="B1391" s="4"/>
-      <c r="C1391" s="4"/>
-      <c r="D1391" s="4"/>
-      <c r="E1391" s="4"/>
-      <c r="F1391" s="4"/>
-      <c r="G1391" s="4"/>
-    </row>
-    <row r="1392" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1392" s="4"/>
-      <c r="B1392" s="4"/>
-      <c r="C1392" s="4"/>
-      <c r="D1392" s="4"/>
-      <c r="E1392" s="4"/>
-      <c r="F1392" s="4"/>
-      <c r="G1392" s="4"/>
-    </row>
-    <row r="1393" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1393" s="4"/>
-      <c r="B1393" s="4"/>
-      <c r="C1393" s="4"/>
-      <c r="D1393" s="4"/>
-      <c r="E1393" s="4"/>
-      <c r="F1393" s="4"/>
-      <c r="G1393" s="4"/>
-    </row>
-    <row r="1394" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1394" s="4"/>
-      <c r="B1394" s="4"/>
-      <c r="C1394" s="4"/>
-      <c r="D1394" s="4"/>
-      <c r="E1394" s="4"/>
-      <c r="F1394" s="4"/>
-      <c r="G1394" s="4"/>
-    </row>
-    <row r="1395" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1395" s="4"/>
-      <c r="B1395" s="4"/>
-      <c r="C1395" s="4"/>
-      <c r="D1395" s="4"/>
-      <c r="E1395" s="4"/>
-      <c r="F1395" s="4"/>
-      <c r="G1395" s="4"/>
-    </row>
-    <row r="1396" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1396" s="4"/>
-      <c r="B1396" s="4"/>
-      <c r="C1396" s="4"/>
-      <c r="D1396" s="4"/>
-      <c r="E1396" s="4"/>
-      <c r="F1396" s="4"/>
-      <c r="G1396" s="4"/>
-    </row>
-    <row r="1397" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1397" s="4"/>
-      <c r="B1397" s="4"/>
-      <c r="C1397" s="4"/>
-      <c r="D1397" s="4"/>
-      <c r="E1397" s="4"/>
-      <c r="F1397" s="4"/>
-      <c r="G1397" s="4"/>
-    </row>
-    <row r="1398" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1398" s="4"/>
-      <c r="B1398" s="4"/>
-      <c r="C1398" s="4"/>
-      <c r="D1398" s="4"/>
-      <c r="E1398" s="4"/>
-      <c r="F1398" s="4"/>
-      <c r="G1398" s="4"/>
-    </row>
-    <row r="1399" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1399" s="4"/>
-      <c r="B1399" s="4"/>
-      <c r="C1399" s="4"/>
-      <c r="D1399" s="4"/>
-      <c r="E1399" s="4"/>
-      <c r="F1399" s="4"/>
-      <c r="G1399" s="4"/>
-    </row>
-    <row r="1400" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1400" s="4"/>
-      <c r="B1400" s="4"/>
-      <c r="C1400" s="4"/>
-      <c r="D1400" s="4"/>
-      <c r="E1400" s="4"/>
-      <c r="F1400" s="4"/>
-      <c r="G1400" s="4"/>
-    </row>
-    <row r="1401" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1401" s="4"/>
-      <c r="B1401" s="4"/>
-      <c r="C1401" s="4"/>
-      <c r="D1401" s="4"/>
-      <c r="E1401" s="4"/>
-      <c r="F1401" s="4"/>
-      <c r="G1401" s="4"/>
-    </row>
-    <row r="1402" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1402" s="4"/>
-      <c r="B1402" s="4"/>
-      <c r="C1402" s="4"/>
-      <c r="D1402" s="4"/>
-      <c r="E1402" s="4"/>
-      <c r="F1402" s="4"/>
-      <c r="G1402" s="4"/>
-    </row>
-    <row r="1403" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1403" s="4"/>
-      <c r="B1403" s="4"/>
-      <c r="C1403" s="4"/>
-      <c r="D1403" s="4"/>
-      <c r="E1403" s="4"/>
-      <c r="F1403" s="4"/>
-      <c r="G1403" s="4"/>
-    </row>
-    <row r="1404" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1404" s="4"/>
-      <c r="B1404" s="4"/>
-      <c r="C1404" s="4"/>
-      <c r="D1404" s="4"/>
-      <c r="E1404" s="4"/>
-      <c r="F1404" s="4"/>
-      <c r="G1404" s="4"/>
-    </row>
-    <row r="1405" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1405" s="4"/>
-      <c r="B1405" s="4"/>
-      <c r="C1405" s="4"/>
-      <c r="D1405" s="4"/>
-      <c r="E1405" s="4"/>
-      <c r="F1405" s="4"/>
-      <c r="G1405" s="4"/>
-    </row>
-    <row r="1406" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1406" s="4"/>
-      <c r="B1406" s="4"/>
-      <c r="C1406" s="4"/>
-      <c r="D1406" s="4"/>
-      <c r="E1406" s="4"/>
-      <c r="F1406" s="4"/>
-      <c r="G1406" s="4"/>
-    </row>
-    <row r="1407" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1407" s="4"/>
-      <c r="B1407" s="4"/>
-      <c r="C1407" s="4"/>
-      <c r="D1407" s="4"/>
-      <c r="E1407" s="4"/>
-      <c r="F1407" s="4"/>
-      <c r="G1407" s="4"/>
-    </row>
-    <row r="1408" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1408" s="4"/>
-      <c r="B1408" s="4"/>
-      <c r="C1408" s="4"/>
-      <c r="D1408" s="4"/>
-      <c r="E1408" s="4"/>
-      <c r="F1408" s="4"/>
-      <c r="G1408" s="4"/>
-    </row>
-    <row r="1409" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1409" s="4"/>
-      <c r="B1409" s="4"/>
-      <c r="C1409" s="4"/>
-      <c r="D1409" s="4"/>
-      <c r="E1409" s="4"/>
-      <c r="F1409" s="4"/>
-      <c r="G1409" s="4"/>
-    </row>
-    <row r="1410" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1410" s="4"/>
-      <c r="B1410" s="4"/>
-      <c r="C1410" s="4"/>
-      <c r="D1410" s="4"/>
-      <c r="E1410" s="4"/>
-      <c r="F1410" s="4"/>
-      <c r="G1410" s="4"/>
-    </row>
-    <row r="1411" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1411" s="4"/>
-      <c r="B1411" s="4"/>
-      <c r="C1411" s="4"/>
-      <c r="D1411" s="4"/>
-      <c r="E1411" s="4"/>
-      <c r="F1411" s="4"/>
-      <c r="G1411" s="4"/>
-    </row>
-    <row r="1412" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1412" s="4"/>
-      <c r="B1412" s="4"/>
-      <c r="C1412" s="4"/>
-      <c r="D1412" s="4"/>
-      <c r="E1412" s="4"/>
-      <c r="F1412" s="4"/>
-      <c r="G1412" s="4"/>
-    </row>
-    <row r="1413" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1413" s="4"/>
-      <c r="B1413" s="4"/>
-      <c r="C1413" s="4"/>
-      <c r="D1413" s="4"/>
-      <c r="E1413" s="4"/>
-      <c r="F1413" s="4"/>
-      <c r="G1413" s="4"/>
-    </row>
-    <row r="1414" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1414" s="4"/>
-      <c r="B1414" s="4"/>
-      <c r="C1414" s="4"/>
-      <c r="D1414" s="4"/>
-      <c r="E1414" s="4"/>
-      <c r="F1414" s="4"/>
-      <c r="G1414" s="4"/>
-    </row>
-    <row r="1415" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1415" s="4"/>
-      <c r="B1415" s="4"/>
-      <c r="C1415" s="4"/>
-      <c r="D1415" s="4"/>
-      <c r="E1415" s="4"/>
-      <c r="F1415" s="4"/>
-      <c r="G1415" s="4"/>
-    </row>
-    <row r="1416" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1416" s="4"/>
-      <c r="B1416" s="4"/>
-      <c r="C1416" s="4"/>
-      <c r="D1416" s="4"/>
-      <c r="E1416" s="4"/>
-      <c r="F1416" s="4"/>
-      <c r="G1416" s="4"/>
-    </row>
-    <row r="1417" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1417" s="4"/>
-      <c r="B1417" s="4"/>
-      <c r="C1417" s="4"/>
-      <c r="D1417" s="4"/>
-      <c r="E1417" s="4"/>
-      <c r="F1417" s="4"/>
-      <c r="G1417" s="4"/>
-    </row>
-    <row r="1418" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1418" s="4"/>
-      <c r="B1418" s="4"/>
-      <c r="C1418" s="4"/>
-      <c r="D1418" s="4"/>
-      <c r="E1418" s="4"/>
-      <c r="F1418" s="4"/>
-      <c r="G1418" s="4"/>
-    </row>
-    <row r="1419" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1419" s="4"/>
-      <c r="B1419" s="4"/>
-      <c r="C1419" s="4"/>
-      <c r="D1419" s="4"/>
-      <c r="E1419" s="4"/>
-      <c r="F1419" s="4"/>
-      <c r="G1419" s="4"/>
-    </row>
-    <row r="1420" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1420" s="4"/>
-      <c r="B1420" s="4"/>
-      <c r="C1420" s="4"/>
-      <c r="D1420" s="4"/>
-      <c r="E1420" s="4"/>
-      <c r="F1420" s="4"/>
-      <c r="G1420" s="4"/>
-    </row>
-    <row r="1421" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1421" s="4"/>
-      <c r="B1421" s="4"/>
-      <c r="C1421" s="4"/>
-      <c r="D1421" s="4"/>
-      <c r="E1421" s="4"/>
-      <c r="F1421" s="4"/>
-      <c r="G1421" s="4"/>
-    </row>
-    <row r="1422" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1422" s="4"/>
-      <c r="B1422" s="4"/>
-      <c r="C1422" s="4"/>
-      <c r="D1422" s="4"/>
-      <c r="E1422" s="4"/>
-      <c r="F1422" s="4"/>
-      <c r="G1422" s="4"/>
-    </row>
-    <row r="1423" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1423" s="4"/>
-      <c r="B1423" s="4"/>
-      <c r="C1423" s="4"/>
-      <c r="D1423" s="4"/>
-      <c r="E1423" s="4"/>
-      <c r="F1423" s="4"/>
-      <c r="G1423" s="4"/>
-    </row>
-    <row r="1424" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1424" s="4"/>
-      <c r="B1424" s="4"/>
-      <c r="C1424" s="4"/>
-      <c r="D1424" s="4"/>
-      <c r="E1424" s="4"/>
-      <c r="F1424" s="4"/>
-      <c r="G1424" s="4"/>
-    </row>
-    <row r="1425" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1425" s="4"/>
-      <c r="B1425" s="4"/>
-      <c r="C1425" s="4"/>
-      <c r="D1425" s="4"/>
-      <c r="E1425" s="4"/>
-      <c r="F1425" s="4"/>
-      <c r="G1425" s="4"/>
-    </row>
-    <row r="1426" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1426" s="4"/>
-      <c r="B1426" s="4"/>
-      <c r="C1426" s="4"/>
-      <c r="D1426" s="4"/>
-      <c r="E1426" s="4"/>
-      <c r="F1426" s="4"/>
-      <c r="G1426" s="4"/>
-    </row>
-    <row r="1427" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1427" s="4"/>
-      <c r="B1427" s="4"/>
-      <c r="C1427" s="4"/>
-      <c r="D1427" s="4"/>
-      <c r="E1427" s="4"/>
-      <c r="F1427" s="4"/>
-      <c r="G1427" s="4"/>
-    </row>
-    <row r="1428" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1428" s="4"/>
-      <c r="B1428" s="4"/>
-      <c r="C1428" s="4"/>
-      <c r="D1428" s="4"/>
-      <c r="E1428" s="4"/>
-      <c r="F1428" s="4"/>
-      <c r="G1428" s="4"/>
-    </row>
-    <row r="1429" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1429" s="4"/>
-      <c r="B1429" s="4"/>
-      <c r="C1429" s="4"/>
-      <c r="D1429" s="4"/>
-      <c r="E1429" s="4"/>
-      <c r="F1429" s="4"/>
-      <c r="G1429" s="4"/>
-    </row>
-    <row r="1430" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1430" s="4"/>
-      <c r="B1430" s="4"/>
-      <c r="C1430" s="4"/>
-      <c r="D1430" s="4"/>
-      <c r="E1430" s="4"/>
-      <c r="F1430" s="4"/>
-      <c r="G1430" s="4"/>
-    </row>
-    <row r="1431" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1431" s="4"/>
-      <c r="B1431" s="4"/>
-      <c r="C1431" s="4"/>
-      <c r="D1431" s="4"/>
-      <c r="E1431" s="4"/>
-      <c r="F1431" s="4"/>
-      <c r="G1431" s="4"/>
-    </row>
-    <row r="1432" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1432" s="4"/>
-      <c r="B1432" s="4"/>
-      <c r="C1432" s="4"/>
-      <c r="D1432" s="4"/>
-      <c r="E1432" s="4"/>
-      <c r="F1432" s="4"/>
-      <c r="G1432" s="4"/>
-    </row>
-    <row r="1433" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1433" s="4"/>
-      <c r="B1433" s="4"/>
-      <c r="C1433" s="4"/>
-      <c r="D1433" s="4"/>
-      <c r="E1433" s="4"/>
-      <c r="F1433" s="4"/>
-      <c r="G1433" s="4"/>
-    </row>
-    <row r="1434" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1434" s="4"/>
-      <c r="B1434" s="4"/>
-      <c r="C1434" s="4"/>
-      <c r="D1434" s="4"/>
-      <c r="E1434" s="4"/>
-      <c r="F1434" s="4"/>
-      <c r="G1434" s="4"/>
-    </row>
-    <row r="1435" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1435" s="4"/>
-      <c r="B1435" s="4"/>
-      <c r="C1435" s="4"/>
-      <c r="D1435" s="4"/>
-      <c r="E1435" s="4"/>
-      <c r="F1435" s="4"/>
-      <c r="G1435" s="4"/>
-    </row>
-    <row r="1436" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1436" s="4"/>
-      <c r="B1436" s="4"/>
-      <c r="C1436" s="4"/>
-      <c r="D1436" s="4"/>
-      <c r="E1436" s="4"/>
-      <c r="F1436" s="4"/>
-      <c r="G1436" s="4"/>
-    </row>
-    <row r="1437" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1437" s="4"/>
-      <c r="B1437" s="4"/>
-      <c r="C1437" s="4"/>
-      <c r="D1437" s="4"/>
-      <c r="E1437" s="4"/>
-      <c r="F1437" s="4"/>
-      <c r="G1437" s="4"/>
-    </row>
-    <row r="1438" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1438" s="4"/>
-      <c r="B1438" s="4"/>
-      <c r="C1438" s="4"/>
-      <c r="D1438" s="4"/>
-      <c r="E1438" s="4"/>
-      <c r="F1438" s="4"/>
-      <c r="G1438" s="4"/>
-    </row>
-    <row r="1439" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1439" s="4"/>
-      <c r="B1439" s="4"/>
-      <c r="C1439" s="4"/>
-      <c r="D1439" s="4"/>
-      <c r="E1439" s="4"/>
-      <c r="F1439" s="4"/>
-      <c r="G1439" s="4"/>
-    </row>
-    <row r="1440" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1440" s="4"/>
-      <c r="B1440" s="4"/>
-      <c r="C1440" s="4"/>
-      <c r="D1440" s="4"/>
-      <c r="E1440" s="4"/>
-      <c r="F1440" s="4"/>
-      <c r="G1440" s="4"/>
-    </row>
-    <row r="1441" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1441" s="4"/>
-      <c r="B1441" s="4"/>
-      <c r="C1441" s="4"/>
-      <c r="D1441" s="4"/>
-      <c r="E1441" s="4"/>
-      <c r="F1441" s="4"/>
-      <c r="G1441" s="4"/>
-    </row>
-    <row r="1442" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1442" s="4"/>
-      <c r="B1442" s="4"/>
-      <c r="C1442" s="4"/>
-      <c r="D1442" s="4"/>
-      <c r="E1442" s="4"/>
-      <c r="F1442" s="4"/>
-      <c r="G1442" s="4"/>
-    </row>
-    <row r="1443" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1443" s="4"/>
-      <c r="B1443" s="4"/>
-      <c r="C1443" s="4"/>
-      <c r="D1443" s="4"/>
-      <c r="E1443" s="4"/>
-      <c r="F1443" s="4"/>
-      <c r="G1443" s="4"/>
-    </row>
-    <row r="1444" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1444" s="4"/>
-      <c r="B1444" s="4"/>
-      <c r="C1444" s="4"/>
-      <c r="D1444" s="4"/>
-      <c r="E1444" s="4"/>
-      <c r="F1444" s="4"/>
-      <c r="G1444" s="4"/>
-    </row>
-    <row r="1445" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1445" s="4"/>
-      <c r="B1445" s="4"/>
-      <c r="C1445" s="4"/>
-      <c r="D1445" s="4"/>
-      <c r="E1445" s="4"/>
-      <c r="F1445" s="4"/>
-      <c r="G1445" s="4"/>
-    </row>
-    <row r="1446" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1446" s="4"/>
-      <c r="B1446" s="4"/>
-      <c r="C1446" s="4"/>
-      <c r="D1446" s="4"/>
-      <c r="E1446" s="4"/>
-      <c r="F1446" s="4"/>
-      <c r="G1446" s="4"/>
-    </row>
-    <row r="1447" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1447" s="4"/>
-      <c r="B1447" s="4"/>
-      <c r="C1447" s="4"/>
-      <c r="D1447" s="4"/>
-      <c r="E1447" s="4"/>
-      <c r="F1447" s="4"/>
-      <c r="G1447" s="4"/>
-    </row>
-    <row r="1448" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1448" s="4"/>
-      <c r="B1448" s="4"/>
-      <c r="C1448" s="4"/>
-      <c r="D1448" s="4"/>
-      <c r="E1448" s="4"/>
-      <c r="F1448" s="4"/>
-      <c r="G1448" s="4"/>
-    </row>
-    <row r="1449" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1449" s="4"/>
-      <c r="B1449" s="4"/>
-      <c r="C1449" s="4"/>
-      <c r="D1449" s="4"/>
-      <c r="E1449" s="4"/>
-      <c r="F1449" s="4"/>
-      <c r="G1449" s="4"/>
-    </row>
-    <row r="1450" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1450" s="4"/>
-      <c r="B1450" s="4"/>
-      <c r="C1450" s="4"/>
-      <c r="D1450" s="4"/>
-      <c r="E1450" s="4"/>
-      <c r="F1450" s="4"/>
-      <c r="G1450" s="4"/>
-    </row>
-    <row r="1451" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1451" s="4"/>
-      <c r="B1451" s="4"/>
-      <c r="C1451" s="4"/>
-      <c r="D1451" s="4"/>
-      <c r="E1451" s="4"/>
-      <c r="F1451" s="4"/>
-      <c r="G1451" s="4"/>
-    </row>
-    <row r="1452" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1452" s="4"/>
-      <c r="B1452" s="4"/>
-      <c r="C1452" s="4"/>
-      <c r="D1452" s="4"/>
-      <c r="E1452" s="4"/>
-      <c r="F1452" s="4"/>
-      <c r="G1452" s="4"/>
-    </row>
-    <row r="1453" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1453" s="4"/>
-      <c r="B1453" s="4"/>
-      <c r="C1453" s="4"/>
-      <c r="D1453" s="4"/>
-      <c r="E1453" s="4"/>
-      <c r="F1453" s="4"/>
-      <c r="G1453" s="4"/>
-    </row>
-    <row r="1454" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1454" s="4"/>
-      <c r="B1454" s="4"/>
-      <c r="C1454" s="4"/>
-      <c r="D1454" s="4"/>
-      <c r="E1454" s="4"/>
-      <c r="F1454" s="4"/>
-      <c r="G1454" s="4"/>
-    </row>
-    <row r="1455" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1455" s="4"/>
-      <c r="B1455" s="4"/>
-      <c r="C1455" s="4"/>
-      <c r="D1455" s="4"/>
-      <c r="E1455" s="4"/>
-      <c r="F1455" s="4"/>
-      <c r="G1455" s="4"/>
-    </row>
-    <row r="1456" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1456" s="4"/>
-      <c r="B1456" s="4"/>
-      <c r="C1456" s="4"/>
-      <c r="D1456" s="4"/>
-      <c r="E1456" s="4"/>
-      <c r="F1456" s="4"/>
-      <c r="G1456" s="4"/>
-    </row>
-    <row r="1457" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1457" s="4"/>
-      <c r="B1457" s="4"/>
-      <c r="C1457" s="4"/>
-      <c r="D1457" s="4"/>
-      <c r="E1457" s="4"/>
-      <c r="F1457" s="4"/>
-      <c r="G1457" s="4"/>
-    </row>
-    <row r="1458" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1458" s="4"/>
-      <c r="B1458" s="4"/>
-      <c r="C1458" s="4"/>
-      <c r="D1458" s="4"/>
-      <c r="E1458" s="4"/>
-      <c r="F1458" s="4"/>
-      <c r="G1458" s="4"/>
-    </row>
-    <row r="1459" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1459" s="4"/>
-      <c r="B1459" s="4"/>
-      <c r="C1459" s="4"/>
-      <c r="D1459" s="4"/>
-      <c r="E1459" s="4"/>
-      <c r="F1459" s="4"/>
-      <c r="G1459" s="4"/>
-    </row>
-    <row r="1460" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1460" s="4"/>
-      <c r="B1460" s="4"/>
-      <c r="C1460" s="4"/>
-      <c r="D1460" s="4"/>
-      <c r="E1460" s="4"/>
-      <c r="F1460" s="4"/>
-      <c r="G1460" s="4"/>
-    </row>
-    <row r="1461" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1461" s="4"/>
-      <c r="B1461" s="4"/>
-      <c r="C1461" s="4"/>
-      <c r="D1461" s="4"/>
-      <c r="E1461" s="4"/>
-      <c r="F1461" s="4"/>
-      <c r="G1461" s="4"/>
-    </row>
-    <row r="1462" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1462" s="4"/>
-      <c r="B1462" s="4"/>
-      <c r="C1462" s="4"/>
-      <c r="D1462" s="4"/>
-      <c r="E1462" s="4"/>
-      <c r="F1462" s="4"/>
-      <c r="G1462" s="4"/>
-    </row>
-    <row r="1463" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1463" s="4"/>
-      <c r="B1463" s="4"/>
-      <c r="C1463" s="4"/>
-      <c r="D1463" s="4"/>
-      <c r="E1463" s="4"/>
-      <c r="F1463" s="4"/>
-      <c r="G1463" s="4"/>
-    </row>
-    <row r="1464" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1464" s="4"/>
-      <c r="B1464" s="4"/>
-      <c r="C1464" s="4"/>
-      <c r="D1464" s="4"/>
-      <c r="E1464" s="4"/>
-      <c r="F1464" s="4"/>
-      <c r="G1464" s="4"/>
-    </row>
-    <row r="1465" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1465" s="4"/>
-      <c r="B1465" s="4"/>
-      <c r="C1465" s="4"/>
-      <c r="D1465" s="4"/>
-      <c r="E1465" s="4"/>
-      <c r="F1465" s="4"/>
-      <c r="G1465" s="4"/>
-    </row>
-    <row r="1466" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1466" s="4"/>
-      <c r="B1466" s="4"/>
-      <c r="C1466" s="4"/>
-      <c r="D1466" s="4"/>
-      <c r="E1466" s="4"/>
-      <c r="F1466" s="4"/>
-      <c r="G1466" s="4"/>
-    </row>
-    <row r="1467" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1467" s="4"/>
-      <c r="B1467" s="4"/>
-      <c r="C1467" s="4"/>
-      <c r="D1467" s="4"/>
-      <c r="E1467" s="4"/>
-      <c r="F1467" s="4"/>
-      <c r="G1467" s="4"/>
-    </row>
-    <row r="1468" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1468" s="4"/>
-      <c r="B1468" s="4"/>
-      <c r="C1468" s="4"/>
-      <c r="D1468" s="4"/>
-      <c r="E1468" s="4"/>
-      <c r="F1468" s="4"/>
-      <c r="G1468" s="4"/>
-    </row>
-    <row r="1469" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1469" s="4"/>
-      <c r="B1469" s="4"/>
-      <c r="C1469" s="4"/>
-      <c r="D1469" s="4"/>
-      <c r="E1469" s="4"/>
-      <c r="F1469" s="4"/>
-      <c r="G1469" s="4"/>
-    </row>
-    <row r="1470" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1470" s="4"/>
-      <c r="B1470" s="4"/>
-      <c r="C1470" s="4"/>
-      <c r="D1470" s="4"/>
-      <c r="E1470" s="4"/>
-      <c r="F1470" s="4"/>
-      <c r="G1470" s="4"/>
-    </row>
-    <row r="1471" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1471" s="4"/>
-      <c r="B1471" s="4"/>
-      <c r="C1471" s="4"/>
-      <c r="D1471" s="4"/>
-      <c r="E1471" s="4"/>
-      <c r="F1471" s="4"/>
-      <c r="G1471" s="4"/>
-    </row>
-    <row r="1472" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1472" s="4"/>
-      <c r="B1472" s="4"/>
-      <c r="C1472" s="4"/>
-      <c r="D1472" s="4"/>
-      <c r="E1472" s="4"/>
-      <c r="F1472" s="4"/>
-      <c r="G1472" s="4"/>
-    </row>
-    <row r="1473" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1473" s="4"/>
-      <c r="B1473" s="4"/>
-      <c r="C1473" s="4"/>
-      <c r="D1473" s="4"/>
-      <c r="E1473" s="4"/>
-      <c r="F1473" s="4"/>
-      <c r="G1473" s="4"/>
-    </row>
-    <row r="1474" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1474" s="4"/>
-      <c r="B1474" s="4"/>
-      <c r="C1474" s="4"/>
-      <c r="D1474" s="4"/>
-      <c r="E1474" s="4"/>
-      <c r="F1474" s="4"/>
-      <c r="G1474" s="4"/>
-    </row>
-    <row r="1475" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1475" s="4"/>
-      <c r="B1475" s="4"/>
-      <c r="C1475" s="4"/>
-      <c r="D1475" s="4"/>
-      <c r="E1475" s="4"/>
-      <c r="F1475" s="4"/>
-      <c r="G1475" s="4"/>
-    </row>
-    <row r="1476" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1476" s="4"/>
-      <c r="B1476" s="4"/>
-      <c r="C1476" s="4"/>
-      <c r="D1476" s="4"/>
-      <c r="E1476" s="4"/>
-      <c r="F1476" s="4"/>
-      <c r="G1476" s="4"/>
-    </row>
-    <row r="1477" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1477" s="4"/>
-      <c r="B1477" s="4"/>
-      <c r="C1477" s="4"/>
-      <c r="D1477" s="4"/>
-      <c r="E1477" s="4"/>
-      <c r="F1477" s="4"/>
-      <c r="G1477" s="4"/>
-    </row>
-    <row r="1478" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1478" s="4"/>
-      <c r="B1478" s="4"/>
-      <c r="C1478" s="4"/>
-      <c r="D1478" s="4"/>
-      <c r="E1478" s="4"/>
-      <c r="F1478" s="4"/>
-      <c r="G1478" s="4"/>
-    </row>
-    <row r="1479" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1479" s="4"/>
-      <c r="B1479" s="4"/>
-      <c r="C1479" s="4"/>
-      <c r="D1479" s="4"/>
-      <c r="E1479" s="4"/>
-      <c r="F1479" s="4"/>
-      <c r="G1479" s="4"/>
-    </row>
-    <row r="1480" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1480" s="4"/>
-      <c r="B1480" s="4"/>
-      <c r="C1480" s="4"/>
-      <c r="D1480" s="4"/>
-      <c r="E1480" s="4"/>
-      <c r="F1480" s="4"/>
-      <c r="G1480" s="4"/>
-    </row>
-    <row r="1481" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1481" s="4"/>
-      <c r="B1481" s="4"/>
-      <c r="C1481" s="4"/>
-      <c r="D1481" s="4"/>
-      <c r="E1481" s="4"/>
-      <c r="F1481" s="4"/>
-      <c r="G1481" s="4"/>
-    </row>
-    <row r="1482" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1482" s="4"/>
-      <c r="B1482" s="4"/>
-      <c r="C1482" s="4"/>
-      <c r="D1482" s="4"/>
-      <c r="E1482" s="4"/>
-      <c r="F1482" s="4"/>
-      <c r="G1482" s="4"/>
-    </row>
-    <row r="1483" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1483" s="4"/>
-      <c r="B1483" s="4"/>
-      <c r="C1483" s="4"/>
-      <c r="D1483" s="4"/>
-      <c r="E1483" s="4"/>
-      <c r="F1483" s="4"/>
-      <c r="G1483" s="4"/>
-    </row>
-    <row r="1484" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1484" s="4"/>
-      <c r="B1484" s="4"/>
-      <c r="C1484" s="4"/>
-      <c r="D1484" s="4"/>
-      <c r="E1484" s="4"/>
-      <c r="F1484" s="4"/>
-      <c r="G1484" s="4"/>
-    </row>
-    <row r="1485" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1485" s="4"/>
-      <c r="B1485" s="4"/>
-      <c r="C1485" s="4"/>
-      <c r="D1485" s="4"/>
-      <c r="E1485" s="4"/>
-      <c r="F1485" s="4"/>
-      <c r="G1485" s="4"/>
-    </row>
-    <row r="1486" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1486" s="4"/>
-      <c r="B1486" s="4"/>
-      <c r="C1486" s="4"/>
-      <c r="D1486" s="4"/>
-      <c r="E1486" s="4"/>
-      <c r="F1486" s="4"/>
-      <c r="G1486" s="4"/>
-    </row>
-    <row r="1487" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1487" s="4"/>
-      <c r="B1487" s="4"/>
-      <c r="C1487" s="4"/>
-      <c r="D1487" s="4"/>
-      <c r="E1487" s="4"/>
-      <c r="F1487" s="4"/>
-      <c r="G1487" s="4"/>
-    </row>
-    <row r="1488" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1488" s="4"/>
-      <c r="B1488" s="4"/>
-      <c r="C1488" s="4"/>
-      <c r="D1488" s="4"/>
-      <c r="E1488" s="4"/>
-      <c r="F1488" s="4"/>
-      <c r="G1488" s="4"/>
-    </row>
-    <row r="1489" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1489" s="4"/>
-      <c r="B1489" s="4"/>
-      <c r="C1489" s="4"/>
-      <c r="D1489" s="4"/>
-      <c r="E1489" s="4"/>
-      <c r="F1489" s="4"/>
-      <c r="G1489" s="4"/>
-    </row>
-    <row r="1490" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1490" s="4"/>
-      <c r="B1490" s="4"/>
-      <c r="C1490" s="4"/>
-      <c r="D1490" s="4"/>
-      <c r="E1490" s="4"/>
-      <c r="F1490" s="4"/>
-      <c r="G1490" s="4"/>
-    </row>
-    <row r="1491" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1491" s="4"/>
-      <c r="B1491" s="4"/>
-      <c r="C1491" s="4"/>
-      <c r="D1491" s="4"/>
-      <c r="E1491" s="4"/>
-      <c r="F1491" s="4"/>
-      <c r="G1491" s="4"/>
-    </row>
-    <row r="1492" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1492" s="4"/>
-      <c r="B1492" s="4"/>
-      <c r="C1492" s="4"/>
-      <c r="D1492" s="4"/>
-      <c r="E1492" s="4"/>
-      <c r="F1492" s="4"/>
-      <c r="G1492" s="4"/>
-    </row>
-    <row r="1493" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1493" s="4"/>
-      <c r="B1493" s="4"/>
-      <c r="C1493" s="4"/>
-      <c r="D1493" s="4"/>
-      <c r="E1493" s="4"/>
-      <c r="F1493" s="4"/>
-      <c r="G1493" s="4"/>
-    </row>
-    <row r="1494" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1494" s="4"/>
-      <c r="B1494" s="4"/>
-      <c r="C1494" s="4"/>
-      <c r="D1494" s="4"/>
-      <c r="E1494" s="4"/>
-      <c r="F1494" s="4"/>
-      <c r="G1494" s="4"/>
-    </row>
-    <row r="1495" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1495" s="4"/>
-      <c r="B1495" s="4"/>
-      <c r="C1495" s="4"/>
-      <c r="D1495" s="4"/>
-      <c r="E1495" s="4"/>
-      <c r="F1495" s="4"/>
-      <c r="G1495" s="4"/>
-    </row>
-    <row r="1496" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1496" s="4"/>
-      <c r="B1496" s="4"/>
-      <c r="C1496" s="4"/>
-      <c r="D1496" s="4"/>
-      <c r="E1496" s="4"/>
-      <c r="F1496" s="4"/>
-      <c r="G1496" s="4"/>
-    </row>
-    <row r="1497" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1497" s="4"/>
-      <c r="B1497" s="4"/>
-      <c r="C1497" s="4"/>
-      <c r="D1497" s="4"/>
-      <c r="E1497" s="4"/>
-      <c r="F1497" s="4"/>
-      <c r="G1497" s="4"/>
-    </row>
-    <row r="1498" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1498" s="4"/>
-      <c r="B1498" s="4"/>
-      <c r="C1498" s="4"/>
-      <c r="D1498" s="4"/>
-      <c r="E1498" s="4"/>
-      <c r="F1498" s="4"/>
-      <c r="G1498" s="4"/>
-    </row>
-    <row r="1499" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1499" s="4"/>
-      <c r="B1499" s="4"/>
-      <c r="C1499" s="4"/>
-      <c r="D1499" s="4"/>
-      <c r="E1499" s="4"/>
-      <c r="F1499" s="4"/>
-      <c r="G1499" s="4"/>
-    </row>
-    <row r="1500" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1500" s="4"/>
-      <c r="B1500" s="4"/>
-      <c r="C1500" s="4"/>
-      <c r="D1500" s="4"/>
-      <c r="E1500" s="4"/>
-      <c r="F1500" s="4"/>
-      <c r="G1500" s="4"/>
-    </row>
-    <row r="1501" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1501" s="4"/>
-      <c r="B1501" s="4"/>
-      <c r="C1501" s="4"/>
-      <c r="D1501" s="4"/>
-      <c r="E1501" s="4"/>
-      <c r="F1501" s="4"/>
-      <c r="G1501" s="4"/>
-    </row>
-    <row r="1502" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1502" s="4"/>
-      <c r="B1502" s="4"/>
-      <c r="C1502" s="4"/>
-      <c r="D1502" s="4"/>
-      <c r="E1502" s="4"/>
-      <c r="F1502" s="4"/>
-      <c r="G1502" s="4"/>
-    </row>
-    <row r="1503" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1503" s="4"/>
-      <c r="B1503" s="4"/>
-      <c r="C1503" s="4"/>
-      <c r="D1503" s="4"/>
-      <c r="E1503" s="4"/>
-      <c r="F1503" s="4"/>
-      <c r="G1503" s="4"/>
-    </row>
-    <row r="1504" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1504" s="4"/>
-      <c r="B1504" s="4"/>
-      <c r="C1504" s="4"/>
-      <c r="D1504" s="4"/>
-      <c r="E1504" s="4"/>
-      <c r="F1504" s="4"/>
-      <c r="G1504" s="4"/>
-    </row>
-    <row r="1505" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1505" s="4"/>
-      <c r="B1505" s="4"/>
-      <c r="C1505" s="4"/>
-      <c r="D1505" s="4"/>
-      <c r="E1505" s="4"/>
-      <c r="F1505" s="4"/>
-      <c r="G1505" s="4"/>
-    </row>
-    <row r="1506" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1506" s="4"/>
-      <c r="B1506" s="4"/>
-      <c r="C1506" s="4"/>
-      <c r="D1506" s="4"/>
-      <c r="E1506" s="4"/>
-      <c r="F1506" s="4"/>
-      <c r="G1506" s="4"/>
-    </row>
-    <row r="1507" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1507" s="4"/>
-      <c r="B1507" s="4"/>
-      <c r="C1507" s="4"/>
-      <c r="D1507" s="4"/>
-      <c r="E1507" s="4"/>
-      <c r="F1507" s="4"/>
-      <c r="G1507" s="4"/>
-    </row>
-    <row r="1508" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1508" s="4"/>
-      <c r="B1508" s="4"/>
-      <c r="C1508" s="4"/>
-      <c r="D1508" s="4"/>
-      <c r="E1508" s="4"/>
-      <c r="F1508" s="4"/>
-      <c r="G1508" s="4"/>
+      <c r="B547" s="59"/>
+      <c r="C547" s="59"/>
+      <c r="D547" s="59"/>
+      <c r="E547" s="59"/>
+      <c r="F547" s="59"/>
+      <c r="G547" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -22519,11 +13904,6 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -3571,6 +3571,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3594,21 +3609,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3892,8 +3892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A520" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3906,103 +3906,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4014,15 +4014,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5045,12 +5045,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -13796,24 +13796,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="24" t="s">
+      <c r="A540" s="39" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="25"/>
-      <c r="C540" s="25"/>
-      <c r="D540" s="25"/>
-      <c r="E540" s="26"/>
+      <c r="B540" s="40"/>
+      <c r="C540" s="40"/>
+      <c r="D540" s="40"/>
+      <c r="E540" s="41"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="47" t="s">
+      <c r="A541" s="24" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="48"/>
-      <c r="C541" s="48"/>
-      <c r="D541" s="48"/>
-      <c r="E541" s="49"/>
+      <c r="B541" s="25"/>
+      <c r="C541" s="25"/>
+      <c r="D541" s="25"/>
+      <c r="E541" s="26"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -13839,12 +13839,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="50" t="s">
+      <c r="B544" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="51"/>
-      <c r="D544" s="51"/>
-      <c r="E544" s="52"/>
+      <c r="C544" s="28"/>
+      <c r="D544" s="28"/>
+      <c r="E544" s="29"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -13852,12 +13852,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="61" t="s">
+      <c r="B545" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="53"/>
-      <c r="D545" s="53"/>
-      <c r="E545" s="54"/>
+      <c r="C545" s="31"/>
+      <c r="D545" s="31"/>
+      <c r="E545" s="32"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -13865,33 +13865,28 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="55" t="s">
+      <c r="B546" s="33" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="56"/>
-      <c r="D546" s="56"/>
-      <c r="E546" s="57"/>
+      <c r="C546" s="34"/>
+      <c r="D546" s="34"/>
+      <c r="E546" s="35"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="58" t="s">
+      <c r="A547" s="36" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="59"/>
-      <c r="C547" s="59"/>
-      <c r="D547" s="59"/>
-      <c r="E547" s="59"/>
-      <c r="F547" s="59"/>
-      <c r="G547" s="60"/>
+      <c r="B547" s="37"/>
+      <c r="C547" s="37"/>
+      <c r="D547" s="37"/>
+      <c r="E547" s="37"/>
+      <c r="F547" s="37"/>
+      <c r="G547" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -13904,6 +13899,11 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -18,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$16:$G$538</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3892,8 +3893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G547"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$16:$G$538</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="991">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3572,21 +3571,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3610,6 +3594,21 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3893,8 +3892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3907,103 +3906,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4015,15 +4014,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5046,12 +5045,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -5423,7 +5422,9 @@
       <c r="E87" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F87" s="4"/>
+      <c r="F87" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5442,7 +5443,9 @@
       <c r="E88" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F88" s="4"/>
+      <c r="F88" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13797,24 +13800,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="39" t="s">
+      <c r="A540" s="24" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="40"/>
-      <c r="C540" s="40"/>
-      <c r="D540" s="40"/>
-      <c r="E540" s="41"/>
+      <c r="B540" s="25"/>
+      <c r="C540" s="25"/>
+      <c r="D540" s="25"/>
+      <c r="E540" s="26"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="24" t="s">
+      <c r="A541" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="25"/>
-      <c r="C541" s="25"/>
-      <c r="D541" s="25"/>
-      <c r="E541" s="26"/>
+      <c r="B541" s="48"/>
+      <c r="C541" s="48"/>
+      <c r="D541" s="48"/>
+      <c r="E541" s="49"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -13840,12 +13843,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="27" t="s">
+      <c r="B544" s="50" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="28"/>
-      <c r="D544" s="28"/>
-      <c r="E544" s="29"/>
+      <c r="C544" s="51"/>
+      <c r="D544" s="51"/>
+      <c r="E544" s="52"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -13853,12 +13856,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="30" t="s">
+      <c r="B545" s="53" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="31"/>
-      <c r="D545" s="31"/>
-      <c r="E545" s="32"/>
+      <c r="C545" s="54"/>
+      <c r="D545" s="54"/>
+      <c r="E545" s="55"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -13866,28 +13869,33 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="33" t="s">
+      <c r="B546" s="56" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="34"/>
-      <c r="D546" s="34"/>
-      <c r="E546" s="35"/>
+      <c r="C546" s="57"/>
+      <c r="D546" s="57"/>
+      <c r="E546" s="58"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="36" t="s">
+      <c r="A547" s="59" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="37"/>
-      <c r="C547" s="37"/>
-      <c r="D547" s="37"/>
-      <c r="E547" s="37"/>
-      <c r="F547" s="37"/>
-      <c r="G547" s="38"/>
+      <c r="B547" s="60"/>
+      <c r="C547" s="60"/>
+      <c r="D547" s="60"/>
+      <c r="E547" s="60"/>
+      <c r="F547" s="60"/>
+      <c r="G547" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -13900,11 +13908,6 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="991">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3571,6 +3571,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3594,21 +3609,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3892,8 +3892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3906,103 +3906,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4014,15 +4014,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5045,12 +5045,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -5464,7 +5464,9 @@
       <c r="E89" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="4"/>
+      <c r="F89" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13800,24 +13802,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="24" t="s">
+      <c r="A540" s="39" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="25"/>
-      <c r="C540" s="25"/>
-      <c r="D540" s="25"/>
-      <c r="E540" s="26"/>
+      <c r="B540" s="40"/>
+      <c r="C540" s="40"/>
+      <c r="D540" s="40"/>
+      <c r="E540" s="41"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="47" t="s">
+      <c r="A541" s="24" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="48"/>
-      <c r="C541" s="48"/>
-      <c r="D541" s="48"/>
-      <c r="E541" s="49"/>
+      <c r="B541" s="25"/>
+      <c r="C541" s="25"/>
+      <c r="D541" s="25"/>
+      <c r="E541" s="26"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -13843,12 +13845,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="50" t="s">
+      <c r="B544" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="51"/>
-      <c r="D544" s="51"/>
-      <c r="E544" s="52"/>
+      <c r="C544" s="28"/>
+      <c r="D544" s="28"/>
+      <c r="E544" s="29"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -13856,12 +13858,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="53" t="s">
+      <c r="B545" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="54"/>
-      <c r="D545" s="54"/>
-      <c r="E545" s="55"/>
+      <c r="C545" s="31"/>
+      <c r="D545" s="31"/>
+      <c r="E545" s="32"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -13869,33 +13871,28 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="56" t="s">
+      <c r="B546" s="33" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="57"/>
-      <c r="D546" s="57"/>
-      <c r="E546" s="58"/>
+      <c r="C546" s="34"/>
+      <c r="D546" s="34"/>
+      <c r="E546" s="35"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="59" t="s">
+      <c r="A547" s="36" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="60"/>
-      <c r="C547" s="60"/>
-      <c r="D547" s="60"/>
-      <c r="E547" s="60"/>
-      <c r="F547" s="60"/>
-      <c r="G547" s="61"/>
+      <c r="B547" s="37"/>
+      <c r="C547" s="37"/>
+      <c r="D547" s="37"/>
+      <c r="E547" s="37"/>
+      <c r="F547" s="37"/>
+      <c r="G547" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -13908,6 +13905,11 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="992">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3057,6 +3057,9 @@
   </si>
   <si>
     <t>Selva</t>
+  </si>
+  <si>
+    <t>QP 11 same</t>
   </si>
 </sst>
 </file>
@@ -3571,21 +3574,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3609,6 +3597,21 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3892,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3906,103 +3909,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4014,15 +4017,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5045,12 +5048,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -5485,7 +5488,9 @@
       <c r="E90" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F90" s="4"/>
+      <c r="F90" s="21" t="s">
+        <v>987</v>
+      </c>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5504,8 +5509,12 @@
       <c r="E91" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="F91" s="21" t="s">
+        <v>987</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="92" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
@@ -13802,24 +13811,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="39" t="s">
+      <c r="A540" s="24" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="40"/>
-      <c r="C540" s="40"/>
-      <c r="D540" s="40"/>
-      <c r="E540" s="41"/>
+      <c r="B540" s="25"/>
+      <c r="C540" s="25"/>
+      <c r="D540" s="25"/>
+      <c r="E540" s="26"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="24" t="s">
+      <c r="A541" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="25"/>
-      <c r="C541" s="25"/>
-      <c r="D541" s="25"/>
-      <c r="E541" s="26"/>
+      <c r="B541" s="48"/>
+      <c r="C541" s="48"/>
+      <c r="D541" s="48"/>
+      <c r="E541" s="49"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -13845,12 +13854,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="27" t="s">
+      <c r="B544" s="50" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="28"/>
-      <c r="D544" s="28"/>
-      <c r="E544" s="29"/>
+      <c r="C544" s="51"/>
+      <c r="D544" s="51"/>
+      <c r="E544" s="52"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -13858,12 +13867,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="30" t="s">
+      <c r="B545" s="53" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="31"/>
-      <c r="D545" s="31"/>
-      <c r="E545" s="32"/>
+      <c r="C545" s="54"/>
+      <c r="D545" s="54"/>
+      <c r="E545" s="55"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -13871,28 +13880,33 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="33" t="s">
+      <c r="B546" s="56" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="34"/>
-      <c r="D546" s="34"/>
-      <c r="E546" s="35"/>
+      <c r="C546" s="57"/>
+      <c r="D546" s="57"/>
+      <c r="E546" s="58"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="36" t="s">
+      <c r="A547" s="59" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="37"/>
-      <c r="C547" s="37"/>
-      <c r="D547" s="37"/>
-      <c r="E547" s="37"/>
-      <c r="F547" s="37"/>
-      <c r="G547" s="38"/>
+      <c r="B547" s="60"/>
+      <c r="C547" s="60"/>
+      <c r="D547" s="60"/>
+      <c r="E547" s="60"/>
+      <c r="F547" s="60"/>
+      <c r="G547" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -13905,11 +13919,6 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -3574,6 +3574,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3597,21 +3612,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3895,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3909,103 +3909,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4017,15 +4017,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5048,12 +5048,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -13811,24 +13811,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="24" t="s">
+      <c r="A540" s="39" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="25"/>
-      <c r="C540" s="25"/>
-      <c r="D540" s="25"/>
-      <c r="E540" s="26"/>
+      <c r="B540" s="40"/>
+      <c r="C540" s="40"/>
+      <c r="D540" s="40"/>
+      <c r="E540" s="41"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="47" t="s">
+      <c r="A541" s="24" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="48"/>
-      <c r="C541" s="48"/>
-      <c r="D541" s="48"/>
-      <c r="E541" s="49"/>
+      <c r="B541" s="25"/>
+      <c r="C541" s="25"/>
+      <c r="D541" s="25"/>
+      <c r="E541" s="26"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -13854,12 +13854,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="50" t="s">
+      <c r="B544" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="51"/>
-      <c r="D544" s="51"/>
-      <c r="E544" s="52"/>
+      <c r="C544" s="28"/>
+      <c r="D544" s="28"/>
+      <c r="E544" s="29"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -13867,12 +13867,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="53" t="s">
+      <c r="B545" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="54"/>
-      <c r="D545" s="54"/>
-      <c r="E545" s="55"/>
+      <c r="C545" s="31"/>
+      <c r="D545" s="31"/>
+      <c r="E545" s="32"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -13880,33 +13880,28 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="56" t="s">
+      <c r="B546" s="33" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="57"/>
-      <c r="D546" s="57"/>
-      <c r="E546" s="58"/>
+      <c r="C546" s="34"/>
+      <c r="D546" s="34"/>
+      <c r="E546" s="35"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="59" t="s">
+      <c r="A547" s="36" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="60"/>
-      <c r="C547" s="60"/>
-      <c r="D547" s="60"/>
-      <c r="E547" s="60"/>
-      <c r="F547" s="60"/>
-      <c r="G547" s="61"/>
+      <c r="B547" s="37"/>
+      <c r="C547" s="37"/>
+      <c r="D547" s="37"/>
+      <c r="E547" s="37"/>
+      <c r="F547" s="37"/>
+      <c r="G547" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -13919,6 +13914,11 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>

--- a/interview problems.xlsx
+++ b/interview problems.xlsx
@@ -3574,21 +3574,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3612,6 +3597,21 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3895,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3909,103 +3909,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -4017,15 +4017,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5048,12 +5048,12 @@
       <c r="A66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -13811,24 +13811,24 @@
       <c r="G539" s="12"/>
     </row>
     <row r="540" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="39" t="s">
+      <c r="A540" s="24" t="s">
         <v>975</v>
       </c>
-      <c r="B540" s="40"/>
-      <c r="C540" s="40"/>
-      <c r="D540" s="40"/>
-      <c r="E540" s="41"/>
+      <c r="B540" s="25"/>
+      <c r="C540" s="25"/>
+      <c r="D540" s="25"/>
+      <c r="E540" s="26"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
     <row r="541" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="24" t="s">
+      <c r="A541" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="B541" s="25"/>
-      <c r="C541" s="25"/>
-      <c r="D541" s="25"/>
-      <c r="E541" s="26"/>
+      <c r="B541" s="48"/>
+      <c r="C541" s="48"/>
+      <c r="D541" s="48"/>
+      <c r="E541" s="49"/>
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
@@ -13854,12 +13854,12 @@
       <c r="A544" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B544" s="27" t="s">
+      <c r="B544" s="50" t="s">
         <v>977</v>
       </c>
-      <c r="C544" s="28"/>
-      <c r="D544" s="28"/>
-      <c r="E544" s="29"/>
+      <c r="C544" s="51"/>
+      <c r="D544" s="51"/>
+      <c r="E544" s="52"/>
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
@@ -13867,12 +13867,12 @@
       <c r="A545" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B545" s="30" t="s">
+      <c r="B545" s="53" t="s">
         <v>979</v>
       </c>
-      <c r="C545" s="31"/>
-      <c r="D545" s="31"/>
-      <c r="E545" s="32"/>
+      <c r="C545" s="54"/>
+      <c r="D545" s="54"/>
+      <c r="E545" s="55"/>
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
@@ -13880,28 +13880,33 @@
       <c r="A546" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B546" s="33" t="s">
+      <c r="B546" s="56" t="s">
         <v>981</v>
       </c>
-      <c r="C546" s="34"/>
-      <c r="D546" s="34"/>
-      <c r="E546" s="35"/>
+      <c r="C546" s="57"/>
+      <c r="D546" s="57"/>
+      <c r="E546" s="58"/>
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
     <row r="547" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="36" t="s">
+      <c r="A547" s="59" t="s">
         <v>982</v>
       </c>
-      <c r="B547" s="37"/>
-      <c r="C547" s="37"/>
-      <c r="D547" s="37"/>
-      <c r="E547" s="37"/>
-      <c r="F547" s="37"/>
-      <c r="G547" s="38"/>
+      <c r="B547" s="60"/>
+      <c r="C547" s="60"/>
+      <c r="D547" s="60"/>
+      <c r="E547" s="60"/>
+      <c r="F547" s="60"/>
+      <c r="G547" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="A547:G547"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:E2"/>
@@ -13914,11 +13919,6 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="B544:E544"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="A547:G547"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.youtube.com/@curiousfreaks_"/>
